--- a/data_prep/WB_Effort.xlsx
+++ b/data_prep/WB_Effort.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Western Basin Forage\lebs-western-basin-app\data_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16575"/>
   </bookViews>
   <sheets>
     <sheet name="Effort" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="62">
   <si>
     <t>serial</t>
   </si>
@@ -188,42 +191,6 @@
     <t>tow.dist.m</t>
   </si>
   <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1417</t>
-  </si>
-  <si>
-    <t>1508</t>
-  </si>
-  <si>
-    <t>1655</t>
-  </si>
-  <si>
-    <t>1318</t>
-  </si>
-  <si>
-    <t>1219</t>
-  </si>
-  <si>
-    <t>1413</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1035</t>
-  </si>
-  <si>
-    <t>1132</t>
-  </si>
-  <si>
-    <t>1225</t>
-  </si>
-  <si>
-    <t>1317</t>
-  </si>
-  <si>
     <t>0843</t>
   </si>
   <si>
@@ -236,64 +203,13 @@
     <t>0751</t>
   </si>
   <si>
-    <t>1103</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1715</t>
-  </si>
-  <si>
-    <t>1627</t>
-  </si>
-  <si>
-    <t>1033</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
     <t>0750</t>
-  </si>
-  <si>
-    <t>1544</t>
-  </si>
-  <si>
-    <t>1124</t>
   </si>
   <si>
     <t>0804</t>
   </si>
   <si>
     <t>0840</t>
-  </si>
-  <si>
-    <t>1444</t>
-  </si>
-  <si>
-    <t>1245</t>
-  </si>
-  <si>
-    <t>1456</t>
-  </si>
-  <si>
-    <t>1121</t>
-  </si>
-  <si>
-    <t>1349</t>
-  </si>
-  <si>
-    <t>1358</t>
-  </si>
-  <si>
-    <t>1208</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>1312</t>
   </si>
   <si>
     <t>fishing.depth.m</t>
@@ -335,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -345,10 +261,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -357,11 +269,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -420,9 +343,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -455,9 +378,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -637,29 +560,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P247"/>
+  <dimension ref="A1:N247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H211" sqref="H211"/>
+      <selection pane="bottomLeft" activeCell="F218" sqref="F218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -681,22 +604,22 @@
       <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>52</v>
       </c>
       <c r="M1" t="s">
@@ -727,29 +650,29 @@
       <c r="F2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="9">
         <v>1535</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>5.1816000000000004</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>929.54964566642593</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <v>4275.9283700655587</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="5">
         <v>0.42759283700655587</v>
       </c>
       <c r="M2">
-        <v>41.763750000000002</v>
+        <v>41.780549999999998</v>
       </c>
       <c r="N2">
-        <v>-83.346149999999994</v>
+        <v>-83.347767000000005</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -773,29 +696,29 @@
       <c r="F3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="9">
         <v>1620</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>7.9248000000000003</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>937.94936534611077</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <v>4783.5417632651643</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>0.47835417632651644</v>
       </c>
       <c r="M3">
-        <v>41.763379999999998</v>
+        <v>41.780067000000003</v>
       </c>
       <c r="N3">
-        <v>-83.249870000000001</v>
+        <v>-83.249449999999996</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -819,29 +742,29 @@
       <c r="F4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="9">
         <v>1435</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>8.2295999999999996</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>963.90943246823929</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>4915.9381055880203</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>0.49159381055880208</v>
       </c>
       <c r="M4">
-        <v>41.863399999999999</v>
+        <v>41.881067000000002</v>
       </c>
       <c r="N4">
-        <v>-83.249930000000006</v>
+        <v>-83.249549999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -865,29 +788,29 @@
       <c r="F5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="9">
         <v>1640</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>7.62</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>5</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>943.8487494907215</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>4719.2437474536073</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>0.47192437474536075</v>
       </c>
       <c r="M5">
-        <v>41.663379999999997</v>
+        <v>41.679349999999999</v>
       </c>
       <c r="N5">
-        <v>-83.149799999999999</v>
+        <v>-83.149950000000004</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -911,29 +834,29 @@
       <c r="F6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="9">
         <v>1710</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>8.5343999999999998</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>5.2</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>917.95499853999002</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>4773.3659924079484</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>0.47733659924079486</v>
       </c>
       <c r="M6">
-        <v>41.76343</v>
+        <v>41.780166999999999</v>
       </c>
       <c r="N6">
-        <v>-83.149870000000007</v>
+        <v>-83.14855</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -957,29 +880,29 @@
       <c r="F7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="9">
         <v>1348</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>9.1440000000000001</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>5.4</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>965.73115127483186</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <v>5214.9482168840923</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>0.52149482168840922</v>
       </c>
       <c r="M7">
         <v>41.863430000000001</v>
       </c>
       <c r="N7">
-        <v>-83.149950000000004</v>
+        <v>-83.149050000000003</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1003,29 +926,29 @@
       <c r="F8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="9">
         <v>1257</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>7.0103999999999997</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>5.2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>978.10168187237798</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <v>5086.128745736366</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>0.50861287457363658</v>
       </c>
       <c r="M8">
-        <v>41.963470000000001</v>
+        <v>41.980617000000002</v>
       </c>
       <c r="N8">
-        <v>-83.149879999999996</v>
+        <v>-83.116600000000005</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1049,29 +972,29 @@
       <c r="F9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="9">
         <v>1540</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>9.1440000000000001</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>905.7442610190443</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>4619.2957311971259</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>0.46192957311971261</v>
       </c>
       <c r="M9">
-        <v>41.663269999999997</v>
+        <v>41.679482999999998</v>
       </c>
       <c r="N9">
-        <v>-83.049670000000006</v>
+        <v>-83.049666999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1095,29 +1018,29 @@
       <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="9">
         <v>1735</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>9.7536000000000005</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>915.87995958756937</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>4487.81180197909</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>0.44878118019790902</v>
       </c>
       <c r="M10">
-        <v>41.76343</v>
+        <v>41.781083000000002</v>
       </c>
       <c r="N10">
-        <v>-83.049899999999994</v>
+        <v>-83.047882999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1141,29 +1064,29 @@
       <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="9">
         <v>1110</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>10.058400000000001</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>5.3</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>981.64357520373244</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>5202.7109485797819</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>0.52027109485797818</v>
       </c>
       <c r="M11">
-        <v>41.868499999999997</v>
+        <v>41.867182999999997</v>
       </c>
       <c r="N11">
-        <v>-83.050929999999994</v>
+        <v>-83.051000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1187,29 +1110,29 @@
       <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="9">
         <v>1219</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>8.2295999999999996</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>5.4</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <v>979.94433181169279</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <v>5291.6993917831414</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="5">
         <v>0.52916993917831412</v>
       </c>
       <c r="M12">
-        <v>41.963149999999999</v>
+        <v>41.980767</v>
       </c>
       <c r="N12">
-        <v>-83.050669999999997</v>
+        <v>-83.050066999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1233,29 +1156,29 @@
       <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="9">
         <v>1255</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>7.0103999999999997</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <v>930.75873449828612</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <v>4560.7177990416021</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <v>0.45607177990416026</v>
       </c>
       <c r="M13">
-        <v>41.563470000000002</v>
+        <v>41.579932999999997</v>
       </c>
       <c r="N13">
-        <v>-82.950919999999996</v>
+        <v>-82.943217000000004</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1279,29 +1202,29 @@
       <c r="F14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="9">
         <v>1440</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>9.7536000000000005</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>5.2</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <v>968.18879850425014</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <v>5034.5817522221005</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <v>0.50345817522221004</v>
       </c>
       <c r="M14">
-        <v>41.664380000000001</v>
+        <v>41.6798</v>
       </c>
       <c r="N14">
-        <v>-82.950699999999998</v>
+        <v>-82.950666999999996</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1325,29 +1248,29 @@
       <c r="F15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="9">
         <v>1835</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <v>10.667999999999999</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>5</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <v>947.71531069104469</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <v>4738.5765534552238</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>0.47385765534552238</v>
       </c>
       <c r="M15">
-        <v>41.762749999999997</v>
+        <v>41.779916999999998</v>
       </c>
       <c r="N15">
-        <v>-82.950379999999996</v>
+        <v>-82.949349999999995</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1371,29 +1294,29 @@
       <c r="F16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="9">
         <v>1020</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>10.363200000000001</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <v>5.2</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>993.43307969847456</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <v>5165.8520144320682</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <v>0.51658520144320685</v>
       </c>
       <c r="M16">
-        <v>41.863570000000003</v>
+        <v>41.867400000000004</v>
       </c>
       <c r="N16">
-        <v>-82.950180000000003</v>
+        <v>-82.951283000000004</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1417,29 +1340,29 @@
       <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="9">
         <v>1402</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>10.058400000000001</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <v>949.73288375926109</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <v>4843.6377071722309</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <v>0.48436377071722309</v>
       </c>
       <c r="M17">
-        <v>41.6633</v>
+        <v>41.672882999999999</v>
       </c>
       <c r="N17">
-        <v>-82.850120000000004</v>
+        <v>-82.851866999999999</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1463,29 +1386,29 @@
       <c r="F18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="5">
         <v>10.667999999999999</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="7">
         <v>5.3</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <v>930.81543780888239</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <v>4933.3218203870765</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <v>0.49333218203870766</v>
       </c>
       <c r="M18">
-        <v>41.762920000000001</v>
+        <v>41.780433000000002</v>
       </c>
       <c r="N18">
-        <v>-82.849500000000006</v>
+        <v>-82.849783000000002</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1509,29 +1432,29 @@
       <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <v>11.2776</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="5">
         <v>941.36121338973987</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <v>4800.9421882876732</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <v>0.48009421882876735</v>
       </c>
       <c r="M19">
-        <v>41.863250000000001</v>
+        <v>41.868217000000001</v>
       </c>
       <c r="N19">
-        <v>-82.850099999999998</v>
+        <v>-82.848766999999995</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1555,29 +1478,29 @@
       <c r="F20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="9">
         <v>1038</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <v>9.1440000000000001</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="7">
         <v>5</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="5">
         <v>933.02502124407738</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <v>4665.1251062203864</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="5">
         <v>0.46651251062203869</v>
       </c>
       <c r="M20">
-        <v>41.96367</v>
+        <v>41.980367000000001</v>
       </c>
       <c r="N20">
-        <v>-82.850300000000004</v>
+        <v>-82.849582999999996</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1601,29 +1524,29 @@
       <c r="F21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="9">
         <v>1130</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="5">
         <v>7.62</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="5">
         <v>910.25985993448205</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="5">
         <v>4642.3252856658582</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="5">
         <v>0.46423252856658587</v>
       </c>
       <c r="M21">
-        <v>41.563420000000001</v>
+        <v>41.580117000000001</v>
       </c>
       <c r="N21">
-        <v>-82.750519999999995</v>
+        <v>-82.747950000000003</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1647,29 +1570,29 @@
       <c r="F22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <v>10.363200000000001</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="7">
         <v>5.6</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="5">
         <v>921.56150034583686</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="5">
         <v>5160.7444019366858</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="5">
         <v>0.51607444019366855</v>
       </c>
       <c r="M22">
-        <v>41.663179999999997</v>
+        <v>41.680300000000003</v>
       </c>
       <c r="N22">
-        <v>-82.749970000000005</v>
+        <v>-82.750467</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1693,29 +1616,29 @@
       <c r="F23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>10.058400000000001</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="7">
         <v>6.4</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <v>957.42483396454975</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="5">
         <v>6127.5189373731191</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="5">
         <v>0.61275189373731198</v>
       </c>
       <c r="M23">
-        <v>41.76323</v>
+        <v>41.779383000000003</v>
       </c>
       <c r="N23">
-        <v>-82.749780000000001</v>
+        <v>-82.750183000000007</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1739,29 +1662,29 @@
       <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="G24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="5">
         <v>11.8872</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="7">
         <v>5.4</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <v>985.57845588618511</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="5">
         <v>5322.1236617854001</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="5">
         <v>0.53221236617854006</v>
       </c>
       <c r="M24">
-        <v>41.863199999999999</v>
+        <v>41.866833</v>
       </c>
       <c r="N24">
-        <v>-82.749849999999995</v>
+        <v>-82.749899999999997</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1785,29 +1708,29 @@
       <c r="F25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="9">
         <v>1125</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <v>10.667999999999999</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="7">
         <v>5.3</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="5">
         <v>897.79294281353452</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="5">
         <v>4758.3025969117325</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="5">
         <v>0.47583025969117326</v>
       </c>
       <c r="M25">
-        <v>41.963299999999997</v>
+        <v>41.980083</v>
       </c>
       <c r="N25">
-        <v>-82.753100000000003</v>
+        <v>-82.750200000000007</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1831,29 +1754,29 @@
       <c r="F26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="9">
         <v>1038</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <v>13.258800000000001</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="7">
         <v>5.7</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="5">
         <v>959.97630213506989</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="5">
         <v>5471.8649221698988</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <v>0.54718649221698989</v>
       </c>
       <c r="M26">
-        <v>41.563429999999997</v>
+        <v>41.579500000000003</v>
       </c>
       <c r="N26">
-        <v>-82.650720000000007</v>
+        <v>-82.64255</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1877,29 +1800,29 @@
       <c r="F27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="9">
         <v>1630</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <v>10.667999999999999</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <v>5.5</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <v>947.19803830577382</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="5">
         <v>5209.5892106817564</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <v>0.52095892106817565</v>
       </c>
       <c r="M27">
-        <v>41.663420000000002</v>
+        <v>41.679467000000002</v>
       </c>
       <c r="N27">
-        <v>-82.654669999999996</v>
+        <v>-82.649167000000006</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1923,29 +1846,29 @@
       <c r="F28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="9">
         <v>1300</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="5">
         <v>11.5824</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="7">
         <v>5.8</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="5">
         <v>930.23854872341622</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="5">
         <v>5395.383582595814</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="5">
         <v>0.53953835825958141</v>
       </c>
       <c r="M28">
-        <v>41.863329999999998</v>
+        <v>41.881082999999997</v>
       </c>
       <c r="N28">
-        <v>-82.650069999999999</v>
+        <v>-82.649732999999998</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1969,29 +1892,29 @@
       <c r="F29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="9">
         <v>1210</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="5">
         <v>10.667999999999999</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="5">
         <v>921.71998896662069</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="5">
         <v>4700.7719437297656</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="5">
         <v>0.47007719437297657</v>
       </c>
       <c r="M29">
-        <v>41.963419999999999</v>
+        <v>41.9801</v>
       </c>
       <c r="N29">
-        <v>-82.650019999999998</v>
+        <v>-82.649782999999999</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2015,29 +1938,29 @@
       <c r="F30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="5">
         <v>13.106400000000001</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="7">
         <v>5.3</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="5">
         <v>891.74437226898942</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="5">
         <v>4726.2451730256435</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="5">
         <v>0.47262451730256438</v>
       </c>
       <c r="M30">
-        <v>41.463470000000001</v>
+        <v>41.479416999999998</v>
       </c>
       <c r="N30">
-        <v>-82.550250000000005</v>
+        <v>-82.550749999999994</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2061,29 +1984,29 @@
       <c r="F31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="5">
         <v>13.411199999999999</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="7">
         <v>5.5</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="5">
         <v>919.34775909749021</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="5">
         <v>5056.4126750361966</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="5">
         <v>0.50564126750361971</v>
       </c>
       <c r="M31">
-        <v>41.563319999999997</v>
+        <v>41.577367000000002</v>
       </c>
       <c r="N31">
-        <v>-82.550349999999995</v>
+        <v>-82.551550000000006</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2107,29 +2030,29 @@
       <c r="F32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>13.106400000000001</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="7">
         <v>5.4</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="5">
         <v>920.84813074593887</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="5">
         <v>4972.5799060280706</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="5">
         <v>0.49725799060280707</v>
       </c>
       <c r="M32">
-        <v>41.659820000000003</v>
+        <v>41.680382999999999</v>
       </c>
       <c r="N32">
-        <v>-82.549880000000002</v>
+        <v>-82.549250000000001</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2153,29 +2076,29 @@
       <c r="F33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="9">
         <v>1532</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="5">
         <v>10.667999999999999</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="7">
         <v>5.3</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="5">
         <v>944.50447197381322</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="5">
         <v>5005.8737014612097</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="5">
         <v>0.50058737014612098</v>
       </c>
       <c r="M33">
-        <v>41.76632</v>
+        <v>41.780633000000002</v>
       </c>
       <c r="N33">
-        <v>-82.550449999999998</v>
+        <v>-82.550233000000006</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2199,29 +2122,29 @@
       <c r="F34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="9">
         <v>1349</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="5">
         <v>11.8872</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="7">
         <v>5.5</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="5">
         <v>937.22010049887558</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="5">
         <v>5154.7105527438162</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="5">
         <v>0.51547105527438164</v>
       </c>
       <c r="M34">
-        <v>41.863500000000002</v>
+        <v>41.866399999999999</v>
       </c>
       <c r="N34">
-        <v>-82.550020000000004</v>
+        <v>-82.532550000000001</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2245,29 +2168,29 @@
       <c r="F35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="9">
         <v>1640</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="5">
         <v>14.020799999999999</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="7">
         <v>5.6</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="5">
         <v>934.33050959743105</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="5">
         <v>5232.2508537456133</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="5">
         <v>0.52322508537456136</v>
       </c>
       <c r="M35">
-        <v>41.463329999999999</v>
+        <v>41.480016999999997</v>
       </c>
       <c r="N35">
-        <v>-82.447069999999997</v>
+        <v>-82.449832999999998</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2291,29 +2214,29 @@
       <c r="F36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="9">
         <v>1200</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="5">
         <v>14.6304</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <v>5.8</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="5">
         <v>1123.8539843365377</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="5">
         <v>6518.353109151918</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="5">
         <v>0.65183531091519187</v>
       </c>
       <c r="M36">
-        <v>41.563920000000003</v>
+        <v>41.579282999999997</v>
       </c>
       <c r="N36">
-        <v>-82.452699999999993</v>
+        <v>-82.450567000000007</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2337,29 +2260,29 @@
       <c r="F37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="9">
         <v>1005</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="5">
         <v>14.020799999999999</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="7">
         <v>5.9</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="5">
         <v>905.0839353774121</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="5">
         <v>5339.9952187267318</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="5">
         <v>0.53399952187267319</v>
       </c>
       <c r="M37">
-        <v>41.663350000000001</v>
+        <v>41.680100000000003</v>
       </c>
       <c r="N37">
-        <v>-82.453919999999997</v>
+        <v>-82.450017000000003</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2383,29 +2306,29 @@
       <c r="F38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="9">
         <v>1450</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="5">
         <v>13.106400000000001</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="7">
         <v>5.5</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="5">
         <v>946.45121473443453</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="5">
         <v>5205.4816810393895</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="5">
         <v>0.520548168103939</v>
       </c>
       <c r="M38">
-        <v>41.764749999999999</v>
+        <v>41.779499999999999</v>
       </c>
       <c r="N38">
-        <v>-82.449520000000007</v>
+        <v>-82.448817000000005</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2429,29 +2352,29 @@
       <c r="F39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="9">
         <v>1550</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="5">
         <v>14.020799999999999</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="7">
         <v>5.7</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="5">
         <v>1040.5808889154512</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="5">
         <v>5931.3110668180716</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="5">
         <v>0.59313110668180724</v>
       </c>
       <c r="M39">
-        <v>41.463329999999999</v>
+        <v>41.480849999999997</v>
       </c>
       <c r="N39">
-        <v>-82.34693</v>
+        <v>-82.351016999999999</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2475,29 +2398,29 @@
       <c r="F40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="9">
         <v>1252</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="5">
         <v>14.6304</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="7">
         <v>6.2</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="5">
         <v>1021.0087912270633</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="5">
         <v>6330.2545056077925</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="5">
         <v>0.6330254505607793</v>
       </c>
       <c r="M40">
-        <v>41.564480000000003</v>
+        <v>41.579799999999999</v>
       </c>
       <c r="N40">
-        <v>-82.351749999999996</v>
+        <v>-82.349867000000003</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -2521,29 +2444,29 @@
       <c r="F41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="9">
         <v>1055</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="5">
         <v>14.6304</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="7">
         <v>5.5</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="5">
         <v>934.07880176732544</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="5">
         <v>5137.43340972029</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="5">
         <v>0.51374334097202901</v>
       </c>
       <c r="M41">
-        <v>41.66545</v>
+        <v>41.679482999999998</v>
       </c>
       <c r="N41">
-        <v>-82.348699999999994</v>
+        <v>-82.347733000000005</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -2567,29 +2490,29 @@
       <c r="F42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="9">
         <v>1415</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="5">
         <v>13.411199999999999</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="7">
         <v>5.5</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="5">
         <v>966.53770824028413</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="5">
         <v>5315.9573953215631</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="5">
         <v>0.53159573953215633</v>
       </c>
       <c r="M42">
-        <v>41.462919999999997</v>
+        <v>41.480867000000003</v>
       </c>
       <c r="N42">
-        <v>-82.249120000000005</v>
+        <v>-82.250900000000001</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2613,22 +2536,22 @@
       <c r="F43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="9">
         <v>1451</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="5">
         <v>3.9624000000000001</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="7">
         <v>4.7</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="5">
         <v>865.21606738629362</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="5">
         <v>4066.5155167155804</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="5">
         <v>0.40665155167155803</v>
       </c>
       <c r="M43">
@@ -2659,29 +2582,29 @@
       <c r="F44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="9">
         <v>1408</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="5">
         <v>6.4008000000000003</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="7">
         <v>5</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="5">
         <v>988.04470537121858</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="5">
         <v>4940.2235268560926</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="5">
         <v>0.49402235268560929</v>
       </c>
       <c r="M44">
-        <v>41.763379999999998</v>
+        <v>41.763383330000003</v>
       </c>
       <c r="N44">
-        <v>-83.249870000000001</v>
+        <v>-83.249866670000003</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2705,29 +2628,29 @@
       <c r="F45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="9">
         <v>1552</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="5">
         <v>6.7055999999999996</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="7">
         <v>4.8</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="5">
         <v>906.83129258743247</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="5">
         <v>4352.7902044196753</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="5">
         <v>0.43527902044196753</v>
       </c>
       <c r="M45">
         <v>41.863399999999999</v>
       </c>
       <c r="N45">
-        <v>-83.249930000000006</v>
+        <v>-83.249933330000005</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2751,26 +2674,26 @@
       <c r="F46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="9">
         <v>1011</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="5">
         <v>5.1816000000000004</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="7">
         <v>4.7</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="5">
         <v>732.33275230303138</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="5">
         <v>3441.9639358242475</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="5">
         <v>0.34419639358242476</v>
       </c>
       <c r="M46">
-        <v>41.663379999999997</v>
+        <v>41.663383330000002</v>
       </c>
       <c r="N46">
         <v>-83.149799999999999</v>
@@ -2797,29 +2720,29 @@
       <c r="F47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="9">
         <v>1321</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="5">
         <v>7.62</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="5">
         <v>937.07088468116365</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="5">
         <v>4779.0615118739343</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="5">
         <v>0.47790615118739344</v>
       </c>
       <c r="M47">
-        <v>41.76343</v>
+        <v>41.763433329999998</v>
       </c>
       <c r="N47">
-        <v>-83.149870000000007</v>
+        <v>-83.149866669999994</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2843,26 +2766,26 @@
       <c r="F48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="9">
         <v>1636</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="5">
         <v>8.5343999999999998</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="7">
         <v>4.8</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="5">
         <v>964.65614435200803</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="5">
         <v>4630.349492889638</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="5">
         <v>0.46303494928896383</v>
       </c>
       <c r="M48">
-        <v>41.863430000000001</v>
+        <v>41.863433329999999</v>
       </c>
       <c r="N48">
         <v>-83.149950000000004</v>
@@ -2889,29 +2812,29 @@
       <c r="F49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="9">
         <v>1733</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="5">
         <v>5.7911999999999999</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="5">
         <v>932.44385638543872</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="5">
         <v>4289.2417393730175</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="5">
         <v>0.42892417393730176</v>
       </c>
       <c r="M49">
-        <v>41.963470000000001</v>
+        <v>41.963466670000003</v>
       </c>
       <c r="N49">
-        <v>-83.149879999999996</v>
+        <v>-83.149883329999994</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -2935,29 +2858,29 @@
       <c r="F50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="7">
+      <c r="G50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="5">
         <v>5.6387999999999998</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="5">
         <v>944.83894551805372</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="5">
         <v>4157.291360279437</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="5">
         <v>0.4157291360279437</v>
       </c>
       <c r="M50">
-        <v>41.663269999999997</v>
+        <v>41.663266669999999</v>
       </c>
       <c r="N50">
-        <v>-83.049670000000006</v>
+        <v>-83.049666669999993</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -2981,29 +2904,29 @@
       <c r="F51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="9">
         <v>2028</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="5">
         <v>9.1440000000000001</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="7">
         <v>5</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="5">
         <v>946.14114077692523</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="5">
         <v>4730.705703884626</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="5">
         <v>0.47307057038846262</v>
       </c>
       <c r="M51">
-        <v>41.76343</v>
+        <v>41.761316669999999</v>
       </c>
       <c r="N51">
-        <v>-83.049899999999994</v>
+        <v>-83.060016669999996</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -3027,29 +2950,29 @@
       <c r="F52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="9">
         <v>1918</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="5">
         <v>8.8391999999999999</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="5">
         <v>881.42377353192876</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K52" s="5">
         <v>4495.2612450128363</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="5">
         <v>0.44952612450128365</v>
       </c>
       <c r="M52">
         <v>41.868499999999997</v>
       </c>
       <c r="N52">
-        <v>-83.050929999999994</v>
+        <v>-83.050933330000007</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -3073,29 +2996,29 @@
       <c r="F53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="9">
         <v>1828</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="5">
         <v>7.9248000000000003</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="7">
         <v>5.2</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="5">
         <v>901.20336530864142</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53" s="5">
         <v>4686.2574996049352</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="5">
         <v>0.46862574996049355</v>
       </c>
       <c r="M53">
         <v>41.963149999999999</v>
       </c>
       <c r="N53">
-        <v>-83.050669999999997</v>
+        <v>-83.050666669999998</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -3119,29 +3042,29 @@
       <c r="F54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="9">
         <v>1247</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="5">
         <v>4.8768000000000002</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="7">
         <v>4.7</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="5">
         <v>901.39127296910954</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="5">
         <v>4236.5389829548149</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="5">
         <v>0.4236538982954815</v>
       </c>
       <c r="M54">
-        <v>41.563470000000002</v>
+        <v>41.563466669999997</v>
       </c>
       <c r="N54">
-        <v>-82.950919999999996</v>
+        <v>-82.950916669999998</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3165,26 +3088,26 @@
       <c r="F55" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="9">
         <v>1350</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="5">
         <v>7.9248000000000003</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="7">
         <v>5</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="5">
         <v>938.18112554500999</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="5">
         <v>4690.9056277250502</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="5">
         <v>0.46909056277250505</v>
       </c>
       <c r="M55">
-        <v>41.664380000000001</v>
+        <v>41.66438333</v>
       </c>
       <c r="N55">
         <v>-82.950699999999998</v>
@@ -3211,29 +3134,29 @@
       <c r="F56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="9">
         <v>1456</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="5">
         <v>9.1440000000000001</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="7">
         <v>5.4</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="5">
         <v>941.1377465838641</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="5">
         <v>5082.1438315528667</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="5">
         <v>0.50821438315528666</v>
       </c>
       <c r="M56">
         <v>41.762749999999997</v>
       </c>
       <c r="N56">
-        <v>-82.950379999999996</v>
+        <v>-82.950383329999994</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -3257,29 +3180,29 @@
       <c r="F57" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="9">
         <v>1603</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="5">
         <v>9.4488000000000003</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="7">
         <v>5.5</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="5">
         <v>889.95938590582114</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="5">
         <v>4894.7766224820161</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="5">
         <v>0.48947766224820166</v>
       </c>
       <c r="M57">
-        <v>41.863570000000003</v>
+        <v>41.863566669999997</v>
       </c>
       <c r="N57">
-        <v>-82.950180000000003</v>
+        <v>-82.950183330000002</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3303,29 +3226,29 @@
       <c r="F58" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="5">
         <v>8.8391999999999999</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="7">
         <v>5</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="5">
         <v>943.94735555798536</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="5">
         <v>4719.7367777899271</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="5">
         <v>0.47197367777899274</v>
       </c>
       <c r="M58">
         <v>41.6633</v>
       </c>
       <c r="N58">
-        <v>-82.850120000000004</v>
+        <v>-82.850116670000006</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3349,26 +3272,26 @@
       <c r="F59" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="9">
         <v>1518</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="5">
         <v>9.1440000000000001</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="7">
         <v>5</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="5">
         <v>947.99129716812809</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59" s="5">
         <v>4739.9564858406402</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="5">
         <v>0.47399564858406407</v>
       </c>
       <c r="M59">
-        <v>41.762920000000001</v>
+        <v>41.762916670000003</v>
       </c>
       <c r="N59">
         <v>-82.849500000000006</v>
@@ -3395,22 +3318,22 @@
       <c r="F60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="9">
         <v>1654</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="5">
         <v>10.363200000000001</v>
       </c>
-      <c r="I60" s="9">
-        <v>6</v>
-      </c>
-      <c r="J60" s="7">
+      <c r="I60" s="7">
+        <v>6</v>
+      </c>
+      <c r="J60" s="5">
         <v>401.03072309071683</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K60" s="5">
         <v>2406.1843385443008</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="5">
         <v>0.24061843385443007</v>
       </c>
       <c r="M60">
@@ -3441,26 +3364,26 @@
       <c r="F61" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="9">
         <v>1349</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="5">
         <v>8.8391999999999999</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="7">
         <v>5.4</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="5">
         <v>901.3179666326406</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K61" s="5">
         <v>4867.1170198162599</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L61" s="5">
         <v>0.486711701981626</v>
       </c>
       <c r="M61">
-        <v>41.96367</v>
+        <v>41.963666670000002</v>
       </c>
       <c r="N61">
         <v>-82.850300000000004</v>
@@ -3487,29 +3410,29 @@
       <c r="F62" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="9">
         <v>1128</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="5">
         <v>7.0103999999999997</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="7">
         <v>5</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="5">
         <v>897.64552008812302</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K62" s="5">
         <v>4488.2276004406149</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62" s="5">
         <v>0.44882276004406152</v>
       </c>
       <c r="M62">
-        <v>41.563420000000001</v>
+        <v>41.563416670000002</v>
       </c>
       <c r="N62">
-        <v>-82.750519999999995</v>
+        <v>-82.750516669999996</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -3533,29 +3456,29 @@
       <c r="F63" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="5">
         <v>9.1440000000000001</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="5">
         <v>940.67086313301479</v>
       </c>
-      <c r="K63" s="7">
+      <c r="K63" s="5">
         <v>4797.4214019783749</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="5">
         <v>0.47974214019783751</v>
       </c>
       <c r="M63">
-        <v>41.663179999999997</v>
+        <v>41.663183330000003</v>
       </c>
       <c r="N63">
-        <v>-82.749970000000005</v>
+        <v>-82.749966670000006</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -3579,29 +3502,29 @@
       <c r="F64" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="5">
         <v>6.0960000000000001</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="5">
         <v>914.7346087871598</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="5">
         <v>4482.1995830570831</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="5">
         <v>0.44821995830570832</v>
       </c>
       <c r="M64">
-        <v>41.76323</v>
+        <v>41.763233329999998</v>
       </c>
       <c r="N64">
-        <v>-82.749780000000001</v>
+        <v>-82.74978333</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3625,22 +3548,22 @@
       <c r="F65" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="5">
         <v>10.363200000000001</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="7">
         <v>5.2</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="5">
         <v>943.61278614963067</v>
       </c>
-      <c r="K65" s="7">
+      <c r="K65" s="5">
         <v>4906.78648797808</v>
       </c>
-      <c r="L65" s="7">
+      <c r="L65" s="5">
         <v>0.49067864879780804</v>
       </c>
       <c r="M65">
@@ -3671,22 +3594,22 @@
       <c r="F66" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="9">
         <v>1307</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="5">
         <v>9.7536000000000005</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="7">
         <v>5.3</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="5">
         <v>930.14513182923315</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K66" s="5">
         <v>4929.7691986949358</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L66" s="5">
         <v>0.4929769198694936</v>
       </c>
       <c r="M66">
@@ -3717,29 +3640,29 @@
       <c r="F67" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="9">
         <v>1032</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="5">
         <v>11.5824</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="7">
         <v>5.2</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="5">
         <v>1058.0984803596259</v>
       </c>
-      <c r="K67" s="7">
+      <c r="K67" s="5">
         <v>5502.1120978700546</v>
       </c>
-      <c r="L67" s="7">
+      <c r="L67" s="5">
         <v>0.55021120978700544</v>
       </c>
       <c r="M67">
-        <v>41.563429999999997</v>
+        <v>41.563433330000002</v>
       </c>
       <c r="N67">
-        <v>-82.650720000000007</v>
+        <v>-82.650716669999994</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -3763,29 +3686,29 @@
       <c r="F68" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="5">
         <v>11.2776</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I68" s="7">
         <v>5.7</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="5">
         <v>948.08286989110627</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K68" s="5">
         <v>5404.072358379306</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L68" s="5">
         <v>0.5404072358379306</v>
       </c>
       <c r="M68">
-        <v>41.663420000000002</v>
+        <v>41.663416669999997</v>
       </c>
       <c r="N68">
-        <v>-82.654669999999996</v>
+        <v>-82.654666669999997</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -3809,29 +3732,29 @@
       <c r="F69" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="9">
         <v>1028</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="5">
         <v>10.363200000000001</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I69" s="7">
         <v>5.3</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="5">
         <v>803.29528493386556</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K69" s="5">
         <v>4257.4650101494872</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L69" s="5">
         <v>0.42574650101494876</v>
       </c>
       <c r="M69">
-        <v>41.863329999999998</v>
+        <v>41.863333330000003</v>
       </c>
       <c r="N69">
-        <v>-82.650069999999999</v>
+        <v>-82.650066670000001</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -3855,29 +3778,29 @@
       <c r="F70" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="9">
         <v>1225</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="5">
         <v>9.7536000000000005</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I70" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="5">
         <v>1002.2405096373611</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K70" s="5">
         <v>5111.4265991505417</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L70" s="5">
         <v>0.51114265991505414</v>
       </c>
       <c r="M70">
-        <v>41.963419999999999</v>
+        <v>41.963416670000001</v>
       </c>
       <c r="N70">
-        <v>-82.650019999999998</v>
+        <v>-82.650016669999999</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -3901,26 +3824,26 @@
       <c r="F71" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="5">
         <v>11.5824</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I71" s="7">
         <v>5.4</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="5">
         <v>965.60955957757596</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K71" s="5">
         <v>5214.2916217189104</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71" s="5">
         <v>0.52142916217189106</v>
       </c>
       <c r="M71">
-        <v>41.463470000000001</v>
+        <v>41.463466670000003</v>
       </c>
       <c r="N71">
         <v>-82.550250000000005</v>
@@ -3947,26 +3870,26 @@
       <c r="F72" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="5">
         <v>12.405360000000002</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I72" s="7">
         <v>5.2</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="5">
         <v>950.86305201082678</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K72" s="5">
         <v>4944.4878704562998</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L72" s="5">
         <v>0.49444878704563</v>
       </c>
       <c r="M72">
-        <v>41.563319999999997</v>
+        <v>41.563316669999999</v>
       </c>
       <c r="N72">
         <v>-82.550349999999995</v>
@@ -3993,29 +3916,29 @@
       <c r="F73" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="5">
         <v>11.2776</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="7">
         <v>5.5</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="5">
         <v>942.44353195169003</v>
       </c>
-      <c r="K73" s="7">
+      <c r="K73" s="5">
         <v>5183.4394257342956</v>
       </c>
-      <c r="L73" s="7">
+      <c r="L73" s="5">
         <v>0.51834394257342953</v>
       </c>
       <c r="M73">
-        <v>41.659820000000003</v>
+        <v>41.659816669999998</v>
       </c>
       <c r="N73">
-        <v>-82.549880000000002</v>
+        <v>-82.54988333</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -4039,26 +3962,26 @@
       <c r="F74" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="5">
         <v>10.363200000000001</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I74" s="7">
         <v>5.4</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="5">
         <v>942.45259401232738</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K74" s="5">
         <v>5089.244007666568</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L74" s="5">
         <v>0.50892440076665679</v>
       </c>
       <c r="M74">
-        <v>41.76632</v>
+        <v>41.766316670000002</v>
       </c>
       <c r="N74">
         <v>-82.550449999999998</v>
@@ -4085,29 +4008,29 @@
       <c r="F75" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="9">
         <v>1116</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="5">
         <v>10.667999999999999</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="7">
         <v>5.3</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="5">
         <v>957.51962697400131</v>
       </c>
-      <c r="K75" s="7">
+      <c r="K75" s="5">
         <v>5074.8540229622067</v>
       </c>
-      <c r="L75" s="7">
+      <c r="L75" s="5">
         <v>0.50748540229622074</v>
       </c>
       <c r="M75">
         <v>41.863500000000002</v>
       </c>
       <c r="N75">
-        <v>-82.550020000000004</v>
+        <v>-82.550016670000005</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -4131,29 +4054,29 @@
       <c r="F76" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="9">
         <v>1550</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="5">
         <v>12.192</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I76" s="7">
         <v>5.7</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="5">
         <v>945.45864208856449</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K76" s="5">
         <v>5389.114259904818</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L76" s="5">
         <v>0.53891142599048181</v>
       </c>
       <c r="M76">
-        <v>41.463329999999999</v>
+        <v>41.463333329999998</v>
       </c>
       <c r="N76">
-        <v>-82.447069999999997</v>
+        <v>-82.447066669999998</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -4177,26 +4100,26 @@
       <c r="F77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="9">
         <v>1235</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="5">
         <v>13.106400000000001</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="7">
         <v>5.8</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J77" s="5">
         <v>968.11365502528986</v>
       </c>
-      <c r="K77" s="7">
+      <c r="K77" s="5">
         <v>5615.0591991466808</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L77" s="5">
         <v>0.56150591991466814</v>
       </c>
       <c r="M77">
-        <v>41.563920000000003</v>
+        <v>41.563916669999998</v>
       </c>
       <c r="N77">
         <v>-82.452699999999993</v>
@@ -4223,29 +4146,29 @@
       <c r="F78" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="9">
         <v>1047</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="5">
         <v>12.801600000000001</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I78" s="7">
         <v>5.5</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J78" s="5">
         <v>943.99187994113345</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K78" s="5">
         <v>5191.955339676234</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L78" s="5">
         <v>0.51919553396762341</v>
       </c>
       <c r="M78">
         <v>41.663350000000001</v>
       </c>
       <c r="N78">
-        <v>-82.453919999999997</v>
+        <v>-82.453916669999998</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -4269,29 +4192,29 @@
       <c r="F79" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H79" s="5">
         <v>11.8872</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="7">
         <v>5.5</v>
       </c>
-      <c r="J79" s="7">
+      <c r="J79" s="5">
         <v>936.37588578673888</v>
       </c>
-      <c r="K79" s="7">
+      <c r="K79" s="5">
         <v>5150.0673718270637</v>
       </c>
-      <c r="L79" s="7">
+      <c r="L79" s="5">
         <v>0.5150067371827064</v>
       </c>
       <c r="M79">
         <v>41.764749999999999</v>
       </c>
       <c r="N79">
-        <v>-82.449520000000007</v>
+        <v>-82.449516669999994</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -4315,29 +4238,29 @@
       <c r="F80" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="9">
         <v>1506</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="5">
         <v>11.8872</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I80" s="7">
         <v>5.3</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J80" s="5">
         <v>919.37039616675236</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K80" s="5">
         <v>4872.6630996837876</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L80" s="5">
         <v>0.48726630996837877</v>
       </c>
       <c r="M80">
-        <v>41.463329999999999</v>
+        <v>41.463333329999998</v>
       </c>
       <c r="N80">
-        <v>-82.34693</v>
+        <v>-82.346933329999999</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -4361,26 +4284,26 @@
       <c r="F81" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="9">
         <v>1320</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81" s="5">
         <v>13.106400000000001</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I81" s="7">
         <v>5.7</v>
       </c>
-      <c r="J81" s="7">
+      <c r="J81" s="5">
         <v>937.7074767601066</v>
       </c>
-      <c r="K81" s="7">
+      <c r="K81" s="5">
         <v>5344.9326175326078</v>
       </c>
-      <c r="L81" s="7">
+      <c r="L81" s="5">
         <v>0.53449326175326084</v>
       </c>
       <c r="M81">
-        <v>41.564480000000003</v>
+        <v>41.564483330000002</v>
       </c>
       <c r="N81">
         <v>-82.351749999999996</v>
@@ -4407,22 +4330,22 @@
       <c r="F82" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="9">
         <v>1133</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H82" s="5">
         <v>13.106400000000001</v>
       </c>
-      <c r="I82" s="9">
+      <c r="I82" s="7">
         <v>5.6</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J82" s="5">
         <v>967.43210116848422</v>
       </c>
-      <c r="K82" s="7">
+      <c r="K82" s="5">
         <v>5417.6197665435111</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L82" s="5">
         <v>0.54176197665435111</v>
       </c>
       <c r="M82">
@@ -4453,29 +4376,29 @@
       <c r="F83" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="9">
         <v>1421</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="5">
         <v>10.058400000000001</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I83" s="7">
         <v>5.4</v>
       </c>
-      <c r="J83" s="7">
+      <c r="J83" s="5">
         <v>948.38535145042113</v>
       </c>
-      <c r="K83" s="7">
+      <c r="K83" s="5">
         <v>5121.2808978322746</v>
       </c>
-      <c r="L83" s="7">
+      <c r="L83" s="5">
         <v>0.51212808978322744</v>
       </c>
       <c r="M83">
-        <v>41.462919999999997</v>
+        <v>41.462916669999998</v>
       </c>
       <c r="N83">
-        <v>-82.249120000000005</v>
+        <v>-82.249116670000006</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -4499,29 +4422,29 @@
       <c r="F84" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="9">
         <v>1630</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="5">
         <v>3.6576</v>
       </c>
-      <c r="I84" s="9">
+      <c r="I84" s="7">
         <v>4.7</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J84" s="5">
         <v>1058.1906143868912</v>
       </c>
-      <c r="K84" s="7">
+      <c r="K84" s="5">
         <v>4973.4958876183891</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L84" s="5">
         <v>0.49734958876183893</v>
       </c>
       <c r="M84">
-        <v>41.763750000000002</v>
+        <v>41.763449999999999</v>
       </c>
       <c r="N84">
-        <v>-83.346149999999994</v>
+        <v>-83.349233330000004</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -4545,22 +4468,22 @@
       <c r="F85" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="9">
         <v>1720</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H85" s="5">
         <v>6.8579999999999997</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I85" s="7">
         <v>6.5</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J85" s="5">
         <v>955.42623171342768</v>
       </c>
-      <c r="K85" s="7">
+      <c r="K85" s="5">
         <v>6210.2705061372799</v>
       </c>
-      <c r="L85" s="7">
+      <c r="L85" s="5">
         <v>0.62102705061372798</v>
       </c>
       <c r="M85">
@@ -4591,22 +4514,22 @@
       <c r="F86" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="9">
         <v>1520</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="5">
         <v>6.7055999999999996</v>
       </c>
-      <c r="I86" s="9">
-        <v>6</v>
-      </c>
-      <c r="J86" s="7">
+      <c r="I86" s="7">
+        <v>6</v>
+      </c>
+      <c r="J86" s="5">
         <v>998.4199396870049</v>
       </c>
-      <c r="K86" s="7">
+      <c r="K86" s="5">
         <v>5990.5196381220294</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L86" s="5">
         <v>0.59905196381220294</v>
       </c>
       <c r="M86">
@@ -4637,22 +4560,22 @@
       <c r="F87" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="9">
         <v>1723</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H87" s="5">
         <v>6.3398399999999997</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="7">
         <v>5.9</v>
       </c>
-      <c r="J87" s="7">
+      <c r="J87" s="5">
         <v>1024.6291649158011</v>
       </c>
-      <c r="K87" s="7">
+      <c r="K87" s="5">
         <v>6045.3120730032269</v>
       </c>
-      <c r="L87" s="7">
+      <c r="L87" s="5">
         <v>0.60453120730032273</v>
       </c>
       <c r="M87">
@@ -4683,22 +4606,22 @@
       <c r="F88" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="9">
         <v>1805</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H88" s="5">
         <v>7.8638399999999997</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I88" s="7">
         <v>6.7</v>
       </c>
-      <c r="J88" s="7">
+      <c r="J88" s="5">
         <v>962.80490340896779</v>
       </c>
-      <c r="K88" s="7">
+      <c r="K88" s="5">
         <v>6450.7928528400844</v>
       </c>
-      <c r="L88" s="7">
+      <c r="L88" s="5">
         <v>0.64507928528400849</v>
       </c>
       <c r="M88">
@@ -4729,22 +4652,22 @@
       <c r="F89" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="9">
         <v>1420</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H89" s="5">
         <v>8.5953599999999994</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I89" s="7">
         <v>6.7</v>
       </c>
-      <c r="J89" s="7">
+      <c r="J89" s="5">
         <v>884.73926571054517</v>
       </c>
-      <c r="K89" s="7">
+      <c r="K89" s="5">
         <v>5927.7530802606525</v>
       </c>
-      <c r="L89" s="7">
+      <c r="L89" s="5">
         <v>0.59277530802606526</v>
       </c>
       <c r="M89">
@@ -4775,22 +4698,22 @@
       <c r="F90" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="9">
         <v>1245</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H90" s="5">
         <v>6.3703199999999995</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I90" s="7">
         <v>5.9</v>
       </c>
-      <c r="J90" s="7">
+      <c r="J90" s="5">
         <v>949</v>
       </c>
-      <c r="K90" s="7">
+      <c r="K90" s="5">
         <v>5599.1</v>
       </c>
-      <c r="L90" s="7">
+      <c r="L90" s="5">
         <v>0.55991000000000002</v>
       </c>
       <c r="M90">
@@ -4821,22 +4744,22 @@
       <c r="F91" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="9">
         <v>1618</v>
       </c>
-      <c r="H91" s="7">
+      <c r="H91" s="5">
         <v>7.7114399999999996</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I91" s="7">
         <v>6.2</v>
       </c>
-      <c r="J91" s="7">
+      <c r="J91" s="5">
         <v>984.73324240140334</v>
       </c>
-      <c r="K91" s="7">
+      <c r="K91" s="5">
         <v>6105.3461028887014</v>
       </c>
-      <c r="L91" s="7">
+      <c r="L91" s="5">
         <v>0.61053461028887013</v>
       </c>
       <c r="M91">
@@ -4867,22 +4790,22 @@
       <c r="F92" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="9">
         <v>1832</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H92" s="5">
         <v>8.6563199999999991</v>
       </c>
-      <c r="I92" s="9">
+      <c r="I92" s="7">
         <v>6.7</v>
       </c>
-      <c r="J92" s="7">
+      <c r="J92" s="5">
         <v>960.97189417480786</v>
       </c>
-      <c r="K92" s="7">
+      <c r="K92" s="5">
         <v>6438.5116909712124</v>
       </c>
-      <c r="L92" s="7">
+      <c r="L92" s="5">
         <v>0.64385116909712126</v>
       </c>
       <c r="M92">
@@ -4913,22 +4836,22 @@
       <c r="F93" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="9">
         <v>1050</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="5">
         <v>8.9611199999999993</v>
       </c>
-      <c r="I93" s="9">
+      <c r="I93" s="7">
         <v>7</v>
       </c>
-      <c r="J93" s="7">
+      <c r="J93" s="5">
         <v>1010.8444388053924</v>
       </c>
-      <c r="K93" s="7">
+      <c r="K93" s="5">
         <v>7075.9110716377472</v>
       </c>
-      <c r="L93" s="7">
+      <c r="L93" s="5">
         <v>0.70759110716377471</v>
       </c>
       <c r="M93">
@@ -4959,22 +4882,22 @@
       <c r="F94" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="9">
         <v>1145</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H94" s="5">
         <v>7.3456799999999998</v>
       </c>
-      <c r="I94" s="9">
+      <c r="I94" s="7">
         <v>6.5</v>
       </c>
-      <c r="J94" s="7">
+      <c r="J94" s="5">
         <v>1034.2824244983103</v>
       </c>
-      <c r="K94" s="7">
+      <c r="K94" s="5">
         <v>6722.8357592390166</v>
       </c>
-      <c r="L94" s="7">
+      <c r="L94" s="5">
         <v>0.67228357592390164</v>
       </c>
       <c r="M94">
@@ -5005,22 +4928,22 @@
       <c r="F95" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="9">
         <v>1402</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95" s="5">
         <v>5.2120800000000012</v>
       </c>
-      <c r="I95" s="9">
+      <c r="I95" s="7">
         <v>5.63</v>
       </c>
-      <c r="J95" s="7">
+      <c r="J95" s="5">
         <v>675.79182549071322</v>
       </c>
-      <c r="K95" s="7">
+      <c r="K95" s="5">
         <v>3804.7079775127154</v>
       </c>
-      <c r="L95" s="7">
+      <c r="L95" s="5">
         <v>0.38047079775127157</v>
       </c>
       <c r="M95">
@@ -5051,22 +4974,22 @@
       <c r="F96" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G96" s="9">
         <v>1519</v>
       </c>
-      <c r="H96" s="7">
+      <c r="H96" s="5">
         <v>8.0467200000000005</v>
       </c>
-      <c r="I96" s="9">
+      <c r="I96" s="7">
         <v>6.1</v>
       </c>
-      <c r="J96" s="7">
+      <c r="J96" s="5">
         <v>984.81888557415118</v>
       </c>
-      <c r="K96" s="7">
+      <c r="K96" s="5">
         <v>6007.3952020023216</v>
       </c>
-      <c r="L96" s="7">
+      <c r="L96" s="5">
         <v>0.60073952020023225</v>
       </c>
       <c r="M96">
@@ -5097,22 +5020,22 @@
       <c r="F97" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H97" s="7">
+      <c r="H97" s="5">
         <v>9.50976</v>
       </c>
-      <c r="I97" s="9">
+      <c r="I97" s="7">
         <v>7</v>
       </c>
-      <c r="J97" s="7">
+      <c r="J97" s="5">
         <v>965.24924994643243</v>
       </c>
-      <c r="K97" s="7">
+      <c r="K97" s="5">
         <v>6756.744749625027</v>
       </c>
-      <c r="L97" s="7">
+      <c r="L97" s="5">
         <v>0.67567447496250277</v>
       </c>
       <c r="M97">
@@ -5143,22 +5066,22 @@
       <c r="F98" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98" s="9">
         <v>1000</v>
       </c>
-      <c r="H98" s="7">
+      <c r="H98" s="5">
         <v>9.5402400000000007</v>
       </c>
-      <c r="I98" s="9">
+      <c r="I98" s="7">
         <v>7</v>
       </c>
-      <c r="J98" s="7">
+      <c r="J98" s="5">
         <v>959.06650805838785</v>
       </c>
-      <c r="K98" s="7">
+      <c r="K98" s="5">
         <v>6713.4655564087152</v>
       </c>
-      <c r="L98" s="7">
+      <c r="L98" s="5">
         <v>0.67134655564087153</v>
       </c>
       <c r="M98">
@@ -5189,22 +5112,22 @@
       <c r="F99" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H99" s="7">
+      <c r="H99" s="5">
         <v>8.7782400000000003</v>
       </c>
-      <c r="I99" s="9">
+      <c r="I99" s="7">
         <v>6.7</v>
       </c>
-      <c r="J99" s="7">
+      <c r="J99" s="5">
         <v>917.32280739431644</v>
       </c>
-      <c r="K99" s="7">
+      <c r="K99" s="5">
         <v>6146.0628095419206</v>
       </c>
-      <c r="L99" s="7">
+      <c r="L99" s="5">
         <v>0.61460628095419212</v>
       </c>
       <c r="M99">
@@ -5235,22 +5158,22 @@
       <c r="F100" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G100" s="9">
         <v>1915</v>
       </c>
-      <c r="H100" s="7">
+      <c r="H100" s="5">
         <v>9.6316799999999994</v>
       </c>
-      <c r="I100" s="9">
+      <c r="I100" s="7">
         <v>6.9</v>
       </c>
-      <c r="J100" s="7">
+      <c r="J100" s="5">
         <v>962.84533797039944</v>
       </c>
-      <c r="K100" s="7">
+      <c r="K100" s="5">
         <v>6643.6328319957565</v>
       </c>
-      <c r="L100" s="7">
+      <c r="L100" s="5">
         <v>0.66436328319957572</v>
       </c>
       <c r="M100">
@@ -5281,22 +5204,22 @@
       <c r="F101" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G101" s="9">
         <v>1815</v>
       </c>
-      <c r="H101" s="7">
+      <c r="H101" s="5">
         <v>10.576560000000002</v>
       </c>
-      <c r="I101" s="9">
+      <c r="I101" s="7">
         <v>7.3</v>
       </c>
-      <c r="J101" s="7">
+      <c r="J101" s="5">
         <v>884.45947917515764</v>
       </c>
-      <c r="K101" s="7">
+      <c r="K101" s="5">
         <v>6456.5541979786503</v>
       </c>
-      <c r="L101" s="7">
+      <c r="L101" s="5">
         <v>0.64565541979786512</v>
       </c>
       <c r="M101">
@@ -5327,22 +5250,22 @@
       <c r="F102" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G102" s="9">
         <v>1640</v>
       </c>
-      <c r="H102" s="7">
+      <c r="H102" s="5">
         <v>9.5707199999999997</v>
       </c>
-      <c r="I102" s="9">
+      <c r="I102" s="7">
         <v>7.2</v>
       </c>
-      <c r="J102" s="7">
+      <c r="J102" s="5">
         <v>952.16107361326306</v>
       </c>
-      <c r="K102" s="7">
+      <c r="K102" s="5">
         <v>6855.5597300154941</v>
       </c>
-      <c r="L102" s="7">
+      <c r="L102" s="5">
         <v>0.68555597300154947</v>
       </c>
       <c r="M102">
@@ -5373,22 +5296,22 @@
       <c r="F103" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G103" s="9">
         <v>1237</v>
       </c>
-      <c r="H103" s="7">
+      <c r="H103" s="5">
         <v>6.8275199999999989</v>
       </c>
-      <c r="I103" s="9">
+      <c r="I103" s="7">
         <v>7.1</v>
       </c>
-      <c r="J103" s="7">
+      <c r="J103" s="5">
         <v>959.10740630670864</v>
       </c>
-      <c r="K103" s="7">
+      <c r="K103" s="5">
         <v>6809.6625847776313</v>
       </c>
-      <c r="L103" s="7">
+      <c r="L103" s="5">
         <v>0.68096625847776315</v>
       </c>
       <c r="M103">
@@ -5419,22 +5342,22 @@
       <c r="F104" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="G104" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H104" s="7">
+      <c r="H104" s="5">
         <v>9.4792799999999993</v>
       </c>
-      <c r="I104" s="9">
+      <c r="I104" s="7">
         <v>6.3</v>
       </c>
-      <c r="J104" s="7">
+      <c r="J104" s="5">
         <v>949.80068926585022</v>
       </c>
-      <c r="K104" s="7">
+      <c r="K104" s="5">
         <v>5983.7443423748564</v>
       </c>
-      <c r="L104" s="7">
+      <c r="L104" s="5">
         <v>0.59837443423748571</v>
       </c>
       <c r="M104">
@@ -5465,22 +5388,22 @@
       <c r="F105" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="G105" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H105" s="7">
+      <c r="H105" s="5">
         <v>8.7477599999999995</v>
       </c>
-      <c r="I105" s="9">
-        <v>6</v>
-      </c>
-      <c r="J105" s="7">
+      <c r="I105" s="7">
+        <v>6</v>
+      </c>
+      <c r="J105" s="5">
         <v>1011.9560528954133</v>
       </c>
-      <c r="K105" s="7">
+      <c r="K105" s="5">
         <v>6071.7363173724798</v>
       </c>
-      <c r="L105" s="7">
+      <c r="L105" s="5">
         <v>0.60717363173724803</v>
       </c>
       <c r="M105">
@@ -5511,22 +5434,22 @@
       <c r="F106" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G106" s="9">
         <v>1025</v>
       </c>
-      <c r="H106" s="7">
+      <c r="H106" s="5">
         <v>10.820399999999999</v>
       </c>
-      <c r="I106" s="9">
+      <c r="I106" s="7">
         <v>6.4</v>
       </c>
-      <c r="J106" s="7">
+      <c r="J106" s="5">
         <v>947.68365723574334</v>
       </c>
-      <c r="K106" s="7">
+      <c r="K106" s="5">
         <v>6065.1754063087574</v>
       </c>
-      <c r="L106" s="7">
+      <c r="L106" s="5">
         <v>0.60651754063087582</v>
       </c>
       <c r="M106">
@@ -5557,22 +5480,22 @@
       <c r="F107" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G107" s="5">
+      <c r="G107" s="9">
         <v>1555</v>
       </c>
-      <c r="H107" s="7">
+      <c r="H107" s="5">
         <v>10.119360000000002</v>
       </c>
-      <c r="I107" s="9">
+      <c r="I107" s="7">
         <v>7.2</v>
       </c>
-      <c r="J107" s="7">
+      <c r="J107" s="5">
         <v>932.58200076468256</v>
       </c>
-      <c r="K107" s="7">
+      <c r="K107" s="5">
         <v>6714.5904055057144</v>
       </c>
-      <c r="L107" s="7">
+      <c r="L107" s="5">
         <v>0.67145904055057148</v>
       </c>
       <c r="M107">
@@ -5603,22 +5526,22 @@
       <c r="F108" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="9">
         <v>1140</v>
       </c>
-      <c r="H108" s="7">
+      <c r="H108" s="5">
         <v>11.490960000000001</v>
       </c>
-      <c r="I108" s="9">
+      <c r="I108" s="7">
         <v>7.2</v>
       </c>
-      <c r="J108" s="7">
+      <c r="J108" s="5">
         <v>952.83057609754962</v>
       </c>
-      <c r="K108" s="7">
+      <c r="K108" s="5">
         <v>6860.3801479023577</v>
       </c>
-      <c r="L108" s="7">
+      <c r="L108" s="5">
         <v>0.68603801479023585</v>
       </c>
       <c r="M108">
@@ -5649,29 +5572,29 @@
       <c r="F109" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G109" s="5" t="s">
+      <c r="G109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H109" s="7">
+      <c r="H109" s="5">
         <v>12.954000000000001</v>
       </c>
-      <c r="I109" s="9">
+      <c r="I109" s="7">
         <v>7.4</v>
       </c>
-      <c r="J109" s="7">
+      <c r="J109" s="5">
         <v>950.67135944280483</v>
       </c>
-      <c r="K109" s="7">
+      <c r="K109" s="5">
         <v>7034.9680598767563</v>
       </c>
-      <c r="L109" s="7">
+      <c r="L109" s="5">
         <v>0.70349680598767572</v>
       </c>
       <c r="M109">
-        <v>41.663420000000002</v>
+        <v>41.662316670000003</v>
       </c>
       <c r="N109">
-        <v>-82.654669999999996</v>
+        <v>-82.64748333</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -5695,29 +5618,29 @@
       <c r="F110" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G110" s="9">
         <v>1120</v>
       </c>
-      <c r="H110" s="7">
+      <c r="H110" s="5">
         <v>10.24128</v>
       </c>
-      <c r="I110" s="9">
+      <c r="I110" s="7">
         <v>6.9</v>
       </c>
-      <c r="J110" s="7">
+      <c r="J110" s="5">
         <v>933.64878600491909</v>
       </c>
-      <c r="K110" s="7">
+      <c r="K110" s="5">
         <v>6442.176623433942</v>
       </c>
-      <c r="L110" s="7">
+      <c r="L110" s="5">
         <v>0.64421766234339428</v>
       </c>
       <c r="M110">
-        <v>41.863329999999998</v>
+        <v>41.863683330000001</v>
       </c>
       <c r="N110">
-        <v>-82.650069999999999</v>
+        <v>-82.647900000000007</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -5741,29 +5664,29 @@
       <c r="F111" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G111" s="9">
         <v>1500</v>
       </c>
-      <c r="H111" s="7">
+      <c r="H111" s="5">
         <v>10.18032</v>
       </c>
-      <c r="I111" s="9">
+      <c r="I111" s="7">
         <v>7.1</v>
       </c>
-      <c r="J111" s="7">
+      <c r="J111" s="5">
         <v>966.29581557839117</v>
       </c>
-      <c r="K111" s="7">
+      <c r="K111" s="5">
         <v>6860.7002906065773</v>
       </c>
-      <c r="L111" s="7">
+      <c r="L111" s="5">
         <v>0.68607002906065773</v>
       </c>
       <c r="M111">
-        <v>41.963419999999999</v>
+        <v>41.964066670000001</v>
       </c>
       <c r="N111">
-        <v>-82.650019999999998</v>
+        <v>-82.650700000000001</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -5787,29 +5710,29 @@
       <c r="F112" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G112" s="5" t="s">
+      <c r="G112" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H112" s="7">
+      <c r="H112" s="5">
         <v>11.7348</v>
       </c>
-      <c r="I112" s="9">
+      <c r="I112" s="7">
         <v>6.6</v>
       </c>
-      <c r="J112" s="7">
+      <c r="J112" s="5">
         <v>931.07888869699377</v>
       </c>
-      <c r="K112" s="7">
+      <c r="K112" s="5">
         <v>6145.1206654001589</v>
       </c>
-      <c r="L112" s="7">
+      <c r="L112" s="5">
         <v>0.61451206654001589</v>
       </c>
       <c r="M112">
-        <v>41.463470000000001</v>
+        <v>41.465449999999997</v>
       </c>
       <c r="N112">
-        <v>-82.550250000000005</v>
+        <v>-82.549133330000004</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -5833,29 +5756,29 @@
       <c r="F113" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="9">
         <v>1040</v>
       </c>
-      <c r="H113" s="7">
+      <c r="H113" s="5">
         <v>12.557760000000002</v>
       </c>
-      <c r="I113" s="9">
+      <c r="I113" s="7">
         <v>7.4</v>
       </c>
-      <c r="J113" s="7">
+      <c r="J113" s="5">
         <v>949</v>
       </c>
-      <c r="K113" s="7">
+      <c r="K113" s="5">
         <v>7022.6</v>
       </c>
-      <c r="L113" s="7">
+      <c r="L113" s="5">
         <v>0.70226000000000011</v>
       </c>
       <c r="M113">
-        <v>41.563319999999997</v>
+        <v>41.563749999999999</v>
       </c>
       <c r="N113">
-        <v>-82.550349999999995</v>
+        <v>-82.548966669999999</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -5879,29 +5802,29 @@
       <c r="F114" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="G114" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H114" s="7">
+      <c r="H114" s="5">
         <v>12.557760000000002</v>
       </c>
-      <c r="I114" s="9">
+      <c r="I114" s="7">
         <v>7.3</v>
       </c>
-      <c r="J114" s="7">
+      <c r="J114" s="5">
         <v>949.27685524183551</v>
       </c>
-      <c r="K114" s="7">
+      <c r="K114" s="5">
         <v>6929.7210432653992</v>
       </c>
-      <c r="L114" s="7">
+      <c r="L114" s="5">
         <v>0.69297210432653999</v>
       </c>
       <c r="M114">
-        <v>41.659820000000003</v>
+        <v>41.663366670000002</v>
       </c>
       <c r="N114">
-        <v>-82.549880000000002</v>
+        <v>-82.548900000000003</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -5925,29 +5848,29 @@
       <c r="F115" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G115" s="9">
         <v>1238</v>
       </c>
-      <c r="H115" s="7">
+      <c r="H115" s="5">
         <v>9.5402400000000007</v>
       </c>
-      <c r="I115" s="9">
+      <c r="I115" s="7">
         <v>6.5</v>
       </c>
-      <c r="J115" s="7">
+      <c r="J115" s="5">
         <v>955</v>
       </c>
-      <c r="K115" s="7">
+      <c r="K115" s="5">
         <v>6207.5</v>
       </c>
-      <c r="L115" s="7">
+      <c r="L115" s="5">
         <v>0.62075000000000002</v>
       </c>
       <c r="M115">
-        <v>41.76632</v>
+        <v>41.761816670000002</v>
       </c>
       <c r="N115">
-        <v>-82.550449999999998</v>
+        <v>-82.552233330000007</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -5971,29 +5894,29 @@
       <c r="F116" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G116" s="5">
+      <c r="G116" s="9">
         <v>1400</v>
       </c>
-      <c r="H116" s="7">
+      <c r="H116" s="5">
         <v>10.48512</v>
       </c>
-      <c r="I116" s="9">
+      <c r="I116" s="7">
         <v>6.9</v>
       </c>
-      <c r="J116" s="7">
+      <c r="J116" s="5">
         <v>1003.0292764211857</v>
       </c>
-      <c r="K116" s="7">
+      <c r="K116" s="5">
         <v>6920.902007306182</v>
       </c>
-      <c r="L116" s="7">
+      <c r="L116" s="5">
         <v>0.69209020073061822</v>
       </c>
       <c r="M116">
-        <v>41.863500000000002</v>
+        <v>41.867350000000002</v>
       </c>
       <c r="N116">
-        <v>-82.550020000000004</v>
+        <v>-82.518366670000006</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -6017,29 +5940,29 @@
       <c r="F117" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G117" s="5">
+      <c r="G117" s="9">
         <v>1745</v>
       </c>
-      <c r="H117" s="7">
+      <c r="H117" s="5">
         <v>12.222479999999999</v>
       </c>
-      <c r="I117" s="9">
+      <c r="I117" s="7">
         <v>7.5</v>
       </c>
-      <c r="J117" s="7">
+      <c r="J117" s="5">
         <v>951.79719141025078</v>
       </c>
-      <c r="K117" s="7">
+      <c r="K117" s="5">
         <v>7138.4789355768808</v>
       </c>
-      <c r="L117" s="7">
+      <c r="L117" s="5">
         <v>0.71384789355768807</v>
       </c>
       <c r="M117">
-        <v>41.463329999999999</v>
+        <v>41.463549999999998</v>
       </c>
       <c r="N117">
-        <v>-82.447069999999997</v>
+        <v>-82.451816669999999</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -6063,29 +5986,29 @@
       <c r="F118" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G118" s="5">
+      <c r="G118" s="9">
         <v>1355</v>
       </c>
-      <c r="H118" s="7">
+      <c r="H118" s="5">
         <v>13.715999999999999</v>
       </c>
-      <c r="I118" s="9">
+      <c r="I118" s="7">
         <v>7.6</v>
       </c>
-      <c r="J118" s="7">
+      <c r="J118" s="5">
         <v>938.89913345976072</v>
       </c>
-      <c r="K118" s="7">
+      <c r="K118" s="5">
         <v>7135.6334142941814</v>
       </c>
-      <c r="L118" s="7">
+      <c r="L118" s="5">
         <v>0.71356334142941813</v>
       </c>
       <c r="M118">
-        <v>41.563920000000003</v>
+        <v>41.563049999999997</v>
       </c>
       <c r="N118">
-        <v>-82.452699999999993</v>
+        <v>-82.450566670000001</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -6109,29 +6032,29 @@
       <c r="F119" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G119" s="9">
         <v>1145</v>
       </c>
-      <c r="H119" s="7">
+      <c r="H119" s="5">
         <v>13.68552</v>
       </c>
-      <c r="I119" s="9">
+      <c r="I119" s="7">
         <v>7.8</v>
       </c>
-      <c r="J119" s="7">
+      <c r="J119" s="5">
         <v>960.72878349058556</v>
       </c>
-      <c r="K119" s="7">
+      <c r="K119" s="5">
         <v>7493.6845112265673</v>
       </c>
-      <c r="L119" s="7">
+      <c r="L119" s="5">
         <v>0.74936845112265682</v>
       </c>
       <c r="M119">
-        <v>41.663350000000001</v>
+        <v>41.66481667</v>
       </c>
       <c r="N119">
-        <v>-82.453919999999997</v>
+        <v>-82.449466670000007</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -6155,29 +6078,29 @@
       <c r="F120" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G120" s="5">
+      <c r="G120" s="9">
         <v>1035</v>
       </c>
-      <c r="H120" s="7">
+      <c r="H120" s="5">
         <v>12.557760000000002</v>
       </c>
-      <c r="I120" s="9">
+      <c r="I120" s="7">
         <v>7.4</v>
       </c>
-      <c r="J120" s="7">
+      <c r="J120" s="5">
         <v>984.73557688873223</v>
       </c>
-      <c r="K120" s="7">
+      <c r="K120" s="5">
         <v>7287.0432689766185</v>
       </c>
-      <c r="L120" s="7">
+      <c r="L120" s="5">
         <v>0.72870432689766185</v>
       </c>
       <c r="M120">
-        <v>41.764749999999999</v>
+        <v>41.7637</v>
       </c>
       <c r="N120">
-        <v>-82.449520000000007</v>
+        <v>-82.449383330000003</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -6201,29 +6124,29 @@
       <c r="F121" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G121" s="5">
+      <c r="G121" s="9">
         <v>1700</v>
       </c>
-      <c r="H121" s="7">
+      <c r="H121" s="5">
         <v>12.192</v>
       </c>
-      <c r="I121" s="9">
+      <c r="I121" s="7">
         <v>7.1</v>
       </c>
-      <c r="J121" s="7">
+      <c r="J121" s="5">
         <v>928.03638088800722</v>
       </c>
-      <c r="K121" s="7">
+      <c r="K121" s="5">
         <v>6589.0583043048509</v>
       </c>
-      <c r="L121" s="7">
+      <c r="L121" s="5">
         <v>0.65890583043048512</v>
       </c>
       <c r="M121">
-        <v>41.463329999999999</v>
+        <v>41.463799999999999</v>
       </c>
       <c r="N121">
-        <v>-82.34693</v>
+        <v>-82.352249999999998</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -6247,29 +6170,29 @@
       <c r="F122" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G122" s="5">
+      <c r="G122" s="9">
         <v>1455</v>
       </c>
-      <c r="H122" s="7">
+      <c r="H122" s="5">
         <v>13.776960000000001</v>
       </c>
-      <c r="I122" s="9">
+      <c r="I122" s="7">
         <v>7.6</v>
       </c>
-      <c r="J122" s="7">
+      <c r="J122" s="5">
         <v>909.19894367263123</v>
       </c>
-      <c r="K122" s="7">
+      <c r="K122" s="5">
         <v>6909.9119719119972</v>
       </c>
-      <c r="L122" s="7">
+      <c r="L122" s="5">
         <v>0.69099119719119972</v>
       </c>
       <c r="M122">
-        <v>41.564480000000003</v>
+        <v>41.564133329999997</v>
       </c>
       <c r="N122">
-        <v>-82.351749999999996</v>
+        <v>-82.348283330000001</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -6293,22 +6216,22 @@
       <c r="F123" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G123" s="9">
         <v>1250</v>
       </c>
-      <c r="H123" s="7">
+      <c r="H123" s="5">
         <v>13.59408</v>
       </c>
-      <c r="I123" s="9">
+      <c r="I123" s="7">
         <v>8</v>
       </c>
-      <c r="J123" s="7">
+      <c r="J123" s="5">
         <v>986.23672635359355</v>
       </c>
-      <c r="K123" s="7">
+      <c r="K123" s="5">
         <v>7889.8938108287484</v>
       </c>
-      <c r="L123" s="7">
+      <c r="L123" s="5">
         <v>0.78898938108287486</v>
       </c>
       <c r="M123">
@@ -6339,29 +6262,29 @@
       <c r="F124" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G124" s="9">
         <v>1611</v>
       </c>
-      <c r="H124" s="7">
+      <c r="H124" s="5">
         <v>11.369039999999998</v>
       </c>
-      <c r="I124" s="9">
-        <v>6</v>
-      </c>
-      <c r="J124" s="7">
+      <c r="I124" s="7">
+        <v>6</v>
+      </c>
+      <c r="J124" s="5">
         <v>950.38337267210647</v>
       </c>
-      <c r="K124" s="7">
+      <c r="K124" s="5">
         <v>5702.3002360326391</v>
       </c>
-      <c r="L124" s="7">
+      <c r="L124" s="5">
         <v>0.57023002360326391</v>
       </c>
       <c r="M124">
-        <v>41.462919999999997</v>
+        <v>41.46553333</v>
       </c>
       <c r="N124">
-        <v>-82.249120000000005</v>
+        <v>-82.249683329999996</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -6385,29 +6308,29 @@
       <c r="F125" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G125" s="9">
         <v>1603</v>
       </c>
-      <c r="H125" s="7">
+      <c r="H125" s="5">
         <v>4.23672</v>
       </c>
-      <c r="I125" s="10">
+      <c r="I125" s="8">
         <v>5.7</v>
       </c>
-      <c r="J125" s="8">
+      <c r="J125" s="6">
         <v>940.82864809788771</v>
       </c>
-      <c r="K125" s="8">
+      <c r="K125" s="6">
         <v>5362.7232941579605</v>
       </c>
-      <c r="L125" s="8">
+      <c r="L125" s="6">
         <v>0.53627232941579606</v>
       </c>
       <c r="M125">
-        <v>41.763750000000002</v>
+        <v>41.765283333299998</v>
       </c>
       <c r="N125">
-        <v>-83.346149999999994</v>
+        <v>-83.3481833333</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -6431,29 +6354,29 @@
       <c r="F126" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G126" s="9">
         <v>1651</v>
       </c>
-      <c r="H126" s="7">
+      <c r="H126" s="5">
         <v>6.8579999999999997</v>
       </c>
-      <c r="I126" s="10">
+      <c r="I126" s="8">
         <v>6.3</v>
       </c>
-      <c r="J126" s="8">
+      <c r="J126" s="6">
         <v>925.11724112599234</v>
       </c>
-      <c r="K126" s="8">
+      <c r="K126" s="6">
         <v>5828.2386190937514</v>
       </c>
-      <c r="L126" s="8">
+      <c r="L126" s="6">
         <v>0.58282386190937518</v>
       </c>
       <c r="M126">
-        <v>41.763379999999998</v>
+        <v>41.763300000000001</v>
       </c>
       <c r="N126">
-        <v>-83.249870000000001</v>
+        <v>-83.150933333300003</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -6477,29 +6400,29 @@
       <c r="F127" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G127" s="5">
+      <c r="G127" s="9">
         <v>1502</v>
       </c>
-      <c r="H127" s="7">
+      <c r="H127" s="5">
         <v>6.8884800000000004</v>
       </c>
-      <c r="I127" s="10">
+      <c r="I127" s="8">
         <v>6.3</v>
       </c>
-      <c r="J127" s="8">
+      <c r="J127" s="6">
         <v>921.07439204810214</v>
       </c>
-      <c r="K127" s="8">
+      <c r="K127" s="6">
         <v>5802.7686699030437</v>
       </c>
-      <c r="L127" s="8">
+      <c r="L127" s="6">
         <v>0.58027686699030445</v>
       </c>
       <c r="M127">
-        <v>41.863399999999999</v>
+        <v>41.863566666700002</v>
       </c>
       <c r="N127">
-        <v>-83.249930000000006</v>
+        <v>-83.248999999999995</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -6523,29 +6446,29 @@
       <c r="F128" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G128" s="9">
         <v>1537</v>
       </c>
-      <c r="H128" s="7">
+      <c r="H128" s="5">
         <v>7.62</v>
       </c>
-      <c r="I128" s="10">
+      <c r="I128" s="8">
         <v>6.7</v>
       </c>
-      <c r="J128" s="8">
+      <c r="J128" s="6">
         <v>944.80656470635449</v>
       </c>
-      <c r="K128" s="8">
+      <c r="K128" s="6">
         <v>6330.203983532575</v>
       </c>
-      <c r="L128" s="8">
+      <c r="L128" s="6">
         <v>0.63302039835325752</v>
       </c>
       <c r="M128">
-        <v>41.663379999999997</v>
+        <v>41.680100000000003</v>
       </c>
       <c r="N128">
-        <v>-83.149799999999999</v>
+        <v>-83.149516666699995</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -6569,29 +6492,29 @@
       <c r="F129" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G129" s="9">
         <v>1730</v>
       </c>
-      <c r="H129" s="7">
+      <c r="H129" s="5">
         <v>4.9682399999999998</v>
       </c>
-      <c r="I129" s="10">
+      <c r="I129" s="8">
         <v>5.7</v>
       </c>
-      <c r="J129" s="8">
+      <c r="J129" s="6">
         <v>925.93900178874242</v>
       </c>
-      <c r="K129" s="8">
+      <c r="K129" s="6">
         <v>5277.8523101958317</v>
       </c>
-      <c r="L129" s="8">
+      <c r="L129" s="6">
         <v>0.52778523101958319</v>
       </c>
       <c r="M129">
-        <v>41.76343</v>
+        <v>41.763300000000001</v>
       </c>
       <c r="N129">
-        <v>-83.149870000000007</v>
+        <v>-83.150933333300003</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -6615,26 +6538,26 @@
       <c r="F130" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G130" s="5">
+      <c r="G130" s="9">
         <v>1418</v>
       </c>
-      <c r="H130" s="7">
+      <c r="H130" s="5">
         <v>8.3819999999999997</v>
       </c>
-      <c r="I130" s="10">
+      <c r="I130" s="8">
         <v>6.4</v>
       </c>
-      <c r="J130" s="8">
+      <c r="J130" s="6">
         <v>901.29278154932149</v>
       </c>
-      <c r="K130" s="8">
+      <c r="K130" s="6">
         <v>5768.2738019156577</v>
       </c>
-      <c r="L130" s="8">
+      <c r="L130" s="6">
         <v>0.57682738019156576</v>
       </c>
       <c r="M130">
-        <v>41.863430000000001</v>
+        <v>41.864199999999997</v>
       </c>
       <c r="N130">
         <v>-83.149950000000004</v>
@@ -6661,29 +6584,29 @@
       <c r="F131" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G131" s="5">
+      <c r="G131" s="9">
         <v>1323</v>
       </c>
-      <c r="H131" s="7">
+      <c r="H131" s="5">
         <v>5.8216800000000006</v>
       </c>
-      <c r="I131" s="10">
+      <c r="I131" s="8">
         <v>5.6</v>
       </c>
-      <c r="J131" s="8">
+      <c r="J131" s="6">
         <v>921.59969162751372</v>
       </c>
-      <c r="K131" s="8">
+      <c r="K131" s="6">
         <v>5160.9582731140763</v>
       </c>
-      <c r="L131" s="8">
+      <c r="L131" s="6">
         <v>0.51609582731140768</v>
       </c>
       <c r="M131">
-        <v>41.963470000000001</v>
+        <v>41.971466666700003</v>
       </c>
       <c r="N131">
-        <v>-83.149879999999996</v>
+        <v>-83.145750000000007</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -6707,29 +6630,29 @@
       <c r="F132" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G132" s="5">
+      <c r="G132" s="9">
         <v>1452</v>
       </c>
-      <c r="H132" s="7">
+      <c r="H132" s="5">
         <v>7.62</v>
       </c>
-      <c r="I132" s="10">
+      <c r="I132" s="8">
         <v>6.7</v>
       </c>
-      <c r="J132" s="8">
+      <c r="J132" s="6">
         <v>944.80656470635449</v>
       </c>
-      <c r="K132" s="8">
+      <c r="K132" s="6">
         <v>6330.203983532575</v>
       </c>
-      <c r="L132" s="8">
+      <c r="L132" s="6">
         <v>0.63302039835325752</v>
       </c>
       <c r="M132">
-        <v>41.663269999999997</v>
+        <v>41.680433333300002</v>
       </c>
       <c r="N132">
-        <v>-83.049670000000006</v>
+        <v>-83.050749999999994</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -6753,26 +6676,26 @@
       <c r="F133" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G133" s="5" t="s">
+      <c r="G133" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H133" s="7">
+      <c r="H133" s="5">
         <v>8.8391999999999999</v>
       </c>
-      <c r="I133" s="10">
+      <c r="I133" s="8">
         <v>7.3</v>
       </c>
-      <c r="J133" s="8">
+      <c r="J133" s="6">
         <v>971.34532235346626</v>
       </c>
-      <c r="K133" s="8">
+      <c r="K133" s="6">
         <v>7090.8208531803039</v>
       </c>
-      <c r="L133" s="8">
+      <c r="L133" s="6">
         <v>0.70908208531803041</v>
       </c>
       <c r="M133">
-        <v>41.76343</v>
+        <v>41.7634333333</v>
       </c>
       <c r="N133">
         <v>-83.049899999999994</v>
@@ -6799,29 +6722,29 @@
       <c r="F134" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G134" s="9">
         <v>1131</v>
       </c>
-      <c r="H134" s="7">
+      <c r="H134" s="5">
         <v>8.9611199999999993</v>
       </c>
-      <c r="I134" s="10">
+      <c r="I134" s="8">
         <v>6.5</v>
       </c>
-      <c r="J134" s="8">
+      <c r="J134" s="6">
         <v>901.98846492400219</v>
       </c>
-      <c r="K134" s="8">
+      <c r="K134" s="6">
         <v>5862.9250220060139</v>
       </c>
-      <c r="L134" s="8">
+      <c r="L134" s="6">
         <v>0.58629250220060147</v>
       </c>
       <c r="M134">
-        <v>41.868499999999997</v>
+        <v>41.864166666700001</v>
       </c>
       <c r="N134">
-        <v>-83.050929999999994</v>
+        <v>-83.049549999999996</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -6845,29 +6768,29 @@
       <c r="F135" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G135" s="5">
+      <c r="G135" s="9">
         <v>1221</v>
       </c>
-      <c r="H135" s="7">
+      <c r="H135" s="5">
         <v>7.7419200000000004</v>
       </c>
-      <c r="I135" s="10">
+      <c r="I135" s="8">
         <v>6.4</v>
       </c>
-      <c r="J135" s="8">
+      <c r="J135" s="6">
         <v>947.93190022462443</v>
       </c>
-      <c r="K135" s="8">
+      <c r="K135" s="6">
         <v>6066.7641614375971</v>
       </c>
-      <c r="L135" s="8">
+      <c r="L135" s="6">
         <v>0.60667641614375978</v>
       </c>
       <c r="M135">
-        <v>41.963149999999999</v>
+        <v>41.964016666699997</v>
       </c>
       <c r="N135">
-        <v>-83.050669999999997</v>
+        <v>-83.048850000000002</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -6891,29 +6814,29 @@
       <c r="F136" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G136" s="5">
+      <c r="G136" s="9">
         <v>1251</v>
       </c>
-      <c r="H136" s="7">
+      <c r="H136" s="5">
         <v>4.8768000000000002</v>
       </c>
-      <c r="I136" s="10">
+      <c r="I136" s="8">
         <v>5.7</v>
       </c>
-      <c r="J136" s="8">
+      <c r="J136" s="6">
         <v>883.60292517384391</v>
       </c>
-      <c r="K136" s="8">
+      <c r="K136" s="6">
         <v>5036.5366734909103</v>
       </c>
-      <c r="L136" s="8">
+      <c r="L136" s="6">
         <v>0.50365366734909101</v>
       </c>
       <c r="M136">
-        <v>41.563470000000002</v>
+        <v>41.564149999999998</v>
       </c>
       <c r="N136">
-        <v>-82.950919999999996</v>
+        <v>-82.950249999999997</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -6937,29 +6860,29 @@
       <c r="F137" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G137" s="5">
+      <c r="G137" s="9">
         <v>1355</v>
       </c>
-      <c r="H137" s="7">
+      <c r="H137" s="5">
         <v>8.2295999999999996</v>
       </c>
-      <c r="I137" s="10">
+      <c r="I137" s="8">
         <v>6.8</v>
       </c>
-      <c r="J137" s="8">
+      <c r="J137" s="6">
         <v>907.88925476594102</v>
       </c>
-      <c r="K137" s="8">
+      <c r="K137" s="6">
         <v>6173.6469324083992</v>
       </c>
-      <c r="L137" s="8">
+      <c r="L137" s="6">
         <v>0.61736469324083998</v>
       </c>
       <c r="M137">
-        <v>41.664380000000001</v>
+        <v>41.66395</v>
       </c>
       <c r="N137">
-        <v>-82.950699999999998</v>
+        <v>-82.950483333333295</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -6983,29 +6906,29 @@
       <c r="F138" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G138" s="5" t="s">
+      <c r="G138" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H138" s="7">
+      <c r="H138" s="5">
         <v>9.50976</v>
       </c>
-      <c r="I138" s="10">
+      <c r="I138" s="8">
         <v>6.4</v>
       </c>
-      <c r="J138" s="8">
+      <c r="J138" s="6">
         <v>954.79119814790681</v>
       </c>
-      <c r="K138" s="8">
+      <c r="K138" s="6">
         <v>6110.6636681466043</v>
       </c>
-      <c r="L138" s="8">
+      <c r="L138" s="6">
         <v>0.61106636681466042</v>
       </c>
       <c r="M138">
-        <v>41.762749999999997</v>
+        <v>41.763249999999999</v>
       </c>
       <c r="N138">
-        <v>-82.950379999999996</v>
+        <v>-82.949516666700006</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -7029,29 +6952,29 @@
       <c r="F139" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G139" s="5">
+      <c r="G139" s="9">
         <v>1044</v>
       </c>
-      <c r="H139" s="7">
+      <c r="H139" s="5">
         <v>9.5707199999999997</v>
       </c>
-      <c r="I139" s="10">
+      <c r="I139" s="8">
         <v>6.6</v>
       </c>
-      <c r="J139" s="8">
+      <c r="J139" s="6">
         <v>965.0483874837447</v>
       </c>
-      <c r="K139" s="8">
+      <c r="K139" s="6">
         <v>6369.3193573927147</v>
       </c>
-      <c r="L139" s="8">
+      <c r="L139" s="6">
         <v>0.63693193573927154</v>
       </c>
       <c r="M139">
-        <v>41.863570000000003</v>
+        <v>41.867066666699998</v>
       </c>
       <c r="N139">
-        <v>-82.950180000000003</v>
+        <v>-82.949783333300005</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -7075,29 +6998,29 @@
       <c r="F140" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G140" s="5" t="s">
+      <c r="G140" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H140" s="7">
+      <c r="H140" s="5">
         <v>9.0830400000000004</v>
       </c>
-      <c r="I140" s="10">
+      <c r="I140" s="8">
         <v>6.2</v>
       </c>
-      <c r="J140" s="8">
+      <c r="J140" s="6">
         <v>949.43652082015524</v>
       </c>
-      <c r="K140" s="8">
+      <c r="K140" s="6">
         <v>5886.5064290849623</v>
       </c>
-      <c r="L140" s="8">
+      <c r="L140" s="6">
         <v>0.58865064290849622</v>
       </c>
       <c r="M140">
-        <v>41.6633</v>
+        <v>41.668500000000002</v>
       </c>
       <c r="N140">
-        <v>-82.850120000000004</v>
+        <v>-82.854483333299996</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -7121,29 +7044,29 @@
       <c r="F141" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G141" s="5">
+      <c r="G141" s="9">
         <v>1903</v>
       </c>
-      <c r="H141" s="7">
+      <c r="H141" s="5">
         <v>9.6621600000000001</v>
       </c>
-      <c r="I141" s="10">
+      <c r="I141" s="8">
         <v>6.6</v>
       </c>
-      <c r="J141" s="8">
+      <c r="J141" s="6">
         <v>831.97805347498843</v>
       </c>
-      <c r="K141" s="8">
+      <c r="K141" s="6">
         <v>5491.0551529349232</v>
       </c>
-      <c r="L141" s="8">
+      <c r="L141" s="6">
         <v>0.54910551529349239</v>
       </c>
       <c r="M141">
-        <v>41.762920000000001</v>
+        <v>41.763133333299997</v>
       </c>
       <c r="N141">
-        <v>-82.849500000000006</v>
+        <v>-82.851699999999994</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -7167,29 +7090,29 @@
       <c r="F142" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G142" s="5">
+      <c r="G142" s="9">
         <v>1643</v>
       </c>
-      <c r="H142" s="7">
+      <c r="H142" s="5">
         <v>10.33272</v>
       </c>
-      <c r="I142" s="10">
+      <c r="I142" s="8">
         <v>6.2</v>
       </c>
-      <c r="J142" s="8">
+      <c r="J142" s="6">
         <v>919.40289667617731</v>
       </c>
-      <c r="K142" s="8">
+      <c r="K142" s="6">
         <v>5700.2979593922992</v>
       </c>
-      <c r="L142" s="8">
+      <c r="L142" s="6">
         <v>0.57002979593922998</v>
       </c>
       <c r="M142">
-        <v>41.863250000000001</v>
+        <v>41.864649999999997</v>
       </c>
       <c r="N142">
-        <v>-82.850099999999998</v>
+        <v>-82.850250000000003</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -7213,29 +7136,29 @@
       <c r="F143" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G143" s="5">
+      <c r="G143" s="9">
         <v>1548</v>
       </c>
-      <c r="H143" s="7">
+      <c r="H143" s="5">
         <v>9.1440000000000001</v>
       </c>
-      <c r="I143" s="10">
+      <c r="I143" s="8">
         <v>6.2</v>
       </c>
-      <c r="J143" s="8">
+      <c r="J143" s="6">
         <v>939.27129186143668</v>
       </c>
-      <c r="K143" s="8">
+      <c r="K143" s="6">
         <v>5823.4820095409077</v>
       </c>
-      <c r="L143" s="8">
+      <c r="L143" s="6">
         <v>0.58234820095409079</v>
       </c>
       <c r="M143">
-        <v>41.96367</v>
+        <v>41.964816666700003</v>
       </c>
       <c r="N143">
-        <v>-82.850300000000004</v>
+        <v>-82.851633333300001</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -7259,29 +7182,29 @@
       <c r="F144" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G144" s="5">
+      <c r="G144" s="9">
         <v>1119</v>
       </c>
-      <c r="H144" s="7">
+      <c r="H144" s="5">
         <v>7.2542400000000002</v>
       </c>
-      <c r="I144" s="10">
+      <c r="I144" s="8">
         <v>5.5</v>
       </c>
-      <c r="J144" s="8">
+      <c r="J144" s="6">
         <v>914.95185300508615</v>
       </c>
-      <c r="K144" s="8">
+      <c r="K144" s="6">
         <v>5032.2351915279742</v>
       </c>
-      <c r="L144" s="8">
+      <c r="L144" s="6">
         <v>0.50322351915279739</v>
       </c>
       <c r="M144">
-        <v>41.563420000000001</v>
+        <v>41.56335</v>
       </c>
       <c r="N144">
-        <v>-82.750519999999995</v>
+        <v>-82.749833333300003</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -7305,29 +7228,29 @@
       <c r="F145" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G145" s="5" t="s">
+      <c r="G145" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H145" s="7">
+      <c r="H145" s="5">
         <v>9.3573599999999999</v>
       </c>
-      <c r="I145" s="10">
+      <c r="I145" s="8">
         <v>6.2</v>
       </c>
-      <c r="J145" s="8">
+      <c r="J145" s="6">
         <v>1001.9855598412452</v>
       </c>
-      <c r="K145" s="8">
+      <c r="K145" s="6">
         <v>6212.3104710157204</v>
       </c>
-      <c r="L145" s="8">
+      <c r="L145" s="6">
         <v>0.62123104710157206</v>
       </c>
       <c r="M145">
-        <v>41.663179999999997</v>
+        <v>41.6636833333</v>
       </c>
       <c r="N145">
-        <v>-82.749970000000005</v>
+        <v>-82.749616666700007</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -7351,29 +7274,29 @@
       <c r="F146" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G146" s="5" t="s">
+      <c r="G146" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H146" s="7">
+      <c r="H146" s="5">
         <v>8.3515200000000007</v>
       </c>
-      <c r="I146" s="10">
-        <v>6</v>
-      </c>
-      <c r="J146" s="8">
+      <c r="I146" s="8">
+        <v>6</v>
+      </c>
+      <c r="J146" s="6">
         <v>959.59649146580102</v>
       </c>
-      <c r="K146" s="8">
+      <c r="K146" s="6">
         <v>5757.5789487948059</v>
       </c>
-      <c r="L146" s="8">
+      <c r="L146" s="6">
         <v>0.57575789487948059</v>
       </c>
       <c r="M146">
-        <v>41.76323</v>
+        <v>41.763849999999998</v>
       </c>
       <c r="N146">
-        <v>-82.749780000000001</v>
+        <v>-82.749966666700004</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -7397,29 +7320,29 @@
       <c r="F147" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G147" s="5" t="s">
+      <c r="G147" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H147" s="7">
+      <c r="H147" s="5">
         <v>10.667999999999999</v>
       </c>
-      <c r="I147" s="10">
+      <c r="I147" s="8">
         <v>8</v>
       </c>
-      <c r="J147" s="8">
+      <c r="J147" s="6">
         <v>966.9384363870563</v>
       </c>
-      <c r="K147" s="8">
+      <c r="K147" s="6">
         <v>7735.5074910964504</v>
       </c>
-      <c r="L147" s="8">
+      <c r="L147" s="6">
         <v>0.77355074910964505</v>
       </c>
       <c r="M147">
-        <v>41.863199999999999</v>
+        <v>41.865166666699999</v>
       </c>
       <c r="N147">
-        <v>-82.749849999999995</v>
+        <v>-82.750666666699999</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -7443,29 +7366,29 @@
       <c r="F148" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G148" s="5">
+      <c r="G148" s="9">
         <v>1459</v>
       </c>
-      <c r="H148" s="7">
+      <c r="H148" s="5">
         <v>10.058400000000001</v>
       </c>
-      <c r="I148" s="10">
+      <c r="I148" s="8">
         <v>6.4</v>
       </c>
-      <c r="J148" s="8">
+      <c r="J148" s="6">
         <v>940.08460989386424</v>
       </c>
-      <c r="K148" s="8">
+      <c r="K148" s="6">
         <v>6016.5415033207319</v>
       </c>
-      <c r="L148" s="8">
+      <c r="L148" s="6">
         <v>0.60165415033207326</v>
       </c>
       <c r="M148">
-        <v>41.963299999999997</v>
+        <v>41.9638666667</v>
       </c>
       <c r="N148">
-        <v>-82.753100000000003</v>
+        <v>-82.748666666700004</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -7489,29 +7412,29 @@
       <c r="F149" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G149" s="5">
+      <c r="G149" s="9">
         <v>1028</v>
       </c>
-      <c r="H149" s="7">
+      <c r="H149" s="5">
         <v>11.5824</v>
       </c>
-      <c r="I149" s="10">
+      <c r="I149" s="8">
         <v>7.1</v>
       </c>
-      <c r="J149" s="8">
+      <c r="J149" s="6">
         <v>928.32589991111013</v>
       </c>
-      <c r="K149" s="8">
+      <c r="K149" s="6">
         <v>6591.1138893688812</v>
       </c>
-      <c r="L149" s="8">
+      <c r="L149" s="6">
         <v>0.65911138893688814</v>
       </c>
       <c r="M149">
-        <v>41.563429999999997</v>
+        <v>41.564100000000003</v>
       </c>
       <c r="N149">
-        <v>-82.650720000000007</v>
+        <v>-82.650149999999996</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -7535,29 +7458,29 @@
       <c r="F150" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G150" s="5" t="s">
+      <c r="G150" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H150" s="7">
+      <c r="H150" s="5">
         <v>11.978639999999999</v>
       </c>
-      <c r="I150" s="10">
+      <c r="I150" s="8">
         <v>7.6</v>
       </c>
-      <c r="J150" s="8">
+      <c r="J150" s="6">
         <v>944.72504848584958</v>
       </c>
-      <c r="K150" s="8">
+      <c r="K150" s="6">
         <v>7179.9103684924567</v>
       </c>
-      <c r="L150" s="8">
+      <c r="L150" s="6">
         <v>0.7179910368492457</v>
       </c>
       <c r="M150">
-        <v>41.663420000000002</v>
+        <v>41.664149999999999</v>
       </c>
       <c r="N150">
-        <v>-82.654669999999996</v>
+        <v>-82.650433333300001</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -7581,29 +7504,29 @@
       <c r="F151" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G151" s="5">
+      <c r="G151" s="9">
         <v>1012</v>
       </c>
-      <c r="H151" s="7">
+      <c r="H151" s="5">
         <v>10.302239999999998</v>
       </c>
-      <c r="I151" s="10">
+      <c r="I151" s="8">
         <v>7.3</v>
       </c>
-      <c r="J151" s="8">
+      <c r="J151" s="6">
         <v>930.18114020047983</v>
       </c>
-      <c r="K151" s="8">
+      <c r="K151" s="6">
         <v>6790.3223234635025</v>
       </c>
-      <c r="L151" s="8">
+      <c r="L151" s="6">
         <v>0.67903223234635024</v>
       </c>
       <c r="M151">
-        <v>41.863329999999998</v>
+        <v>41.862716666700003</v>
       </c>
       <c r="N151">
-        <v>-82.650069999999999</v>
+        <v>-82.648083333299994</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -7627,29 +7550,29 @@
       <c r="F152" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G152" s="5">
+      <c r="G152" s="9">
         <v>1411</v>
       </c>
-      <c r="H152" s="7">
+      <c r="H152" s="5">
         <v>10.271760000000002</v>
       </c>
-      <c r="I152" s="10">
+      <c r="I152" s="8">
         <v>6.4</v>
       </c>
-      <c r="J152" s="8">
+      <c r="J152" s="6">
         <v>925.34123836250023</v>
       </c>
-      <c r="K152" s="8">
+      <c r="K152" s="6">
         <v>5922.183925520002</v>
       </c>
-      <c r="L152" s="8">
+      <c r="L152" s="6">
         <v>0.59221839255200026</v>
       </c>
       <c r="M152">
-        <v>41.963419999999999</v>
+        <v>41.964266666699999</v>
       </c>
       <c r="N152">
-        <v>-82.650019999999998</v>
+        <v>-82.649533333299999</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -7673,29 +7596,29 @@
       <c r="F153" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G153" s="5" t="s">
+      <c r="G153" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H153" s="7">
+      <c r="H153" s="5">
         <v>11.5824</v>
       </c>
-      <c r="I153" s="10">
+      <c r="I153" s="8">
         <v>6.7</v>
       </c>
-      <c r="J153" s="8">
+      <c r="J153" s="6">
         <v>939.67892804227779</v>
       </c>
-      <c r="K153" s="8">
+      <c r="K153" s="6">
         <v>6295.8488178832613</v>
       </c>
-      <c r="L153" s="8">
+      <c r="L153" s="6">
         <v>0.62958488178832617</v>
       </c>
       <c r="M153">
-        <v>41.463470000000001</v>
+        <v>41.458416666700003</v>
       </c>
       <c r="N153">
-        <v>-82.550250000000005</v>
+        <v>-82.546000000000006</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -7719,29 +7642,29 @@
       <c r="F154" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G154" s="5" t="s">
+      <c r="G154" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H154" s="7">
+      <c r="H154" s="5">
         <v>12.192</v>
       </c>
-      <c r="I154" s="10">
+      <c r="I154" s="8">
         <v>6.9</v>
       </c>
-      <c r="J154" s="8">
+      <c r="J154" s="6">
         <v>929.78434480499766</v>
       </c>
-      <c r="K154" s="8">
+      <c r="K154" s="6">
         <v>6415.5119791544839</v>
       </c>
-      <c r="L154" s="8">
+      <c r="L154" s="6">
         <v>0.64155119791544846</v>
       </c>
       <c r="M154">
-        <v>41.563319999999997</v>
+        <v>41.564483333333335</v>
       </c>
       <c r="N154">
-        <v>-82.550349999999995</v>
+        <v>-82.550216666666699</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -7765,29 +7688,29 @@
       <c r="F155" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G155" s="5" t="s">
+      <c r="G155" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H155" s="7">
+      <c r="H155" s="5">
         <v>12.527279999999999</v>
       </c>
-      <c r="I155" s="10">
+      <c r="I155" s="8">
         <v>7.4</v>
       </c>
-      <c r="J155" s="8">
+      <c r="J155" s="6">
         <v>967.43666689909139</v>
       </c>
-      <c r="K155" s="8">
+      <c r="K155" s="6">
         <v>7159.031335053277</v>
       </c>
-      <c r="L155" s="8">
+      <c r="L155" s="6">
         <v>0.71590313350532775</v>
       </c>
       <c r="M155">
-        <v>41.659820000000003</v>
+        <v>41.663666666700003</v>
       </c>
       <c r="N155">
-        <v>-82.549880000000002</v>
+        <v>-82.549666666700006</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -7811,29 +7734,29 @@
       <c r="F156" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G156" s="5">
+      <c r="G156" s="9">
         <v>1124</v>
       </c>
-      <c r="H156" s="7">
+      <c r="H156" s="5">
         <v>10.820399999999999</v>
       </c>
-      <c r="I156" s="10">
+      <c r="I156" s="8">
         <v>7</v>
       </c>
-      <c r="J156" s="8">
+      <c r="J156" s="6">
         <v>937.56439852582537</v>
       </c>
-      <c r="K156" s="8">
+      <c r="K156" s="6">
         <v>6562.9507896807772</v>
       </c>
-      <c r="L156" s="8">
+      <c r="L156" s="6">
         <v>0.65629507896807771</v>
       </c>
       <c r="M156">
-        <v>41.76632</v>
+        <v>41.761949999999999</v>
       </c>
       <c r="N156">
-        <v>-82.550449999999998</v>
+        <v>-82.550299999999993</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -7857,29 +7780,29 @@
       <c r="F157" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G157" s="5">
+      <c r="G157" s="9">
         <v>1312</v>
       </c>
-      <c r="H157" s="7">
+      <c r="H157" s="5">
         <v>11.5824</v>
       </c>
-      <c r="I157" s="10">
+      <c r="I157" s="8">
         <v>6.6</v>
       </c>
-      <c r="J157" s="8">
+      <c r="J157" s="6">
         <v>964.15209247782673</v>
       </c>
-      <c r="K157" s="8">
+      <c r="K157" s="6">
         <v>6363.4038103536559</v>
       </c>
-      <c r="L157" s="8">
+      <c r="L157" s="6">
         <v>0.63634038103536561</v>
       </c>
       <c r="M157">
-        <v>41.863500000000002</v>
+        <v>41.862883333299997</v>
       </c>
       <c r="N157">
-        <v>-82.550020000000004</v>
+        <v>-82.548833333299996</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -7903,29 +7826,29 @@
       <c r="F158" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G158" s="5">
+      <c r="G158" s="9">
         <v>1508</v>
       </c>
-      <c r="H158" s="7">
+      <c r="H158" s="5">
         <v>12.405360000000002</v>
       </c>
-      <c r="I158" s="10">
+      <c r="I158" s="8">
         <v>6.7</v>
       </c>
-      <c r="J158" s="8">
+      <c r="J158" s="6">
         <v>933.6772099598021</v>
       </c>
-      <c r="K158" s="8">
+      <c r="K158" s="6">
         <v>6255.637306730674</v>
       </c>
-      <c r="L158" s="8">
+      <c r="L158" s="6">
         <v>0.62556373067306748</v>
       </c>
       <c r="M158">
-        <v>41.463329999999999</v>
+        <v>41.4636</v>
       </c>
       <c r="N158">
-        <v>-82.447069999999997</v>
+        <v>-82.449700000000007</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -7949,29 +7872,29 @@
       <c r="F159" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G159" s="5">
+      <c r="G159" s="9">
         <v>1134</v>
       </c>
-      <c r="H159" s="7">
+      <c r="H159" s="5">
         <v>13.411199999999999</v>
       </c>
-      <c r="I159" s="10">
+      <c r="I159" s="8">
         <v>6.7</v>
       </c>
-      <c r="J159" s="8">
+      <c r="J159" s="6">
         <v>975.02212826936579</v>
       </c>
-      <c r="K159" s="8">
+      <c r="K159" s="6">
         <v>6532.6482594047511</v>
       </c>
-      <c r="L159" s="8">
+      <c r="L159" s="6">
         <v>0.65326482594047519</v>
       </c>
       <c r="M159">
-        <v>41.563920000000003</v>
+        <v>41.563633333299997</v>
       </c>
       <c r="N159">
-        <v>-82.452699999999993</v>
+        <v>-82.450066666699996</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -7995,29 +7918,29 @@
       <c r="F160" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G160" s="5" t="s">
+      <c r="G160" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H160" s="7">
+      <c r="H160" s="5">
         <v>13.502639999999998</v>
       </c>
-      <c r="I160" s="10">
+      <c r="I160" s="8">
         <v>7</v>
       </c>
-      <c r="J160" s="8">
+      <c r="J160" s="6">
         <v>891.0273093854812</v>
       </c>
-      <c r="K160" s="8">
+      <c r="K160" s="6">
         <v>6237.1911656983684</v>
       </c>
-      <c r="L160" s="8">
+      <c r="L160" s="6">
         <v>0.62371911656983692</v>
       </c>
       <c r="M160">
-        <v>41.663350000000001</v>
+        <v>41.663699999999999</v>
       </c>
       <c r="N160">
-        <v>-82.453919999999997</v>
+        <v>-82.45</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -8041,29 +7964,29 @@
       <c r="F161" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G161" s="5">
+      <c r="G161" s="9">
         <v>1209</v>
       </c>
-      <c r="H161" s="7">
+      <c r="H161" s="5">
         <v>12.192</v>
       </c>
-      <c r="I161" s="10">
+      <c r="I161" s="8">
         <v>6.7</v>
       </c>
-      <c r="J161" s="8">
+      <c r="J161" s="6">
         <v>913.34388754077327</v>
       </c>
-      <c r="K161" s="8">
+      <c r="K161" s="6">
         <v>6119.404046523181</v>
       </c>
-      <c r="L161" s="8">
+      <c r="L161" s="6">
         <v>0.61194040465231814</v>
       </c>
       <c r="M161">
-        <v>41.764749999999999</v>
+        <v>41.763350000000003</v>
       </c>
       <c r="N161">
-        <v>-82.449520000000007</v>
+        <v>-82.447433333299998</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -8087,29 +8010,29 @@
       <c r="F162" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G162" s="5">
+      <c r="G162" s="9">
         <v>1419</v>
       </c>
-      <c r="H162" s="7">
+      <c r="H162" s="5">
         <v>12.283439999999999</v>
       </c>
-      <c r="I162" s="10">
+      <c r="I162" s="8">
         <v>6.8</v>
       </c>
-      <c r="J162" s="8">
+      <c r="J162" s="6">
         <v>969.07655035352661</v>
       </c>
-      <c r="K162" s="8">
+      <c r="K162" s="6">
         <v>6589.7205424039812</v>
       </c>
-      <c r="L162" s="8">
+      <c r="L162" s="6">
         <v>0.65897205424039818</v>
       </c>
       <c r="M162">
-        <v>41.463329999999999</v>
+        <v>41.463833333300002</v>
       </c>
       <c r="N162">
-        <v>-82.34693</v>
+        <v>-82.349666666700003</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -8133,29 +8056,29 @@
       <c r="F163" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G163" s="5">
+      <c r="G163" s="9">
         <v>1219</v>
       </c>
-      <c r="H163" s="7">
+      <c r="H163" s="5">
         <v>13.411199999999999</v>
       </c>
-      <c r="I163" s="10">
+      <c r="I163" s="8">
         <v>7.6</v>
       </c>
-      <c r="J163" s="8">
+      <c r="J163" s="6">
         <v>963.78974311636773</v>
       </c>
-      <c r="K163" s="8">
+      <c r="K163" s="6">
         <v>7324.802047684394</v>
       </c>
-      <c r="L163" s="8">
+      <c r="L163" s="6">
         <v>0.73248020476843945</v>
       </c>
       <c r="M163">
-        <v>41.564480000000003</v>
+        <v>41.563299999999998</v>
       </c>
       <c r="N163">
-        <v>-82.351749999999996</v>
+        <v>-82.352099999999993</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -8179,29 +8102,29 @@
       <c r="F164" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G164" s="5">
+      <c r="G164" s="9">
         <v>1022</v>
       </c>
-      <c r="H164" s="7">
+      <c r="H164" s="5">
         <v>13.472160000000002</v>
       </c>
-      <c r="I164" s="10">
+      <c r="I164" s="8">
         <v>7.6</v>
       </c>
-      <c r="J164" s="8">
+      <c r="J164" s="6">
         <v>911.12335572978122</v>
       </c>
-      <c r="K164" s="8">
+      <c r="K164" s="6">
         <v>6924.5375035463367</v>
       </c>
-      <c r="L164" s="8">
+      <c r="L164" s="6">
         <v>0.69245375035463375</v>
       </c>
       <c r="M164">
-        <v>41.66545</v>
+        <v>41.66375</v>
       </c>
       <c r="N164">
-        <v>-82.348699999999994</v>
+        <v>-82.350700000000003</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -8225,29 +8148,29 @@
       <c r="F165" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G165" s="5">
+      <c r="G165" s="9">
         <v>1330</v>
       </c>
-      <c r="H165" s="7">
+      <c r="H165" s="5">
         <v>11.704319999999999</v>
       </c>
-      <c r="I165" s="10">
+      <c r="I165" s="8">
         <v>6.6</v>
       </c>
-      <c r="J165" s="8">
+      <c r="J165" s="6">
         <v>922.46121396180604</v>
       </c>
-      <c r="K165" s="8">
+      <c r="K165" s="6">
         <v>6088.2440121479194</v>
       </c>
-      <c r="L165" s="8">
+      <c r="L165" s="6">
         <v>0.60882440121479198</v>
       </c>
       <c r="M165">
-        <v>41.462919999999997</v>
+        <v>41.464100000000002</v>
       </c>
       <c r="N165">
-        <v>-82.249120000000005</v>
+        <v>-82.2511166667</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -8271,29 +8194,29 @@
       <c r="F166" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G166" s="5">
+      <c r="G166" s="9">
         <v>1627</v>
       </c>
-      <c r="H166" s="7">
+      <c r="H166" s="5">
         <v>4.5720000000000001</v>
       </c>
-      <c r="I166" s="9">
+      <c r="I166" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J166" s="7">
+      <c r="J166" s="5">
         <v>973.17042759636286</v>
       </c>
-      <c r="K166" s="7">
+      <c r="K166" s="5">
         <v>7679.1993741240276</v>
       </c>
-      <c r="L166" s="7">
+      <c r="L166" s="5">
         <v>0.76791993741240283</v>
       </c>
       <c r="M166">
-        <v>41.763750000000002</v>
+        <v>41.782096666666668</v>
       </c>
       <c r="N166">
-        <v>-83.346149999999994</v>
+        <v>-83.346805000000003</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -8317,29 +8240,29 @@
       <c r="F167" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G167" s="5">
+      <c r="G167" s="9">
         <v>1722</v>
       </c>
-      <c r="H167" s="7">
+      <c r="H167" s="5">
         <v>7.1018400000000002</v>
       </c>
-      <c r="I167" s="9">
+      <c r="I167" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J167" s="7">
+      <c r="J167" s="5">
         <v>926.48762836871288</v>
       </c>
-      <c r="K167" s="7">
+      <c r="K167" s="5">
         <v>7310.8296493094804</v>
       </c>
-      <c r="L167" s="7">
+      <c r="L167" s="5">
         <v>0.73108296493094804</v>
       </c>
       <c r="M167">
-        <v>41.763379999999998</v>
+        <v>41.780005000000003</v>
       </c>
       <c r="N167">
-        <v>-83.249870000000001</v>
+        <v>-83.250766666666664</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -8363,29 +8286,29 @@
       <c r="F168" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G168" s="5">
+      <c r="G168" s="9">
         <v>1447</v>
       </c>
-      <c r="H168" s="7">
+      <c r="H168" s="5">
         <v>7.0408799999999996</v>
       </c>
-      <c r="I168" s="9">
+      <c r="I168" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J168" s="7">
+      <c r="J168" s="5">
         <v>973.55163226496074</v>
       </c>
-      <c r="K168" s="7">
+      <c r="K168" s="5">
         <v>7682.2074255089638</v>
       </c>
-      <c r="L168" s="7">
+      <c r="L168" s="5">
         <v>0.76822074255089645</v>
       </c>
       <c r="M168">
-        <v>41.863399999999999</v>
+        <v>41.880015</v>
       </c>
       <c r="N168">
-        <v>-83.249930000000006</v>
+        <v>-83.251293333333336</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -8409,29 +8332,29 @@
       <c r="F169" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G169" s="5">
+      <c r="G169" s="9">
         <v>1832</v>
       </c>
-      <c r="H169" s="7">
+      <c r="H169" s="5">
         <v>6.8275199999999989</v>
       </c>
-      <c r="I169" s="9">
+      <c r="I169" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J169" s="7">
+      <c r="J169" s="5">
         <v>1098.2322709935695</v>
       </c>
-      <c r="K169" s="7">
+      <c r="K169" s="5">
         <v>8666.0510111128951</v>
       </c>
-      <c r="L169" s="7">
+      <c r="L169" s="5">
         <v>0.86660510111128952</v>
       </c>
       <c r="M169">
-        <v>41.663379999999997</v>
+        <v>41.699516666666668</v>
       </c>
       <c r="N169">
-        <v>-83.149799999999999</v>
+        <v>-83.056703333333331</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -8455,29 +8378,29 @@
       <c r="F170" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G170" s="5">
+      <c r="G170" s="9">
         <v>1808</v>
       </c>
-      <c r="H170" s="7">
+      <c r="H170" s="5">
         <v>7.7724000000000002</v>
       </c>
-      <c r="I170" s="9">
+      <c r="I170" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J170" s="7">
+      <c r="J170" s="5">
         <v>903.553068718335</v>
       </c>
-      <c r="K170" s="7">
+      <c r="K170" s="5">
         <v>7129.8551240683164</v>
       </c>
-      <c r="L170" s="7">
+      <c r="L170" s="5">
         <v>0.71298551240683172</v>
       </c>
       <c r="M170">
-        <v>41.76343</v>
+        <v>41.779969999999999</v>
       </c>
       <c r="N170">
-        <v>-83.149870000000007</v>
+        <v>-83.151103333333339</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -8501,29 +8424,29 @@
       <c r="F171" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G171" s="5">
+      <c r="G171" s="9">
         <v>1356</v>
       </c>
-      <c r="H171" s="7">
+      <c r="H171" s="5">
         <v>8.1686399999999999</v>
       </c>
-      <c r="I171" s="9">
+      <c r="I171" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J171" s="7">
+      <c r="J171" s="5">
         <v>1011.5953835451213</v>
       </c>
-      <c r="K171" s="7">
+      <c r="K171" s="5">
         <v>7982.4072083378669</v>
       </c>
-      <c r="L171" s="7">
+      <c r="L171" s="5">
         <v>0.79824072083378672</v>
       </c>
       <c r="M171">
-        <v>41.863430000000001</v>
+        <v>41.879006666666669</v>
       </c>
       <c r="N171">
-        <v>-83.149950000000004</v>
+        <v>-83.150631666666669</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -8547,29 +8470,29 @@
       <c r="F172" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G172" s="5">
+      <c r="G172" s="9">
         <v>1303</v>
       </c>
-      <c r="H172" s="7">
+      <c r="H172" s="5">
         <v>6.2788800000000009</v>
       </c>
-      <c r="I172" s="9">
+      <c r="I172" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J172" s="7">
+      <c r="J172" s="5">
         <v>930.60266853035876</v>
       </c>
-      <c r="K172" s="7">
+      <c r="K172" s="5">
         <v>7343.3010571304676</v>
       </c>
-      <c r="L172" s="7">
+      <c r="L172" s="5">
         <v>0.7343301057130468</v>
       </c>
       <c r="M172">
-        <v>41.963470000000001</v>
+        <v>41.979826666666668</v>
       </c>
       <c r="N172">
-        <v>-83.149879999999996</v>
+        <v>-83.115136666666672</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -8593,29 +8516,29 @@
       <c r="F173" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G173" s="5">
+      <c r="G173" s="9">
         <v>1717</v>
       </c>
-      <c r="H173" s="7">
+      <c r="H173" s="5">
         <v>7.8943199999999996</v>
       </c>
-      <c r="I173" s="9">
+      <c r="I173" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J173" s="7">
+      <c r="J173" s="5">
         <v>925.19121483049821</v>
       </c>
-      <c r="K173" s="7">
+      <c r="K173" s="5">
         <v>7300.5997679352049</v>
       </c>
-      <c r="L173" s="7">
+      <c r="L173" s="5">
         <v>0.73005997679352053</v>
       </c>
       <c r="M173">
-        <v>41.663269999999997</v>
+        <v>41.680973333333334</v>
       </c>
       <c r="N173">
-        <v>-83.049670000000006</v>
+        <v>-83.052424999999999</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -8639,29 +8562,29 @@
       <c r="F174" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G174" s="5">
+      <c r="G174" s="9">
         <v>2009</v>
       </c>
-      <c r="H174" s="7">
+      <c r="H174" s="5">
         <v>8.9916</v>
       </c>
-      <c r="I174" s="9">
+      <c r="I174" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J174" s="7">
+      <c r="J174" s="5">
         <v>932.1710382477803</v>
       </c>
-      <c r="K174" s="7">
+      <c r="K174" s="5">
         <v>7355.6769199915761</v>
       </c>
-      <c r="L174" s="7">
+      <c r="L174" s="5">
         <v>0.73556769199915761</v>
       </c>
       <c r="M174">
-        <v>41.76343</v>
+        <v>41.77124666666667</v>
       </c>
       <c r="N174">
-        <v>-83.049899999999994</v>
+        <v>-83.025885000000002</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -8685,29 +8608,29 @@
       <c r="F175" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G175" s="5">
+      <c r="G175" s="9">
         <v>1116</v>
       </c>
-      <c r="H175" s="7">
+      <c r="H175" s="5">
         <v>8.8391999999999999</v>
       </c>
-      <c r="I175" s="9">
+      <c r="I175" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J175" s="7">
+      <c r="J175" s="5">
         <v>961.06006834852951</v>
       </c>
-      <c r="K175" s="7">
+      <c r="K175" s="5">
         <v>7583.6376302411245</v>
       </c>
-      <c r="L175" s="7">
+      <c r="L175" s="5">
         <v>0.75836376302411246</v>
       </c>
       <c r="M175">
-        <v>41.868499999999997</v>
+        <v>41.880495000000003</v>
       </c>
       <c r="N175">
-        <v>-83.050929999999994</v>
+        <v>-83.049525000000003</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -8731,29 +8654,29 @@
       <c r="F176" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G176" s="5">
+      <c r="G176" s="9">
         <v>1213</v>
       </c>
-      <c r="H176" s="7">
+      <c r="H176" s="5">
         <v>7.62</v>
       </c>
-      <c r="I176" s="9">
+      <c r="I176" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J176" s="7">
+      <c r="J176" s="5">
         <v>951.89779716413364</v>
       </c>
-      <c r="K176" s="7">
+      <c r="K176" s="5">
         <v>7511.3389812588002</v>
       </c>
-      <c r="L176" s="7">
+      <c r="L176" s="5">
         <v>0.75113389812588005</v>
       </c>
       <c r="M176">
-        <v>41.963149999999999</v>
+        <v>41.979711666666667</v>
       </c>
       <c r="N176">
-        <v>-83.050669999999997</v>
+        <v>-83.049806666666669</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -8777,29 +8700,29 @@
       <c r="F177" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G177" s="5">
+      <c r="G177" s="9">
         <v>1455</v>
       </c>
-      <c r="H177" s="7">
+      <c r="H177" s="5">
         <v>6.0960000000000001</v>
       </c>
-      <c r="I177" s="9">
+      <c r="I177" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J177" s="7">
+      <c r="J177" s="5">
         <v>1074.3253751926386</v>
       </c>
-      <c r="K177" s="7">
+      <c r="K177" s="5">
         <v>8477.4038697019132</v>
       </c>
-      <c r="L177" s="7">
+      <c r="L177" s="5">
         <v>0.84774038697019138</v>
       </c>
       <c r="M177">
-        <v>41.563470000000002</v>
+        <v>41.581563333333335</v>
       </c>
       <c r="N177">
-        <v>-82.950919999999996</v>
+        <v>-82.947753333333338</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -8823,29 +8746,29 @@
       <c r="F178" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G178" s="5">
+      <c r="G178" s="9">
         <v>1553</v>
       </c>
-      <c r="H178" s="7">
+      <c r="H178" s="5">
         <v>8.7477599999999995</v>
       </c>
-      <c r="I178" s="9">
+      <c r="I178" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J178" s="7">
+      <c r="J178" s="5">
         <v>1017.0461004896925</v>
       </c>
-      <c r="K178" s="7">
+      <c r="K178" s="5">
         <v>8025.4183202277563</v>
       </c>
-      <c r="L178" s="7">
+      <c r="L178" s="5">
         <v>0.80254183202277563</v>
       </c>
       <c r="M178">
-        <v>41.664380000000001</v>
+        <v>41.684338333333336</v>
       </c>
       <c r="N178">
-        <v>-82.950699999999998</v>
+        <v>-82.952056666666664</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -8869,29 +8792,29 @@
       <c r="F179" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G179" s="5" t="s">
+      <c r="G179" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H179" s="7">
+      <c r="H179" s="5">
         <v>9.4488000000000003</v>
       </c>
-      <c r="I179" s="9">
+      <c r="I179" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J179" s="7">
+      <c r="J179" s="5">
         <v>1015.9287729565275</v>
       </c>
-      <c r="K179" s="7">
+      <c r="K179" s="5">
         <v>8016.6015902387817</v>
       </c>
-      <c r="L179" s="7">
+      <c r="L179" s="5">
         <v>0.80166015902387822</v>
       </c>
       <c r="M179">
-        <v>41.762749999999997</v>
+        <v>41.762965000000001</v>
       </c>
       <c r="N179">
-        <v>-82.950379999999996</v>
+        <v>-82.949583333333337</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -8915,29 +8838,29 @@
       <c r="F180" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G180" s="5">
+      <c r="G180" s="9">
         <v>1032</v>
       </c>
-      <c r="H180" s="7">
+      <c r="H180" s="5">
         <v>9.6012000000000004</v>
       </c>
-      <c r="I180" s="9">
+      <c r="I180" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J180" s="7">
+      <c r="J180" s="5">
         <v>957.30197022031757</v>
       </c>
-      <c r="K180" s="7">
+      <c r="K180" s="5">
         <v>7553.9828195566879</v>
       </c>
-      <c r="L180" s="7">
+      <c r="L180" s="5">
         <v>0.75539828195566883</v>
       </c>
       <c r="M180">
-        <v>41.863570000000003</v>
+        <v>41.879559999999998</v>
       </c>
       <c r="N180">
-        <v>-82.950180000000003</v>
+        <v>-82.949924999999993</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -8961,29 +8884,29 @@
       <c r="F181" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G181" s="5" t="s">
+      <c r="G181" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H181" s="7">
+      <c r="H181" s="5">
         <v>9.1440000000000001</v>
       </c>
-      <c r="I181" s="9">
+      <c r="I181" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J181" s="7">
+      <c r="J181" s="5">
         <v>967.59491821335178</v>
       </c>
-      <c r="K181" s="7">
+      <c r="K181" s="5">
         <v>7635.2035364471767</v>
       </c>
-      <c r="L181" s="7">
+      <c r="L181" s="5">
         <v>0.76352035364471771</v>
       </c>
       <c r="M181">
-        <v>41.6633</v>
+        <v>41.673313333333333</v>
       </c>
       <c r="N181">
-        <v>-82.850120000000004</v>
+        <v>-82.849699999999999</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -9007,29 +8930,29 @@
       <c r="F182" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G182" s="5">
+      <c r="G182" s="9">
         <v>1850</v>
       </c>
-      <c r="H182" s="7">
+      <c r="H182" s="5">
         <v>9.7536000000000005</v>
       </c>
-      <c r="I182" s="9">
+      <c r="I182" s="7">
         <v>7.8</v>
       </c>
-      <c r="J182" s="7">
+      <c r="J182" s="5">
         <v>957.63154951277227</v>
       </c>
-      <c r="K182" s="7">
+      <c r="K182" s="5">
         <v>7469.5260861996239</v>
       </c>
-      <c r="L182" s="7">
+      <c r="L182" s="5">
         <v>0.74695260861996238</v>
       </c>
       <c r="M182">
-        <v>41.762920000000001</v>
+        <v>41.763330000000003</v>
       </c>
       <c r="N182">
-        <v>-82.849500000000006</v>
+        <v>-82.850219999999993</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -9053,29 +8976,29 @@
       <c r="F183" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G183" s="5">
+      <c r="G183" s="9">
         <v>1755</v>
       </c>
-      <c r="H183" s="7">
+      <c r="H183" s="5">
         <v>10.667999999999999</v>
       </c>
-      <c r="I183" s="9">
+      <c r="I183" s="7">
         <v>7.4</v>
       </c>
-      <c r="J183" s="7">
+      <c r="J183" s="5">
         <v>964.33473420700557</v>
       </c>
-      <c r="K183" s="7">
+      <c r="K183" s="5">
         <v>7136.0770331318417</v>
       </c>
-      <c r="L183" s="7">
+      <c r="L183" s="5">
         <v>0.71360770331318424</v>
       </c>
       <c r="M183">
-        <v>41.863250000000001</v>
+        <v>41.86345166666667</v>
       </c>
       <c r="N183">
-        <v>-82.850099999999998</v>
+        <v>-82.850250000000003</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -9099,29 +9022,29 @@
       <c r="F184" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G184" s="5">
+      <c r="G184" s="9">
         <v>1656</v>
       </c>
-      <c r="H184" s="7">
+      <c r="H184" s="5">
         <v>9.2049599999999998</v>
       </c>
-      <c r="I184" s="9">
+      <c r="I184" s="7">
         <v>7.8</v>
       </c>
-      <c r="J184" s="7">
+      <c r="J184" s="5">
         <v>945.69417351855486</v>
       </c>
-      <c r="K184" s="7">
+      <c r="K184" s="5">
         <v>7376.414553444728</v>
       </c>
-      <c r="L184" s="7">
+      <c r="L184" s="5">
         <v>0.73764145534447279</v>
       </c>
       <c r="M184">
-        <v>41.96367</v>
+        <v>41.962758333333333</v>
       </c>
       <c r="N184">
-        <v>-82.850300000000004</v>
+        <v>-82.850553333333337</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -9145,29 +9068,29 @@
       <c r="F185" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G185" s="5">
+      <c r="G185" s="9">
         <v>1334</v>
       </c>
-      <c r="H185" s="7">
+      <c r="H185" s="5">
         <v>6.0960000000000001</v>
       </c>
-      <c r="I185" s="9">
+      <c r="I185" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J185" s="7">
+      <c r="J185" s="5">
         <v>1083.1139373885349</v>
       </c>
-      <c r="K185" s="7">
+      <c r="K185" s="5">
         <v>8546.7536150295309</v>
       </c>
-      <c r="L185" s="7">
+      <c r="L185" s="5">
         <v>0.85467536150295309</v>
       </c>
       <c r="M185">
-        <v>41.563420000000001</v>
+        <v>41.580773333333333</v>
       </c>
       <c r="N185">
-        <v>-82.750519999999995</v>
+        <v>-82.747865000000004</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -9191,29 +9114,29 @@
       <c r="F186" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G186" s="5" t="s">
+      <c r="G186" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H186" s="7">
+      <c r="H186" s="5">
         <v>9.2659199999999995</v>
       </c>
-      <c r="I186" s="9">
+      <c r="I186" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J186" s="7">
+      <c r="J186" s="5">
         <v>942.46824515102321</v>
       </c>
-      <c r="K186" s="7">
+      <c r="K186" s="5">
         <v>7436.9312435553475</v>
       </c>
-      <c r="L186" s="7">
+      <c r="L186" s="5">
         <v>0.74369312435553481</v>
       </c>
       <c r="M186">
-        <v>41.663179999999997</v>
+        <v>41.680284999999998</v>
       </c>
       <c r="N186">
-        <v>-82.749970000000005</v>
+        <v>-82.750311666666661</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -9237,29 +9160,29 @@
       <c r="F187" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G187" s="5" t="s">
+      <c r="G187" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H187" s="7">
+      <c r="H187" s="5">
         <v>8.7782400000000003</v>
       </c>
-      <c r="I187" s="9">
+      <c r="I187" s="7">
         <v>7.2</v>
       </c>
-      <c r="J187" s="7">
+      <c r="J187" s="5">
         <v>967.29115050148266</v>
       </c>
-      <c r="K187" s="7">
+      <c r="K187" s="5">
         <v>6964.4962836106752</v>
       </c>
-      <c r="L187" s="7">
+      <c r="L187" s="5">
         <v>0.6964496283610675</v>
       </c>
       <c r="M187">
-        <v>41.76323</v>
+        <v>41.771756666666668</v>
       </c>
       <c r="N187">
-        <v>-82.749780000000001</v>
+        <v>-82.751530000000002</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -9283,29 +9206,29 @@
       <c r="F188" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G188" s="5" t="s">
+      <c r="G188" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H188" s="7">
+      <c r="H188" s="5">
         <v>11.094720000000001</v>
       </c>
-      <c r="I188" s="9">
+      <c r="I188" s="7">
         <v>7.9</v>
       </c>
-      <c r="J188" s="7">
+      <c r="J188" s="5">
         <v>961.43144651205216</v>
       </c>
-      <c r="K188" s="7">
+      <c r="K188" s="5">
         <v>7595.3084274452121</v>
       </c>
-      <c r="L188" s="7">
+      <c r="L188" s="5">
         <v>0.75953084274452121</v>
       </c>
       <c r="M188">
-        <v>41.863199999999999</v>
+        <v>41.868448333333333</v>
       </c>
       <c r="N188">
-        <v>-82.749849999999995</v>
+        <v>-82.750631666666663</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -9329,29 +9252,29 @@
       <c r="F189" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G189" s="5">
+      <c r="G189" s="9">
         <v>1610</v>
       </c>
-      <c r="H189" s="7">
+      <c r="H189" s="5">
         <v>10.08888</v>
       </c>
-      <c r="I189" s="9">
+      <c r="I189" s="7">
         <v>7.8909090909090915</v>
       </c>
-      <c r="J189" s="7">
+      <c r="J189" s="5">
         <v>929.97228583875346</v>
       </c>
-      <c r="K189" s="7">
+      <c r="K189" s="5">
         <v>7338.3267646185277</v>
       </c>
-      <c r="L189" s="7">
+      <c r="L189" s="5">
         <v>0.7338326764618528</v>
       </c>
       <c r="M189">
-        <v>41.963299999999997</v>
+        <v>41.9636</v>
       </c>
       <c r="N189">
-        <v>-82.753100000000003</v>
+        <v>-82.750093333333339</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -9375,29 +9298,29 @@
       <c r="F190" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G190" s="5">
+      <c r="G190" s="9">
         <v>1054</v>
       </c>
-      <c r="H190" s="7">
+      <c r="H190" s="5">
         <v>11.7348</v>
       </c>
-      <c r="I190" s="9">
+      <c r="I190" s="7">
         <v>8.1</v>
       </c>
-      <c r="J190" s="7">
+      <c r="J190" s="5">
         <v>1024.5596640900937</v>
       </c>
-      <c r="K190" s="7">
+      <c r="K190" s="5">
         <v>8298.9332791297584</v>
       </c>
-      <c r="L190" s="7">
+      <c r="L190" s="5">
         <v>0.82989332791297588</v>
       </c>
       <c r="M190">
-        <v>41.563429999999997</v>
+        <v>41.580134999999999</v>
       </c>
       <c r="N190">
-        <v>-82.650720000000007</v>
+        <v>-82.648619999999994</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -9421,29 +9344,29 @@
       <c r="F191" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G191" s="5" t="s">
+      <c r="G191" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H191" s="7">
+      <c r="H191" s="5">
         <v>12.192</v>
       </c>
-      <c r="I191" s="9">
+      <c r="I191" s="7">
         <v>8.1</v>
       </c>
-      <c r="J191" s="7">
+      <c r="J191" s="5">
         <v>935.84549288278208</v>
       </c>
-      <c r="K191" s="7">
+      <c r="K191" s="5">
         <v>7580.3484923505348</v>
       </c>
-      <c r="L191" s="7">
+      <c r="L191" s="5">
         <v>0.75803484923505349</v>
       </c>
       <c r="M191">
-        <v>41.663420000000002</v>
+        <v>41.662495</v>
       </c>
       <c r="N191">
-        <v>-82.654669999999996</v>
+        <v>-82.647398333333328</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
@@ -9467,32 +9390,32 @@
       <c r="F192" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G192" s="5">
+      <c r="G192" s="9">
         <v>1045</v>
       </c>
-      <c r="H192" s="7">
+      <c r="H192" s="5">
         <v>10.667999999999999</v>
       </c>
-      <c r="I192" s="9">
+      <c r="I192" s="7">
         <v>7.5</v>
       </c>
-      <c r="J192" s="7">
+      <c r="J192" s="5">
         <v>863.31471172070246</v>
       </c>
-      <c r="K192" s="7">
+      <c r="K192" s="5">
         <v>6474.8603379052684</v>
       </c>
-      <c r="L192" s="7">
+      <c r="L192" s="5">
         <v>0.64748603379052683</v>
       </c>
       <c r="M192">
-        <v>41.863329999999998</v>
+        <v>41.863681666666665</v>
       </c>
       <c r="N192">
-        <v>-82.650069999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.650913333333335</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>128</v>
       </c>
@@ -9513,32 +9436,32 @@
       <c r="F193" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G193" s="5">
+      <c r="G193" s="9">
         <v>1525</v>
       </c>
-      <c r="H193" s="7">
+      <c r="H193" s="5">
         <v>10.210800000000001</v>
       </c>
-      <c r="I193" s="9">
+      <c r="I193" s="7">
         <v>7.2</v>
       </c>
-      <c r="J193" s="7">
+      <c r="J193" s="5">
         <v>952.78784889250494</v>
       </c>
-      <c r="K193" s="7">
+      <c r="K193" s="5">
         <v>6860.0725120260358</v>
       </c>
-      <c r="L193" s="7">
+      <c r="L193" s="5">
         <v>0.68600725120260364</v>
       </c>
       <c r="M193">
-        <v>41.963419999999999</v>
+        <v>41.972034999999998</v>
       </c>
       <c r="N193">
-        <v>-82.650019999999998</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.65094666666667</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>129</v>
       </c>
@@ -9559,32 +9482,32 @@
       <c r="F194" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G194" s="5" t="s">
+      <c r="G194" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H194" s="7">
+      <c r="H194" s="5">
         <v>12.801600000000001</v>
       </c>
-      <c r="I194" s="9">
+      <c r="I194" s="7">
         <v>8.6</v>
       </c>
-      <c r="J194" s="7">
+      <c r="J194" s="5">
         <v>1027.6341035684977</v>
       </c>
-      <c r="K194" s="7">
+      <c r="K194" s="5">
         <v>8837.6532906890807</v>
       </c>
-      <c r="L194" s="7">
+      <c r="L194" s="5">
         <v>0.88376532906890815</v>
       </c>
       <c r="M194">
-        <v>41.463470000000001</v>
+        <v>41.481563333333334</v>
       </c>
       <c r="N194">
-        <v>-82.550250000000005</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.549956666666674</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>130</v>
       </c>
@@ -9605,32 +9528,32 @@
       <c r="F195" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G195" s="5" t="s">
+      <c r="G195" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H195" s="7">
+      <c r="H195" s="5">
         <v>12.588239999999999</v>
       </c>
-      <c r="I195" s="9">
+      <c r="I195" s="7">
         <v>8.5</v>
       </c>
-      <c r="J195" s="7">
+      <c r="J195" s="5">
         <v>1034.5923267076612</v>
       </c>
-      <c r="K195" s="7">
+      <c r="K195" s="5">
         <v>8794.0347770151202</v>
       </c>
-      <c r="L195" s="7">
+      <c r="L195" s="5">
         <v>0.87940347770151206</v>
       </c>
       <c r="M195">
-        <v>41.563319999999997</v>
+        <v>41.581296666666667</v>
       </c>
       <c r="N195">
-        <v>-82.550349999999995</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.550510000000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>131</v>
       </c>
@@ -9651,32 +9574,32 @@
       <c r="F196" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G196" s="5" t="s">
+      <c r="G196" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H196" s="7">
+      <c r="H196" s="5">
         <v>12.801600000000001</v>
       </c>
-      <c r="I196" s="9">
+      <c r="I196" s="7">
         <v>8</v>
       </c>
-      <c r="J196" s="7">
+      <c r="J196" s="5">
         <v>897.11849830543792</v>
       </c>
-      <c r="K196" s="7">
+      <c r="K196" s="5">
         <v>7176.9479864435034</v>
       </c>
-      <c r="L196" s="7">
+      <c r="L196" s="5">
         <v>0.71769479864435037</v>
       </c>
       <c r="M196">
-        <v>41.659820000000003</v>
+        <v>41.663183333333336</v>
       </c>
       <c r="N196">
-        <v>-82.549880000000002</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.548733333333331</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>132</v>
       </c>
@@ -9697,32 +9620,32 @@
       <c r="F197" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G197" s="5">
+      <c r="G197" s="9">
         <v>1208</v>
       </c>
-      <c r="H197" s="7">
+      <c r="H197" s="5">
         <v>10.058400000000001</v>
       </c>
-      <c r="I197" s="9">
+      <c r="I197" s="7">
         <v>7.7</v>
       </c>
-      <c r="J197" s="7">
+      <c r="J197" s="5">
         <v>884.7530485271908</v>
       </c>
-      <c r="K197" s="7">
+      <c r="K197" s="5">
         <v>6812.5984736593691</v>
       </c>
-      <c r="L197" s="7">
+      <c r="L197" s="5">
         <v>0.68125984736593692</v>
       </c>
       <c r="M197">
-        <v>41.76632</v>
+        <v>41.780160000000002</v>
       </c>
       <c r="N197">
-        <v>-82.550449999999998</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.550314999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>133</v>
       </c>
@@ -9743,32 +9666,32 @@
       <c r="F198" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G198" s="5">
+      <c r="G198" s="9">
         <v>1409</v>
       </c>
-      <c r="H198" s="7">
+      <c r="H198" s="5">
         <v>11.8872</v>
       </c>
-      <c r="I198" s="9">
+      <c r="I198" s="7">
         <v>7.5</v>
       </c>
-      <c r="J198" s="7">
+      <c r="J198" s="5">
         <v>922.87336827259332</v>
       </c>
-      <c r="K198" s="7">
+      <c r="K198" s="5">
         <v>6921.5502620444495</v>
       </c>
-      <c r="L198" s="7">
+      <c r="L198" s="5">
         <v>0.69215502620444502</v>
       </c>
       <c r="M198">
-        <v>41.863500000000002</v>
+        <v>41.867066666666666</v>
       </c>
       <c r="N198">
-        <v>-82.550020000000004</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.533821666666668</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>134</v>
       </c>
@@ -9789,32 +9712,32 @@
       <c r="F199" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G199" s="5" t="s">
+      <c r="G199" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H199" s="7">
+      <c r="H199" s="5">
         <v>13.411199999999999</v>
       </c>
-      <c r="I199" s="9">
+      <c r="I199" s="7">
         <v>7.4</v>
       </c>
-      <c r="J199" s="7">
+      <c r="J199" s="5">
         <v>923.08179343811832</v>
       </c>
-      <c r="K199" s="7">
+      <c r="K199" s="5">
         <v>6830.8052714420755</v>
       </c>
-      <c r="L199" s="7">
+      <c r="L199" s="5">
         <v>0.68308052714420764</v>
       </c>
       <c r="M199">
-        <v>41.463329999999999</v>
+        <v>41.480358333333335</v>
       </c>
       <c r="N199">
-        <v>-82.447069999999997</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.449386666666669</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>135</v>
       </c>
@@ -9835,32 +9758,32 @@
       <c r="F200" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G200" s="5">
+      <c r="G200" s="9">
         <v>1111</v>
       </c>
-      <c r="H200" s="7">
+      <c r="H200" s="5">
         <v>13.715999999999999</v>
       </c>
-      <c r="I200" s="9">
+      <c r="I200" s="7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J200" s="7">
+      <c r="J200" s="5">
         <v>932.2568011834004</v>
       </c>
-      <c r="K200" s="7">
+      <c r="K200" s="5">
         <v>8110.6341702955824</v>
       </c>
-      <c r="L200" s="7">
+      <c r="L200" s="5">
         <v>0.81106341702955831</v>
       </c>
       <c r="M200">
-        <v>41.563920000000003</v>
+        <v>41.579990000000002</v>
       </c>
       <c r="N200">
-        <v>-82.452699999999993</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.449903333333339</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>136</v>
       </c>
@@ -9881,32 +9804,32 @@
       <c r="F201" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G201" s="5" t="s">
+      <c r="G201" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H201" s="7">
+      <c r="H201" s="5">
         <v>13.715999999999999</v>
       </c>
-      <c r="I201" s="9">
+      <c r="I201" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J201" s="7">
+      <c r="J201" s="5">
         <v>938.02101264567068</v>
       </c>
-      <c r="K201" s="7">
+      <c r="K201" s="5">
         <v>7691.772303694499</v>
       </c>
-      <c r="L201" s="7">
+      <c r="L201" s="5">
         <v>0.76917723036944996</v>
       </c>
       <c r="M201">
-        <v>41.663350000000001</v>
+        <v>41.663306666666664</v>
       </c>
       <c r="N201">
-        <v>-82.453919999999997</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.450181666666666</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>137</v>
       </c>
@@ -9927,32 +9850,32 @@
       <c r="F202" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G202" s="5">
+      <c r="G202" s="9">
         <v>1301</v>
       </c>
-      <c r="H202" s="7">
+      <c r="H202" s="5">
         <v>12.222479999999999</v>
       </c>
-      <c r="I202" s="9">
+      <c r="I202" s="7">
         <v>8.1</v>
       </c>
-      <c r="J202" s="7">
+      <c r="J202" s="5">
         <v>962.84913741831156</v>
       </c>
-      <c r="K202" s="7">
+      <c r="K202" s="5">
         <v>7799.0780130883231</v>
       </c>
-      <c r="L202" s="7">
+      <c r="L202" s="5">
         <v>0.7799078013088323</v>
       </c>
       <c r="M202">
-        <v>41.764749999999999</v>
+        <v>41.780259999999998</v>
       </c>
       <c r="N202">
-        <v>-82.449520000000007</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.449596666666665</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>138</v>
       </c>
@@ -9973,32 +9896,32 @@
       <c r="F203" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G203" s="5">
+      <c r="G203" s="9">
         <v>1518</v>
       </c>
-      <c r="H203" s="7">
+      <c r="H203" s="5">
         <v>13.167360000000002</v>
       </c>
-      <c r="I203" s="9">
+      <c r="I203" s="7">
         <v>7.9</v>
       </c>
-      <c r="J203" s="7">
+      <c r="J203" s="5">
         <v>970.42291213306544</v>
       </c>
-      <c r="K203" s="7">
+      <c r="K203" s="5">
         <v>7666.3410058512172</v>
       </c>
-      <c r="L203" s="7">
+      <c r="L203" s="5">
         <v>0.76663410058512171</v>
       </c>
       <c r="M203">
-        <v>41.463329999999999</v>
+        <v>41.478568333333335</v>
       </c>
       <c r="N203">
-        <v>-82.34693</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.349716666666666</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>139</v>
       </c>
@@ -10019,32 +9942,32 @@
       <c r="F204" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G204" s="5" t="s">
+      <c r="G204" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H204" s="7">
+      <c r="H204" s="5">
         <v>13.715999999999999</v>
       </c>
-      <c r="I204" s="9">
+      <c r="I204" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J204" s="7">
+      <c r="J204" s="5">
         <v>968.64299196528043</v>
       </c>
-      <c r="K204" s="7">
+      <c r="K204" s="5">
         <v>8039.7368333118284</v>
       </c>
-      <c r="L204" s="7">
+      <c r="L204" s="5">
         <v>0.80397368333118291</v>
       </c>
       <c r="M204">
-        <v>41.564480000000003</v>
+        <v>41.579943333333333</v>
       </c>
       <c r="N204">
-        <v>-82.351749999999996</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.349941666666666</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>140</v>
       </c>
@@ -10065,32 +9988,32 @@
       <c r="F205" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G205" s="5">
+      <c r="G205" s="9">
         <v>1156</v>
       </c>
-      <c r="H205" s="7">
+      <c r="H205" s="5">
         <v>13.624560000000001</v>
       </c>
-      <c r="I205" s="9">
+      <c r="I205" s="7">
         <v>8.1</v>
       </c>
-      <c r="J205" s="7">
+      <c r="J205" s="5">
         <v>976.71492072595743</v>
       </c>
-      <c r="K205" s="7">
+      <c r="K205" s="5">
         <v>7911.3908578802548</v>
       </c>
-      <c r="L205" s="7">
+      <c r="L205" s="5">
         <v>0.7911390857880255</v>
       </c>
       <c r="M205">
-        <v>41.66545</v>
+        <v>41.663148333333332</v>
       </c>
       <c r="N205">
-        <v>-82.348699999999994</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.348444999999998</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>141</v>
       </c>
@@ -10111,32 +10034,32 @@
       <c r="F206" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G206" s="5">
+      <c r="G206" s="9">
         <v>1012</v>
       </c>
-      <c r="H206" s="7">
+      <c r="H206" s="5">
         <v>10.607039999999998</v>
       </c>
-      <c r="I206" s="9">
+      <c r="I206" s="7">
         <v>7.6</v>
       </c>
-      <c r="J206" s="7">
+      <c r="J206" s="5">
         <v>950.60761169889906</v>
       </c>
-      <c r="K206" s="7">
+      <c r="K206" s="5">
         <v>7224.6178489116328</v>
       </c>
-      <c r="L206" s="7">
+      <c r="L206" s="5">
         <v>0.72246178489116331</v>
       </c>
       <c r="M206">
-        <v>41.462919999999997</v>
+        <v>41.463318333333333</v>
       </c>
       <c r="N206">
-        <v>-82.249120000000005</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.249840000000006</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>501</v>
       </c>
@@ -10157,33 +10080,32 @@
       <c r="F207" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G207" s="5">
+      <c r="G207" s="9">
         <v>1528</v>
       </c>
-      <c r="H207" s="7">
+      <c r="H207" s="5">
         <v>4.2671999999999999</v>
       </c>
-      <c r="I207" s="9">
+      <c r="I207" s="7">
         <v>5.8</v>
       </c>
-      <c r="J207" s="7">
+      <c r="J207" s="5">
         <v>936.46144207847328</v>
       </c>
-      <c r="K207" s="7">
+      <c r="K207" s="5">
         <v>5431.4763640551446</v>
       </c>
-      <c r="L207" s="7">
+      <c r="L207" s="5">
         <v>0.54314763640551444</v>
       </c>
       <c r="M207">
-        <v>41.763750000000002</v>
+        <v>41.780496666666664</v>
       </c>
       <c r="N207">
-        <v>-83.346149999999994</v>
-      </c>
-      <c r="P207" s="6"/>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-83.349836666666661</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>502</v>
       </c>
@@ -10204,33 +10126,32 @@
       <c r="F208" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G208" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H208" s="7">
+      <c r="G208" s="9">
+        <v>1612</v>
+      </c>
+      <c r="H208" s="5">
         <v>7.0103999999999997</v>
       </c>
-      <c r="I208" s="9">
+      <c r="I208" s="7">
         <v>7.3</v>
       </c>
-      <c r="J208" s="7">
+      <c r="J208" s="5">
         <v>963.52742230173999</v>
       </c>
-      <c r="K208" s="7">
+      <c r="K208" s="5">
         <v>7033.7501828027016</v>
       </c>
-      <c r="L208" s="7">
+      <c r="L208" s="5">
         <v>0.70337501828027016</v>
       </c>
       <c r="M208">
-        <v>41.763379999999998</v>
+        <v>41.780200000000001</v>
       </c>
       <c r="N208">
-        <v>-83.249870000000001</v>
-      </c>
-      <c r="P208" s="6"/>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-83.250029999999995</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>503</v>
       </c>
@@ -10251,33 +10172,32 @@
       <c r="F209" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G209" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H209" s="7">
+      <c r="G209" s="9">
+        <v>1417</v>
+      </c>
+      <c r="H209" s="5">
         <v>7.0103999999999997</v>
       </c>
-      <c r="I209" s="9">
+      <c r="I209" s="7">
         <v>6.9</v>
       </c>
-      <c r="J209" s="7">
+      <c r="J209" s="5">
         <v>978.26501765554315</v>
       </c>
-      <c r="K209" s="7">
+      <c r="K209" s="5">
         <v>6750.0286218232477</v>
       </c>
-      <c r="L209" s="7">
+      <c r="L209" s="5">
         <v>0.67500286218232475</v>
       </c>
       <c r="M209">
-        <v>41.863399999999999</v>
+        <v>41.880015</v>
       </c>
       <c r="N209">
-        <v>-83.249930000000006</v>
-      </c>
-      <c r="P209" s="6"/>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-83.249663333333331</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>504</v>
       </c>
@@ -10298,33 +10218,32 @@
       <c r="F210" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G210" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H210" s="7">
+      <c r="G210" s="9">
+        <v>1508</v>
+      </c>
+      <c r="H210" s="5">
         <v>6.7665600000000001</v>
       </c>
-      <c r="I210" s="9">
+      <c r="I210" s="7">
         <v>7</v>
       </c>
-      <c r="J210" s="7">
+      <c r="J210" s="5">
         <v>932.79354387193177</v>
       </c>
-      <c r="K210" s="7">
+      <c r="K210" s="5">
         <v>6529.5548071035228</v>
       </c>
-      <c r="L210" s="7">
+      <c r="L210" s="5">
         <v>0.65295548071035225</v>
       </c>
       <c r="M210">
-        <v>41.663379999999997</v>
+        <v>41.680148333333335</v>
       </c>
       <c r="N210">
-        <v>-83.149799999999999</v>
-      </c>
-      <c r="P210" s="6"/>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-83.149141666666665</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>505</v>
       </c>
@@ -10345,33 +10264,32 @@
       <c r="F211" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G211" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H211" s="7">
+      <c r="G211" s="9">
+        <v>1655</v>
+      </c>
+      <c r="H211" s="5">
         <v>7.62</v>
       </c>
-      <c r="I211" s="9">
+      <c r="I211" s="7">
         <v>7.2</v>
       </c>
-      <c r="J211" s="7">
+      <c r="J211" s="5">
         <v>958.23494177984753</v>
       </c>
-      <c r="K211" s="7">
+      <c r="K211" s="5">
         <v>6899.2915808149028</v>
       </c>
-      <c r="L211" s="7">
+      <c r="L211" s="5">
         <v>0.68992915808149025</v>
       </c>
       <c r="M211">
-        <v>41.76343</v>
+        <v>41.780061666666668</v>
       </c>
       <c r="N211">
-        <v>-83.149870000000007</v>
-      </c>
-      <c r="P211" s="6"/>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-83.15041166666667</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>506</v>
       </c>
@@ -10392,33 +10310,32 @@
       <c r="F212" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G212" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H212" s="7">
+      <c r="G212" s="9">
+        <v>1318</v>
+      </c>
+      <c r="H212" s="5">
         <v>8.2295999999999996</v>
       </c>
-      <c r="I212" s="9">
+      <c r="I212" s="7">
         <v>6.7</v>
       </c>
-      <c r="J212" s="7">
+      <c r="J212" s="5">
         <v>972.74195325357073</v>
       </c>
-      <c r="K212" s="7">
+      <c r="K212" s="5">
         <v>6517.3710867989239</v>
       </c>
-      <c r="L212" s="7">
+      <c r="L212" s="5">
         <v>0.65173710867989243</v>
       </c>
       <c r="M212">
-        <v>41.863430000000001</v>
+        <v>41.880299999999998</v>
       </c>
       <c r="N212">
-        <v>-83.149950000000004</v>
-      </c>
-      <c r="P212" s="6"/>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-83.149749999999997</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>507</v>
       </c>
@@ -10439,33 +10356,32 @@
       <c r="F213" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G213" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H213" s="7">
+      <c r="G213" s="9">
+        <v>1219</v>
+      </c>
+      <c r="H213" s="5">
         <v>7.0103999999999997</v>
       </c>
-      <c r="I213" s="9">
+      <c r="I213" s="7">
         <v>7</v>
       </c>
-      <c r="J213" s="7">
+      <c r="J213" s="5">
         <v>1010</v>
       </c>
-      <c r="K213" s="7">
+      <c r="K213" s="5">
         <v>7070</v>
       </c>
-      <c r="L213" s="7">
+      <c r="L213" s="5">
         <v>0.70699999999999996</v>
       </c>
       <c r="M213">
-        <v>41.963470000000001</v>
+        <v>41.967619999999997</v>
       </c>
       <c r="N213">
-        <v>-83.149879999999996</v>
-      </c>
-      <c r="P213" s="6"/>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-83.107991666666663</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>508</v>
       </c>
@@ -10486,33 +10402,32 @@
       <c r="F214" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G214" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H214" s="7">
+      <c r="G214" s="9">
+        <v>1413</v>
+      </c>
+      <c r="H214" s="5">
         <v>7.9248000000000003</v>
       </c>
-      <c r="I214" s="9">
+      <c r="I214" s="7">
         <v>7.4</v>
       </c>
-      <c r="J214" s="7">
+      <c r="J214" s="5">
         <v>964.4488645863288</v>
       </c>
-      <c r="K214" s="7">
+      <c r="K214" s="5">
         <v>7136.9215979388337</v>
       </c>
-      <c r="L214" s="7">
+      <c r="L214" s="5">
         <v>0.71369215979388334</v>
       </c>
       <c r="M214">
-        <v>41.663269999999997</v>
+        <v>41.681618333333333</v>
       </c>
       <c r="N214">
-        <v>-83.049670000000006</v>
-      </c>
-      <c r="P214" s="6"/>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-83.052401666666668</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>509</v>
       </c>
@@ -10533,33 +10448,32 @@
       <c r="F215" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G215" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H215" s="7">
+      <c r="G215" s="9">
+        <v>1609</v>
+      </c>
+      <c r="H215" s="5">
         <v>8.8391999999999999</v>
       </c>
-      <c r="I215" s="9">
+      <c r="I215" s="7">
         <v>7.6</v>
       </c>
-      <c r="J215" s="7">
+      <c r="J215" s="5">
         <v>1001.7832538440075</v>
       </c>
-      <c r="K215" s="7">
+      <c r="K215" s="5">
         <v>7613.552729214457</v>
       </c>
-      <c r="L215" s="7">
+      <c r="L215" s="5">
         <v>0.76135527292144567</v>
       </c>
       <c r="M215">
-        <v>41.76343</v>
+        <v>41.779971666666668</v>
       </c>
       <c r="N215">
-        <v>-83.049899999999994</v>
-      </c>
-      <c r="P215" s="6"/>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-83.050718333333336</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>510</v>
       </c>
@@ -10580,33 +10494,32 @@
       <c r="F216" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G216" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H216" s="7">
+      <c r="G216" s="9">
+        <v>1035</v>
+      </c>
+      <c r="H216" s="5">
         <v>8.8391999999999999</v>
       </c>
-      <c r="I216" s="9">
+      <c r="I216" s="7">
         <v>7.5</v>
       </c>
-      <c r="J216" s="7">
+      <c r="J216" s="5">
         <v>971.69857488035586</v>
       </c>
-      <c r="K216" s="7">
+      <c r="K216" s="5">
         <v>7287.7393116026687</v>
       </c>
-      <c r="L216" s="7">
+      <c r="L216" s="5">
         <v>0.7287739311602669</v>
       </c>
       <c r="M216">
-        <v>41.868499999999997</v>
+        <v>41.879773333333333</v>
       </c>
       <c r="N216">
-        <v>-83.050929999999994</v>
-      </c>
-      <c r="P216" s="6"/>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-83.051929999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>511</v>
       </c>
@@ -10627,33 +10540,32 @@
       <c r="F217" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G217" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H217" s="7">
+      <c r="G217" s="9">
+        <v>1132</v>
+      </c>
+      <c r="H217" s="5">
         <v>7.3151999999999999</v>
       </c>
-      <c r="I217" s="9">
+      <c r="I217" s="7">
         <v>6.9</v>
       </c>
-      <c r="J217" s="7">
+      <c r="J217" s="5">
         <v>936.74517026186118</v>
       </c>
-      <c r="K217" s="7">
+      <c r="K217" s="5">
         <v>6463.5416748068428</v>
       </c>
-      <c r="L217" s="7">
+      <c r="L217" s="5">
         <v>0.64635416748068431</v>
       </c>
       <c r="M217">
-        <v>41.963149999999999</v>
+        <v>41.979353333333336</v>
       </c>
       <c r="N217">
-        <v>-83.050669999999997</v>
-      </c>
-      <c r="P217" s="6"/>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-83.050420000000003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>512</v>
       </c>
@@ -10674,33 +10586,32 @@
       <c r="F218" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G218" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H218" s="7">
+      <c r="G218" s="9">
+        <v>1225</v>
+      </c>
+      <c r="H218" s="5">
         <v>6.0960000000000001</v>
       </c>
-      <c r="I218" s="9">
+      <c r="I218" s="7">
         <v>7.5</v>
       </c>
-      <c r="J218" s="7">
+      <c r="J218" s="5">
         <v>929.9915319256371</v>
       </c>
-      <c r="K218" s="7">
+      <c r="K218" s="5">
         <v>6974.9364894422779</v>
       </c>
-      <c r="L218" s="7">
+      <c r="L218" s="5">
         <v>0.69749364894422783</v>
       </c>
       <c r="M218">
-        <v>41.563470000000002</v>
+        <v>41.580278333333332</v>
       </c>
       <c r="N218">
-        <v>-82.950919999999996</v>
-      </c>
-      <c r="P218" s="6"/>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.950406666666666</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>513</v>
       </c>
@@ -10721,33 +10632,32 @@
       <c r="F219" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G219" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H219" s="7">
+      <c r="G219" s="9">
+        <v>1317</v>
+      </c>
+      <c r="H219" s="5">
         <v>8.8391999999999999</v>
       </c>
-      <c r="I219" s="9">
+      <c r="I219" s="7">
         <v>7.8</v>
       </c>
-      <c r="J219" s="7">
+      <c r="J219" s="5">
         <v>875.88599735194737</v>
       </c>
-      <c r="K219" s="7">
+      <c r="K219" s="5">
         <v>6831.9107793451894</v>
       </c>
-      <c r="L219" s="7">
+      <c r="L219" s="5">
         <v>0.68319107793451894</v>
       </c>
       <c r="M219">
-        <v>41.664380000000001</v>
+        <v>41.681516666666667</v>
       </c>
       <c r="N219">
-        <v>-82.950699999999998</v>
-      </c>
-      <c r="P219" s="6"/>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.950073333333336</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>514</v>
       </c>
@@ -10768,33 +10678,32 @@
       <c r="F220" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G220" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H220" s="7">
+      <c r="G220" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H220" s="5">
         <v>9.4488000000000003</v>
       </c>
-      <c r="I220" s="9">
+      <c r="I220" s="7">
         <v>7.7</v>
       </c>
-      <c r="J220" s="7">
+      <c r="J220" s="5">
         <v>993.92234591314116</v>
       </c>
-      <c r="K220" s="7">
+      <c r="K220" s="5">
         <v>7653.2020635311874</v>
       </c>
-      <c r="L220" s="7">
+      <c r="L220" s="5">
         <v>0.7653202063531187</v>
       </c>
       <c r="M220">
-        <v>41.762749999999997</v>
+        <v>41.764153333333333</v>
       </c>
       <c r="N220">
-        <v>-82.950379999999996</v>
-      </c>
-      <c r="P220" s="6"/>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.950996666666668</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>515</v>
       </c>
@@ -10815,33 +10724,32 @@
       <c r="F221" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G221" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H221" s="7">
+      <c r="G221" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H221" s="5">
         <v>9.4488000000000003</v>
       </c>
-      <c r="I221" s="9">
+      <c r="I221" s="7">
         <v>6.7</v>
       </c>
-      <c r="J221" s="7">
+      <c r="J221" s="5">
         <v>982.62127263949446</v>
       </c>
-      <c r="K221" s="7">
+      <c r="K221" s="5">
         <v>6583.5625266846127</v>
       </c>
-      <c r="L221" s="7">
+      <c r="L221" s="5">
         <v>0.65835625266846132</v>
       </c>
       <c r="M221">
-        <v>41.863570000000003</v>
+        <v>41.879733333333334</v>
       </c>
       <c r="N221">
-        <v>-82.950180000000003</v>
-      </c>
-      <c r="P221" s="6"/>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.949584999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>516</v>
       </c>
@@ -10862,33 +10770,32 @@
       <c r="F222" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G222" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H222" s="7">
+      <c r="G222" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H222" s="5">
         <v>8.8391999999999999</v>
       </c>
-      <c r="I222" s="9">
+      <c r="I222" s="7">
         <v>7.8</v>
       </c>
-      <c r="J222" s="7">
+      <c r="J222" s="5">
         <v>905.68758380093504</v>
       </c>
-      <c r="K222" s="7">
+      <c r="K222" s="5">
         <v>7064.3631536472931</v>
       </c>
-      <c r="L222" s="7">
+      <c r="L222" s="5">
         <v>0.70643631536472928</v>
       </c>
       <c r="M222">
-        <v>41.6633</v>
+        <v>41.673641666666668</v>
       </c>
       <c r="N222">
-        <v>-82.850120000000004</v>
-      </c>
-      <c r="P222" s="6"/>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.849578333333326</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>517</v>
       </c>
@@ -10909,33 +10816,32 @@
       <c r="F223" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G223" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H223" s="7">
+      <c r="G223" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H223" s="5">
         <v>9.7536000000000005</v>
       </c>
-      <c r="I223" s="9">
+      <c r="I223" s="7">
         <v>7.7</v>
       </c>
-      <c r="J223" s="7">
+      <c r="J223" s="5">
         <v>987.95907211769452</v>
       </c>
-      <c r="K223" s="7">
+      <c r="K223" s="5">
         <v>7607.2848553062477</v>
       </c>
-      <c r="L223" s="7">
+      <c r="L223" s="5">
         <v>0.76072848553062478</v>
       </c>
       <c r="M223">
-        <v>41.762920000000001</v>
+        <v>41.763931666666664</v>
       </c>
       <c r="N223">
-        <v>-82.849500000000006</v>
-      </c>
-      <c r="P223" s="6"/>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.849721666666667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>518</v>
       </c>
@@ -10956,33 +10862,32 @@
       <c r="F224" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G224" s="5" t="s">
+      <c r="G224" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H224" s="7">
+      <c r="H224" s="5">
         <v>10.363200000000001</v>
       </c>
-      <c r="I224" s="9">
+      <c r="I224" s="7">
         <v>8.4</v>
       </c>
-      <c r="J224" s="7">
+      <c r="J224" s="5">
         <v>965.47838164592258</v>
       </c>
-      <c r="K224" s="7">
+      <c r="K224" s="5">
         <v>8110.0184058257501</v>
       </c>
-      <c r="L224" s="7">
+      <c r="L224" s="5">
         <v>0.81100184058257496</v>
       </c>
       <c r="M224">
-        <v>41.863250000000001</v>
+        <v>41.864429999999999</v>
       </c>
       <c r="N224">
-        <v>-82.850099999999998</v>
-      </c>
-      <c r="P224" s="6"/>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.851031666666671</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>519</v>
       </c>
@@ -11003,33 +10908,32 @@
       <c r="F225" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G225" s="5" t="s">
+      <c r="G225" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H225" s="7">
+      <c r="H225" s="5">
         <v>9.1440000000000001</v>
       </c>
-      <c r="I225" s="9">
+      <c r="I225" s="7">
         <v>7.5</v>
       </c>
-      <c r="J225" s="7">
+      <c r="J225" s="5">
         <v>934.32536637652777</v>
       </c>
-      <c r="K225" s="7">
+      <c r="K225" s="5">
         <v>7007.4402478239581</v>
       </c>
-      <c r="L225" s="7">
+      <c r="L225" s="5">
         <v>0.70074402478239584</v>
       </c>
       <c r="M225">
-        <v>41.96367</v>
+        <v>41.963368333333335</v>
       </c>
       <c r="N225">
-        <v>-82.850300000000004</v>
-      </c>
-      <c r="P225" s="6"/>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.850043333333332</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>520</v>
       </c>
@@ -11050,33 +10954,32 @@
       <c r="F226" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G226" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H226" s="7">
+      <c r="G226" s="9">
+        <v>1103</v>
+      </c>
+      <c r="H226" s="5">
         <v>6.5532000000000004</v>
       </c>
-      <c r="I226" s="9">
+      <c r="I226" s="7">
         <v>7.3</v>
       </c>
-      <c r="J226" s="7">
+      <c r="J226" s="5">
         <v>941.48726553135896</v>
       </c>
-      <c r="K226" s="7">
+      <c r="K226" s="5">
         <v>6872.8570383789202</v>
       </c>
-      <c r="L226" s="7">
+      <c r="L226" s="5">
         <v>0.687285703837892</v>
       </c>
       <c r="M226">
-        <v>41.563420000000001</v>
+        <v>41.580604999999998</v>
       </c>
       <c r="N226">
-        <v>-82.750519999999995</v>
-      </c>
-      <c r="P226" s="6"/>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.748724999999993</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>521</v>
       </c>
@@ -11097,33 +11000,32 @@
       <c r="F227" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G227" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H227" s="7">
+      <c r="G227" s="9">
+        <v>1806</v>
+      </c>
+      <c r="H227" s="5">
         <v>9.4488000000000003</v>
       </c>
-      <c r="I227" s="9">
+      <c r="I227" s="7">
         <v>7.5</v>
       </c>
-      <c r="J227" s="7">
+      <c r="J227" s="5">
         <v>943.93529830389377</v>
       </c>
-      <c r="K227" s="7">
+      <c r="K227" s="5">
         <v>7079.5147372792035</v>
       </c>
-      <c r="L227" s="7">
+      <c r="L227" s="5">
         <v>0.70795147372792033</v>
       </c>
       <c r="M227">
-        <v>41.663179999999997</v>
+        <v>41.67868</v>
       </c>
       <c r="N227">
-        <v>-82.749970000000005</v>
-      </c>
-      <c r="P227" s="6"/>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.750368333333327</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>522</v>
       </c>
@@ -11144,33 +11046,32 @@
       <c r="F228" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G228" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H228" s="7">
+      <c r="G228" s="9">
+        <v>1715</v>
+      </c>
+      <c r="H228" s="5">
         <v>8.8391999999999999</v>
       </c>
-      <c r="I228" s="9">
+      <c r="I228" s="7">
         <v>7.1</v>
       </c>
-      <c r="J228" s="7">
+      <c r="J228" s="5">
         <v>902.97718859948475</v>
       </c>
-      <c r="K228" s="7">
+      <c r="K228" s="5">
         <v>6411.1380390563418</v>
       </c>
-      <c r="L228" s="7">
+      <c r="L228" s="5">
         <v>0.64111380390563422</v>
       </c>
       <c r="M228">
-        <v>41.76323</v>
+        <v>41.779746666666668</v>
       </c>
       <c r="N228">
-        <v>-82.749780000000001</v>
-      </c>
-      <c r="P228" s="6"/>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.750056666666666</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>523</v>
       </c>
@@ -11191,33 +11092,32 @@
       <c r="F229" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G229" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H229" s="7">
+      <c r="G229" s="9">
+        <v>1627</v>
+      </c>
+      <c r="H229" s="5">
         <v>10.972799999999999</v>
       </c>
-      <c r="I229" s="9">
+      <c r="I229" s="7">
         <v>7.8</v>
       </c>
-      <c r="J229" s="7">
+      <c r="J229" s="5">
         <v>924.72713739549215</v>
       </c>
-      <c r="K229" s="7">
+      <c r="K229" s="5">
         <v>7212.8716716848385</v>
       </c>
-      <c r="L229" s="7">
+      <c r="L229" s="5">
         <v>0.72128716716848384</v>
       </c>
       <c r="M229">
-        <v>41.863199999999999</v>
+        <v>41.866673333333331</v>
       </c>
       <c r="N229">
-        <v>-82.749849999999995</v>
-      </c>
-      <c r="P229" s="6"/>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.749285</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>524</v>
       </c>
@@ -11238,33 +11138,32 @@
       <c r="F230" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G230" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H230" s="7">
+      <c r="G230" s="9">
+        <v>1033</v>
+      </c>
+      <c r="H230" s="5">
         <v>10.363200000000001</v>
       </c>
-      <c r="I230" s="9">
+      <c r="I230" s="7">
         <v>7.8</v>
       </c>
-      <c r="J230" s="7">
+      <c r="J230" s="5">
         <v>926.23127801332453</v>
       </c>
-      <c r="K230" s="7">
+      <c r="K230" s="5">
         <v>7224.6039685039314</v>
       </c>
-      <c r="L230" s="7">
+      <c r="L230" s="5">
         <v>0.72246039685039309</v>
       </c>
       <c r="M230">
-        <v>41.963299999999997</v>
+        <v>41.963426666666663</v>
       </c>
       <c r="N230">
-        <v>-82.753100000000003</v>
-      </c>
-      <c r="P230" s="6"/>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.748075</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>525</v>
       </c>
@@ -11285,33 +11184,32 @@
       <c r="F231" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G231" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H231" s="7">
+      <c r="G231" s="9">
+        <v>1004</v>
+      </c>
+      <c r="H231" s="5">
         <v>11.8872</v>
       </c>
-      <c r="I231" s="9">
+      <c r="I231" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J231" s="7">
+      <c r="J231" s="5">
         <v>943.72605170512952</v>
       </c>
-      <c r="K231" s="7">
+      <c r="K231" s="5">
         <v>7832.9262291525756</v>
       </c>
-      <c r="L231" s="7">
+      <c r="L231" s="5">
         <v>0.78329262291525759</v>
       </c>
       <c r="M231">
-        <v>41.563429999999997</v>
+        <v>41.580191666666664</v>
       </c>
       <c r="N231">
-        <v>-82.650720000000007</v>
-      </c>
-      <c r="P231" s="6"/>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.649150000000006</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>526</v>
       </c>
@@ -11332,33 +11230,32 @@
       <c r="F232" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G232" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H232" s="7">
+      <c r="G232" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H232" s="5">
         <v>9.8145600000000019</v>
       </c>
-      <c r="I232" s="9">
+      <c r="I232" s="7">
         <v>7.3</v>
       </c>
-      <c r="J232" s="7">
+      <c r="J232" s="5">
         <v>908.74187258020879</v>
       </c>
-      <c r="K232" s="7">
+      <c r="K232" s="5">
         <v>6633.8156698355242</v>
       </c>
-      <c r="L232" s="7">
+      <c r="L232" s="5">
         <v>0.66338156698355244</v>
       </c>
       <c r="M232">
-        <v>41.663420000000002</v>
+        <v>41.679989999999997</v>
       </c>
       <c r="N232">
-        <v>-82.654669999999996</v>
-      </c>
-      <c r="P232" s="6"/>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.650606666666661</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>527</v>
       </c>
@@ -11379,33 +11276,32 @@
       <c r="F233" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G233" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H233" s="7">
+      <c r="G233" s="9">
+        <v>1544</v>
+      </c>
+      <c r="H233" s="5">
         <v>10.363200000000001</v>
       </c>
-      <c r="I233" s="9">
+      <c r="I233" s="7">
         <v>7.4</v>
       </c>
-      <c r="J233" s="7">
+      <c r="J233" s="5">
         <v>881.67039757150053</v>
       </c>
-      <c r="K233" s="7">
+      <c r="K233" s="5">
         <v>6524.3609420291041</v>
       </c>
-      <c r="L233" s="7">
+      <c r="L233" s="5">
         <v>0.65243609420291038</v>
       </c>
       <c r="M233">
-        <v>41.863329999999998</v>
+        <v>41.86322333333333</v>
       </c>
       <c r="N233">
-        <v>-82.650069999999999</v>
-      </c>
-      <c r="P233" s="6"/>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.64994333333334</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>528</v>
       </c>
@@ -11426,33 +11322,32 @@
       <c r="F234" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G234" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H234" s="7">
+      <c r="G234" s="9">
+        <v>1124</v>
+      </c>
+      <c r="H234" s="5">
         <v>9.7536000000000005</v>
       </c>
-      <c r="I234" s="9">
+      <c r="I234" s="7">
         <v>7.4</v>
       </c>
-      <c r="J234" s="7">
+      <c r="J234" s="5">
         <v>966.7552103934338</v>
       </c>
-      <c r="K234" s="7">
+      <c r="K234" s="5">
         <v>7153.9885569114103</v>
       </c>
-      <c r="L234" s="7">
+      <c r="L234" s="5">
         <v>0.71539885569114103</v>
       </c>
       <c r="M234">
-        <v>41.963419999999999</v>
+        <v>41.979709999999997</v>
       </c>
       <c r="N234">
-        <v>-82.650019999999998</v>
-      </c>
-      <c r="P234" s="6"/>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.648321666666661</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>529</v>
       </c>
@@ -11473,33 +11368,32 @@
       <c r="F235" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G235" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H235" s="7">
+      <c r="G235" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H235" s="5">
         <v>12.161519999999999</v>
       </c>
-      <c r="I235" s="9">
+      <c r="I235" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J235" s="7">
+      <c r="J235" s="5">
         <v>950.64183780486746</v>
       </c>
-      <c r="K235" s="7">
+      <c r="K235" s="5">
         <v>7795.2630699999127</v>
       </c>
-      <c r="L235" s="7">
+      <c r="L235" s="5">
         <v>0.77952630699999126</v>
       </c>
       <c r="M235">
-        <v>41.463470000000001</v>
+        <v>41.479598333333335</v>
       </c>
       <c r="N235">
-        <v>-82.550250000000005</v>
-      </c>
-      <c r="P235" s="6"/>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.549705000000003</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>530</v>
       </c>
@@ -11520,33 +11414,32 @@
       <c r="F236" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G236" s="5" t="s">
+      <c r="G236" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H236" s="7">
+      <c r="H236" s="5">
         <v>12.4968</v>
       </c>
-      <c r="I236" s="9">
+      <c r="I236" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J236" s="7">
+      <c r="J236" s="5">
         <v>963.89314082016961</v>
       </c>
-      <c r="K236" s="7">
+      <c r="K236" s="5">
         <v>7903.9237547253897</v>
       </c>
-      <c r="L236" s="7">
+      <c r="L236" s="5">
         <v>0.79039237547253893</v>
       </c>
       <c r="M236">
-        <v>41.563319999999997</v>
+        <v>41.580275</v>
       </c>
       <c r="N236">
-        <v>-82.550349999999995</v>
-      </c>
-      <c r="P236" s="6"/>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.549898333333331</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>531</v>
       </c>
@@ -11567,33 +11460,32 @@
       <c r="F237" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G237" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H237" s="7">
+      <c r="G237" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H237" s="5">
         <v>12.4968</v>
       </c>
-      <c r="I237" s="9">
+      <c r="I237" s="7">
         <v>8.6</v>
       </c>
-      <c r="J237" s="7">
+      <c r="J237" s="5">
         <v>888.22704614140309</v>
       </c>
-      <c r="K237" s="7">
+      <c r="K237" s="5">
         <v>7638.7525968160662</v>
       </c>
-      <c r="L237" s="7">
+      <c r="L237" s="5">
         <v>0.76387525968160663</v>
       </c>
       <c r="M237">
-        <v>41.659820000000003</v>
+        <v>41.662996666666665</v>
       </c>
       <c r="N237">
-        <v>-82.549880000000002</v>
-      </c>
-      <c r="P237" s="6"/>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.548699999999997</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>532</v>
       </c>
@@ -11614,33 +11506,32 @@
       <c r="F238" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G238" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H238" s="7">
+      <c r="G238" s="9">
+        <v>1444</v>
+      </c>
+      <c r="H238" s="5">
         <v>10.667999999999999</v>
       </c>
-      <c r="I238" s="9">
+      <c r="I238" s="7">
         <v>7.7</v>
       </c>
-      <c r="J238" s="7">
+      <c r="J238" s="5">
         <v>881.57930359552336</v>
       </c>
-      <c r="K238" s="7">
+      <c r="K238" s="5">
         <v>6788.1606376855298</v>
       </c>
-      <c r="L238" s="7">
+      <c r="L238" s="5">
         <v>0.67881606376855297</v>
       </c>
       <c r="M238">
-        <v>41.76632</v>
+        <v>41.768798333333336</v>
       </c>
       <c r="N238">
-        <v>-82.550449999999998</v>
-      </c>
-      <c r="P238" s="6"/>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.560778333333332</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>533</v>
       </c>
@@ -11661,33 +11552,32 @@
       <c r="F239" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G239" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H239" s="7">
+      <c r="G239" s="9">
+        <v>1245</v>
+      </c>
+      <c r="H239" s="5">
         <v>11.2776</v>
       </c>
-      <c r="I239" s="9">
+      <c r="I239" s="7">
         <v>8.1</v>
       </c>
-      <c r="J239" s="7">
+      <c r="J239" s="5">
         <v>820.5814683172498</v>
       </c>
-      <c r="K239" s="7">
+      <c r="K239" s="5">
         <v>6646.7098933697234</v>
       </c>
-      <c r="L239" s="7">
+      <c r="L239" s="5">
         <v>0.66467098933697233</v>
       </c>
       <c r="M239">
-        <v>41.863500000000002</v>
+        <v>41.866776666666667</v>
       </c>
       <c r="N239">
-        <v>-82.550020000000004</v>
-      </c>
-      <c r="P239" s="6"/>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.533168333333336</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>534</v>
       </c>
@@ -11708,33 +11598,32 @@
       <c r="F240" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G240" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H240" s="7">
+      <c r="G240" s="9">
+        <v>1456</v>
+      </c>
+      <c r="H240" s="5">
         <v>12.4968</v>
       </c>
-      <c r="I240" s="9">
+      <c r="I240" s="7">
         <v>8</v>
       </c>
-      <c r="J240" s="7">
+      <c r="J240" s="5">
         <v>863.95001263507879</v>
       </c>
-      <c r="K240" s="7">
+      <c r="K240" s="5">
         <v>6911.6001010806303</v>
       </c>
-      <c r="L240" s="7">
+      <c r="L240" s="5">
         <v>0.69116001010806305</v>
       </c>
       <c r="M240">
-        <v>41.463329999999999</v>
+        <v>41.467066666666668</v>
       </c>
       <c r="N240">
-        <v>-82.447069999999997</v>
-      </c>
-      <c r="P240" s="6"/>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.449129999999997</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>535</v>
       </c>
@@ -11755,33 +11644,32 @@
       <c r="F241" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G241" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H241" s="7">
+      <c r="G241" s="9">
+        <v>1121</v>
+      </c>
+      <c r="H241" s="5">
         <v>14.020799999999999</v>
       </c>
-      <c r="I241" s="9">
+      <c r="I241" s="7">
         <v>7.5</v>
       </c>
-      <c r="J241" s="7">
+      <c r="J241" s="5">
         <v>919.13044337448002</v>
       </c>
-      <c r="K241" s="7">
+      <c r="K241" s="5">
         <v>6893.4783253085998</v>
       </c>
-      <c r="L241" s="7">
+      <c r="L241" s="5">
         <v>0.68934783253085996</v>
       </c>
       <c r="M241">
-        <v>41.563920000000003</v>
+        <v>41.579605000000001</v>
       </c>
       <c r="N241">
-        <v>-82.452699999999993</v>
-      </c>
-      <c r="P241" s="6"/>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.449799999999996</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>536</v>
       </c>
@@ -11802,33 +11690,32 @@
       <c r="F242" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G242" s="5" t="s">
+      <c r="G242" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H242" s="7">
+      <c r="H242" s="5">
         <v>13.411199999999999</v>
       </c>
-      <c r="I242" s="9">
+      <c r="I242" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J242" s="7">
+      <c r="J242" s="5">
         <v>911.89684902485385</v>
       </c>
-      <c r="K242" s="7">
+      <c r="K242" s="5">
         <v>7477.5541620038011</v>
       </c>
-      <c r="L242" s="7">
+      <c r="L242" s="5">
         <v>0.74775541620038011</v>
       </c>
       <c r="M242">
-        <v>41.663350000000001</v>
+        <v>41.663441666666664</v>
       </c>
       <c r="N242">
-        <v>-82.453919999999997</v>
-      </c>
-      <c r="P242" s="6"/>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.451040000000006</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>537</v>
       </c>
@@ -11849,33 +11736,32 @@
       <c r="F243" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G243" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H243" s="7">
+      <c r="G243" s="9">
+        <v>1349</v>
+      </c>
+      <c r="H243" s="5">
         <v>12.192</v>
       </c>
-      <c r="I243" s="9">
+      <c r="I243" s="7">
         <v>8.1</v>
       </c>
-      <c r="J243" s="7">
+      <c r="J243" s="5">
         <v>946.26782099348259</v>
       </c>
-      <c r="K243" s="7">
+      <c r="K243" s="5">
         <v>7664.7693500472087</v>
       </c>
-      <c r="L243" s="7">
+      <c r="L243" s="5">
         <v>0.76647693500472092</v>
       </c>
       <c r="M243">
-        <v>41.764749999999999</v>
+        <v>41.779924999999999</v>
       </c>
       <c r="N243">
-        <v>-82.449520000000007</v>
-      </c>
-      <c r="P243" s="6"/>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.449960000000004</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>538</v>
       </c>
@@ -11896,33 +11782,32 @@
       <c r="F244" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G244" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H244" s="7">
+      <c r="G244" s="9">
+        <v>1358</v>
+      </c>
+      <c r="H244" s="5">
         <v>13.106400000000001</v>
       </c>
-      <c r="I244" s="9">
+      <c r="I244" s="7">
         <v>8.1</v>
       </c>
-      <c r="J244" s="7">
+      <c r="J244" s="5">
         <v>837.89665400546016</v>
       </c>
-      <c r="K244" s="7">
+      <c r="K244" s="5">
         <v>6786.9628974442267</v>
       </c>
-      <c r="L244" s="7">
+      <c r="L244" s="5">
         <v>0.67869628974442264</v>
       </c>
       <c r="M244">
-        <v>41.463329999999999</v>
+        <v>41.480318333333337</v>
       </c>
       <c r="N244">
-        <v>-82.34693</v>
-      </c>
-      <c r="P244" s="6"/>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.351661666666672</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>539</v>
       </c>
@@ -11943,33 +11828,32 @@
       <c r="F245" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G245" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H245" s="7">
+      <c r="G245" s="9">
+        <v>1208</v>
+      </c>
+      <c r="H245" s="5">
         <v>13.715999999999999</v>
       </c>
-      <c r="I245" s="9">
+      <c r="I245" s="7">
         <v>8</v>
       </c>
-      <c r="J245" s="7">
+      <c r="J245" s="5">
         <v>935.08920158797662</v>
       </c>
-      <c r="K245" s="7">
+      <c r="K245" s="5">
         <v>7480.7136127038129</v>
       </c>
-      <c r="L245" s="7">
+      <c r="L245" s="5">
         <v>0.74807136127038132</v>
       </c>
       <c r="M245">
-        <v>41.564480000000003</v>
+        <v>41.580271666666668</v>
       </c>
       <c r="N245">
-        <v>-82.351749999999996</v>
-      </c>
-      <c r="P245" s="6"/>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.350976666666668</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>540</v>
       </c>
@@ -11990,33 +11874,32 @@
       <c r="F246" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G246" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H246" s="7">
+      <c r="G246" s="9">
+        <v>1011</v>
+      </c>
+      <c r="H246" s="5">
         <v>13.411199999999999</v>
       </c>
-      <c r="I246" s="9">
+      <c r="I246" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J246" s="7">
+      <c r="J246" s="5">
         <v>894.19228990261922</v>
       </c>
-      <c r="K246" s="7">
+      <c r="K246" s="5">
         <v>7421.7960061917402</v>
       </c>
-      <c r="L246" s="7">
+      <c r="L246" s="5">
         <v>0.74217960061917398</v>
       </c>
       <c r="M246">
-        <v>41.66545</v>
+        <v>41.662689999999998</v>
       </c>
       <c r="N246">
-        <v>-82.348699999999994</v>
-      </c>
-      <c r="P246" s="6"/>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-82.347516666666664</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>541</v>
       </c>
@@ -12037,31 +11920,30 @@
       <c r="F247" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G247" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H247" s="7">
+      <c r="G247" s="9">
+        <v>1312</v>
+      </c>
+      <c r="H247" s="5">
         <v>10.972799999999999</v>
       </c>
-      <c r="I247" s="9">
+      <c r="I247" s="7">
         <v>7.8</v>
       </c>
-      <c r="J247" s="7">
+      <c r="J247" s="5">
         <v>923.0932326087227</v>
       </c>
-      <c r="K247" s="7">
+      <c r="K247" s="5">
         <v>7200.1272143480373</v>
       </c>
-      <c r="L247" s="7">
+      <c r="L247" s="5">
         <v>0.72001272143480377</v>
       </c>
       <c r="M247">
-        <v>41.462919999999997</v>
+        <v>41.46508166666667</v>
       </c>
       <c r="N247">
-        <v>-82.249120000000005</v>
-      </c>
-      <c r="P247" s="6"/>
+        <v>-82.251519999999999</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A85:E124">

--- a/data_prep/WB_Effort.xlsx
+++ b/data_prep/WB_Effort.xlsx
@@ -247,8 +247,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -279,27 +280,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -328,15 +314,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -344,6 +321,13 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -619,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -630,8 +614,8 @@
   <dimension ref="A1:N288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,8 +632,8 @@
     <col min="10" max="10" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -689,10 +673,10 @@
       <c r="L1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -735,10 +719,10 @@
       <c r="L2" s="5">
         <v>0.42759283700655587</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="13">
         <v>41.780549999999998</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="13">
         <v>-83.347767000000005</v>
       </c>
     </row>
@@ -781,10 +765,10 @@
       <c r="L3" s="5">
         <v>0.47835417632651644</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="13">
         <v>41.780067000000003</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="13">
         <v>-83.249449999999996</v>
       </c>
     </row>
@@ -827,10 +811,10 @@
       <c r="L4" s="5">
         <v>0.49159381055880208</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="13">
         <v>41.881067000000002</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="13">
         <v>-83.249549999999999</v>
       </c>
     </row>
@@ -873,10 +857,10 @@
       <c r="L5" s="5">
         <v>0.47192437474536075</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="13">
         <v>41.679349999999999</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="13">
         <v>-83.149950000000004</v>
       </c>
     </row>
@@ -919,10 +903,10 @@
       <c r="L6" s="5">
         <v>0.47733659924079486</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="13">
         <v>41.780166999999999</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="13">
         <v>-83.14855</v>
       </c>
     </row>
@@ -965,10 +949,10 @@
       <c r="L7" s="5">
         <v>0.52149482168840922</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="13">
         <v>41.863430000000001</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="13">
         <v>-83.149050000000003</v>
       </c>
     </row>
@@ -1011,10 +995,10 @@
       <c r="L8" s="5">
         <v>0.50861287457363658</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="13">
         <v>41.980617000000002</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="13">
         <v>-83.116600000000005</v>
       </c>
     </row>
@@ -1057,10 +1041,10 @@
       <c r="L9" s="5">
         <v>0.46192957311971261</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="13">
         <v>41.679482999999998</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="13">
         <v>-83.049666999999999</v>
       </c>
     </row>
@@ -1103,10 +1087,10 @@
       <c r="L10" s="5">
         <v>0.44878118019790902</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="13">
         <v>41.781083000000002</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="13">
         <v>-83.047882999999999</v>
       </c>
     </row>
@@ -1149,10 +1133,10 @@
       <c r="L11" s="5">
         <v>0.52027109485797818</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="13">
         <v>41.867182999999997</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="13">
         <v>-83.051000000000002</v>
       </c>
     </row>
@@ -1195,10 +1179,10 @@
       <c r="L12" s="5">
         <v>0.52916993917831412</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="13">
         <v>41.980767</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="13">
         <v>-83.050066999999999</v>
       </c>
     </row>
@@ -1241,10 +1225,10 @@
       <c r="L13" s="5">
         <v>0.45607177990416026</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="13">
         <v>41.579932999999997</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="13">
         <v>-82.943217000000004</v>
       </c>
     </row>
@@ -1287,10 +1271,10 @@
       <c r="L14" s="5">
         <v>0.50345817522221004</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="13">
         <v>41.6798</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="13">
         <v>-82.950666999999996</v>
       </c>
     </row>
@@ -1333,10 +1317,10 @@
       <c r="L15" s="5">
         <v>0.47385765534552238</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="13">
         <v>41.779916999999998</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="13">
         <v>-82.949349999999995</v>
       </c>
     </row>
@@ -1379,10 +1363,10 @@
       <c r="L16" s="5">
         <v>0.51658520144320685</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="13">
         <v>41.867400000000004</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="13">
         <v>-82.951283000000004</v>
       </c>
     </row>
@@ -1425,10 +1409,10 @@
       <c r="L17" s="5">
         <v>0.48436377071722309</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="13">
         <v>41.672882999999999</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="13">
         <v>-82.851866999999999</v>
       </c>
     </row>
@@ -1471,10 +1455,10 @@
       <c r="L18" s="5">
         <v>0.49333218203870766</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="13">
         <v>41.780433000000002</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="13">
         <v>-82.849783000000002</v>
       </c>
     </row>
@@ -1517,10 +1501,10 @@
       <c r="L19" s="5">
         <v>0.48009421882876735</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="13">
         <v>41.868217000000001</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="13">
         <v>-82.848766999999995</v>
       </c>
     </row>
@@ -1563,10 +1547,10 @@
       <c r="L20" s="5">
         <v>0.46651251062203869</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="13">
         <v>41.980367000000001</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="13">
         <v>-82.849582999999996</v>
       </c>
     </row>
@@ -1609,10 +1593,10 @@
       <c r="L21" s="5">
         <v>0.46423252856658587</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="13">
         <v>41.580117000000001</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="13">
         <v>-82.747950000000003</v>
       </c>
     </row>
@@ -1655,10 +1639,10 @@
       <c r="L22" s="5">
         <v>0.51607444019366855</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="13">
         <v>41.680300000000003</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="13">
         <v>-82.750467</v>
       </c>
     </row>
@@ -1701,10 +1685,10 @@
       <c r="L23" s="5">
         <v>0.61275189373731198</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="13">
         <v>41.779383000000003</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="13">
         <v>-82.750183000000007</v>
       </c>
     </row>
@@ -1747,10 +1731,10 @@
       <c r="L24" s="5">
         <v>0.53221236617854006</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="13">
         <v>41.866833</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="13">
         <v>-82.749899999999997</v>
       </c>
     </row>
@@ -1793,10 +1777,10 @@
       <c r="L25" s="5">
         <v>0.47583025969117326</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="13">
         <v>41.980083</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="13">
         <v>-82.750200000000007</v>
       </c>
     </row>
@@ -1839,10 +1823,10 @@
       <c r="L26" s="5">
         <v>0.54718649221698989</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="13">
         <v>41.579500000000003</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="13">
         <v>-82.64255</v>
       </c>
     </row>
@@ -1885,10 +1869,10 @@
       <c r="L27" s="5">
         <v>0.52095892106817565</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="13">
         <v>41.679467000000002</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="13">
         <v>-82.649167000000006</v>
       </c>
     </row>
@@ -1931,10 +1915,10 @@
       <c r="L28" s="5">
         <v>0.53953835825958141</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="13">
         <v>41.881082999999997</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="13">
         <v>-82.649732999999998</v>
       </c>
     </row>
@@ -1977,10 +1961,10 @@
       <c r="L29" s="5">
         <v>0.47007719437297657</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="13">
         <v>41.9801</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="13">
         <v>-82.649782999999999</v>
       </c>
     </row>
@@ -2023,10 +2007,10 @@
       <c r="L30" s="5">
         <v>0.47262451730256438</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="13">
         <v>41.479416999999998</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="13">
         <v>-82.550749999999994</v>
       </c>
     </row>
@@ -2069,10 +2053,10 @@
       <c r="L31" s="5">
         <v>0.50564126750361971</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="13">
         <v>41.577367000000002</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="13">
         <v>-82.551550000000006</v>
       </c>
     </row>
@@ -2115,10 +2099,10 @@
       <c r="L32" s="5">
         <v>0.49725799060280707</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="13">
         <v>41.680382999999999</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="13">
         <v>-82.549250000000001</v>
       </c>
     </row>
@@ -2161,10 +2145,10 @@
       <c r="L33" s="5">
         <v>0.50058737014612098</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="13">
         <v>41.780633000000002</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="13">
         <v>-82.550233000000006</v>
       </c>
     </row>
@@ -2207,10 +2191,10 @@
       <c r="L34" s="5">
         <v>0.51547105527438164</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="13">
         <v>41.866399999999999</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="13">
         <v>-82.532550000000001</v>
       </c>
     </row>
@@ -2253,10 +2237,10 @@
       <c r="L35" s="5">
         <v>0.52322508537456136</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="13">
         <v>41.480016999999997</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="13">
         <v>-82.449832999999998</v>
       </c>
     </row>
@@ -2299,10 +2283,10 @@
       <c r="L36" s="5">
         <v>0.65183531091519187</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="13">
         <v>41.579282999999997</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="13">
         <v>-82.450567000000007</v>
       </c>
     </row>
@@ -2345,10 +2329,10 @@
       <c r="L37" s="5">
         <v>0.53399952187267319</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="13">
         <v>41.680100000000003</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="13">
         <v>-82.450017000000003</v>
       </c>
     </row>
@@ -2391,10 +2375,10 @@
       <c r="L38" s="5">
         <v>0.520548168103939</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="13">
         <v>41.779499999999999</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="13">
         <v>-82.448817000000005</v>
       </c>
     </row>
@@ -2437,10 +2421,10 @@
       <c r="L39" s="5">
         <v>0.59313110668180724</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="13">
         <v>41.480849999999997</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="13">
         <v>-82.351016999999999</v>
       </c>
     </row>
@@ -2483,10 +2467,10 @@
       <c r="L40" s="5">
         <v>0.6330254505607793</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="13">
         <v>41.579799999999999</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="13">
         <v>-82.349867000000003</v>
       </c>
     </row>
@@ -2529,10 +2513,10 @@
       <c r="L41" s="5">
         <v>0.51374334097202901</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="13">
         <v>41.679482999999998</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="13">
         <v>-82.347733000000005</v>
       </c>
     </row>
@@ -2575,10 +2559,10 @@
       <c r="L42" s="5">
         <v>0.53159573953215633</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="13">
         <v>41.480867000000003</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="13">
         <v>-82.250900000000001</v>
       </c>
     </row>
@@ -2621,10 +2605,10 @@
       <c r="L43" s="5">
         <v>0.40665155167155803</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="13">
         <v>41.763750000000002</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="13">
         <v>-83.346149999999994</v>
       </c>
     </row>
@@ -2667,10 +2651,10 @@
       <c r="L44" s="5">
         <v>0.49402235268560929</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="13">
         <v>41.763383330000003</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="13">
         <v>-83.249866670000003</v>
       </c>
     </row>
@@ -2713,10 +2697,10 @@
       <c r="L45" s="5">
         <v>0.43527902044196753</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="13">
         <v>41.863399999999999</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="13">
         <v>-83.249933330000005</v>
       </c>
     </row>
@@ -2759,10 +2743,10 @@
       <c r="L46" s="5">
         <v>0.34419639358242476</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="13">
         <v>41.663383330000002</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="13">
         <v>-83.149799999999999</v>
       </c>
     </row>
@@ -2805,10 +2789,10 @@
       <c r="L47" s="5">
         <v>0.47790615118739344</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="13">
         <v>41.763433329999998</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="13">
         <v>-83.149866669999994</v>
       </c>
     </row>
@@ -2851,10 +2835,10 @@
       <c r="L48" s="5">
         <v>0.46303494928896383</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="13">
         <v>41.863433329999999</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="13">
         <v>-83.149950000000004</v>
       </c>
     </row>
@@ -2897,10 +2881,10 @@
       <c r="L49" s="5">
         <v>0.42892417393730176</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="13">
         <v>41.963466670000003</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="13">
         <v>-83.149883329999994</v>
       </c>
     </row>
@@ -2943,10 +2927,10 @@
       <c r="L50" s="5">
         <v>0.4157291360279437</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="13">
         <v>41.663266669999999</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="13">
         <v>-83.049666669999993</v>
       </c>
     </row>
@@ -2989,10 +2973,10 @@
       <c r="L51" s="5">
         <v>0.47307057038846262</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="13">
         <v>41.761316669999999</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="13">
         <v>-83.060016669999996</v>
       </c>
     </row>
@@ -3035,10 +3019,10 @@
       <c r="L52" s="5">
         <v>0.44952612450128365</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="13">
         <v>41.868499999999997</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="13">
         <v>-83.050933330000007</v>
       </c>
     </row>
@@ -3081,10 +3065,10 @@
       <c r="L53" s="5">
         <v>0.46862574996049355</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="13">
         <v>41.963149999999999</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="13">
         <v>-83.050666669999998</v>
       </c>
     </row>
@@ -3127,10 +3111,10 @@
       <c r="L54" s="5">
         <v>0.4236538982954815</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="13">
         <v>41.563466669999997</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="13">
         <v>-82.950916669999998</v>
       </c>
     </row>
@@ -3173,10 +3157,10 @@
       <c r="L55" s="5">
         <v>0.46909056277250505</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="13">
         <v>41.66438333</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="13">
         <v>-82.950699999999998</v>
       </c>
     </row>
@@ -3219,10 +3203,10 @@
       <c r="L56" s="5">
         <v>0.50821438315528666</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="13">
         <v>41.762749999999997</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="13">
         <v>-82.950383329999994</v>
       </c>
     </row>
@@ -3265,10 +3249,10 @@
       <c r="L57" s="5">
         <v>0.48947766224820166</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="13">
         <v>41.863566669999997</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="13">
         <v>-82.950183330000002</v>
       </c>
     </row>
@@ -3311,10 +3295,10 @@
       <c r="L58" s="5">
         <v>0.47197367777899274</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="13">
         <v>41.6633</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="13">
         <v>-82.850116670000006</v>
       </c>
     </row>
@@ -3357,10 +3341,10 @@
       <c r="L59" s="5">
         <v>0.47399564858406407</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="13">
         <v>41.762916670000003</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="13">
         <v>-82.849500000000006</v>
       </c>
     </row>
@@ -3403,10 +3387,10 @@
       <c r="L60" s="5">
         <v>0.24061843385443007</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="13">
         <v>41.863250000000001</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="13">
         <v>-82.850099999999998</v>
       </c>
     </row>
@@ -3449,10 +3433,10 @@
       <c r="L61" s="5">
         <v>0.486711701981626</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="13">
         <v>41.963666670000002</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="13">
         <v>-82.850300000000004</v>
       </c>
     </row>
@@ -3495,10 +3479,10 @@
       <c r="L62" s="5">
         <v>0.44882276004406152</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="13">
         <v>41.563416670000002</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="13">
         <v>-82.750516669999996</v>
       </c>
     </row>
@@ -3541,10 +3525,10 @@
       <c r="L63" s="5">
         <v>0.47974214019783751</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="13">
         <v>41.663183330000003</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="13">
         <v>-82.749966670000006</v>
       </c>
     </row>
@@ -3587,10 +3571,10 @@
       <c r="L64" s="5">
         <v>0.44821995830570832</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="13">
         <v>41.763233329999998</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="13">
         <v>-82.74978333</v>
       </c>
     </row>
@@ -3633,10 +3617,10 @@
       <c r="L65" s="5">
         <v>0.49067864879780804</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="13">
         <v>41.863199999999999</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="13">
         <v>-82.749849999999995</v>
       </c>
     </row>
@@ -3679,10 +3663,10 @@
       <c r="L66" s="5">
         <v>0.4929769198694936</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="13">
         <v>41.963299999999997</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="13">
         <v>-82.753100000000003</v>
       </c>
     </row>
@@ -3725,10 +3709,10 @@
       <c r="L67" s="5">
         <v>0.55021120978700544</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="13">
         <v>41.563433330000002</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="13">
         <v>-82.650716669999994</v>
       </c>
     </row>
@@ -3771,10 +3755,10 @@
       <c r="L68" s="5">
         <v>0.5404072358379306</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="13">
         <v>41.663416669999997</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="13">
         <v>-82.654666669999997</v>
       </c>
     </row>
@@ -3817,10 +3801,10 @@
       <c r="L69" s="5">
         <v>0.42574650101494876</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="13">
         <v>41.863333330000003</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="13">
         <v>-82.650066670000001</v>
       </c>
     </row>
@@ -3863,10 +3847,10 @@
       <c r="L70" s="5">
         <v>0.51114265991505414</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="13">
         <v>41.963416670000001</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="13">
         <v>-82.650016669999999</v>
       </c>
     </row>
@@ -3909,10 +3893,10 @@
       <c r="L71" s="5">
         <v>0.52142916217189106</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="13">
         <v>41.463466670000003</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="13">
         <v>-82.550250000000005</v>
       </c>
     </row>
@@ -3955,10 +3939,10 @@
       <c r="L72" s="5">
         <v>0.49444878704563</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="13">
         <v>41.563316669999999</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="13">
         <v>-82.550349999999995</v>
       </c>
     </row>
@@ -4001,10 +3985,10 @@
       <c r="L73" s="5">
         <v>0.51834394257342953</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="13">
         <v>41.659816669999998</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="13">
         <v>-82.54988333</v>
       </c>
     </row>
@@ -4047,10 +4031,10 @@
       <c r="L74" s="5">
         <v>0.50892440076665679</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="13">
         <v>41.766316670000002</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="13">
         <v>-82.550449999999998</v>
       </c>
     </row>
@@ -4093,10 +4077,10 @@
       <c r="L75" s="5">
         <v>0.50748540229622074</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="13">
         <v>41.863500000000002</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="13">
         <v>-82.550016670000005</v>
       </c>
     </row>
@@ -4139,10 +4123,10 @@
       <c r="L76" s="5">
         <v>0.53891142599048181</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="13">
         <v>41.463333329999998</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="13">
         <v>-82.447066669999998</v>
       </c>
     </row>
@@ -4185,10 +4169,10 @@
       <c r="L77" s="5">
         <v>0.56150591991466814</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="13">
         <v>41.563916669999998</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="13">
         <v>-82.452699999999993</v>
       </c>
     </row>
@@ -4231,10 +4215,10 @@
       <c r="L78" s="5">
         <v>0.51919553396762341</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="13">
         <v>41.663350000000001</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="13">
         <v>-82.453916669999998</v>
       </c>
     </row>
@@ -4277,10 +4261,10 @@
       <c r="L79" s="5">
         <v>0.5150067371827064</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="13">
         <v>41.764749999999999</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="13">
         <v>-82.449516669999994</v>
       </c>
     </row>
@@ -4323,10 +4307,10 @@
       <c r="L80" s="5">
         <v>0.48726630996837877</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="13">
         <v>41.463333329999998</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="13">
         <v>-82.346933329999999</v>
       </c>
     </row>
@@ -4369,10 +4353,10 @@
       <c r="L81" s="5">
         <v>0.53449326175326084</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="13">
         <v>41.564483330000002</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="13">
         <v>-82.351749999999996</v>
       </c>
     </row>
@@ -4415,10 +4399,10 @@
       <c r="L82" s="5">
         <v>0.54176197665435111</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="13">
         <v>41.66545</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="13">
         <v>-82.348699999999994</v>
       </c>
     </row>
@@ -4461,10 +4445,10 @@
       <c r="L83" s="5">
         <v>0.51212808978322744</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="13">
         <v>41.462916669999998</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="13">
         <v>-82.249116670000006</v>
       </c>
     </row>
@@ -4507,10 +4491,10 @@
       <c r="L84" s="5">
         <v>0.49734958876183893</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="13">
         <v>41.763449999999999</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="13">
         <v>-83.349233330000004</v>
       </c>
     </row>
@@ -4553,10 +4537,10 @@
       <c r="L85" s="5">
         <v>0.62102705061372798</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="13">
         <v>41.763379999999998</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="13">
         <v>-83.249870000000001</v>
       </c>
     </row>
@@ -4599,10 +4583,10 @@
       <c r="L86" s="5">
         <v>0.59905196381220294</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="13">
         <v>41.863399999999999</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="13">
         <v>-83.249930000000006</v>
       </c>
     </row>
@@ -4645,10 +4629,10 @@
       <c r="L87" s="5">
         <v>0.60453120730032273</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="13">
         <v>41.663379999999997</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="13">
         <v>-83.149799999999999</v>
       </c>
     </row>
@@ -4691,10 +4675,10 @@
       <c r="L88" s="5">
         <v>0.64507928528400849</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="13">
         <v>41.76343</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="13">
         <v>-83.149870000000007</v>
       </c>
     </row>
@@ -4737,10 +4721,10 @@
       <c r="L89" s="5">
         <v>0.59277530802606526</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="13">
         <v>41.863430000000001</v>
       </c>
-      <c r="N89">
+      <c r="N89" s="13">
         <v>-83.149950000000004</v>
       </c>
     </row>
@@ -4783,10 +4767,10 @@
       <c r="L90" s="5">
         <v>0.55991000000000002</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="13">
         <v>41.963470000000001</v>
       </c>
-      <c r="N90">
+      <c r="N90" s="13">
         <v>-83.149879999999996</v>
       </c>
     </row>
@@ -4829,10 +4813,10 @@
       <c r="L91" s="5">
         <v>0.61053461028887013</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="13">
         <v>41.663269999999997</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="13">
         <v>-83.049670000000006</v>
       </c>
     </row>
@@ -4875,10 +4859,10 @@
       <c r="L92" s="5">
         <v>0.64385116909712126</v>
       </c>
-      <c r="M92">
+      <c r="M92" s="13">
         <v>41.76343</v>
       </c>
-      <c r="N92">
+      <c r="N92" s="13">
         <v>-83.049899999999994</v>
       </c>
     </row>
@@ -4921,10 +4905,10 @@
       <c r="L93" s="5">
         <v>0.70759110716377471</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="13">
         <v>41.868499999999997</v>
       </c>
-      <c r="N93">
+      <c r="N93" s="13">
         <v>-83.050929999999994</v>
       </c>
     </row>
@@ -4967,10 +4951,10 @@
       <c r="L94" s="5">
         <v>0.67228357592390164</v>
       </c>
-      <c r="M94">
+      <c r="M94" s="13">
         <v>41.963149999999999</v>
       </c>
-      <c r="N94">
+      <c r="N94" s="13">
         <v>-83.050669999999997</v>
       </c>
     </row>
@@ -5013,10 +4997,10 @@
       <c r="L95" s="5">
         <v>0.38047079775127157</v>
       </c>
-      <c r="M95">
+      <c r="M95" s="13">
         <v>41.563470000000002</v>
       </c>
-      <c r="N95">
+      <c r="N95" s="13">
         <v>-82.950919999999996</v>
       </c>
     </row>
@@ -5059,10 +5043,10 @@
       <c r="L96" s="5">
         <v>0.60073952020023225</v>
       </c>
-      <c r="M96">
+      <c r="M96" s="13">
         <v>41.664380000000001</v>
       </c>
-      <c r="N96">
+      <c r="N96" s="13">
         <v>-82.950699999999998</v>
       </c>
     </row>
@@ -5105,10 +5089,10 @@
       <c r="L97" s="5">
         <v>0.67567447496250277</v>
       </c>
-      <c r="M97">
+      <c r="M97" s="13">
         <v>41.762749999999997</v>
       </c>
-      <c r="N97">
+      <c r="N97" s="13">
         <v>-82.950379999999996</v>
       </c>
     </row>
@@ -5151,10 +5135,10 @@
       <c r="L98" s="5">
         <v>0.67134655564087153</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="13">
         <v>41.863570000000003</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="13">
         <v>-82.950180000000003</v>
       </c>
     </row>
@@ -5197,10 +5181,10 @@
       <c r="L99" s="5">
         <v>0.61460628095419212</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="13">
         <v>41.6633</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="13">
         <v>-82.850120000000004</v>
       </c>
     </row>
@@ -5243,10 +5227,10 @@
       <c r="L100" s="5">
         <v>0.66436328319957572</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="13">
         <v>41.762920000000001</v>
       </c>
-      <c r="N100">
+      <c r="N100" s="13">
         <v>-82.849500000000006</v>
       </c>
     </row>
@@ -5289,10 +5273,10 @@
       <c r="L101" s="5">
         <v>0.64565541979786512</v>
       </c>
-      <c r="M101">
+      <c r="M101" s="13">
         <v>41.863250000000001</v>
       </c>
-      <c r="N101">
+      <c r="N101" s="13">
         <v>-82.850099999999998</v>
       </c>
     </row>
@@ -5335,10 +5319,10 @@
       <c r="L102" s="5">
         <v>0.68555597300154947</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="13">
         <v>41.96367</v>
       </c>
-      <c r="N102">
+      <c r="N102" s="13">
         <v>-82.850300000000004</v>
       </c>
     </row>
@@ -5381,10 +5365,10 @@
       <c r="L103" s="5">
         <v>0.68096625847776315</v>
       </c>
-      <c r="M103">
+      <c r="M103" s="13">
         <v>41.563420000000001</v>
       </c>
-      <c r="N103">
+      <c r="N103" s="13">
         <v>-82.750519999999995</v>
       </c>
     </row>
@@ -5427,10 +5411,10 @@
       <c r="L104" s="5">
         <v>0.59837443423748571</v>
       </c>
-      <c r="M104">
+      <c r="M104" s="13">
         <v>41.663179999999997</v>
       </c>
-      <c r="N104">
+      <c r="N104" s="13">
         <v>-82.749970000000005</v>
       </c>
     </row>
@@ -5473,10 +5457,10 @@
       <c r="L105" s="5">
         <v>0.60717363173724803</v>
       </c>
-      <c r="M105">
+      <c r="M105" s="13">
         <v>41.76323</v>
       </c>
-      <c r="N105">
+      <c r="N105" s="13">
         <v>-82.749780000000001</v>
       </c>
     </row>
@@ -5519,10 +5503,10 @@
       <c r="L106" s="5">
         <v>0.60651754063087582</v>
       </c>
-      <c r="M106">
+      <c r="M106" s="13">
         <v>41.863199999999999</v>
       </c>
-      <c r="N106">
+      <c r="N106" s="13">
         <v>-82.749849999999995</v>
       </c>
     </row>
@@ -5565,10 +5549,10 @@
       <c r="L107" s="5">
         <v>0.67145904055057148</v>
       </c>
-      <c r="M107">
+      <c r="M107" s="13">
         <v>41.963299999999997</v>
       </c>
-      <c r="N107">
+      <c r="N107" s="13">
         <v>-82.753100000000003</v>
       </c>
     </row>
@@ -5611,10 +5595,10 @@
       <c r="L108" s="5">
         <v>0.68603801479023585</v>
       </c>
-      <c r="M108">
+      <c r="M108" s="13">
         <v>41.563429999999997</v>
       </c>
-      <c r="N108">
+      <c r="N108" s="13">
         <v>-82.650720000000007</v>
       </c>
     </row>
@@ -5657,10 +5641,10 @@
       <c r="L109" s="5">
         <v>0.70349680598767572</v>
       </c>
-      <c r="M109">
+      <c r="M109" s="13">
         <v>41.662316670000003</v>
       </c>
-      <c r="N109">
+      <c r="N109" s="13">
         <v>-82.64748333</v>
       </c>
     </row>
@@ -5703,10 +5687,10 @@
       <c r="L110" s="5">
         <v>0.64421766234339428</v>
       </c>
-      <c r="M110">
+      <c r="M110" s="13">
         <v>41.863683330000001</v>
       </c>
-      <c r="N110">
+      <c r="N110" s="13">
         <v>-82.647900000000007</v>
       </c>
     </row>
@@ -5749,10 +5733,10 @@
       <c r="L111" s="5">
         <v>0.68607002906065773</v>
       </c>
-      <c r="M111">
+      <c r="M111" s="13">
         <v>41.964066670000001</v>
       </c>
-      <c r="N111">
+      <c r="N111" s="13">
         <v>-82.650700000000001</v>
       </c>
     </row>
@@ -5795,10 +5779,10 @@
       <c r="L112" s="5">
         <v>0.61451206654001589</v>
       </c>
-      <c r="M112">
+      <c r="M112" s="13">
         <v>41.465449999999997</v>
       </c>
-      <c r="N112">
+      <c r="N112" s="13">
         <v>-82.549133330000004</v>
       </c>
     </row>
@@ -5841,10 +5825,10 @@
       <c r="L113" s="5">
         <v>0.70226000000000011</v>
       </c>
-      <c r="M113">
+      <c r="M113" s="13">
         <v>41.563749999999999</v>
       </c>
-      <c r="N113">
+      <c r="N113" s="13">
         <v>-82.548966669999999</v>
       </c>
     </row>
@@ -5887,10 +5871,10 @@
       <c r="L114" s="5">
         <v>0.69297210432653999</v>
       </c>
-      <c r="M114">
+      <c r="M114" s="13">
         <v>41.663366670000002</v>
       </c>
-      <c r="N114">
+      <c r="N114" s="13">
         <v>-82.548900000000003</v>
       </c>
     </row>
@@ -5933,10 +5917,10 @@
       <c r="L115" s="5">
         <v>0.62075000000000002</v>
       </c>
-      <c r="M115">
+      <c r="M115" s="13">
         <v>41.761816670000002</v>
       </c>
-      <c r="N115">
+      <c r="N115" s="13">
         <v>-82.552233330000007</v>
       </c>
     </row>
@@ -5979,10 +5963,10 @@
       <c r="L116" s="5">
         <v>0.69209020073061822</v>
       </c>
-      <c r="M116">
+      <c r="M116" s="13">
         <v>41.867350000000002</v>
       </c>
-      <c r="N116">
+      <c r="N116" s="13">
         <v>-82.518366670000006</v>
       </c>
     </row>
@@ -6025,10 +6009,10 @@
       <c r="L117" s="5">
         <v>0.71384789355768807</v>
       </c>
-      <c r="M117">
+      <c r="M117" s="13">
         <v>41.463549999999998</v>
       </c>
-      <c r="N117">
+      <c r="N117" s="13">
         <v>-82.451816669999999</v>
       </c>
     </row>
@@ -6071,10 +6055,10 @@
       <c r="L118" s="5">
         <v>0.71356334142941813</v>
       </c>
-      <c r="M118">
+      <c r="M118" s="13">
         <v>41.563049999999997</v>
       </c>
-      <c r="N118">
+      <c r="N118" s="13">
         <v>-82.450566670000001</v>
       </c>
     </row>
@@ -6117,10 +6101,10 @@
       <c r="L119" s="5">
         <v>0.74936845112265682</v>
       </c>
-      <c r="M119">
+      <c r="M119" s="13">
         <v>41.66481667</v>
       </c>
-      <c r="N119">
+      <c r="N119" s="13">
         <v>-82.449466670000007</v>
       </c>
     </row>
@@ -6163,10 +6147,10 @@
       <c r="L120" s="5">
         <v>0.72870432689766185</v>
       </c>
-      <c r="M120">
+      <c r="M120" s="13">
         <v>41.7637</v>
       </c>
-      <c r="N120">
+      <c r="N120" s="13">
         <v>-82.449383330000003</v>
       </c>
     </row>
@@ -6209,10 +6193,10 @@
       <c r="L121" s="5">
         <v>0.65890583043048512</v>
       </c>
-      <c r="M121">
+      <c r="M121" s="13">
         <v>41.463799999999999</v>
       </c>
-      <c r="N121">
+      <c r="N121" s="13">
         <v>-82.352249999999998</v>
       </c>
     </row>
@@ -6255,10 +6239,10 @@
       <c r="L122" s="5">
         <v>0.69099119719119972</v>
       </c>
-      <c r="M122">
+      <c r="M122" s="13">
         <v>41.564133329999997</v>
       </c>
-      <c r="N122">
+      <c r="N122" s="13">
         <v>-82.348283330000001</v>
       </c>
     </row>
@@ -6301,10 +6285,10 @@
       <c r="L123" s="5">
         <v>0.78898938108287486</v>
       </c>
-      <c r="M123">
+      <c r="M123" s="13">
         <v>41.66545</v>
       </c>
-      <c r="N123">
+      <c r="N123" s="13">
         <v>-82.348699999999994</v>
       </c>
     </row>
@@ -6347,10 +6331,10 @@
       <c r="L124" s="5">
         <v>0.57023002360326391</v>
       </c>
-      <c r="M124">
+      <c r="M124" s="13">
         <v>41.46553333</v>
       </c>
-      <c r="N124">
+      <c r="N124" s="13">
         <v>-82.249683329999996</v>
       </c>
     </row>
@@ -6393,10 +6377,10 @@
       <c r="L125" s="6">
         <v>0.53627232941579606</v>
       </c>
-      <c r="M125">
+      <c r="M125" s="13">
         <v>41.765283333299998</v>
       </c>
-      <c r="N125">
+      <c r="N125" s="13">
         <v>-83.3481833333</v>
       </c>
     </row>
@@ -6439,10 +6423,10 @@
       <c r="L126" s="6">
         <v>0.58282386190937518</v>
       </c>
-      <c r="M126">
+      <c r="M126" s="13">
         <v>41.763300000000001</v>
       </c>
-      <c r="N126">
+      <c r="N126" s="13">
         <v>-83.150933333300003</v>
       </c>
     </row>
@@ -6485,10 +6469,10 @@
       <c r="L127" s="6">
         <v>0.58027686699030445</v>
       </c>
-      <c r="M127">
+      <c r="M127" s="13">
         <v>41.863566666700002</v>
       </c>
-      <c r="N127">
+      <c r="N127" s="13">
         <v>-83.248999999999995</v>
       </c>
     </row>
@@ -6531,10 +6515,10 @@
       <c r="L128" s="6">
         <v>0.63302039835325752</v>
       </c>
-      <c r="M128">
+      <c r="M128" s="13">
         <v>41.680100000000003</v>
       </c>
-      <c r="N128">
+      <c r="N128" s="13">
         <v>-83.149516666699995</v>
       </c>
     </row>
@@ -6577,10 +6561,10 @@
       <c r="L129" s="6">
         <v>0.52778523101958319</v>
       </c>
-      <c r="M129">
+      <c r="M129" s="13">
         <v>41.763300000000001</v>
       </c>
-      <c r="N129">
+      <c r="N129" s="13">
         <v>-83.150933333300003</v>
       </c>
     </row>
@@ -6623,10 +6607,10 @@
       <c r="L130" s="6">
         <v>0.57682738019156576</v>
       </c>
-      <c r="M130">
+      <c r="M130" s="13">
         <v>41.864199999999997</v>
       </c>
-      <c r="N130">
+      <c r="N130" s="13">
         <v>-83.149950000000004</v>
       </c>
     </row>
@@ -6669,10 +6653,10 @@
       <c r="L131" s="6">
         <v>0.51609582731140768</v>
       </c>
-      <c r="M131">
+      <c r="M131" s="13">
         <v>41.971466666700003</v>
       </c>
-      <c r="N131">
+      <c r="N131" s="13">
         <v>-83.145750000000007</v>
       </c>
     </row>
@@ -6715,10 +6699,10 @@
       <c r="L132" s="6">
         <v>0.63302039835325752</v>
       </c>
-      <c r="M132">
+      <c r="M132" s="13">
         <v>41.680433333300002</v>
       </c>
-      <c r="N132">
+      <c r="N132" s="13">
         <v>-83.050749999999994</v>
       </c>
     </row>
@@ -6761,10 +6745,10 @@
       <c r="L133" s="6">
         <v>0.70908208531803041</v>
       </c>
-      <c r="M133">
+      <c r="M133" s="13">
         <v>41.7634333333</v>
       </c>
-      <c r="N133">
+      <c r="N133" s="13">
         <v>-83.049899999999994</v>
       </c>
     </row>
@@ -6807,10 +6791,10 @@
       <c r="L134" s="6">
         <v>0.58629250220060147</v>
       </c>
-      <c r="M134">
+      <c r="M134" s="13">
         <v>41.864166666700001</v>
       </c>
-      <c r="N134">
+      <c r="N134" s="13">
         <v>-83.049549999999996</v>
       </c>
     </row>
@@ -6853,10 +6837,10 @@
       <c r="L135" s="6">
         <v>0.60667641614375978</v>
       </c>
-      <c r="M135">
+      <c r="M135" s="13">
         <v>41.964016666699997</v>
       </c>
-      <c r="N135">
+      <c r="N135" s="13">
         <v>-83.048850000000002</v>
       </c>
     </row>
@@ -6899,10 +6883,10 @@
       <c r="L136" s="6">
         <v>0.50365366734909101</v>
       </c>
-      <c r="M136">
+      <c r="M136" s="13">
         <v>41.564149999999998</v>
       </c>
-      <c r="N136">
+      <c r="N136" s="13">
         <v>-82.950249999999997</v>
       </c>
     </row>
@@ -6945,10 +6929,10 @@
       <c r="L137" s="6">
         <v>0.61736469324083998</v>
       </c>
-      <c r="M137">
+      <c r="M137" s="13">
         <v>41.66395</v>
       </c>
-      <c r="N137">
+      <c r="N137" s="13">
         <v>-82.950483333333295</v>
       </c>
     </row>
@@ -6991,10 +6975,10 @@
       <c r="L138" s="6">
         <v>0.61106636681466042</v>
       </c>
-      <c r="M138">
+      <c r="M138" s="13">
         <v>41.763249999999999</v>
       </c>
-      <c r="N138">
+      <c r="N138" s="13">
         <v>-82.949516666700006</v>
       </c>
     </row>
@@ -7037,10 +7021,10 @@
       <c r="L139" s="6">
         <v>0.63693193573927154</v>
       </c>
-      <c r="M139">
+      <c r="M139" s="13">
         <v>41.867066666699998</v>
       </c>
-      <c r="N139">
+      <c r="N139" s="13">
         <v>-82.949783333300005</v>
       </c>
     </row>
@@ -7083,10 +7067,10 @@
       <c r="L140" s="6">
         <v>0.58865064290849622</v>
       </c>
-      <c r="M140">
+      <c r="M140" s="13">
         <v>41.668500000000002</v>
       </c>
-      <c r="N140">
+      <c r="N140" s="13">
         <v>-82.854483333299996</v>
       </c>
     </row>
@@ -7129,10 +7113,10 @@
       <c r="L141" s="6">
         <v>0.54910551529349239</v>
       </c>
-      <c r="M141">
+      <c r="M141" s="13">
         <v>41.763133333299997</v>
       </c>
-      <c r="N141">
+      <c r="N141" s="13">
         <v>-82.851699999999994</v>
       </c>
     </row>
@@ -7175,10 +7159,10 @@
       <c r="L142" s="6">
         <v>0.57002979593922998</v>
       </c>
-      <c r="M142">
+      <c r="M142" s="13">
         <v>41.864649999999997</v>
       </c>
-      <c r="N142">
+      <c r="N142" s="13">
         <v>-82.850250000000003</v>
       </c>
     </row>
@@ -7221,10 +7205,10 @@
       <c r="L143" s="6">
         <v>0.58234820095409079</v>
       </c>
-      <c r="M143">
+      <c r="M143" s="13">
         <v>41.964816666700003</v>
       </c>
-      <c r="N143">
+      <c r="N143" s="13">
         <v>-82.851633333300001</v>
       </c>
     </row>
@@ -7267,10 +7251,10 @@
       <c r="L144" s="6">
         <v>0.50322351915279739</v>
       </c>
-      <c r="M144">
+      <c r="M144" s="13">
         <v>41.56335</v>
       </c>
-      <c r="N144">
+      <c r="N144" s="13">
         <v>-82.749833333300003</v>
       </c>
     </row>
@@ -7313,10 +7297,10 @@
       <c r="L145" s="6">
         <v>0.62123104710157206</v>
       </c>
-      <c r="M145">
+      <c r="M145" s="13">
         <v>41.6636833333</v>
       </c>
-      <c r="N145">
+      <c r="N145" s="13">
         <v>-82.749616666700007</v>
       </c>
     </row>
@@ -7359,10 +7343,10 @@
       <c r="L146" s="6">
         <v>0.57575789487948059</v>
       </c>
-      <c r="M146">
+      <c r="M146" s="13">
         <v>41.763849999999998</v>
       </c>
-      <c r="N146">
+      <c r="N146" s="13">
         <v>-82.749966666700004</v>
       </c>
     </row>
@@ -7405,10 +7389,10 @@
       <c r="L147" s="6">
         <v>0.77355074910964505</v>
       </c>
-      <c r="M147">
+      <c r="M147" s="13">
         <v>41.865166666699999</v>
       </c>
-      <c r="N147">
+      <c r="N147" s="13">
         <v>-82.750666666699999</v>
       </c>
     </row>
@@ -7451,10 +7435,10 @@
       <c r="L148" s="6">
         <v>0.60165415033207326</v>
       </c>
-      <c r="M148">
+      <c r="M148" s="13">
         <v>41.9638666667</v>
       </c>
-      <c r="N148">
+      <c r="N148" s="13">
         <v>-82.748666666700004</v>
       </c>
     </row>
@@ -7497,10 +7481,10 @@
       <c r="L149" s="6">
         <v>0.65911138893688814</v>
       </c>
-      <c r="M149">
+      <c r="M149" s="13">
         <v>41.564100000000003</v>
       </c>
-      <c r="N149">
+      <c r="N149" s="13">
         <v>-82.650149999999996</v>
       </c>
     </row>
@@ -7543,10 +7527,10 @@
       <c r="L150" s="6">
         <v>0.7179910368492457</v>
       </c>
-      <c r="M150">
+      <c r="M150" s="13">
         <v>41.664149999999999</v>
       </c>
-      <c r="N150">
+      <c r="N150" s="13">
         <v>-82.650433333300001</v>
       </c>
     </row>
@@ -7589,10 +7573,10 @@
       <c r="L151" s="6">
         <v>0.67903223234635024</v>
       </c>
-      <c r="M151">
+      <c r="M151" s="13">
         <v>41.862716666700003</v>
       </c>
-      <c r="N151">
+      <c r="N151" s="13">
         <v>-82.648083333299994</v>
       </c>
     </row>
@@ -7635,10 +7619,10 @@
       <c r="L152" s="6">
         <v>0.59221839255200026</v>
       </c>
-      <c r="M152">
+      <c r="M152" s="13">
         <v>41.964266666699999</v>
       </c>
-      <c r="N152">
+      <c r="N152" s="13">
         <v>-82.649533333299999</v>
       </c>
     </row>
@@ -7681,10 +7665,10 @@
       <c r="L153" s="6">
         <v>0.62958488178832617</v>
       </c>
-      <c r="M153">
+      <c r="M153" s="13">
         <v>41.458416666700003</v>
       </c>
-      <c r="N153">
+      <c r="N153" s="13">
         <v>-82.546000000000006</v>
       </c>
     </row>
@@ -7727,10 +7711,10 @@
       <c r="L154" s="6">
         <v>0.64155119791544846</v>
       </c>
-      <c r="M154">
+      <c r="M154" s="13">
         <v>41.564483333333335</v>
       </c>
-      <c r="N154">
+      <c r="N154" s="13">
         <v>-82.550216666666699</v>
       </c>
     </row>
@@ -7773,10 +7757,10 @@
       <c r="L155" s="6">
         <v>0.71590313350532775</v>
       </c>
-      <c r="M155">
+      <c r="M155" s="13">
         <v>41.663666666700003</v>
       </c>
-      <c r="N155">
+      <c r="N155" s="13">
         <v>-82.549666666700006</v>
       </c>
     </row>
@@ -7819,10 +7803,10 @@
       <c r="L156" s="6">
         <v>0.65629507896807771</v>
       </c>
-      <c r="M156">
+      <c r="M156" s="13">
         <v>41.761949999999999</v>
       </c>
-      <c r="N156">
+      <c r="N156" s="13">
         <v>-82.550299999999993</v>
       </c>
     </row>
@@ -7865,10 +7849,10 @@
       <c r="L157" s="6">
         <v>0.63634038103536561</v>
       </c>
-      <c r="M157">
+      <c r="M157" s="13">
         <v>41.862883333299997</v>
       </c>
-      <c r="N157">
+      <c r="N157" s="13">
         <v>-82.548833333299996</v>
       </c>
     </row>
@@ -7911,10 +7895,10 @@
       <c r="L158" s="6">
         <v>0.62556373067306748</v>
       </c>
-      <c r="M158">
+      <c r="M158" s="13">
         <v>41.4636</v>
       </c>
-      <c r="N158">
+      <c r="N158" s="13">
         <v>-82.449700000000007</v>
       </c>
     </row>
@@ -7957,10 +7941,10 @@
       <c r="L159" s="6">
         <v>0.65326482594047519</v>
       </c>
-      <c r="M159">
+      <c r="M159" s="13">
         <v>41.563633333299997</v>
       </c>
-      <c r="N159">
+      <c r="N159" s="13">
         <v>-82.450066666699996</v>
       </c>
     </row>
@@ -8003,10 +7987,10 @@
       <c r="L160" s="6">
         <v>0.62371911656983692</v>
       </c>
-      <c r="M160">
+      <c r="M160" s="13">
         <v>41.663699999999999</v>
       </c>
-      <c r="N160">
+      <c r="N160" s="13">
         <v>-82.45</v>
       </c>
     </row>
@@ -8049,10 +8033,10 @@
       <c r="L161" s="6">
         <v>0.61194040465231814</v>
       </c>
-      <c r="M161">
+      <c r="M161" s="13">
         <v>41.763350000000003</v>
       </c>
-      <c r="N161">
+      <c r="N161" s="13">
         <v>-82.447433333299998</v>
       </c>
     </row>
@@ -8095,10 +8079,10 @@
       <c r="L162" s="6">
         <v>0.65897205424039818</v>
       </c>
-      <c r="M162">
+      <c r="M162" s="13">
         <v>41.463833333300002</v>
       </c>
-      <c r="N162">
+      <c r="N162" s="13">
         <v>-82.349666666700003</v>
       </c>
     </row>
@@ -8141,10 +8125,10 @@
       <c r="L163" s="6">
         <v>0.73248020476843945</v>
       </c>
-      <c r="M163">
+      <c r="M163" s="13">
         <v>41.563299999999998</v>
       </c>
-      <c r="N163">
+      <c r="N163" s="13">
         <v>-82.352099999999993</v>
       </c>
     </row>
@@ -8187,10 +8171,10 @@
       <c r="L164" s="6">
         <v>0.69245375035463375</v>
       </c>
-      <c r="M164">
+      <c r="M164" s="13">
         <v>41.66375</v>
       </c>
-      <c r="N164">
+      <c r="N164" s="13">
         <v>-82.350700000000003</v>
       </c>
     </row>
@@ -8233,10 +8217,10 @@
       <c r="L165" s="6">
         <v>0.60882440121479198</v>
       </c>
-      <c r="M165">
+      <c r="M165" s="13">
         <v>41.464100000000002</v>
       </c>
-      <c r="N165">
+      <c r="N165" s="13">
         <v>-82.2511166667</v>
       </c>
     </row>
@@ -8279,10 +8263,10 @@
       <c r="L166" s="5">
         <v>0.76791993741240283</v>
       </c>
-      <c r="M166">
+      <c r="M166" s="13">
         <v>41.782096666666668</v>
       </c>
-      <c r="N166">
+      <c r="N166" s="13">
         <v>-83.346805000000003</v>
       </c>
     </row>
@@ -8325,10 +8309,10 @@
       <c r="L167" s="5">
         <v>0.73108296493094804</v>
       </c>
-      <c r="M167">
+      <c r="M167" s="13">
         <v>41.780005000000003</v>
       </c>
-      <c r="N167">
+      <c r="N167" s="13">
         <v>-83.250766666666664</v>
       </c>
     </row>
@@ -8371,10 +8355,10 @@
       <c r="L168" s="5">
         <v>0.76822074255089645</v>
       </c>
-      <c r="M168">
+      <c r="M168" s="13">
         <v>41.880015</v>
       </c>
-      <c r="N168">
+      <c r="N168" s="13">
         <v>-83.251293333333336</v>
       </c>
     </row>
@@ -8417,10 +8401,10 @@
       <c r="L169" s="5">
         <v>0.86660510111128952</v>
       </c>
-      <c r="M169">
+      <c r="M169" s="13">
         <v>41.699516666666668</v>
       </c>
-      <c r="N169">
+      <c r="N169" s="13">
         <v>-83.056703333333331</v>
       </c>
     </row>
@@ -8463,10 +8447,10 @@
       <c r="L170" s="5">
         <v>0.71298551240683172</v>
       </c>
-      <c r="M170">
+      <c r="M170" s="13">
         <v>41.779969999999999</v>
       </c>
-      <c r="N170">
+      <c r="N170" s="13">
         <v>-83.151103333333339</v>
       </c>
     </row>
@@ -8509,10 +8493,10 @@
       <c r="L171" s="5">
         <v>0.79824072083378672</v>
       </c>
-      <c r="M171">
+      <c r="M171" s="13">
         <v>41.879006666666669</v>
       </c>
-      <c r="N171">
+      <c r="N171" s="13">
         <v>-83.150631666666669</v>
       </c>
     </row>
@@ -8555,10 +8539,10 @@
       <c r="L172" s="5">
         <v>0.7343301057130468</v>
       </c>
-      <c r="M172">
+      <c r="M172" s="13">
         <v>41.979826666666668</v>
       </c>
-      <c r="N172">
+      <c r="N172" s="13">
         <v>-83.115136666666672</v>
       </c>
     </row>
@@ -8601,10 +8585,10 @@
       <c r="L173" s="5">
         <v>0.73005997679352053</v>
       </c>
-      <c r="M173">
+      <c r="M173" s="13">
         <v>41.680973333333334</v>
       </c>
-      <c r="N173">
+      <c r="N173" s="13">
         <v>-83.052424999999999</v>
       </c>
     </row>
@@ -8647,10 +8631,10 @@
       <c r="L174" s="5">
         <v>0.73556769199915761</v>
       </c>
-      <c r="M174">
+      <c r="M174" s="13">
         <v>41.77124666666667</v>
       </c>
-      <c r="N174">
+      <c r="N174" s="13">
         <v>-83.025885000000002</v>
       </c>
     </row>
@@ -8693,10 +8677,10 @@
       <c r="L175" s="5">
         <v>0.75836376302411246</v>
       </c>
-      <c r="M175">
+      <c r="M175" s="13">
         <v>41.880495000000003</v>
       </c>
-      <c r="N175">
+      <c r="N175" s="13">
         <v>-83.049525000000003</v>
       </c>
     </row>
@@ -8739,10 +8723,10 @@
       <c r="L176" s="5">
         <v>0.75113389812588005</v>
       </c>
-      <c r="M176">
+      <c r="M176" s="13">
         <v>41.979711666666667</v>
       </c>
-      <c r="N176">
+      <c r="N176" s="13">
         <v>-83.049806666666669</v>
       </c>
     </row>
@@ -8785,10 +8769,10 @@
       <c r="L177" s="5">
         <v>0.84774038697019138</v>
       </c>
-      <c r="M177">
+      <c r="M177" s="13">
         <v>41.581563333333335</v>
       </c>
-      <c r="N177">
+      <c r="N177" s="13">
         <v>-82.947753333333338</v>
       </c>
     </row>
@@ -8831,10 +8815,10 @@
       <c r="L178" s="5">
         <v>0.80254183202277563</v>
       </c>
-      <c r="M178">
+      <c r="M178" s="13">
         <v>41.684338333333336</v>
       </c>
-      <c r="N178">
+      <c r="N178" s="13">
         <v>-82.952056666666664</v>
       </c>
     </row>
@@ -8877,10 +8861,10 @@
       <c r="L179" s="5">
         <v>0.80166015902387822</v>
       </c>
-      <c r="M179">
+      <c r="M179" s="13">
         <v>41.762965000000001</v>
       </c>
-      <c r="N179">
+      <c r="N179" s="13">
         <v>-82.949583333333337</v>
       </c>
     </row>
@@ -8923,10 +8907,10 @@
       <c r="L180" s="5">
         <v>0.75539828195566883</v>
       </c>
-      <c r="M180">
+      <c r="M180" s="13">
         <v>41.879559999999998</v>
       </c>
-      <c r="N180">
+      <c r="N180" s="13">
         <v>-82.949924999999993</v>
       </c>
     </row>
@@ -8969,10 +8953,10 @@
       <c r="L181" s="5">
         <v>0.76352035364471771</v>
       </c>
-      <c r="M181">
+      <c r="M181" s="13">
         <v>41.673313333333333</v>
       </c>
-      <c r="N181">
+      <c r="N181" s="13">
         <v>-82.849699999999999</v>
       </c>
     </row>
@@ -9015,10 +8999,10 @@
       <c r="L182" s="5">
         <v>0.74695260861996238</v>
       </c>
-      <c r="M182">
+      <c r="M182" s="13">
         <v>41.763330000000003</v>
       </c>
-      <c r="N182">
+      <c r="N182" s="13">
         <v>-82.850219999999993</v>
       </c>
     </row>
@@ -9061,10 +9045,10 @@
       <c r="L183" s="5">
         <v>0.71360770331318424</v>
       </c>
-      <c r="M183">
+      <c r="M183" s="13">
         <v>41.86345166666667</v>
       </c>
-      <c r="N183">
+      <c r="N183" s="13">
         <v>-82.850250000000003</v>
       </c>
     </row>
@@ -9107,10 +9091,10 @@
       <c r="L184" s="5">
         <v>0.73764145534447279</v>
       </c>
-      <c r="M184">
+      <c r="M184" s="13">
         <v>41.962758333333333</v>
       </c>
-      <c r="N184">
+      <c r="N184" s="13">
         <v>-82.850553333333337</v>
       </c>
     </row>
@@ -9153,10 +9137,10 @@
       <c r="L185" s="5">
         <v>0.85467536150295309</v>
       </c>
-      <c r="M185">
+      <c r="M185" s="13">
         <v>41.580773333333333</v>
       </c>
-      <c r="N185">
+      <c r="N185" s="13">
         <v>-82.747865000000004</v>
       </c>
     </row>
@@ -9199,10 +9183,10 @@
       <c r="L186" s="5">
         <v>0.74369312435553481</v>
       </c>
-      <c r="M186">
+      <c r="M186" s="13">
         <v>41.680284999999998</v>
       </c>
-      <c r="N186">
+      <c r="N186" s="13">
         <v>-82.750311666666661</v>
       </c>
     </row>
@@ -9245,10 +9229,10 @@
       <c r="L187" s="5">
         <v>0.6964496283610675</v>
       </c>
-      <c r="M187">
+      <c r="M187" s="13">
         <v>41.771756666666668</v>
       </c>
-      <c r="N187">
+      <c r="N187" s="13">
         <v>-82.751530000000002</v>
       </c>
     </row>
@@ -9291,10 +9275,10 @@
       <c r="L188" s="5">
         <v>0.75953084274452121</v>
       </c>
-      <c r="M188">
+      <c r="M188" s="13">
         <v>41.868448333333333</v>
       </c>
-      <c r="N188">
+      <c r="N188" s="13">
         <v>-82.750631666666663</v>
       </c>
     </row>
@@ -9337,10 +9321,10 @@
       <c r="L189" s="5">
         <v>0.7338326764618528</v>
       </c>
-      <c r="M189">
+      <c r="M189" s="13">
         <v>41.9636</v>
       </c>
-      <c r="N189">
+      <c r="N189" s="13">
         <v>-82.750093333333339</v>
       </c>
     </row>
@@ -9383,10 +9367,10 @@
       <c r="L190" s="5">
         <v>0.82989332791297588</v>
       </c>
-      <c r="M190">
+      <c r="M190" s="13">
         <v>41.580134999999999</v>
       </c>
-      <c r="N190">
+      <c r="N190" s="13">
         <v>-82.648619999999994</v>
       </c>
     </row>
@@ -9429,10 +9413,10 @@
       <c r="L191" s="5">
         <v>0.75803484923505349</v>
       </c>
-      <c r="M191">
+      <c r="M191" s="13">
         <v>41.662495</v>
       </c>
-      <c r="N191">
+      <c r="N191" s="13">
         <v>-82.647398333333328</v>
       </c>
     </row>
@@ -9475,10 +9459,10 @@
       <c r="L192" s="5">
         <v>0.64748603379052683</v>
       </c>
-      <c r="M192">
+      <c r="M192" s="13">
         <v>41.863681666666665</v>
       </c>
-      <c r="N192">
+      <c r="N192" s="13">
         <v>-82.650913333333335</v>
       </c>
     </row>
@@ -9521,10 +9505,10 @@
       <c r="L193" s="5">
         <v>0.68600725120260364</v>
       </c>
-      <c r="M193">
+      <c r="M193" s="13">
         <v>41.972034999999998</v>
       </c>
-      <c r="N193">
+      <c r="N193" s="13">
         <v>-82.65094666666667</v>
       </c>
     </row>
@@ -9567,10 +9551,10 @@
       <c r="L194" s="5">
         <v>0.88376532906890815</v>
       </c>
-      <c r="M194">
+      <c r="M194" s="13">
         <v>41.481563333333334</v>
       </c>
-      <c r="N194">
+      <c r="N194" s="13">
         <v>-82.549956666666674</v>
       </c>
     </row>
@@ -9613,10 +9597,10 @@
       <c r="L195" s="5">
         <v>0.87940347770151206</v>
       </c>
-      <c r="M195">
+      <c r="M195" s="13">
         <v>41.581296666666667</v>
       </c>
-      <c r="N195">
+      <c r="N195" s="13">
         <v>-82.550510000000003</v>
       </c>
     </row>
@@ -9659,10 +9643,10 @@
       <c r="L196" s="5">
         <v>0.71769479864435037</v>
       </c>
-      <c r="M196">
+      <c r="M196" s="13">
         <v>41.663183333333336</v>
       </c>
-      <c r="N196">
+      <c r="N196" s="13">
         <v>-82.548733333333331</v>
       </c>
     </row>
@@ -9705,10 +9689,10 @@
       <c r="L197" s="5">
         <v>0.68125984736593692</v>
       </c>
-      <c r="M197">
+      <c r="M197" s="13">
         <v>41.780160000000002</v>
       </c>
-      <c r="N197">
+      <c r="N197" s="13">
         <v>-82.550314999999998</v>
       </c>
     </row>
@@ -9751,10 +9735,10 @@
       <c r="L198" s="5">
         <v>0.69215502620444502</v>
       </c>
-      <c r="M198">
+      <c r="M198" s="13">
         <v>41.867066666666666</v>
       </c>
-      <c r="N198">
+      <c r="N198" s="13">
         <v>-82.533821666666668</v>
       </c>
     </row>
@@ -9797,10 +9781,10 @@
       <c r="L199" s="5">
         <v>0.68308052714420764</v>
       </c>
-      <c r="M199">
+      <c r="M199" s="13">
         <v>41.480358333333335</v>
       </c>
-      <c r="N199">
+      <c r="N199" s="13">
         <v>-82.449386666666669</v>
       </c>
     </row>
@@ -9843,10 +9827,10 @@
       <c r="L200" s="5">
         <v>0.81106341702955831</v>
       </c>
-      <c r="M200">
+      <c r="M200" s="13">
         <v>41.579990000000002</v>
       </c>
-      <c r="N200">
+      <c r="N200" s="13">
         <v>-82.449903333333339</v>
       </c>
     </row>
@@ -9889,10 +9873,10 @@
       <c r="L201" s="5">
         <v>0.76917723036944996</v>
       </c>
-      <c r="M201">
+      <c r="M201" s="13">
         <v>41.663306666666664</v>
       </c>
-      <c r="N201">
+      <c r="N201" s="13">
         <v>-82.450181666666666</v>
       </c>
     </row>
@@ -9935,10 +9919,10 @@
       <c r="L202" s="5">
         <v>0.7799078013088323</v>
       </c>
-      <c r="M202">
+      <c r="M202" s="13">
         <v>41.780259999999998</v>
       </c>
-      <c r="N202">
+      <c r="N202" s="13">
         <v>-82.449596666666665</v>
       </c>
     </row>
@@ -9981,10 +9965,10 @@
       <c r="L203" s="5">
         <v>0.76663410058512171</v>
       </c>
-      <c r="M203">
+      <c r="M203" s="13">
         <v>41.478568333333335</v>
       </c>
-      <c r="N203">
+      <c r="N203" s="13">
         <v>-82.349716666666666</v>
       </c>
     </row>
@@ -10027,10 +10011,10 @@
       <c r="L204" s="5">
         <v>0.80397368333118291</v>
       </c>
-      <c r="M204">
+      <c r="M204" s="13">
         <v>41.579943333333333</v>
       </c>
-      <c r="N204">
+      <c r="N204" s="13">
         <v>-82.349941666666666</v>
       </c>
     </row>
@@ -10073,10 +10057,10 @@
       <c r="L205" s="5">
         <v>0.7911390857880255</v>
       </c>
-      <c r="M205">
+      <c r="M205" s="13">
         <v>41.663148333333332</v>
       </c>
-      <c r="N205">
+      <c r="N205" s="13">
         <v>-82.348444999999998</v>
       </c>
     </row>
@@ -10119,10 +10103,10 @@
       <c r="L206" s="5">
         <v>0.72246178489116331</v>
       </c>
-      <c r="M206">
+      <c r="M206" s="13">
         <v>41.463318333333333</v>
       </c>
-      <c r="N206">
+      <c r="N206" s="13">
         <v>-82.249840000000006</v>
       </c>
     </row>
@@ -10165,10 +10149,10 @@
       <c r="L207" s="5">
         <v>0.54314763640551444</v>
       </c>
-      <c r="M207">
+      <c r="M207" s="13">
         <v>41.780496666666664</v>
       </c>
-      <c r="N207">
+      <c r="N207" s="13">
         <v>-83.349836666666661</v>
       </c>
     </row>
@@ -10211,10 +10195,10 @@
       <c r="L208" s="5">
         <v>0.70337501828027016</v>
       </c>
-      <c r="M208">
+      <c r="M208" s="13">
         <v>41.780200000000001</v>
       </c>
-      <c r="N208">
+      <c r="N208" s="13">
         <v>-83.250029999999995</v>
       </c>
     </row>
@@ -10257,10 +10241,10 @@
       <c r="L209" s="5">
         <v>0.67500286218232475</v>
       </c>
-      <c r="M209">
+      <c r="M209" s="13">
         <v>41.880015</v>
       </c>
-      <c r="N209">
+      <c r="N209" s="13">
         <v>-83.249663333333331</v>
       </c>
     </row>
@@ -10303,10 +10287,10 @@
       <c r="L210" s="5">
         <v>0.65295548071035225</v>
       </c>
-      <c r="M210">
+      <c r="M210" s="13">
         <v>41.680148333333335</v>
       </c>
-      <c r="N210">
+      <c r="N210" s="13">
         <v>-83.149141666666665</v>
       </c>
     </row>
@@ -10349,10 +10333,10 @@
       <c r="L211" s="5">
         <v>0.68992915808149025</v>
       </c>
-      <c r="M211">
+      <c r="M211" s="13">
         <v>41.780061666666668</v>
       </c>
-      <c r="N211">
+      <c r="N211" s="13">
         <v>-83.15041166666667</v>
       </c>
     </row>
@@ -10395,10 +10379,10 @@
       <c r="L212" s="5">
         <v>0.65173710867989243</v>
       </c>
-      <c r="M212">
+      <c r="M212" s="13">
         <v>41.880299999999998</v>
       </c>
-      <c r="N212">
+      <c r="N212" s="13">
         <v>-83.149749999999997</v>
       </c>
     </row>
@@ -10441,10 +10425,10 @@
       <c r="L213" s="5">
         <v>0.70699999999999996</v>
       </c>
-      <c r="M213">
+      <c r="M213" s="13">
         <v>41.967619999999997</v>
       </c>
-      <c r="N213">
+      <c r="N213" s="13">
         <v>-83.107991666666663</v>
       </c>
     </row>
@@ -10487,10 +10471,10 @@
       <c r="L214" s="5">
         <v>0.71369215979388334</v>
       </c>
-      <c r="M214">
+      <c r="M214" s="13">
         <v>41.681618333333333</v>
       </c>
-      <c r="N214">
+      <c r="N214" s="13">
         <v>-83.052401666666668</v>
       </c>
     </row>
@@ -10533,10 +10517,10 @@
       <c r="L215" s="5">
         <v>0.76135527292144567</v>
       </c>
-      <c r="M215">
+      <c r="M215" s="13">
         <v>41.779971666666668</v>
       </c>
-      <c r="N215">
+      <c r="N215" s="13">
         <v>-83.050718333333336</v>
       </c>
     </row>
@@ -10579,10 +10563,10 @@
       <c r="L216" s="5">
         <v>0.7287739311602669</v>
       </c>
-      <c r="M216">
+      <c r="M216" s="13">
         <v>41.879773333333333</v>
       </c>
-      <c r="N216">
+      <c r="N216" s="13">
         <v>-83.051929999999999</v>
       </c>
     </row>
@@ -10625,10 +10609,10 @@
       <c r="L217" s="5">
         <v>0.64635416748068431</v>
       </c>
-      <c r="M217">
+      <c r="M217" s="13">
         <v>41.979353333333336</v>
       </c>
-      <c r="N217">
+      <c r="N217" s="13">
         <v>-83.050420000000003</v>
       </c>
     </row>
@@ -10671,10 +10655,10 @@
       <c r="L218" s="5">
         <v>0.69749364894422783</v>
       </c>
-      <c r="M218">
+      <c r="M218" s="13">
         <v>41.580278333333332</v>
       </c>
-      <c r="N218">
+      <c r="N218" s="13">
         <v>-82.950406666666666</v>
       </c>
     </row>
@@ -10717,10 +10701,10 @@
       <c r="L219" s="5">
         <v>0.68319107793451894</v>
       </c>
-      <c r="M219">
+      <c r="M219" s="13">
         <v>41.681516666666667</v>
       </c>
-      <c r="N219">
+      <c r="N219" s="13">
         <v>-82.950073333333336</v>
       </c>
     </row>
@@ -10763,10 +10747,10 @@
       <c r="L220" s="5">
         <v>0.7653202063531187</v>
       </c>
-      <c r="M220">
+      <c r="M220" s="13">
         <v>41.764153333333333</v>
       </c>
-      <c r="N220">
+      <c r="N220" s="13">
         <v>-82.950996666666668</v>
       </c>
     </row>
@@ -10809,10 +10793,10 @@
       <c r="L221" s="5">
         <v>0.65835625266846132</v>
       </c>
-      <c r="M221">
+      <c r="M221" s="13">
         <v>41.879733333333334</v>
       </c>
-      <c r="N221">
+      <c r="N221" s="13">
         <v>-82.949584999999999</v>
       </c>
     </row>
@@ -10855,10 +10839,10 @@
       <c r="L222" s="5">
         <v>0.70643631536472928</v>
       </c>
-      <c r="M222">
+      <c r="M222" s="13">
         <v>41.673641666666668</v>
       </c>
-      <c r="N222">
+      <c r="N222" s="13">
         <v>-82.849578333333326</v>
       </c>
     </row>
@@ -10901,10 +10885,10 @@
       <c r="L223" s="5">
         <v>0.76072848553062478</v>
       </c>
-      <c r="M223">
+      <c r="M223" s="13">
         <v>41.763931666666664</v>
       </c>
-      <c r="N223">
+      <c r="N223" s="13">
         <v>-82.849721666666667</v>
       </c>
     </row>
@@ -10947,10 +10931,10 @@
       <c r="L224" s="5">
         <v>0.81100184058257496</v>
       </c>
-      <c r="M224">
+      <c r="M224" s="13">
         <v>41.864429999999999</v>
       </c>
-      <c r="N224">
+      <c r="N224" s="13">
         <v>-82.851031666666671</v>
       </c>
     </row>
@@ -10993,10 +10977,10 @@
       <c r="L225" s="5">
         <v>0.70074402478239584</v>
       </c>
-      <c r="M225">
+      <c r="M225" s="13">
         <v>41.963368333333335</v>
       </c>
-      <c r="N225">
+      <c r="N225" s="13">
         <v>-82.850043333333332</v>
       </c>
     </row>
@@ -11039,10 +11023,10 @@
       <c r="L226" s="5">
         <v>0.687285703837892</v>
       </c>
-      <c r="M226">
+      <c r="M226" s="13">
         <v>41.580604999999998</v>
       </c>
-      <c r="N226">
+      <c r="N226" s="13">
         <v>-82.748724999999993</v>
       </c>
     </row>
@@ -11085,10 +11069,10 @@
       <c r="L227" s="5">
         <v>0.70795147372792033</v>
       </c>
-      <c r="M227">
+      <c r="M227" s="13">
         <v>41.67868</v>
       </c>
-      <c r="N227">
+      <c r="N227" s="13">
         <v>-82.750368333333327</v>
       </c>
     </row>
@@ -11131,10 +11115,10 @@
       <c r="L228" s="5">
         <v>0.64111380390563422</v>
       </c>
-      <c r="M228">
+      <c r="M228" s="13">
         <v>41.779746666666668</v>
       </c>
-      <c r="N228">
+      <c r="N228" s="13">
         <v>-82.750056666666666</v>
       </c>
     </row>
@@ -11177,10 +11161,10 @@
       <c r="L229" s="5">
         <v>0.72128716716848384</v>
       </c>
-      <c r="M229">
+      <c r="M229" s="13">
         <v>41.866673333333331</v>
       </c>
-      <c r="N229">
+      <c r="N229" s="13">
         <v>-82.749285</v>
       </c>
     </row>
@@ -11223,10 +11207,10 @@
       <c r="L230" s="5">
         <v>0.72246039685039309</v>
       </c>
-      <c r="M230">
+      <c r="M230" s="13">
         <v>41.963426666666663</v>
       </c>
-      <c r="N230">
+      <c r="N230" s="13">
         <v>-82.748075</v>
       </c>
     </row>
@@ -11269,10 +11253,10 @@
       <c r="L231" s="5">
         <v>0.78329262291525759</v>
       </c>
-      <c r="M231">
+      <c r="M231" s="13">
         <v>41.580191666666664</v>
       </c>
-      <c r="N231">
+      <c r="N231" s="13">
         <v>-82.649150000000006</v>
       </c>
     </row>
@@ -11315,10 +11299,10 @@
       <c r="L232" s="5">
         <v>0.66338156698355244</v>
       </c>
-      <c r="M232">
+      <c r="M232" s="13">
         <v>41.679989999999997</v>
       </c>
-      <c r="N232">
+      <c r="N232" s="13">
         <v>-82.650606666666661</v>
       </c>
     </row>
@@ -11361,10 +11345,10 @@
       <c r="L233" s="5">
         <v>0.65243609420291038</v>
       </c>
-      <c r="M233">
+      <c r="M233" s="13">
         <v>41.86322333333333</v>
       </c>
-      <c r="N233">
+      <c r="N233" s="13">
         <v>-82.64994333333334</v>
       </c>
     </row>
@@ -11407,10 +11391,10 @@
       <c r="L234" s="5">
         <v>0.71539885569114103</v>
       </c>
-      <c r="M234">
+      <c r="M234" s="13">
         <v>41.979709999999997</v>
       </c>
-      <c r="N234">
+      <c r="N234" s="13">
         <v>-82.648321666666661</v>
       </c>
     </row>
@@ -11453,10 +11437,10 @@
       <c r="L235" s="5">
         <v>0.77952630699999126</v>
       </c>
-      <c r="M235">
+      <c r="M235" s="13">
         <v>41.479598333333335</v>
       </c>
-      <c r="N235">
+      <c r="N235" s="13">
         <v>-82.549705000000003</v>
       </c>
     </row>
@@ -11499,10 +11483,10 @@
       <c r="L236" s="5">
         <v>0.79039237547253893</v>
       </c>
-      <c r="M236">
+      <c r="M236" s="13">
         <v>41.580275</v>
       </c>
-      <c r="N236">
+      <c r="N236" s="13">
         <v>-82.549898333333331</v>
       </c>
     </row>
@@ -11545,10 +11529,10 @@
       <c r="L237" s="5">
         <v>0.76387525968160663</v>
       </c>
-      <c r="M237">
+      <c r="M237" s="13">
         <v>41.662996666666665</v>
       </c>
-      <c r="N237">
+      <c r="N237" s="13">
         <v>-82.548699999999997</v>
       </c>
     </row>
@@ -11591,10 +11575,10 @@
       <c r="L238" s="5">
         <v>0.67881606376855297</v>
       </c>
-      <c r="M238">
+      <c r="M238" s="13">
         <v>41.768798333333336</v>
       </c>
-      <c r="N238">
+      <c r="N238" s="13">
         <v>-82.560778333333332</v>
       </c>
     </row>
@@ -11637,10 +11621,10 @@
       <c r="L239" s="5">
         <v>0.66467098933697233</v>
       </c>
-      <c r="M239">
+      <c r="M239" s="13">
         <v>41.866776666666667</v>
       </c>
-      <c r="N239">
+      <c r="N239" s="13">
         <v>-82.533168333333336</v>
       </c>
     </row>
@@ -11683,10 +11667,10 @@
       <c r="L240" s="5">
         <v>0.69116001010806305</v>
       </c>
-      <c r="M240">
+      <c r="M240" s="13">
         <v>41.467066666666668</v>
       </c>
-      <c r="N240">
+      <c r="N240" s="13">
         <v>-82.449129999999997</v>
       </c>
     </row>
@@ -11729,10 +11713,10 @@
       <c r="L241" s="5">
         <v>0.68934783253085996</v>
       </c>
-      <c r="M241">
+      <c r="M241" s="13">
         <v>41.579605000000001</v>
       </c>
-      <c r="N241">
+      <c r="N241" s="13">
         <v>-82.449799999999996</v>
       </c>
     </row>
@@ -11775,10 +11759,10 @@
       <c r="L242" s="5">
         <v>0.74775541620038011</v>
       </c>
-      <c r="M242">
+      <c r="M242" s="13">
         <v>41.663441666666664</v>
       </c>
-      <c r="N242">
+      <c r="N242" s="13">
         <v>-82.451040000000006</v>
       </c>
     </row>
@@ -11821,10 +11805,10 @@
       <c r="L243" s="5">
         <v>0.76647693500472092</v>
       </c>
-      <c r="M243">
+      <c r="M243" s="13">
         <v>41.779924999999999</v>
       </c>
-      <c r="N243">
+      <c r="N243" s="13">
         <v>-82.449960000000004</v>
       </c>
     </row>
@@ -11867,10 +11851,10 @@
       <c r="L244" s="5">
         <v>0.67869628974442264</v>
       </c>
-      <c r="M244">
+      <c r="M244" s="13">
         <v>41.480318333333337</v>
       </c>
-      <c r="N244">
+      <c r="N244" s="13">
         <v>-82.351661666666672</v>
       </c>
     </row>
@@ -11913,10 +11897,10 @@
       <c r="L245" s="5">
         <v>0.74807136127038132</v>
       </c>
-      <c r="M245">
+      <c r="M245" s="13">
         <v>41.580271666666668</v>
       </c>
-      <c r="N245">
+      <c r="N245" s="13">
         <v>-82.350976666666668</v>
       </c>
     </row>
@@ -11959,10 +11943,10 @@
       <c r="L246" s="5">
         <v>0.74217960061917398</v>
       </c>
-      <c r="M246">
+      <c r="M246" s="13">
         <v>41.662689999999998</v>
       </c>
-      <c r="N246">
+      <c r="N246" s="13">
         <v>-82.347516666666664</v>
       </c>
     </row>
@@ -12005,10 +11989,10 @@
       <c r="L247" s="5">
         <v>0.72001272143480377</v>
       </c>
-      <c r="M247">
+      <c r="M247" s="13">
         <v>41.46508166666667</v>
       </c>
-      <c r="N247">
+      <c r="N247" s="13">
         <v>-82.251519999999999</v>
       </c>
     </row>
@@ -12033,7 +12017,7 @@
       <c r="F248" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G248" s="13" t="s">
+      <c r="G248" s="10" t="s">
         <v>62</v>
       </c>
       <c r="H248" s="4">
@@ -12051,10 +12035,10 @@
       <c r="L248" s="5">
         <v>0.45238801124254879</v>
       </c>
-      <c r="M248" s="10">
+      <c r="M248" s="14">
         <v>41.780617999999997</v>
       </c>
-      <c r="N248" s="10">
+      <c r="N248" s="14">
         <v>-83.357037000000005</v>
       </c>
     </row>
@@ -12079,7 +12063,7 @@
       <c r="F249" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G249" s="14" t="s">
+      <c r="G249" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H249" s="4">
@@ -12097,10 +12081,10 @@
       <c r="L249" s="5">
         <v>0.53100171077520542</v>
       </c>
-      <c r="M249" s="11">
+      <c r="M249" s="15">
         <v>41.782623333333333</v>
       </c>
-      <c r="N249" s="11">
+      <c r="N249" s="15">
         <v>-83.257210000000001</v>
       </c>
     </row>
@@ -12125,7 +12109,7 @@
       <c r="F250" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G250" s="15">
+      <c r="G250" s="12">
         <v>1119</v>
       </c>
       <c r="H250" s="4">
@@ -12143,10 +12127,10 @@
       <c r="L250" s="5">
         <v>0.55051758220817859</v>
       </c>
-      <c r="M250" s="11">
+      <c r="M250" s="15">
         <v>41.882561666666668</v>
       </c>
-      <c r="N250" s="11">
+      <c r="N250" s="15">
         <v>-83.246515000000002</v>
       </c>
     </row>
@@ -12171,7 +12155,7 @@
       <c r="F251" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G251" s="15">
+      <c r="G251" s="12">
         <v>1410</v>
       </c>
       <c r="H251" s="4">
@@ -12189,10 +12173,10 @@
       <c r="L251" s="5">
         <v>0.61154901499628389</v>
       </c>
-      <c r="M251" s="11">
+      <c r="M251" s="15">
         <v>41.684106666666665</v>
       </c>
-      <c r="N251" s="11">
+      <c r="N251" s="15">
         <v>-83.152331666666669</v>
       </c>
     </row>
@@ -12217,7 +12201,7 @@
       <c r="F252" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G252" s="15">
+      <c r="G252" s="12">
         <v>1503</v>
       </c>
       <c r="H252" s="4">
@@ -12235,10 +12219,10 @@
       <c r="L252" s="5">
         <v>0.63553266238371908</v>
       </c>
-      <c r="M252" s="11">
+      <c r="M252" s="15">
         <v>41.780403333333332</v>
       </c>
-      <c r="N252" s="11">
+      <c r="N252" s="15">
         <v>-83.145273333333336</v>
       </c>
     </row>
@@ -12263,7 +12247,7 @@
       <c r="F253" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G253" s="15">
+      <c r="G253" s="12">
         <v>1211</v>
       </c>
       <c r="H253" s="4">
@@ -12281,10 +12265,10 @@
       <c r="L253" s="5">
         <v>0.52803516146815543</v>
       </c>
-      <c r="M253" s="11">
+      <c r="M253" s="15">
         <v>41.882696666666668</v>
       </c>
-      <c r="N253" s="11">
+      <c r="N253" s="15">
         <v>-83.156561666666661</v>
       </c>
     </row>
@@ -12309,7 +12293,7 @@
       <c r="F254" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G254" s="15">
+      <c r="G254" s="12">
         <v>1310</v>
       </c>
       <c r="H254" s="4">
@@ -12327,10 +12311,10 @@
       <c r="L254" s="5">
         <v>0.53515141076396611</v>
       </c>
-      <c r="M254" s="11">
+      <c r="M254" s="15">
         <v>41.981078333333336</v>
       </c>
-      <c r="N254" s="11">
+      <c r="N254" s="15">
         <v>-83.111045000000004</v>
       </c>
     </row>
@@ -12355,7 +12339,7 @@
       <c r="F255" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G255" s="15">
+      <c r="G255" s="12">
         <v>1316</v>
       </c>
       <c r="H255" s="4">
@@ -12373,10 +12357,10 @@
       <c r="L255" s="5">
         <v>0.60822456748496034</v>
       </c>
-      <c r="M255" s="11">
+      <c r="M255" s="15">
         <v>41.680958333333336</v>
       </c>
-      <c r="N255" s="11">
+      <c r="N255" s="15">
         <v>-83.047655000000006</v>
       </c>
     </row>
@@ -12401,7 +12385,7 @@
       <c r="F256" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G256" s="15">
+      <c r="G256" s="12">
         <v>1546</v>
       </c>
       <c r="H256" s="4">
@@ -12419,10 +12403,10 @@
       <c r="L256" s="5">
         <v>0.63752702728932775</v>
       </c>
-      <c r="M256" s="11">
+      <c r="M256" s="15">
         <v>41.777931666666667</v>
       </c>
-      <c r="N256" s="11">
+      <c r="N256" s="15">
         <v>-83.042265</v>
       </c>
     </row>
@@ -12447,7 +12431,7 @@
       <c r="F257" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G257" s="15">
+      <c r="G257" s="12">
         <v>1457</v>
       </c>
       <c r="H257" s="4">
@@ -12465,10 +12449,10 @@
       <c r="L257" s="5">
         <v>0.54907442667316364</v>
       </c>
-      <c r="M257" s="11">
+      <c r="M257" s="15">
         <v>41.878588333333333</v>
       </c>
-      <c r="N257" s="11">
+      <c r="N257" s="15">
         <v>-83.058131666666668</v>
       </c>
     </row>
@@ -12493,7 +12477,7 @@
       <c r="F258" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G258" s="15">
+      <c r="G258" s="12">
         <v>1357</v>
       </c>
       <c r="H258" s="4">
@@ -12511,10 +12495,10 @@
       <c r="L258" s="5">
         <v>0.6962758987596489</v>
       </c>
-      <c r="M258" s="11">
+      <c r="M258" s="15">
         <v>41.982321666666664</v>
       </c>
-      <c r="N258" s="11">
+      <c r="N258" s="15">
         <v>-83.055136666666669</v>
       </c>
     </row>
@@ -12539,7 +12523,7 @@
       <c r="F259" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G259" s="15">
+      <c r="G259" s="12">
         <v>1136</v>
       </c>
       <c r="H259" s="4">
@@ -12557,10 +12541,10 @@
       <c r="L259" s="5">
         <v>0.53229294460604593</v>
       </c>
-      <c r="M259" s="11">
+      <c r="M259" s="15">
         <v>41.568291666666667</v>
       </c>
-      <c r="N259" s="11">
+      <c r="N259" s="15">
         <v>-82.949968333333331</v>
       </c>
     </row>
@@ -12585,7 +12569,7 @@
       <c r="F260" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G260" s="15">
+      <c r="G260" s="12">
         <v>1228</v>
       </c>
       <c r="H260" s="4">
@@ -12603,10 +12587,10 @@
       <c r="L260" s="5">
         <v>0.63470061930631916</v>
       </c>
-      <c r="M260" s="11">
+      <c r="M260" s="15">
         <v>41.667029999999997</v>
       </c>
-      <c r="N260" s="11">
+      <c r="N260" s="15">
         <v>-82.957336666666663</v>
       </c>
     </row>
@@ -12631,7 +12615,7 @@
       <c r="F261" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G261" s="15">
+      <c r="G261" s="12">
         <v>1632</v>
       </c>
       <c r="H261" s="4">
@@ -12649,10 +12633,10 @@
       <c r="L261" s="5">
         <v>0.65856218008939083</v>
       </c>
-      <c r="M261" s="11">
+      <c r="M261" s="15">
         <v>41.759251666666664</v>
       </c>
-      <c r="N261" s="11">
+      <c r="N261" s="15">
         <v>-82.943691666666666</v>
       </c>
     </row>
@@ -12677,7 +12661,7 @@
       <c r="F262" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G262" s="15">
+      <c r="G262" s="12">
         <v>1553</v>
       </c>
       <c r="H262" s="4">
@@ -12695,10 +12679,10 @@
       <c r="L262" s="5">
         <v>0.62179239939909126</v>
       </c>
-      <c r="M262" s="12">
+      <c r="M262" s="15">
         <v>41.886748333333337</v>
       </c>
-      <c r="N262" s="12">
+      <c r="N262" s="15">
         <v>-82.975096666666673</v>
       </c>
     </row>
@@ -12723,7 +12707,7 @@
       <c r="F263" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G263" s="14" t="s">
+      <c r="G263" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H263" s="4">
@@ -12741,10 +12725,10 @@
       <c r="L263" s="5">
         <v>0.47245629945413914</v>
       </c>
-      <c r="M263" s="11">
+      <c r="M263" s="15">
         <v>41.659418333333335</v>
       </c>
-      <c r="N263" s="11">
+      <c r="N263" s="15">
         <v>-82.864731666666671</v>
       </c>
     </row>
@@ -12769,7 +12753,7 @@
       <c r="F264" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G264" s="14">
+      <c r="G264" s="11">
         <v>1848</v>
       </c>
       <c r="H264" s="4">
@@ -12787,10 +12771,10 @@
       <c r="L264" s="5">
         <v>0.53739698166254224</v>
       </c>
-      <c r="M264" s="11">
+      <c r="M264" s="15">
         <v>41.764508333333332</v>
       </c>
-      <c r="N264" s="11">
+      <c r="N264" s="15">
         <v>-82.857323333333326</v>
       </c>
     </row>
@@ -12815,7 +12799,7 @@
       <c r="F265" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G265" s="15">
+      <c r="G265" s="12">
         <v>1002</v>
       </c>
       <c r="H265" s="4">
@@ -12833,10 +12817,10 @@
       <c r="L265" s="5">
         <v>0.60670685928041668</v>
       </c>
-      <c r="M265" s="11">
+      <c r="M265" s="15">
         <v>41.865475000000004</v>
       </c>
-      <c r="N265" s="11">
+      <c r="N265" s="15">
         <v>-82.857448333333338</v>
       </c>
     </row>
@@ -12861,7 +12845,7 @@
       <c r="F266" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G266" s="15">
+      <c r="G266" s="12">
         <v>1720</v>
       </c>
       <c r="H266" s="4">
@@ -12879,10 +12863,10 @@
       <c r="L266" s="5">
         <v>0.60156739967702966</v>
       </c>
-      <c r="M266" s="11">
+      <c r="M266" s="15">
         <v>41.960120000000003</v>
       </c>
-      <c r="N266" s="11">
+      <c r="N266" s="15">
         <v>-82.852365000000006</v>
       </c>
     </row>
@@ -12907,7 +12891,7 @@
       <c r="F267" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G267" s="15">
+      <c r="G267" s="12">
         <v>1025</v>
       </c>
       <c r="H267" s="4">
@@ -12925,10 +12909,10 @@
       <c r="L267" s="5">
         <v>0.6320147390890648</v>
       </c>
-      <c r="M267" s="11">
+      <c r="M267" s="15">
         <v>41.565370000000001</v>
       </c>
-      <c r="N267" s="11">
+      <c r="N267" s="15">
         <v>-82.756320000000002</v>
       </c>
     </row>
@@ -12953,7 +12937,7 @@
       <c r="F268" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G268" s="14" t="s">
+      <c r="G268" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H268" s="4">
@@ -12971,10 +12955,10 @@
       <c r="L268" s="5">
         <v>0.60356586565014014</v>
       </c>
-      <c r="M268" s="11">
+      <c r="M268" s="15">
         <v>41.682253000000003</v>
       </c>
-      <c r="N268" s="11">
+      <c r="N268" s="15">
         <v>-82.757992999999999</v>
       </c>
     </row>
@@ -12999,7 +12983,7 @@
       <c r="F269" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G269" s="14" t="s">
+      <c r="G269" s="11" t="s">
         <v>66</v>
       </c>
       <c r="H269" s="4">
@@ -13017,10 +13001,10 @@
       <c r="L269" s="5">
         <v>0.55727284916328412</v>
       </c>
-      <c r="M269" s="11">
+      <c r="M269" s="15">
         <v>41.78208166666667</v>
       </c>
-      <c r="N269" s="11">
+      <c r="N269" s="15">
         <v>-82.75610833333333</v>
       </c>
     </row>
@@ -13045,7 +13029,7 @@
       <c r="F270" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G270" s="14" t="s">
+      <c r="G270" s="11" t="s">
         <v>67</v>
       </c>
       <c r="H270" s="4">
@@ -13063,10 +13047,10 @@
       <c r="L270" s="5">
         <v>0.62501302798094094</v>
       </c>
-      <c r="M270" s="11">
+      <c r="M270" s="15">
         <v>41.868568333333336</v>
       </c>
-      <c r="N270" s="11">
+      <c r="N270" s="15">
         <v>-82.756618333333336</v>
       </c>
     </row>
@@ -13091,7 +13075,7 @@
       <c r="F271" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G271" s="15">
+      <c r="G271" s="12">
         <v>1108</v>
       </c>
       <c r="H271" s="4">
@@ -13109,10 +13093,10 @@
       <c r="L271" s="5">
         <v>0.6466183059829822</v>
       </c>
-      <c r="M271" s="11">
+      <c r="M271" s="15">
         <v>41.966994999999997</v>
       </c>
-      <c r="N271" s="11">
+      <c r="N271" s="15">
         <v>-82.75908166666666</v>
       </c>
     </row>
@@ -13137,7 +13121,7 @@
       <c r="F272" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G272" s="14" t="s">
+      <c r="G272" s="11" t="s">
         <v>68</v>
       </c>
       <c r="H272" s="4">
@@ -13155,10 +13139,10 @@
       <c r="L272" s="5">
         <v>0.83484254000265412</v>
       </c>
-      <c r="M272" s="11">
+      <c r="M272" s="15">
         <v>41.561921666666663</v>
       </c>
-      <c r="N272" s="11">
+      <c r="N272" s="15">
         <v>-82.655696666666671</v>
       </c>
     </row>
@@ -13183,7 +13167,7 @@
       <c r="F273" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G273" s="15">
+      <c r="G273" s="12">
         <v>1723</v>
       </c>
       <c r="H273" s="4">
@@ -13201,10 +13185,10 @@
       <c r="L273" s="5">
         <v>0.62024117591913108</v>
       </c>
-      <c r="M273" s="11">
+      <c r="M273" s="15">
         <v>41.679755</v>
       </c>
-      <c r="N273" s="11">
+      <c r="N273" s="15">
         <v>-82.657749999999993</v>
       </c>
     </row>
@@ -13229,7 +13213,7 @@
       <c r="F274" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G274" s="15">
+      <c r="G274" s="12">
         <v>1317</v>
       </c>
       <c r="H274" s="4">
@@ -13247,10 +13231,10 @@
       <c r="L274" s="5">
         <v>0.56390263806937857</v>
       </c>
-      <c r="M274" s="11">
+      <c r="M274" s="15">
         <v>41.863208333333333</v>
       </c>
-      <c r="N274" s="11">
+      <c r="N274" s="15">
         <v>-82.643786666666671</v>
       </c>
     </row>
@@ -13275,7 +13259,7 @@
       <c r="F275" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G275" s="15">
+      <c r="G275" s="12">
         <v>1217</v>
       </c>
       <c r="H275" s="4">
@@ -13293,10 +13277,10 @@
       <c r="L275" s="5">
         <v>0.66134936727366744</v>
       </c>
-      <c r="M275" s="11">
+      <c r="M275" s="15">
         <v>41.975793333333336</v>
       </c>
-      <c r="N275" s="11">
+      <c r="N275" s="15">
         <v>-82.646136666666663</v>
       </c>
     </row>
@@ -13321,7 +13305,7 @@
       <c r="F276" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G276" s="14" t="s">
+      <c r="G276" s="11" t="s">
         <v>69</v>
       </c>
       <c r="H276" s="4">
@@ -13339,10 +13323,10 @@
       <c r="L276" s="5">
         <v>0.61053044575004844</v>
       </c>
-      <c r="M276" s="11">
+      <c r="M276" s="15">
         <v>41.456028333333336</v>
       </c>
-      <c r="N276" s="11">
+      <c r="N276" s="15">
         <v>-82.564176666666668</v>
       </c>
     </row>
@@ -13367,7 +13351,7 @@
       <c r="F277" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G277" s="14" t="s">
+      <c r="G277" s="11" t="s">
         <v>70</v>
       </c>
       <c r="H277" s="4">
@@ -13385,10 +13369,10 @@
       <c r="L277" s="5">
         <v>0.66926522148606205</v>
       </c>
-      <c r="M277" s="11">
+      <c r="M277" s="15">
         <v>41.559903333333331</v>
       </c>
-      <c r="N277" s="11">
+      <c r="N277" s="15">
         <v>-82.554956666666669</v>
       </c>
     </row>
@@ -13413,7 +13397,7 @@
       <c r="F278" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G278" s="15">
+      <c r="G278" s="12">
         <v>1637</v>
       </c>
       <c r="H278" s="4">
@@ -13431,10 +13415,10 @@
       <c r="L278" s="5">
         <v>0.5780157123385935</v>
       </c>
-      <c r="M278" s="11">
+      <c r="M278" s="15">
         <v>41.663694999999997</v>
       </c>
-      <c r="N278" s="11">
+      <c r="N278" s="15">
         <v>-82.55978833333333</v>
       </c>
     </row>
@@ -13459,7 +13443,7 @@
       <c r="F279" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G279" s="15">
+      <c r="G279" s="12">
         <v>1540</v>
       </c>
       <c r="H279" s="4">
@@ -13477,10 +13461,10 @@
       <c r="L279" s="5">
         <v>0.57943883397356466</v>
       </c>
-      <c r="M279" s="11">
+      <c r="M279" s="15">
         <v>41.774635000000004</v>
       </c>
-      <c r="N279" s="11">
+      <c r="N279" s="15">
         <v>-82.55286666666666</v>
       </c>
     </row>
@@ -13505,7 +13489,7 @@
       <c r="F280" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G280" s="15">
+      <c r="G280" s="12">
         <v>1404</v>
       </c>
       <c r="H280" s="4">
@@ -13523,10 +13507,10 @@
       <c r="L280" s="5">
         <v>0.64243376002818542</v>
       </c>
-      <c r="M280" s="11">
+      <c r="M280" s="15">
         <v>41.862161666666665</v>
       </c>
-      <c r="N280" s="11">
+      <c r="N280" s="15">
         <v>-82.532025000000004</v>
       </c>
     </row>
@@ -13551,7 +13535,7 @@
       <c r="F281" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G281" s="15">
+      <c r="G281" s="12">
         <v>1534</v>
       </c>
       <c r="H281" s="4">
@@ -13569,10 +13553,10 @@
       <c r="L281" s="5">
         <v>0.6603960024276444</v>
       </c>
-      <c r="M281" s="11">
+      <c r="M281" s="15">
         <v>41.475636666666666</v>
       </c>
-      <c r="N281" s="11">
+      <c r="N281" s="15">
         <v>-82.441946666666666</v>
       </c>
     </row>
@@ -13597,7 +13581,7 @@
       <c r="F282" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G282" s="15">
+      <c r="G282" s="12">
         <v>1034</v>
       </c>
       <c r="H282" s="4">
@@ -13615,10 +13599,10 @@
       <c r="L282" s="5">
         <v>0.61322411701660473</v>
       </c>
-      <c r="M282" s="11">
+      <c r="M282" s="15">
         <v>41.579303333333336</v>
       </c>
-      <c r="N282" s="11">
+      <c r="N282" s="15">
         <v>-82.442565000000002</v>
       </c>
     </row>
@@ -13643,7 +13627,7 @@
       <c r="F283" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G283" s="14" t="s">
+      <c r="G283" s="11" t="s">
         <v>71</v>
       </c>
       <c r="H283" s="4">
@@ -13661,10 +13645,10 @@
       <c r="L283" s="5">
         <v>0.6114676560048935</v>
       </c>
-      <c r="M283" s="11">
+      <c r="M283" s="15">
         <v>41.671765000000001</v>
       </c>
-      <c r="N283" s="11">
+      <c r="N283" s="15">
         <v>-82.44804666666667</v>
       </c>
     </row>
@@ -13689,7 +13673,7 @@
       <c r="F284" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G284" s="15">
+      <c r="G284" s="12">
         <v>1457</v>
       </c>
       <c r="H284" s="4">
@@ -13707,10 +13691,10 @@
       <c r="L284" s="5">
         <v>0.63331817568793325</v>
       </c>
-      <c r="M284" s="11">
+      <c r="M284" s="15">
         <v>41.779963333333335</v>
       </c>
-      <c r="N284" s="11">
+      <c r="N284" s="15">
         <v>-82.457828333333339</v>
       </c>
     </row>
@@ -13735,7 +13719,7 @@
       <c r="F285" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G285" s="15">
+      <c r="G285" s="12">
         <v>1435</v>
       </c>
       <c r="H285" s="4">
@@ -13753,10 +13737,10 @@
       <c r="L285" s="5">
         <v>0.62162291674857484</v>
       </c>
-      <c r="M285" s="11">
+      <c r="M285" s="15">
         <v>41.479901666666663</v>
       </c>
-      <c r="N285" s="11">
+      <c r="N285" s="15">
         <v>-82.343586666666667</v>
       </c>
     </row>
@@ -13781,7 +13765,7 @@
       <c r="F286" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G286" s="15">
+      <c r="G286" s="12">
         <v>1119</v>
       </c>
       <c r="H286" s="4">
@@ -13799,10 +13783,10 @@
       <c r="L286" s="5">
         <v>0.61369627862665044</v>
       </c>
-      <c r="M286" s="11">
+      <c r="M286" s="15">
         <v>41.574436666666664</v>
       </c>
-      <c r="N286" s="11">
+      <c r="N286" s="15">
         <v>-82.343661666666662</v>
       </c>
     </row>
@@ -13827,7 +13811,7 @@
       <c r="F287" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G287" s="14" t="s">
+      <c r="G287" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H287" s="4">
@@ -13845,10 +13829,10 @@
       <c r="L287" s="5">
         <v>0.6152698330510098</v>
       </c>
-      <c r="M287" s="11">
+      <c r="M287" s="15">
         <v>41.668039999999998</v>
       </c>
-      <c r="N287" s="11">
+      <c r="N287" s="15">
         <v>-82.347456666666673</v>
       </c>
     </row>
@@ -13873,7 +13857,7 @@
       <c r="F288" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G288" s="15">
+      <c r="G288" s="12">
         <v>1227</v>
       </c>
       <c r="H288" s="4">
@@ -13891,10 +13875,10 @@
       <c r="L288" s="5">
         <v>0.39173470292397777</v>
       </c>
-      <c r="M288" s="11">
+      <c r="M288" s="15">
         <v>41.460701666666665</v>
       </c>
-      <c r="N288" s="11">
+      <c r="N288" s="15">
         <v>-82.254831666666661</v>
       </c>
     </row>

--- a/data_prep/WB_Effort.xlsx
+++ b/data_prep/WB_Effort.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="-15" windowWidth="18960" windowHeight="12405"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="Effort" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -614,8 +614,8 @@
   <dimension ref="A1:N288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:N1048576"/>
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U266" sqref="U266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12024,16 +12024,16 @@
         <v>16.5</v>
       </c>
       <c r="I248" s="7">
-        <v>5</v>
+        <v>6.16</v>
       </c>
       <c r="J248" s="5">
         <v>904.77602248509766</v>
       </c>
       <c r="K248" s="5">
-        <v>4523.8801124254878</v>
+        <v>5573.420298508202</v>
       </c>
       <c r="L248" s="5">
-        <v>0.45238801124254879</v>
+        <v>0.55734202985082015</v>
       </c>
       <c r="M248" s="14">
         <v>41.780617999999997</v>
@@ -12070,16 +12070,16 @@
         <v>23.3</v>
       </c>
       <c r="I249" s="7">
-        <v>5.8</v>
+        <v>6.96</v>
       </c>
       <c r="J249" s="5">
         <v>915.52019099173356</v>
       </c>
       <c r="K249" s="5">
-        <v>5310.0171077520545</v>
+        <v>6372.0205293024655</v>
       </c>
       <c r="L249" s="5">
-        <v>0.53100171077520542</v>
+        <v>0.63720205293024657</v>
       </c>
       <c r="M249" s="15">
         <v>41.782623333333333</v>
@@ -12116,16 +12116,16 @@
         <v>24</v>
       </c>
       <c r="I250" s="7">
-        <v>5.9</v>
+        <v>7.0600000000000005</v>
       </c>
       <c r="J250" s="5">
         <v>933.0806478104721</v>
       </c>
       <c r="K250" s="5">
-        <v>5505.1758220817856</v>
+        <v>6587.5493735419332</v>
       </c>
       <c r="L250" s="5">
-        <v>0.55051758220817859</v>
+        <v>0.65875493735419333</v>
       </c>
       <c r="M250" s="15">
         <v>41.882561666666668</v>
@@ -12162,16 +12162,16 @@
         <v>23</v>
       </c>
       <c r="I251" s="7">
-        <v>6.2</v>
+        <v>7.36</v>
       </c>
       <c r="J251" s="5">
         <v>986.36937902626426</v>
       </c>
       <c r="K251" s="5">
-        <v>6115.4901499628386</v>
+        <v>7259.6786296333048</v>
       </c>
       <c r="L251" s="5">
-        <v>0.61154901499628389</v>
+        <v>0.72596786296333049</v>
       </c>
       <c r="M251" s="15">
         <v>41.684106666666665</v>
@@ -12208,16 +12208,16 @@
         <v>26</v>
       </c>
       <c r="I252" s="7">
-        <v>6.5</v>
+        <v>7.66</v>
       </c>
       <c r="J252" s="5">
         <v>977.74255751341389</v>
       </c>
       <c r="K252" s="5">
-        <v>6355.3266238371907</v>
+        <v>7489.5079905527509</v>
       </c>
       <c r="L252" s="5">
-        <v>0.63553266238371908</v>
+        <v>0.74895079905527506</v>
       </c>
       <c r="M252" s="15">
         <v>41.780403333333332</v>
@@ -12254,16 +12254,16 @@
         <v>31</v>
       </c>
       <c r="I253" s="7">
-        <v>5.9</v>
+        <v>7.0600000000000005</v>
       </c>
       <c r="J253" s="5">
         <v>894.97484994602621</v>
       </c>
       <c r="K253" s="5">
-        <v>5280.3516146815546</v>
+        <v>6318.5224406189454</v>
       </c>
       <c r="L253" s="5">
-        <v>0.52803516146815543</v>
+        <v>0.63185224406189455</v>
       </c>
       <c r="M253" s="15">
         <v>41.882696666666668</v>
@@ -12300,16 +12300,16 @@
         <v>25</v>
       </c>
       <c r="I254" s="7">
-        <v>5.6</v>
+        <v>6.76</v>
       </c>
       <c r="J254" s="5">
         <v>955.62751922136817</v>
       </c>
       <c r="K254" s="5">
-        <v>5351.5141076396612</v>
+        <v>6460.0420299364487</v>
       </c>
       <c r="L254" s="5">
-        <v>0.53515141076396611</v>
+        <v>0.64600420299364492</v>
       </c>
       <c r="M254" s="15">
         <v>41.981078333333336</v>
@@ -12346,16 +12346,16 @@
         <v>27</v>
       </c>
       <c r="I255" s="7">
-        <v>6.6</v>
+        <v>7.76</v>
       </c>
       <c r="J255" s="5">
         <v>921.55237497721271</v>
       </c>
       <c r="K255" s="5">
-        <v>6082.2456748496033</v>
+        <v>7151.2464298231707</v>
       </c>
       <c r="L255" s="5">
-        <v>0.60822456748496034</v>
+        <v>0.71512464298231704</v>
       </c>
       <c r="M255" s="15">
         <v>41.680958333333336</v>
@@ -12392,16 +12392,16 @@
         <v>30</v>
       </c>
       <c r="I256" s="7">
-        <v>6.6</v>
+        <v>7.76</v>
       </c>
       <c r="J256" s="5">
         <v>965.95004134746625</v>
       </c>
       <c r="K256" s="5">
-        <v>6375.2702728932773</v>
+        <v>7495.7723208563375</v>
       </c>
       <c r="L256" s="5">
-        <v>0.63752702728932775</v>
+        <v>0.74957723208563376</v>
       </c>
       <c r="M256" s="15">
         <v>41.777931666666667</v>
@@ -12438,16 +12438,16 @@
         <v>33</v>
       </c>
       <c r="I257" s="7">
-        <v>5.9</v>
+        <v>7.0600000000000005</v>
       </c>
       <c r="J257" s="5">
         <v>930.63462147993823</v>
       </c>
       <c r="K257" s="5">
-        <v>5490.7442667316363</v>
+        <v>6570.2804276483648</v>
       </c>
       <c r="L257" s="5">
-        <v>0.54907442667316364</v>
+        <v>0.65702804276483651</v>
       </c>
       <c r="M257" s="15">
         <v>41.878588333333333</v>
@@ -12484,16 +12484,16 @@
         <v>28</v>
       </c>
       <c r="I258" s="7">
-        <v>5.8</v>
+        <v>6.96</v>
       </c>
       <c r="J258" s="5">
         <v>1200.4756875166361</v>
       </c>
       <c r="K258" s="5">
-        <v>6962.7589875964886</v>
+        <v>8355.3107851157874</v>
       </c>
       <c r="L258" s="5">
-        <v>0.6962758987596489</v>
+        <v>0.83553107851157871</v>
       </c>
       <c r="M258" s="15">
         <v>41.982321666666664</v>
@@ -12530,16 +12530,16 @@
         <v>18.5</v>
       </c>
       <c r="I259" s="7">
-        <v>5.7</v>
+        <v>6.86</v>
       </c>
       <c r="J259" s="5">
         <v>933.84727123867697</v>
       </c>
       <c r="K259" s="5">
-        <v>5322.9294460604588</v>
+        <v>6406.1922806973243</v>
       </c>
       <c r="L259" s="5">
-        <v>0.53229294460604593</v>
+        <v>0.64061922806973248</v>
       </c>
       <c r="M259" s="15">
         <v>41.568291666666667</v>
@@ -12576,16 +12576,16 @@
         <v>28.5</v>
       </c>
       <c r="I260" s="7">
-        <v>6.8</v>
+        <v>7.96</v>
       </c>
       <c r="J260" s="5">
         <v>933.3832636857635</v>
       </c>
       <c r="K260" s="5">
-        <v>6347.0061930631919</v>
+        <v>7429.7307789386778</v>
       </c>
       <c r="L260" s="5">
-        <v>0.63470061930631916</v>
+        <v>0.74297307789386779</v>
       </c>
       <c r="M260" s="15">
         <v>41.667029999999997</v>
@@ -12622,16 +12622,16 @@
         <v>31</v>
       </c>
       <c r="I261" s="7">
-        <v>7.2</v>
+        <v>8.36</v>
       </c>
       <c r="J261" s="5">
         <v>914.6696945685984</v>
       </c>
       <c r="K261" s="5">
-        <v>6585.6218008939086</v>
+        <v>7646.638646593482</v>
       </c>
       <c r="L261" s="5">
-        <v>0.65856218008939083</v>
+        <v>0.76466386465934821</v>
       </c>
       <c r="M261" s="15">
         <v>41.759251666666664</v>
@@ -12668,16 +12668,16 @@
         <v>35.5</v>
       </c>
       <c r="I262" s="7">
-        <v>6.4</v>
+        <v>7.5600000000000005</v>
       </c>
       <c r="J262" s="5">
         <v>971.55062406107993</v>
       </c>
       <c r="K262" s="5">
-        <v>6217.9239939909121</v>
+        <v>7344.9227179017644</v>
       </c>
       <c r="L262" s="5">
-        <v>0.62179239939909126</v>
+        <v>0.7344922717901764</v>
       </c>
       <c r="M262" s="15">
         <v>41.886748333333337</v>
@@ -12714,16 +12714,16 @@
         <v>30</v>
       </c>
       <c r="I263" s="7">
-        <v>6.3</v>
+        <v>7.46</v>
       </c>
       <c r="J263" s="5">
         <v>749.93063405418911</v>
       </c>
       <c r="K263" s="5">
-        <v>4724.5629945413912</v>
+        <v>5594.4825300442508</v>
       </c>
       <c r="L263" s="5">
-        <v>0.47245629945413914</v>
+        <v>0.55944825300442513</v>
       </c>
       <c r="M263" s="15">
         <v>41.659418333333335</v>
@@ -12760,16 +12760,16 @@
         <v>36</v>
       </c>
       <c r="I264" s="7">
-        <v>5.9</v>
+        <v>7.0600000000000005</v>
       </c>
       <c r="J264" s="5">
         <v>910.84234180091892</v>
       </c>
       <c r="K264" s="5">
-        <v>5373.969816625422</v>
+        <v>6430.5469331144877</v>
       </c>
       <c r="L264" s="5">
-        <v>0.53739698166254224</v>
+        <v>0.64305469331144882</v>
       </c>
       <c r="M264" s="15">
         <v>41.764508333333332</v>
@@ -12806,16 +12806,16 @@
         <v>38</v>
       </c>
       <c r="I265" s="7">
-        <v>6.4</v>
+        <v>7.5600000000000005</v>
       </c>
       <c r="J265" s="5">
         <v>947.97946762565095</v>
       </c>
       <c r="K265" s="5">
-        <v>6067.0685928041667</v>
+        <v>7166.7247752499215</v>
       </c>
       <c r="L265" s="5">
-        <v>0.60670685928041668</v>
+        <v>0.71667247752499219</v>
       </c>
       <c r="M265" s="15">
         <v>41.865475000000004</v>
@@ -12852,16 +12852,16 @@
         <v>35</v>
       </c>
       <c r="I266" s="7">
-        <v>6</v>
+        <v>7.16</v>
       </c>
       <c r="J266" s="5">
         <v>1002.6123327950493</v>
       </c>
       <c r="K266" s="5">
-        <v>6015.6739967702961</v>
+        <v>7178.7043028125527</v>
       </c>
       <c r="L266" s="5">
-        <v>0.60156739967702966</v>
+        <v>0.7178704302812553</v>
       </c>
       <c r="M266" s="15">
         <v>41.960120000000003</v>
@@ -12898,16 +12898,16 @@
         <v>25</v>
       </c>
       <c r="I267" s="7">
-        <v>6.7</v>
+        <v>7.86</v>
       </c>
       <c r="J267" s="5">
         <v>943.30558072994745</v>
       </c>
       <c r="K267" s="5">
-        <v>6320.1473908906482</v>
+        <v>7414.3818645373876</v>
       </c>
       <c r="L267" s="5">
-        <v>0.6320147390890648</v>
+        <v>0.74143818645373871</v>
       </c>
       <c r="M267" s="15">
         <v>41.565370000000001</v>
@@ -12944,16 +12944,16 @@
         <v>35</v>
       </c>
       <c r="I268" s="7">
-        <v>6.3</v>
+        <v>7.46</v>
       </c>
       <c r="J268" s="5">
         <v>958.04105658752405</v>
       </c>
       <c r="K268" s="5">
-        <v>6035.6586565014013</v>
+        <v>7146.9862821429297</v>
       </c>
       <c r="L268" s="5">
-        <v>0.60356586565014014</v>
+        <v>0.71469862821429297</v>
       </c>
       <c r="M268" s="15">
         <v>41.682253000000003</v>
@@ -12990,16 +12990,16 @@
         <v>33</v>
       </c>
       <c r="I269" s="7">
-        <v>6</v>
+        <v>7.16</v>
       </c>
       <c r="J269" s="5">
         <v>928.78808193880684</v>
       </c>
       <c r="K269" s="5">
-        <v>5572.7284916328408</v>
+        <v>6650.1226666818575</v>
       </c>
       <c r="L269" s="5">
-        <v>0.55727284916328412</v>
+        <v>0.6650122666681858</v>
       </c>
       <c r="M269" s="15">
         <v>41.78208166666667</v>
@@ -13036,16 +13036,16 @@
         <v>40</v>
       </c>
       <c r="I270" s="7">
-        <v>6.6</v>
+        <v>7.76</v>
       </c>
       <c r="J270" s="5">
         <v>946.98943633475903</v>
       </c>
       <c r="K270" s="5">
-        <v>6250.1302798094093</v>
+        <v>7348.63802595773</v>
       </c>
       <c r="L270" s="5">
-        <v>0.62501302798094094</v>
+        <v>0.734863802595773</v>
       </c>
       <c r="M270" s="15">
         <v>41.868568333333336</v>
@@ -13082,16 +13082,16 @@
         <v>37</v>
       </c>
       <c r="I271" s="7">
-        <v>6.5</v>
+        <v>7.66</v>
       </c>
       <c r="J271" s="5">
         <v>994.79739381997263</v>
       </c>
       <c r="K271" s="5">
-        <v>6466.183059829822</v>
+        <v>7620.1480366609903</v>
       </c>
       <c r="L271" s="5">
-        <v>0.6466183059829822</v>
+        <v>0.76201480366609908</v>
       </c>
       <c r="M271" s="15">
         <v>41.966994999999997</v>
@@ -13128,16 +13128,16 @@
         <v>40</v>
       </c>
       <c r="I272" s="7">
-        <v>8.5</v>
+        <v>9.66</v>
       </c>
       <c r="J272" s="5">
         <v>982.16769412076951</v>
       </c>
       <c r="K272" s="5">
-        <v>8348.425400026541</v>
+        <v>9487.7399252066334</v>
       </c>
       <c r="L272" s="5">
-        <v>0.83484254000265412</v>
+        <v>0.9487739925206633</v>
       </c>
       <c r="M272" s="15">
         <v>41.561921666666663</v>
@@ -13174,16 +13174,16 @@
         <v>36</v>
       </c>
       <c r="I273" s="7">
-        <v>5.9</v>
+        <v>7.0600000000000005</v>
       </c>
       <c r="J273" s="5">
         <v>1051.2562303714085</v>
       </c>
       <c r="K273" s="5">
-        <v>6202.4117591913109</v>
+        <v>7421.8689864221442</v>
       </c>
       <c r="L273" s="5">
-        <v>0.62024117591913108</v>
+        <v>0.74218689864221443</v>
       </c>
       <c r="M273" s="15">
         <v>41.679755</v>
@@ -13220,16 +13220,16 @@
         <v>38</v>
       </c>
       <c r="I274" s="7">
-        <v>6</v>
+        <v>7.16</v>
       </c>
       <c r="J274" s="5">
         <v>939.83773011563085</v>
       </c>
       <c r="K274" s="5">
-        <v>5639.0263806937855</v>
+        <v>6729.238147627917</v>
       </c>
       <c r="L274" s="5">
-        <v>0.56390263806937857</v>
+        <v>0.67292381476279173</v>
       </c>
       <c r="M274" s="15">
         <v>41.863208333333333</v>
@@ -13266,16 +13266,16 @@
         <v>36.5</v>
       </c>
       <c r="I275" s="7">
-        <v>6.5</v>
+        <v>7.66</v>
       </c>
       <c r="J275" s="5">
         <v>1017.4605650364114</v>
       </c>
       <c r="K275" s="5">
-        <v>6613.4936727366739</v>
+        <v>7793.747928178911</v>
       </c>
       <c r="L275" s="5">
-        <v>0.66134936727366744</v>
+        <v>0.77937479281789113</v>
       </c>
       <c r="M275" s="15">
         <v>41.975793333333336</v>
@@ -13312,16 +13312,16 @@
         <v>39</v>
       </c>
       <c r="I276" s="7">
-        <v>7.4</v>
+        <v>8.56</v>
       </c>
       <c r="J276" s="5">
         <v>825.04114290547079</v>
       </c>
       <c r="K276" s="5">
-        <v>6105.3044575004842</v>
+        <v>7062.3521832708302</v>
       </c>
       <c r="L276" s="5">
-        <v>0.61053044575004844</v>
+        <v>0.70623521832708303</v>
       </c>
       <c r="M276" s="15">
         <v>41.456028333333336</v>
@@ -13358,16 +13358,16 @@
         <v>42</v>
       </c>
       <c r="I277" s="7">
-        <v>7.3</v>
+        <v>8.4599999999999991</v>
       </c>
       <c r="J277" s="5">
         <v>916.80167326857816</v>
       </c>
       <c r="K277" s="5">
-        <v>6692.65221486062</v>
+        <v>7756.1421558521706</v>
       </c>
       <c r="L277" s="5">
-        <v>0.66926522148606205</v>
+        <v>0.77561421558521704</v>
       </c>
       <c r="M277" s="15">
         <v>41.559903333333331</v>
@@ -13404,16 +13404,16 @@
         <v>45</v>
       </c>
       <c r="I278" s="7">
-        <v>6.5</v>
+        <v>7.66</v>
       </c>
       <c r="J278" s="5">
         <v>889.25494205937457</v>
       </c>
       <c r="K278" s="5">
-        <v>5780.1571233859349</v>
+        <v>6811.6928561748091</v>
       </c>
       <c r="L278" s="5">
-        <v>0.5780157123385935</v>
+        <v>0.68116928561748091</v>
       </c>
       <c r="M278" s="15">
         <v>41.663694999999997</v>
@@ -13450,16 +13450,16 @@
         <v>37.5</v>
       </c>
       <c r="I279" s="7">
-        <v>6.3</v>
+        <v>7.46</v>
       </c>
       <c r="J279" s="5">
         <v>919.74418091042014</v>
       </c>
       <c r="K279" s="5">
-        <v>5794.3883397356467</v>
+        <v>6861.291589591734</v>
       </c>
       <c r="L279" s="5">
-        <v>0.57943883397356466</v>
+        <v>0.68612915895917337</v>
       </c>
       <c r="M279" s="15">
         <v>41.774635000000004</v>
@@ -13496,16 +13496,16 @@
         <v>40.5</v>
       </c>
       <c r="I280" s="7">
-        <v>6.8</v>
+        <v>7.96</v>
       </c>
       <c r="J280" s="5">
         <v>944.75552945321385</v>
       </c>
       <c r="K280" s="5">
-        <v>6424.3376002818541</v>
+        <v>7520.2540144475824</v>
       </c>
       <c r="L280" s="5">
-        <v>0.64243376002818542</v>
+        <v>0.75202540144475827</v>
       </c>
       <c r="M280" s="15">
         <v>41.862161666666665</v>
@@ -13542,16 +13542,16 @@
         <v>48</v>
       </c>
       <c r="I281" s="7">
-        <v>6.8</v>
+        <v>7.96</v>
       </c>
       <c r="J281" s="5">
         <v>971.17059180535932</v>
       </c>
       <c r="K281" s="5">
-        <v>6603.9600242764436</v>
+        <v>7730.5179107706599</v>
       </c>
       <c r="L281" s="5">
-        <v>0.6603960024276444</v>
+        <v>0.77305179107706601</v>
       </c>
       <c r="M281" s="15">
         <v>41.475636666666666</v>
@@ -13588,16 +13588,16 @@
         <v>48</v>
       </c>
       <c r="I282" s="7">
-        <v>6.6</v>
+        <v>7.76</v>
       </c>
       <c r="J282" s="5">
         <v>929.12745002515874</v>
       </c>
       <c r="K282" s="5">
-        <v>6132.2411701660476</v>
+        <v>7210.0290121952312</v>
       </c>
       <c r="L282" s="5">
-        <v>0.61322411701660473</v>
+        <v>0.72100290121952315</v>
       </c>
       <c r="M282" s="15">
         <v>41.579303333333336</v>
@@ -13634,16 +13634,16 @@
         <v>48</v>
       </c>
       <c r="I283" s="7">
-        <v>6.7</v>
+        <v>7.86</v>
       </c>
       <c r="J283" s="5">
         <v>912.63829254461723</v>
       </c>
       <c r="K283" s="5">
-        <v>6114.6765600489352</v>
+        <v>7173.3369794006921</v>
       </c>
       <c r="L283" s="5">
-        <v>0.6114676560048935</v>
+        <v>0.71733369794006918</v>
       </c>
       <c r="M283" s="15">
         <v>41.671765000000001</v>
@@ -13680,16 +13680,16 @@
         <v>43.6</v>
       </c>
       <c r="I284" s="7">
-        <v>7</v>
+        <v>8.16</v>
       </c>
       <c r="J284" s="5">
         <v>904.74025098276172</v>
       </c>
       <c r="K284" s="5">
-        <v>6333.1817568793322</v>
+        <v>7382.6804480193359</v>
       </c>
       <c r="L284" s="5">
-        <v>0.63331817568793325</v>
+        <v>0.73826804480193364</v>
       </c>
       <c r="M284" s="15">
         <v>41.779963333333335</v>
@@ -13726,16 +13726,16 @@
         <v>47</v>
       </c>
       <c r="I285" s="7">
-        <v>6.7</v>
+        <v>7.86</v>
       </c>
       <c r="J285" s="5">
         <v>927.79539813220117</v>
       </c>
       <c r="K285" s="5">
-        <v>6216.2291674857479</v>
+        <v>7292.4718293191017</v>
       </c>
       <c r="L285" s="5">
-        <v>0.62162291674857484</v>
+        <v>0.72924718293191015</v>
       </c>
       <c r="M285" s="15">
         <v>41.479901666666663</v>
@@ -13772,16 +13772,16 @@
         <v>48</v>
       </c>
       <c r="I286" s="7">
-        <v>6.6</v>
+        <v>7.76</v>
       </c>
       <c r="J286" s="5">
         <v>929.84284640401586</v>
       </c>
       <c r="K286" s="5">
-        <v>6136.9627862665047</v>
+        <v>7215.5804880951628</v>
       </c>
       <c r="L286" s="5">
-        <v>0.61369627862665044</v>
+        <v>0.72155804880951624</v>
       </c>
       <c r="M286" s="15">
         <v>41.574436666666664</v>
@@ -13818,16 +13818,16 @@
         <v>48</v>
       </c>
       <c r="I287" s="7">
-        <v>6.8</v>
+        <v>7.96</v>
       </c>
       <c r="J287" s="5">
         <v>904.80857801619084</v>
       </c>
       <c r="K287" s="5">
-        <v>6152.6983305100975</v>
+        <v>7202.2762810088789</v>
       </c>
       <c r="L287" s="5">
-        <v>0.6152698330510098</v>
+        <v>0.72022762810088792</v>
       </c>
       <c r="M287" s="15">
         <v>41.668039999999998</v>
@@ -13864,16 +13864,16 @@
         <v>38</v>
       </c>
       <c r="I288" s="7">
-        <v>6.5</v>
+        <v>7.66</v>
       </c>
       <c r="J288" s="5">
         <v>602.66877372919657</v>
       </c>
       <c r="K288" s="5">
-        <v>3917.3470292397778</v>
+        <v>4616.4428067656454</v>
       </c>
       <c r="L288" s="5">
-        <v>0.39173470292397777</v>
+        <v>0.46164428067656454</v>
       </c>
       <c r="M288" s="15">
         <v>41.460701666666665</v>

--- a/data_prep/WB_Effort.xlsx
+++ b/data_prep/WB_Effort.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405"/>
+    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Effort" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="80">
   <si>
     <t>serial</t>
   </si>
@@ -241,6 +241,27 @@
   </si>
   <si>
     <t>0927</t>
+  </si>
+  <si>
+    <t>0740</t>
+  </si>
+  <si>
+    <t>0729</t>
+  </si>
+  <si>
+    <t>0824</t>
+  </si>
+  <si>
+    <t>0913</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>0943</t>
+  </si>
+  <si>
+    <t>0918</t>
   </si>
 </sst>
 </file>
@@ -611,11 +632,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N288"/>
+  <dimension ref="A1:N329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U266" sqref="U266"/>
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G330" sqref="G330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9566,11 +9587,11 @@
         <v>42170</v>
       </c>
       <c r="C195" s="4">
-        <f t="shared" ref="C195:C258" si="6">DAY(B195)</f>
+        <f t="shared" ref="C195:C247" si="6">DAY(B195)</f>
         <v>15</v>
       </c>
       <c r="D195" s="4">
-        <f t="shared" ref="D195:D258" si="7">MONTH(B195)</f>
+        <f t="shared" ref="D195:D247" si="7">MONTH(B195)</f>
         <v>6</v>
       </c>
       <c r="E195" s="2">
@@ -12004,11 +12025,9 @@
         <v>42535</v>
       </c>
       <c r="C248" s="4">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="D248" s="4">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="E248" s="2">
@@ -12021,7 +12040,7 @@
         <v>62</v>
       </c>
       <c r="H248" s="4">
-        <v>16.5</v>
+        <v>5.0292000000000003</v>
       </c>
       <c r="I248" s="7">
         <v>6.16</v>
@@ -12050,11 +12069,9 @@
         <v>42535</v>
       </c>
       <c r="C249" s="4">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="D249" s="4">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="E249" s="2">
@@ -12067,7 +12084,7 @@
         <v>63</v>
       </c>
       <c r="H249" s="4">
-        <v>23.3</v>
+        <v>7.1018400000000002</v>
       </c>
       <c r="I249" s="7">
         <v>6.96</v>
@@ -12096,11 +12113,9 @@
         <v>42535</v>
       </c>
       <c r="C250" s="4">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="D250" s="4">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="E250" s="2">
@@ -12113,7 +12128,7 @@
         <v>1119</v>
       </c>
       <c r="H250" s="4">
-        <v>24</v>
+        <v>7.3151999999999999</v>
       </c>
       <c r="I250" s="7">
         <v>7.0600000000000005</v>
@@ -12142,11 +12157,9 @@
         <v>42534</v>
       </c>
       <c r="C251" s="4">
-        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="D251" s="4">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="E251" s="2">
@@ -12159,7 +12172,7 @@
         <v>1410</v>
       </c>
       <c r="H251" s="4">
-        <v>23</v>
+        <v>7.0103999999999997</v>
       </c>
       <c r="I251" s="7">
         <v>7.36</v>
@@ -12188,11 +12201,9 @@
         <v>42534</v>
       </c>
       <c r="C252" s="4">
-        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="D252" s="4">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="E252" s="2">
@@ -12205,7 +12216,7 @@
         <v>1503</v>
       </c>
       <c r="H252" s="4">
-        <v>26</v>
+        <v>7.9248000000000003</v>
       </c>
       <c r="I252" s="7">
         <v>7.66</v>
@@ -12234,11 +12245,9 @@
         <v>42535</v>
       </c>
       <c r="C253" s="4">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="D253" s="4">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="E253" s="2">
@@ -12251,7 +12260,7 @@
         <v>1211</v>
       </c>
       <c r="H253" s="4">
-        <v>31</v>
+        <v>9.4488000000000003</v>
       </c>
       <c r="I253" s="7">
         <v>7.0600000000000005</v>
@@ -12280,11 +12289,9 @@
         <v>42535</v>
       </c>
       <c r="C254" s="4">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="D254" s="4">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="E254" s="2">
@@ -12297,7 +12304,7 @@
         <v>1310</v>
       </c>
       <c r="H254" s="4">
-        <v>25</v>
+        <v>7.62</v>
       </c>
       <c r="I254" s="7">
         <v>6.76</v>
@@ -12326,11 +12333,9 @@
         <v>42534</v>
       </c>
       <c r="C255" s="4">
-        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="D255" s="4">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="E255" s="2">
@@ -12343,7 +12348,7 @@
         <v>1316</v>
       </c>
       <c r="H255" s="4">
-        <v>27</v>
+        <v>8.2295999999999996</v>
       </c>
       <c r="I255" s="7">
         <v>7.76</v>
@@ -12372,11 +12377,9 @@
         <v>42534</v>
       </c>
       <c r="C256" s="4">
-        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="D256" s="4">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="E256" s="2">
@@ -12389,7 +12392,7 @@
         <v>1546</v>
       </c>
       <c r="H256" s="4">
-        <v>30</v>
+        <v>9.1440000000000001</v>
       </c>
       <c r="I256" s="7">
         <v>7.76</v>
@@ -12418,11 +12421,9 @@
         <v>42535</v>
       </c>
       <c r="C257" s="4">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="D257" s="4">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="E257" s="2">
@@ -12435,7 +12436,7 @@
         <v>1457</v>
       </c>
       <c r="H257" s="4">
-        <v>33</v>
+        <v>10.058400000000001</v>
       </c>
       <c r="I257" s="7">
         <v>7.0600000000000005</v>
@@ -12464,11 +12465,9 @@
         <v>42535</v>
       </c>
       <c r="C258" s="4">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="D258" s="4">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="E258" s="2">
@@ -12481,7 +12480,7 @@
         <v>1357</v>
       </c>
       <c r="H258" s="4">
-        <v>28</v>
+        <v>8.5343999999999998</v>
       </c>
       <c r="I258" s="7">
         <v>6.96</v>
@@ -12510,11 +12509,9 @@
         <v>42534</v>
       </c>
       <c r="C259" s="4">
-        <f t="shared" ref="C259:C288" si="8">DAY(B259)</f>
         <v>13</v>
       </c>
       <c r="D259" s="4">
-        <f t="shared" ref="D259:D288" si="9">MONTH(B259)</f>
         <v>6</v>
       </c>
       <c r="E259" s="2">
@@ -12527,7 +12524,7 @@
         <v>1136</v>
       </c>
       <c r="H259" s="4">
-        <v>18.5</v>
+        <v>5.6387999999999998</v>
       </c>
       <c r="I259" s="7">
         <v>6.86</v>
@@ -12556,11 +12553,9 @@
         <v>42534</v>
       </c>
       <c r="C260" s="4">
-        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="D260" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E260" s="2">
@@ -12573,7 +12568,7 @@
         <v>1228</v>
       </c>
       <c r="H260" s="4">
-        <v>28.5</v>
+        <v>8.6867999999999999</v>
       </c>
       <c r="I260" s="7">
         <v>7.96</v>
@@ -12602,11 +12597,9 @@
         <v>42534</v>
       </c>
       <c r="C261" s="4">
-        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="D261" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E261" s="2">
@@ -12619,7 +12612,7 @@
         <v>1632</v>
       </c>
       <c r="H261" s="4">
-        <v>31</v>
+        <v>9.4488000000000003</v>
       </c>
       <c r="I261" s="7">
         <v>8.36</v>
@@ -12648,11 +12641,9 @@
         <v>42535</v>
       </c>
       <c r="C262" s="4">
-        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="D262" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E262" s="2">
@@ -12665,7 +12656,7 @@
         <v>1553</v>
       </c>
       <c r="H262" s="4">
-        <v>35.5</v>
+        <v>10.820399999999999</v>
       </c>
       <c r="I262" s="7">
         <v>7.5600000000000005</v>
@@ -12694,11 +12685,9 @@
         <v>42535</v>
       </c>
       <c r="C263" s="4">
-        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="D263" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E263" s="2">
@@ -12711,7 +12700,7 @@
         <v>64</v>
       </c>
       <c r="H263" s="4">
-        <v>30</v>
+        <v>9.1440000000000001</v>
       </c>
       <c r="I263" s="7">
         <v>7.46</v>
@@ -12740,11 +12729,9 @@
         <v>42535</v>
       </c>
       <c r="C264" s="4">
-        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="D264" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E264" s="2">
@@ -12757,7 +12744,7 @@
         <v>1848</v>
       </c>
       <c r="H264" s="4">
-        <v>36</v>
+        <v>10.972799999999999</v>
       </c>
       <c r="I264" s="7">
         <v>7.0600000000000005</v>
@@ -12786,11 +12773,9 @@
         <v>42536</v>
       </c>
       <c r="C265" s="4">
-        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="D265" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E265" s="2">
@@ -12803,7 +12788,7 @@
         <v>1002</v>
       </c>
       <c r="H265" s="4">
-        <v>38</v>
+        <v>11.5824</v>
       </c>
       <c r="I265" s="7">
         <v>7.5600000000000005</v>
@@ -12832,11 +12817,9 @@
         <v>42535</v>
       </c>
       <c r="C266" s="4">
-        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="D266" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E266" s="2">
@@ -12849,7 +12832,7 @@
         <v>1720</v>
       </c>
       <c r="H266" s="4">
-        <v>35</v>
+        <v>10.667999999999999</v>
       </c>
       <c r="I266" s="7">
         <v>7.16</v>
@@ -12878,11 +12861,9 @@
         <v>42534</v>
       </c>
       <c r="C267" s="4">
-        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="D267" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E267" s="2">
@@ -12895,7 +12876,7 @@
         <v>1025</v>
       </c>
       <c r="H267" s="4">
-        <v>25</v>
+        <v>7.62</v>
       </c>
       <c r="I267" s="7">
         <v>7.86</v>
@@ -12924,11 +12905,9 @@
         <v>42536</v>
       </c>
       <c r="C268" s="4">
-        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="D268" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E268" s="2">
@@ -12941,7 +12920,7 @@
         <v>65</v>
       </c>
       <c r="H268" s="4">
-        <v>35</v>
+        <v>10.667999999999999</v>
       </c>
       <c r="I268" s="7">
         <v>7.46</v>
@@ -12970,11 +12949,9 @@
         <v>42536</v>
       </c>
       <c r="C269" s="4">
-        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="D269" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E269" s="2">
@@ -12987,7 +12964,7 @@
         <v>66</v>
       </c>
       <c r="H269" s="4">
-        <v>33</v>
+        <v>10.058400000000001</v>
       </c>
       <c r="I269" s="7">
         <v>7.16</v>
@@ -13016,11 +12993,9 @@
         <v>42536</v>
       </c>
       <c r="C270" s="4">
-        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="D270" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E270" s="2">
@@ -13033,7 +13008,7 @@
         <v>67</v>
       </c>
       <c r="H270" s="4">
-        <v>40</v>
+        <v>12.192</v>
       </c>
       <c r="I270" s="7">
         <v>7.76</v>
@@ -13062,11 +13037,9 @@
         <v>42536</v>
       </c>
       <c r="C271" s="4">
-        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="D271" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E271" s="2">
@@ -13079,7 +13052,7 @@
         <v>1108</v>
       </c>
       <c r="H271" s="4">
-        <v>37</v>
+        <v>11.2776</v>
       </c>
       <c r="I271" s="7">
         <v>7.66</v>
@@ -13108,11 +13081,9 @@
         <v>42534</v>
       </c>
       <c r="C272" s="4">
-        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="D272" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E272" s="2">
@@ -13125,7 +13096,7 @@
         <v>68</v>
       </c>
       <c r="H272" s="4">
-        <v>40</v>
+        <v>12.192</v>
       </c>
       <c r="I272" s="7">
         <v>9.66</v>
@@ -13154,11 +13125,9 @@
         <v>42536</v>
       </c>
       <c r="C273" s="4">
-        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="D273" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E273" s="2">
@@ -13171,7 +13140,7 @@
         <v>1723</v>
       </c>
       <c r="H273" s="4">
-        <v>36</v>
+        <v>10.972799999999999</v>
       </c>
       <c r="I273" s="7">
         <v>7.0600000000000005</v>
@@ -13200,11 +13169,9 @@
         <v>42536</v>
       </c>
       <c r="C274" s="4">
-        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="D274" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E274" s="2">
@@ -13217,7 +13184,7 @@
         <v>1317</v>
       </c>
       <c r="H274" s="4">
-        <v>38</v>
+        <v>11.5824</v>
       </c>
       <c r="I274" s="7">
         <v>7.16</v>
@@ -13246,11 +13213,9 @@
         <v>42536</v>
       </c>
       <c r="C275" s="4">
-        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="D275" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E275" s="2">
@@ -13263,7 +13228,7 @@
         <v>1217</v>
       </c>
       <c r="H275" s="4">
-        <v>36.5</v>
+        <v>11.1252</v>
       </c>
       <c r="I275" s="7">
         <v>7.66</v>
@@ -13292,11 +13257,9 @@
         <v>42534</v>
       </c>
       <c r="C276" s="4">
-        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="D276" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E276" s="2">
@@ -13309,7 +13272,7 @@
         <v>69</v>
       </c>
       <c r="H276" s="4">
-        <v>39</v>
+        <v>11.8872</v>
       </c>
       <c r="I276" s="7">
         <v>8.56</v>
@@ -13338,11 +13301,9 @@
         <v>42534</v>
       </c>
       <c r="C277" s="4">
-        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="D277" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E277" s="2">
@@ -13355,7 +13316,7 @@
         <v>70</v>
       </c>
       <c r="H277" s="4">
-        <v>42</v>
+        <v>12.801600000000001</v>
       </c>
       <c r="I277" s="7">
         <v>8.4599999999999991</v>
@@ -13384,11 +13345,9 @@
         <v>42536</v>
       </c>
       <c r="C278" s="4">
-        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="D278" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E278" s="2">
@@ -13401,7 +13360,7 @@
         <v>1637</v>
       </c>
       <c r="H278" s="4">
-        <v>45</v>
+        <v>13.715999999999999</v>
       </c>
       <c r="I278" s="7">
         <v>7.66</v>
@@ -13430,11 +13389,9 @@
         <v>42536</v>
       </c>
       <c r="C279" s="4">
-        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="D279" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E279" s="2">
@@ -13447,7 +13404,7 @@
         <v>1540</v>
       </c>
       <c r="H279" s="4">
-        <v>37.5</v>
+        <v>11.43</v>
       </c>
       <c r="I279" s="7">
         <v>7.46</v>
@@ -13476,11 +13433,9 @@
         <v>42536</v>
       </c>
       <c r="C280" s="4">
-        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="D280" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E280" s="2">
@@ -13493,7 +13448,7 @@
         <v>1404</v>
       </c>
       <c r="H280" s="4">
-        <v>40.5</v>
+        <v>12.3444</v>
       </c>
       <c r="I280" s="7">
         <v>7.96</v>
@@ -13522,11 +13477,9 @@
         <v>42537</v>
       </c>
       <c r="C281" s="4">
-        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="D281" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E281" s="2">
@@ -13539,7 +13492,7 @@
         <v>1534</v>
       </c>
       <c r="H281" s="4">
-        <v>48</v>
+        <v>14.6304</v>
       </c>
       <c r="I281" s="7">
         <v>7.96</v>
@@ -13568,11 +13521,9 @@
         <v>42537</v>
       </c>
       <c r="C282" s="4">
-        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="D282" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E282" s="2">
@@ -13585,7 +13536,7 @@
         <v>1034</v>
       </c>
       <c r="H282" s="4">
-        <v>48</v>
+        <v>14.6304</v>
       </c>
       <c r="I282" s="7">
         <v>7.76</v>
@@ -13614,11 +13565,9 @@
         <v>42537</v>
       </c>
       <c r="C283" s="4">
-        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="D283" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E283" s="2">
@@ -13631,7 +13580,7 @@
         <v>71</v>
       </c>
       <c r="H283" s="4">
-        <v>48</v>
+        <v>14.6304</v>
       </c>
       <c r="I283" s="7">
         <v>7.86</v>
@@ -13660,11 +13609,9 @@
         <v>42536</v>
       </c>
       <c r="C284" s="4">
-        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="D284" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E284" s="2">
@@ -13677,7 +13624,7 @@
         <v>1457</v>
       </c>
       <c r="H284" s="4">
-        <v>43.6</v>
+        <v>13.28928</v>
       </c>
       <c r="I284" s="7">
         <v>8.16</v>
@@ -13706,11 +13653,9 @@
         <v>42537</v>
       </c>
       <c r="C285" s="4">
-        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="D285" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E285" s="2">
@@ -13723,7 +13668,7 @@
         <v>1435</v>
       </c>
       <c r="H285" s="4">
-        <v>47</v>
+        <v>14.3256</v>
       </c>
       <c r="I285" s="7">
         <v>7.86</v>
@@ -13752,11 +13697,9 @@
         <v>42537</v>
       </c>
       <c r="C286" s="4">
-        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="D286" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E286" s="2">
@@ -13769,7 +13712,7 @@
         <v>1119</v>
       </c>
       <c r="H286" s="4">
-        <v>48</v>
+        <v>14.6304</v>
       </c>
       <c r="I286" s="7">
         <v>7.76</v>
@@ -13798,11 +13741,9 @@
         <v>42537</v>
       </c>
       <c r="C287" s="4">
-        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="D287" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E287" s="2">
@@ -13815,7 +13756,7 @@
         <v>72</v>
       </c>
       <c r="H287" s="4">
-        <v>48</v>
+        <v>14.6304</v>
       </c>
       <c r="I287" s="7">
         <v>7.96</v>
@@ -13844,11 +13785,9 @@
         <v>42537</v>
       </c>
       <c r="C288" s="4">
-        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="D288" s="4">
-        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="E288" s="2">
@@ -13861,7 +13800,7 @@
         <v>1227</v>
       </c>
       <c r="H288" s="4">
-        <v>38</v>
+        <v>11.5824</v>
       </c>
       <c r="I288" s="7">
         <v>7.66</v>
@@ -13880,6 +13819,1810 @@
       </c>
       <c r="N288" s="15">
         <v>-82.254831666666661</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>501</v>
+      </c>
+      <c r="B289" s="3">
+        <v>42633</v>
+      </c>
+      <c r="C289" s="4">
+        <v>20</v>
+      </c>
+      <c r="D289" s="4">
+        <v>9</v>
+      </c>
+      <c r="E289" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G289" s="9">
+        <v>1032</v>
+      </c>
+      <c r="H289" s="5">
+        <v>5.1816000000000004</v>
+      </c>
+      <c r="I289" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="J289" s="5">
+        <v>882.85702774841741</v>
+      </c>
+      <c r="K289" s="5">
+        <v>5561.9992748150298</v>
+      </c>
+      <c r="L289" s="5">
+        <v>0.55619992748150293</v>
+      </c>
+      <c r="M289" s="13">
+        <v>41.781185000000001</v>
+      </c>
+      <c r="N289" s="13">
+        <v>-83.354271999999995</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>502</v>
+      </c>
+      <c r="B290" s="3">
+        <v>42633</v>
+      </c>
+      <c r="C290" s="4">
+        <v>20</v>
+      </c>
+      <c r="D290" s="4">
+        <v>9</v>
+      </c>
+      <c r="E290" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G290" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H290" s="5">
+        <v>7.62</v>
+      </c>
+      <c r="I290" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="J290" s="5">
+        <v>851.27276485354287</v>
+      </c>
+      <c r="K290" s="5">
+        <v>5788.6548010040915</v>
+      </c>
+      <c r="L290" s="5">
+        <v>0.57886548010040917</v>
+      </c>
+      <c r="M290" s="13">
+        <v>41.781820000000003</v>
+      </c>
+      <c r="N290" s="13">
+        <v>-83.254251999999994</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>503</v>
+      </c>
+      <c r="B291" s="3">
+        <v>42633</v>
+      </c>
+      <c r="C291" s="4">
+        <v>20</v>
+      </c>
+      <c r="D291" s="4">
+        <v>9</v>
+      </c>
+      <c r="E291" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G291" s="9">
+        <v>1144</v>
+      </c>
+      <c r="H291" s="5">
+        <v>7.62</v>
+      </c>
+      <c r="I291" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="J291" s="5">
+        <v>890.7385915677088</v>
+      </c>
+      <c r="K291" s="5">
+        <v>5789.8008451901069</v>
+      </c>
+      <c r="L291" s="5">
+        <v>0.57898008451901073</v>
+      </c>
+      <c r="M291" s="13">
+        <v>41.885506999999997</v>
+      </c>
+      <c r="N291" s="13">
+        <v>-83.244820000000004</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>504</v>
+      </c>
+      <c r="B292" s="3">
+        <v>42632</v>
+      </c>
+      <c r="C292" s="4">
+        <v>19</v>
+      </c>
+      <c r="D292" s="4">
+        <v>9</v>
+      </c>
+      <c r="E292" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G292" s="9">
+        <v>1449</v>
+      </c>
+      <c r="H292" s="5">
+        <v>7.7724000000000002</v>
+      </c>
+      <c r="I292" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="J292" s="5">
+        <v>1131.5687210197505</v>
+      </c>
+      <c r="K292" s="5">
+        <v>8147.2947913422031</v>
+      </c>
+      <c r="L292" s="5">
+        <v>0.81472947913422034</v>
+      </c>
+      <c r="M292" s="13">
+        <v>41.683883000000002</v>
+      </c>
+      <c r="N292" s="13">
+        <v>-83.153064999999998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>505</v>
+      </c>
+      <c r="B293" s="3">
+        <v>42632</v>
+      </c>
+      <c r="C293" s="4">
+        <v>19</v>
+      </c>
+      <c r="D293" s="4">
+        <v>9</v>
+      </c>
+      <c r="E293" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G293" s="9">
+        <v>1541</v>
+      </c>
+      <c r="H293" s="5">
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="I293" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="J293" s="5">
+        <v>916.79532329564586</v>
+      </c>
+      <c r="K293" s="5">
+        <v>6142.5286660808279</v>
+      </c>
+      <c r="L293" s="5">
+        <v>0.61425286660808276</v>
+      </c>
+      <c r="M293" s="13">
+        <v>41.782767</v>
+      </c>
+      <c r="N293" s="13">
+        <v>-83.144486999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>506</v>
+      </c>
+      <c r="B294" s="3">
+        <v>42633</v>
+      </c>
+      <c r="C294" s="4">
+        <v>20</v>
+      </c>
+      <c r="D294" s="4">
+        <v>9</v>
+      </c>
+      <c r="E294" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G294" s="9">
+        <v>1229</v>
+      </c>
+      <c r="H294" s="5">
+        <v>9.1440000000000001</v>
+      </c>
+      <c r="I294" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="J294" s="5">
+        <v>829.73843674608815</v>
+      </c>
+      <c r="K294" s="5">
+        <v>5559.2475261987911</v>
+      </c>
+      <c r="L294" s="5">
+        <v>0.55592475261987906</v>
+      </c>
+      <c r="M294" s="13">
+        <v>41.883198</v>
+      </c>
+      <c r="N294" s="13">
+        <v>-83.148747</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>507</v>
+      </c>
+      <c r="B295" s="3">
+        <v>42633</v>
+      </c>
+      <c r="C295" s="4">
+        <v>20</v>
+      </c>
+      <c r="D295" s="4">
+        <v>9</v>
+      </c>
+      <c r="E295" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G295" s="9">
+        <v>1326</v>
+      </c>
+      <c r="H295" s="5">
+        <v>7.2237600000000004</v>
+      </c>
+      <c r="I295" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="J295" s="5">
+        <v>910.17437634595603</v>
+      </c>
+      <c r="K295" s="5">
+        <v>6007.1508838833097</v>
+      </c>
+      <c r="L295" s="5">
+        <v>0.60071508838833099</v>
+      </c>
+      <c r="M295" s="13">
+        <v>41.980077000000001</v>
+      </c>
+      <c r="N295" s="13">
+        <v>-83.111172999999994</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>508</v>
+      </c>
+      <c r="B296" s="3">
+        <v>42632</v>
+      </c>
+      <c r="C296" s="4">
+        <v>19</v>
+      </c>
+      <c r="D296" s="4">
+        <v>9</v>
+      </c>
+      <c r="E296" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G296" s="9">
+        <v>1351</v>
+      </c>
+      <c r="H296" s="5">
+        <v>8.5343999999999998</v>
+      </c>
+      <c r="I296" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="J296" s="5">
+        <v>896.36565843881192</v>
+      </c>
+      <c r="K296" s="5">
+        <v>6543.4693066033269</v>
+      </c>
+      <c r="L296" s="5">
+        <v>0.65434693066033267</v>
+      </c>
+      <c r="M296" s="13">
+        <v>41.682792999999997</v>
+      </c>
+      <c r="N296" s="13">
+        <v>-83.044593000000006</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>509</v>
+      </c>
+      <c r="B297" s="3">
+        <v>42632</v>
+      </c>
+      <c r="C297" s="4">
+        <v>19</v>
+      </c>
+      <c r="D297" s="4">
+        <v>9</v>
+      </c>
+      <c r="E297" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G297" s="9">
+        <v>1628</v>
+      </c>
+      <c r="H297" s="5">
+        <v>9.7536000000000005</v>
+      </c>
+      <c r="I297" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="J297" s="5">
+        <v>937.1492883571691</v>
+      </c>
+      <c r="K297" s="5">
+        <v>6747.4748761716173</v>
+      </c>
+      <c r="L297" s="5">
+        <v>0.67474748761716175</v>
+      </c>
+      <c r="M297" s="13">
+        <v>41.780907999999997</v>
+      </c>
+      <c r="N297" s="13">
+        <v>-83.041152999999994</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>510</v>
+      </c>
+      <c r="B298" s="3">
+        <v>42633</v>
+      </c>
+      <c r="C298" s="4">
+        <v>20</v>
+      </c>
+      <c r="D298" s="4">
+        <v>9</v>
+      </c>
+      <c r="E298" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G298" s="9">
+        <v>1501</v>
+      </c>
+      <c r="H298" s="5">
+        <v>9.7536000000000005</v>
+      </c>
+      <c r="I298" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="J298" s="5">
+        <v>913.24751106830433</v>
+      </c>
+      <c r="K298" s="5">
+        <v>6210.0830752644697</v>
+      </c>
+      <c r="L298" s="5">
+        <v>0.62100830752644698</v>
+      </c>
+      <c r="M298" s="13">
+        <v>41.878704999999997</v>
+      </c>
+      <c r="N298" s="13">
+        <v>-83.043468000000004</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>511</v>
+      </c>
+      <c r="B299" s="3">
+        <v>42633</v>
+      </c>
+      <c r="C299" s="4">
+        <v>20</v>
+      </c>
+      <c r="D299" s="4">
+        <v>9</v>
+      </c>
+      <c r="E299" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G299" s="9">
+        <v>1405</v>
+      </c>
+      <c r="H299" s="5">
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="I299" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="J299" s="5">
+        <v>936.77218888904997</v>
+      </c>
+      <c r="K299" s="5">
+        <v>6463.7281033344452</v>
+      </c>
+      <c r="L299" s="5">
+        <v>0.64637281033344451</v>
+      </c>
+      <c r="M299" s="13">
+        <v>41.980103</v>
+      </c>
+      <c r="N299" s="13">
+        <v>-83.041780000000003</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>512</v>
+      </c>
+      <c r="B300" s="3">
+        <v>42632</v>
+      </c>
+      <c r="C300" s="4">
+        <v>19</v>
+      </c>
+      <c r="D300" s="4">
+        <v>9</v>
+      </c>
+      <c r="E300" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G300" s="9">
+        <v>1155</v>
+      </c>
+      <c r="H300" s="5">
+        <v>7.3151999999999999</v>
+      </c>
+      <c r="I300" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="J300" s="5">
+        <v>887.82882160585825</v>
+      </c>
+      <c r="K300" s="5">
+        <v>6481.1503977227649</v>
+      </c>
+      <c r="L300" s="5">
+        <v>0.64811503977227647</v>
+      </c>
+      <c r="M300" s="13">
+        <v>41.568227999999998</v>
+      </c>
+      <c r="N300" s="13">
+        <v>-82.950687000000002</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>513</v>
+      </c>
+      <c r="B301" s="3">
+        <v>42632</v>
+      </c>
+      <c r="C301" s="4">
+        <v>19</v>
+      </c>
+      <c r="D301" s="4">
+        <v>9</v>
+      </c>
+      <c r="E301" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G301" s="9">
+        <v>1259</v>
+      </c>
+      <c r="H301" s="5">
+        <v>9.7536000000000005</v>
+      </c>
+      <c r="I301" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J301" s="5">
+        <v>1009.8199990061299</v>
+      </c>
+      <c r="K301" s="5">
+        <v>8381.5059917508788</v>
+      </c>
+      <c r="L301" s="5">
+        <v>0.83815059917508783</v>
+      </c>
+      <c r="M301" s="13">
+        <v>41.684263000000001</v>
+      </c>
+      <c r="N301" s="13">
+        <v>-82.946577000000005</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>514</v>
+      </c>
+      <c r="B302" s="3">
+        <v>42632</v>
+      </c>
+      <c r="C302" s="4">
+        <v>19</v>
+      </c>
+      <c r="D302" s="4">
+        <v>9</v>
+      </c>
+      <c r="E302" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G302" s="9">
+        <v>1713</v>
+      </c>
+      <c r="H302" s="5">
+        <v>10.363200000000001</v>
+      </c>
+      <c r="I302" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="J302" s="5">
+        <v>902.74350477362282</v>
+      </c>
+      <c r="K302" s="5">
+        <v>6499.7532343700841</v>
+      </c>
+      <c r="L302" s="5">
+        <v>0.64997532343700837</v>
+      </c>
+      <c r="M302" s="13">
+        <v>41.763328000000001</v>
+      </c>
+      <c r="N302" s="13">
+        <v>-82.943852000000007</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>515</v>
+      </c>
+      <c r="B303" s="3">
+        <v>42633</v>
+      </c>
+      <c r="C303" s="4">
+        <v>20</v>
+      </c>
+      <c r="D303" s="4">
+        <v>9</v>
+      </c>
+      <c r="E303" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G303" s="9">
+        <v>1544</v>
+      </c>
+      <c r="H303" s="5">
+        <v>10.667999999999999</v>
+      </c>
+      <c r="I303" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="J303" s="5">
+        <v>796.74828493340237</v>
+      </c>
+      <c r="K303" s="5">
+        <v>5975.6121370005176</v>
+      </c>
+      <c r="L303" s="5">
+        <v>0.59756121370005177</v>
+      </c>
+      <c r="M303" s="13">
+        <v>41.882772000000003</v>
+      </c>
+      <c r="N303" s="13">
+        <v>-82.944986999999998</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>516</v>
+      </c>
+      <c r="B304" s="3">
+        <v>42633</v>
+      </c>
+      <c r="C304" s="4">
+        <v>20</v>
+      </c>
+      <c r="D304" s="4">
+        <v>9</v>
+      </c>
+      <c r="E304" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G304" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H304" s="5">
+        <v>9.7536000000000005</v>
+      </c>
+      <c r="I304" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="J304" s="5">
+        <v>817.26711328048441</v>
+      </c>
+      <c r="K304" s="5">
+        <v>6047.7766382755854</v>
+      </c>
+      <c r="L304" s="5">
+        <v>0.60477766382755849</v>
+      </c>
+      <c r="M304" s="13">
+        <v>41.662196666666667</v>
+      </c>
+      <c r="N304" s="13">
+        <v>-82.856520000000003</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>517</v>
+      </c>
+      <c r="B305" s="3">
+        <v>42632</v>
+      </c>
+      <c r="C305" s="4">
+        <v>19</v>
+      </c>
+      <c r="D305" s="4">
+        <v>9</v>
+      </c>
+      <c r="E305" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G305" s="9">
+        <v>1758</v>
+      </c>
+      <c r="H305" s="5">
+        <v>10.363200000000001</v>
+      </c>
+      <c r="I305" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="J305" s="5">
+        <v>908.75595731995463</v>
+      </c>
+      <c r="K305" s="5">
+        <v>6633.9184884356682</v>
+      </c>
+      <c r="L305" s="5">
+        <v>0.66339184884356683</v>
+      </c>
+      <c r="M305" s="13">
+        <v>41.757691999999999</v>
+      </c>
+      <c r="N305" s="13">
+        <v>-82.851652000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>518</v>
+      </c>
+      <c r="B306" s="3">
+        <v>42633</v>
+      </c>
+      <c r="C306" s="4">
+        <v>20</v>
+      </c>
+      <c r="D306" s="4">
+        <v>9</v>
+      </c>
+      <c r="E306" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G306" s="9">
+        <v>1737</v>
+      </c>
+      <c r="H306" s="5">
+        <v>11.30808</v>
+      </c>
+      <c r="I306" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="J306" s="5">
+        <v>930.7345353113152</v>
+      </c>
+      <c r="K306" s="5">
+        <v>6794.3621077726011</v>
+      </c>
+      <c r="L306" s="5">
+        <v>0.67943621077726013</v>
+      </c>
+      <c r="M306" s="13">
+        <v>41.859223</v>
+      </c>
+      <c r="N306" s="13">
+        <v>-82.853821999999994</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>519</v>
+      </c>
+      <c r="B307" s="3">
+        <v>42633</v>
+      </c>
+      <c r="C307" s="4">
+        <v>20</v>
+      </c>
+      <c r="D307" s="4">
+        <v>9</v>
+      </c>
+      <c r="E307" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G307" s="9">
+        <v>1642</v>
+      </c>
+      <c r="H307" s="5">
+        <v>10.454639999999998</v>
+      </c>
+      <c r="I307" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="J307" s="5">
+        <v>834.54858804347259</v>
+      </c>
+      <c r="K307" s="5">
+        <v>5674.9303986956138</v>
+      </c>
+      <c r="L307" s="5">
+        <v>0.56749303986956134</v>
+      </c>
+      <c r="M307" s="13">
+        <v>41.958599999999997</v>
+      </c>
+      <c r="N307" s="13">
+        <v>-82.848212000000004</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>520</v>
+      </c>
+      <c r="B308" s="3">
+        <v>42632</v>
+      </c>
+      <c r="C308" s="4">
+        <v>19</v>
+      </c>
+      <c r="D308" s="4">
+        <v>9</v>
+      </c>
+      <c r="E308" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G308" s="9">
+        <v>1041</v>
+      </c>
+      <c r="H308" s="5">
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="I308" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="J308" s="5">
+        <v>945.83152385005803</v>
+      </c>
+      <c r="K308" s="5">
+        <v>7377.4858860304521</v>
+      </c>
+      <c r="L308" s="5">
+        <v>0.73774858860304526</v>
+      </c>
+      <c r="M308" s="13">
+        <v>41.565303</v>
+      </c>
+      <c r="N308" s="13">
+        <v>-82.753962999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>521</v>
+      </c>
+      <c r="B309" s="3">
+        <v>42634</v>
+      </c>
+      <c r="C309" s="4">
+        <v>21</v>
+      </c>
+      <c r="D309" s="4">
+        <v>9</v>
+      </c>
+      <c r="E309" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G309" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H309" s="5">
+        <v>10.149839999999999</v>
+      </c>
+      <c r="I309" s="7">
+        <v>7</v>
+      </c>
+      <c r="J309" s="5">
+        <v>872.02877875039906</v>
+      </c>
+      <c r="K309" s="5">
+        <v>6104.201451252793</v>
+      </c>
+      <c r="L309" s="5">
+        <v>0.61042014512527931</v>
+      </c>
+      <c r="M309" s="13">
+        <v>41.682879999999997</v>
+      </c>
+      <c r="N309" s="13">
+        <v>-82.755172000000002</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>522</v>
+      </c>
+      <c r="B310" s="3">
+        <v>42634</v>
+      </c>
+      <c r="C310" s="4">
+        <v>21</v>
+      </c>
+      <c r="D310" s="4">
+        <v>9</v>
+      </c>
+      <c r="E310" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G310" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H310" s="5">
+        <v>9.7536000000000005</v>
+      </c>
+      <c r="I310" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="J310" s="5">
+        <v>939.41988894278302</v>
+      </c>
+      <c r="K310" s="5">
+        <v>6857.765189282316</v>
+      </c>
+      <c r="L310" s="5">
+        <v>0.68577651892823155</v>
+      </c>
+      <c r="M310" s="13">
+        <v>41.785870000000003</v>
+      </c>
+      <c r="N310" s="13">
+        <v>-82.752619999999993</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>523</v>
+      </c>
+      <c r="B311" s="3">
+        <v>42634</v>
+      </c>
+      <c r="C311" s="4">
+        <v>21</v>
+      </c>
+      <c r="D311" s="4">
+        <v>9</v>
+      </c>
+      <c r="E311" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G311" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H311" s="5">
+        <v>11.643360000000001</v>
+      </c>
+      <c r="I311" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="J311" s="5">
+        <v>866.35450978300003</v>
+      </c>
+      <c r="K311" s="5">
+        <v>5977.8461175027005</v>
+      </c>
+      <c r="L311" s="5">
+        <v>0.59778461175027009</v>
+      </c>
+      <c r="M311" s="13">
+        <v>41.87171</v>
+      </c>
+      <c r="N311" s="13">
+        <v>-82.753226999999995</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>524</v>
+      </c>
+      <c r="B312" s="3">
+        <v>42634</v>
+      </c>
+      <c r="C312" s="4">
+        <v>21</v>
+      </c>
+      <c r="D312" s="4">
+        <v>9</v>
+      </c>
+      <c r="E312" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G312" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H312" s="5">
+        <v>10.881360000000001</v>
+      </c>
+      <c r="I312" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="J312" s="5">
+        <v>891.94977226670687</v>
+      </c>
+      <c r="K312" s="5">
+        <v>6511.2333375469598</v>
+      </c>
+      <c r="L312" s="5">
+        <v>0.651123333754696</v>
+      </c>
+      <c r="M312" s="13">
+        <v>41.964632000000002</v>
+      </c>
+      <c r="N312" s="13">
+        <v>-82.744770000000003</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>525</v>
+      </c>
+      <c r="B313" s="3">
+        <v>42632</v>
+      </c>
+      <c r="C313" s="4">
+        <v>19</v>
+      </c>
+      <c r="D313" s="4">
+        <v>9</v>
+      </c>
+      <c r="E313" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G313" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H313" s="5">
+        <v>12.801600000000001</v>
+      </c>
+      <c r="I313" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="J313" s="5">
+        <v>884.35392866840368</v>
+      </c>
+      <c r="K313" s="5">
+        <v>6897.9606436135482</v>
+      </c>
+      <c r="L313" s="5">
+        <v>0.68979606436135477</v>
+      </c>
+      <c r="M313" s="13">
+        <v>41.561546999999997</v>
+      </c>
+      <c r="N313" s="13">
+        <v>-82.644532999999996</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>526</v>
+      </c>
+      <c r="B314" s="3">
+        <v>42635</v>
+      </c>
+      <c r="C314" s="4">
+        <v>22</v>
+      </c>
+      <c r="D314" s="4">
+        <v>9</v>
+      </c>
+      <c r="E314" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G314" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H314" s="5">
+        <v>11.064239999999998</v>
+      </c>
+      <c r="I314" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="J314" s="5">
+        <v>893.41509550638727</v>
+      </c>
+      <c r="K314" s="5">
+        <v>6611.2717067472659</v>
+      </c>
+      <c r="L314" s="5">
+        <v>0.66112717067472659</v>
+      </c>
+      <c r="M314" s="13">
+        <v>41.678739999999998</v>
+      </c>
+      <c r="N314" s="13">
+        <v>-82.646027000000004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>527</v>
+      </c>
+      <c r="B315" s="3">
+        <v>42634</v>
+      </c>
+      <c r="C315" s="4">
+        <v>21</v>
+      </c>
+      <c r="D315" s="4">
+        <v>9</v>
+      </c>
+      <c r="E315" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G315" s="9">
+        <v>1208</v>
+      </c>
+      <c r="H315" s="5">
+        <v>11.00328</v>
+      </c>
+      <c r="I315" s="7">
+        <v>7</v>
+      </c>
+      <c r="J315" s="5">
+        <v>932.51802380938227</v>
+      </c>
+      <c r="K315" s="5">
+        <v>6527.6261666656756</v>
+      </c>
+      <c r="L315" s="5">
+        <v>0.65276261666656754</v>
+      </c>
+      <c r="M315" s="13">
+        <v>41.862907</v>
+      </c>
+      <c r="N315" s="13">
+        <v>-82.643167000000005</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>528</v>
+      </c>
+      <c r="B316" s="3">
+        <v>42634</v>
+      </c>
+      <c r="C316" s="4">
+        <v>21</v>
+      </c>
+      <c r="D316" s="4">
+        <v>9</v>
+      </c>
+      <c r="E316" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G316" s="9">
+        <v>1112</v>
+      </c>
+      <c r="H316" s="5">
+        <v>10.667999999999999</v>
+      </c>
+      <c r="I316" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="J316" s="5">
+        <v>867.02901707366482</v>
+      </c>
+      <c r="K316" s="5">
+        <v>6242.6089229303871</v>
+      </c>
+      <c r="L316" s="5">
+        <v>0.62426089229303872</v>
+      </c>
+      <c r="M316" s="13">
+        <v>41.975673</v>
+      </c>
+      <c r="N316" s="13">
+        <v>-82.650503</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>529</v>
+      </c>
+      <c r="B317" s="3">
+        <v>42632</v>
+      </c>
+      <c r="C317" s="4">
+        <v>19</v>
+      </c>
+      <c r="D317" s="4">
+        <v>9</v>
+      </c>
+      <c r="E317" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G317" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H317" s="5">
+        <v>12.801600000000001</v>
+      </c>
+      <c r="I317" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="J317" s="5">
+        <v>897.66698374323823</v>
+      </c>
+      <c r="K317" s="5">
+        <v>6552.9689813256391</v>
+      </c>
+      <c r="L317" s="5">
+        <v>0.65529689813256387</v>
+      </c>
+      <c r="M317" s="13">
+        <v>41.462743000000003</v>
+      </c>
+      <c r="N317" s="13">
+        <v>-82.541228000000004</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>530</v>
+      </c>
+      <c r="B318" s="3">
+        <v>42632</v>
+      </c>
+      <c r="C318" s="4">
+        <v>19</v>
+      </c>
+      <c r="D318" s="4">
+        <v>9</v>
+      </c>
+      <c r="E318" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G318" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H318" s="5">
+        <v>13.411199999999999</v>
+      </c>
+      <c r="I318" s="7">
+        <v>8</v>
+      </c>
+      <c r="J318" s="5">
+        <v>913.68827528118209</v>
+      </c>
+      <c r="K318" s="5">
+        <v>7309.5062022494567</v>
+      </c>
+      <c r="L318" s="5">
+        <v>0.73095062022494572</v>
+      </c>
+      <c r="M318" s="13">
+        <v>41.563442000000002</v>
+      </c>
+      <c r="N318" s="13">
+        <v>-82.542862999999997</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>531</v>
+      </c>
+      <c r="B319" s="3">
+        <v>42634</v>
+      </c>
+      <c r="C319" s="4">
+        <v>21</v>
+      </c>
+      <c r="D319" s="4">
+        <v>9</v>
+      </c>
+      <c r="E319" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G319" s="9">
+        <v>1728</v>
+      </c>
+      <c r="H319" s="5">
+        <v>12.801600000000001</v>
+      </c>
+      <c r="I319" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="J319" s="5">
+        <v>870.329222667718</v>
+      </c>
+      <c r="K319" s="5">
+        <v>6440.4362477411132</v>
+      </c>
+      <c r="L319" s="5">
+        <v>0.64404362477411137</v>
+      </c>
+      <c r="M319" s="13">
+        <v>41.664152000000001</v>
+      </c>
+      <c r="N319" s="13">
+        <v>-82.560578000000007</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>532</v>
+      </c>
+      <c r="B320" s="3">
+        <v>42634</v>
+      </c>
+      <c r="C320" s="4">
+        <v>21</v>
+      </c>
+      <c r="D320" s="4">
+        <v>9</v>
+      </c>
+      <c r="E320" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G320" s="9">
+        <v>1359</v>
+      </c>
+      <c r="H320" s="5">
+        <v>11.00328</v>
+      </c>
+      <c r="I320" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="J320" s="5">
+        <v>889.47901870632154</v>
+      </c>
+      <c r="K320" s="5">
+        <v>6671.0926402974119</v>
+      </c>
+      <c r="L320" s="5">
+        <v>0.66710926402974113</v>
+      </c>
+      <c r="M320" s="13">
+        <v>41.779085000000002</v>
+      </c>
+      <c r="N320" s="13">
+        <v>-82.545946999999998</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>533</v>
+      </c>
+      <c r="B321" s="3">
+        <v>42634</v>
+      </c>
+      <c r="C321" s="4">
+        <v>21</v>
+      </c>
+      <c r="D321" s="4">
+        <v>9</v>
+      </c>
+      <c r="E321" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G321" s="9">
+        <v>1257</v>
+      </c>
+      <c r="H321" s="5">
+        <v>12.192</v>
+      </c>
+      <c r="I321" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="J321" s="5">
+        <v>901.67368965522189</v>
+      </c>
+      <c r="K321" s="5">
+        <v>6582.2179344831193</v>
+      </c>
+      <c r="L321" s="5">
+        <v>0.65822179344831189</v>
+      </c>
+      <c r="M321" s="13">
+        <v>41.861781999999998</v>
+      </c>
+      <c r="N321" s="13">
+        <v>-82.530923000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>534</v>
+      </c>
+      <c r="B322" s="3">
+        <v>42635</v>
+      </c>
+      <c r="C322" s="4">
+        <v>22</v>
+      </c>
+      <c r="D322" s="4">
+        <v>9</v>
+      </c>
+      <c r="E322" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G322" s="9">
+        <v>1510</v>
+      </c>
+      <c r="H322" s="5">
+        <v>13.014960000000002</v>
+      </c>
+      <c r="I322" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="J322" s="5">
+        <v>899.19575155744849</v>
+      </c>
+      <c r="K322" s="5">
+        <v>6923.8072869923535</v>
+      </c>
+      <c r="L322" s="5">
+        <v>0.69238072869923539</v>
+      </c>
+      <c r="M322" s="13">
+        <v>41.456299999999999</v>
+      </c>
+      <c r="N322" s="13">
+        <v>-82.456393000000006</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>535</v>
+      </c>
+      <c r="B323" s="3">
+        <v>42635</v>
+      </c>
+      <c r="C323" s="4">
+        <v>22</v>
+      </c>
+      <c r="D323" s="4">
+        <v>9</v>
+      </c>
+      <c r="E323" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G323" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H323" s="5">
+        <v>14.6304</v>
+      </c>
+      <c r="I323" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="J323" s="5">
+        <v>824.63635010184362</v>
+      </c>
+      <c r="K323" s="5">
+        <v>6349.6998957841961</v>
+      </c>
+      <c r="L323" s="5">
+        <v>0.63496998957841966</v>
+      </c>
+      <c r="M323" s="13">
+        <v>41.579970000000003</v>
+      </c>
+      <c r="N323" s="13">
+        <v>-82.443700000000007</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>536</v>
+      </c>
+      <c r="B324" s="3">
+        <v>42634</v>
+      </c>
+      <c r="C324" s="4">
+        <v>21</v>
+      </c>
+      <c r="D324" s="4">
+        <v>9</v>
+      </c>
+      <c r="E324" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G324" s="9">
+        <v>1635</v>
+      </c>
+      <c r="H324" s="5">
+        <v>14.081759999999999</v>
+      </c>
+      <c r="I324" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="J324" s="5">
+        <v>984.14603245850287</v>
+      </c>
+      <c r="K324" s="5">
+        <v>7676.3390531763225</v>
+      </c>
+      <c r="L324" s="5">
+        <v>0.7676339053176322</v>
+      </c>
+      <c r="M324" s="13">
+        <v>41.662909999999997</v>
+      </c>
+      <c r="N324" s="13">
+        <v>-82.459447999999995</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>537</v>
+      </c>
+      <c r="B325" s="3">
+        <v>42634</v>
+      </c>
+      <c r="C325" s="4">
+        <v>21</v>
+      </c>
+      <c r="D325" s="4">
+        <v>9</v>
+      </c>
+      <c r="E325" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G325" s="9">
+        <v>1446</v>
+      </c>
+      <c r="H325" s="5">
+        <v>13.045439999999999</v>
+      </c>
+      <c r="I325" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="J325" s="5">
+        <v>845.13776566515389</v>
+      </c>
+      <c r="K325" s="5">
+        <v>6000.4781362225922</v>
+      </c>
+      <c r="L325" s="5">
+        <v>0.60004781362225923</v>
+      </c>
+      <c r="M325" s="13">
+        <v>41.775379999999998</v>
+      </c>
+      <c r="N325" s="13">
+        <v>-82.446560000000005</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>538</v>
+      </c>
+      <c r="B326" s="3">
+        <v>42635</v>
+      </c>
+      <c r="C326" s="4">
+        <v>22</v>
+      </c>
+      <c r="D326" s="4">
+        <v>9</v>
+      </c>
+      <c r="E326" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G326" s="9">
+        <v>1314</v>
+      </c>
+      <c r="H326" s="5">
+        <v>13.929360000000001</v>
+      </c>
+      <c r="I326" s="7">
+        <v>8</v>
+      </c>
+      <c r="J326" s="5">
+        <v>911.98672725862036</v>
+      </c>
+      <c r="K326" s="5">
+        <v>7295.8938180689629</v>
+      </c>
+      <c r="L326" s="5">
+        <v>0.72958938180689625</v>
+      </c>
+      <c r="M326" s="13">
+        <v>41.480530000000002</v>
+      </c>
+      <c r="N326" s="13">
+        <v>-82.356482999999997</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>539</v>
+      </c>
+      <c r="B327" s="3">
+        <v>42635</v>
+      </c>
+      <c r="C327" s="4">
+        <v>22</v>
+      </c>
+      <c r="D327" s="4">
+        <v>9</v>
+      </c>
+      <c r="E327" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G327" s="9">
+        <v>1003</v>
+      </c>
+      <c r="H327" s="5">
+        <v>14.3256</v>
+      </c>
+      <c r="I327" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="J327" s="5">
+        <v>876.28230990896122</v>
+      </c>
+      <c r="K327" s="5">
+        <v>7360.7714032352742</v>
+      </c>
+      <c r="L327" s="5">
+        <v>0.73607714032352745</v>
+      </c>
+      <c r="M327" s="13">
+        <v>41.577888000000002</v>
+      </c>
+      <c r="N327" s="13">
+        <v>-82.347243000000006</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>540</v>
+      </c>
+      <c r="B328" s="3">
+        <v>42634</v>
+      </c>
+      <c r="C328" s="4">
+        <v>21</v>
+      </c>
+      <c r="D328" s="4">
+        <v>9</v>
+      </c>
+      <c r="E328" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G328" s="9">
+        <v>1550</v>
+      </c>
+      <c r="H328" s="5">
+        <v>14.05128</v>
+      </c>
+      <c r="I328" s="7">
+        <v>8</v>
+      </c>
+      <c r="J328" s="5">
+        <v>864.36959478181609</v>
+      </c>
+      <c r="K328" s="5">
+        <v>6914.9567582545287</v>
+      </c>
+      <c r="L328" s="5">
+        <v>0.6914956758254529</v>
+      </c>
+      <c r="M328" s="13">
+        <v>41.662734999999998</v>
+      </c>
+      <c r="N328" s="13">
+        <v>-82.357595000000003</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>541</v>
+      </c>
+      <c r="B329" s="3">
+        <v>42635</v>
+      </c>
+      <c r="C329" s="4">
+        <v>22</v>
+      </c>
+      <c r="D329" s="4">
+        <v>9</v>
+      </c>
+      <c r="E329" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G329" s="9">
+        <v>1103</v>
+      </c>
+      <c r="H329" s="5">
+        <v>13.38072</v>
+      </c>
+      <c r="I329" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="J329" s="5">
+        <v>972.43971440225289</v>
+      </c>
+      <c r="K329" s="5">
+        <v>7487.7858008973471</v>
+      </c>
+      <c r="L329" s="5">
+        <v>0.74877858008973475</v>
+      </c>
+      <c r="M329" s="13">
+        <v>41.479632000000002</v>
+      </c>
+      <c r="N329" s="13">
+        <v>-82.255072999999996</v>
       </c>
     </row>
   </sheetData>

--- a/data_prep/WB_Effort.xlsx
+++ b/data_prep/WB_Effort.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Western Basin Forage\lebs-western-basin-app\data_prep\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Effort" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="146">
   <si>
     <t>serial</t>
   </si>
@@ -263,14 +268,213 @@
   <si>
     <t>0918</t>
   </si>
+  <si>
+    <t>0743</t>
+  </si>
+  <si>
+    <t>0853</t>
+  </si>
+  <si>
+    <t>0955</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>1748</t>
+  </si>
+  <si>
+    <t>1833</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>0721</t>
+  </si>
+  <si>
+    <t>0828</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1227</t>
+  </si>
+  <si>
+    <t>1318</t>
+  </si>
+  <si>
+    <t>1423</t>
+  </si>
+  <si>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>1648</t>
+  </si>
+  <si>
+    <t>1759</t>
+  </si>
+  <si>
+    <t>0726</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>1238</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>1627</t>
+  </si>
+  <si>
+    <t>1722</t>
+  </si>
+  <si>
+    <t>1835</t>
+  </si>
+  <si>
+    <t>1927</t>
+  </si>
+  <si>
+    <t>0907</t>
+  </si>
+  <si>
+    <t>0957</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>0754</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1314</t>
+  </si>
+  <si>
+    <t>1458</t>
+  </si>
+  <si>
+    <t>1544</t>
+  </si>
+  <si>
+    <t>1725</t>
+  </si>
+  <si>
+    <t>1818</t>
+  </si>
+  <si>
+    <t>0739</t>
+  </si>
+  <si>
+    <t>0923</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>1225</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>1459</t>
+  </si>
+  <si>
+    <t>1614</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>0838</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>1457</t>
+  </si>
+  <si>
+    <t>1552</t>
+  </si>
+  <si>
+    <t>1639</t>
+  </si>
+  <si>
+    <t>1746</t>
+  </si>
+  <si>
+    <t>0909</t>
+  </si>
+  <si>
+    <t>0959</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>1328</t>
+  </si>
+  <si>
+    <t>1617</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="hhmm"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -314,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -350,6 +554,16 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,7 +838,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -632,18 +846,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N329"/>
+  <dimension ref="A1:N407"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G330" sqref="G330"/>
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A408" sqref="A408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
@@ -15625,6 +15839,3438 @@
         <v>-82.255072999999996</v>
       </c>
     </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>129</v>
+      </c>
+      <c r="B330" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C330" s="4">
+        <v>19</v>
+      </c>
+      <c r="D330" s="4">
+        <v>6</v>
+      </c>
+      <c r="E330" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G330" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H330" s="17">
+        <v>12.801600000000001</v>
+      </c>
+      <c r="I330" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J330" s="5">
+        <v>1465.941726565879</v>
+      </c>
+      <c r="K330" s="5">
+        <v>12167.316330496797</v>
+      </c>
+      <c r="L330" s="5">
+        <v>1.2167316330496796</v>
+      </c>
+      <c r="M330" s="13">
+        <v>41.461081666666665</v>
+      </c>
+      <c r="N330" s="13">
+        <v>-82.547441666666671</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>130</v>
+      </c>
+      <c r="B331" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C331" s="4">
+        <v>19</v>
+      </c>
+      <c r="D331" s="4">
+        <v>6</v>
+      </c>
+      <c r="E331" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G331" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H331" s="18">
+        <v>13.715999999999999</v>
+      </c>
+      <c r="I331" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J331" s="5">
+        <v>911.22395174571682</v>
+      </c>
+      <c r="K331" s="5">
+        <v>7563.1587994894498</v>
+      </c>
+      <c r="L331" s="5">
+        <v>0.756315879948945</v>
+      </c>
+      <c r="M331" s="13">
+        <v>41.472296666666665</v>
+      </c>
+      <c r="N331" s="13">
+        <v>-82.531805000000006</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>125</v>
+      </c>
+      <c r="B332" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C332" s="4">
+        <v>19</v>
+      </c>
+      <c r="D332" s="4">
+        <v>6</v>
+      </c>
+      <c r="E332" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G332" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H332" s="17">
+        <v>12.801600000000001</v>
+      </c>
+      <c r="I332" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="J332" s="5">
+        <v>965.86429621801403</v>
+      </c>
+      <c r="K332" s="5">
+        <v>8113.2600882313182</v>
+      </c>
+      <c r="L332" s="5">
+        <v>0.81132600882313177</v>
+      </c>
+      <c r="M332" s="13">
+        <v>41.564115000000001</v>
+      </c>
+      <c r="N332" s="13">
+        <v>-82.649666666666661</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>120</v>
+      </c>
+      <c r="B333" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C333" s="4">
+        <v>19</v>
+      </c>
+      <c r="D333" s="4">
+        <v>6</v>
+      </c>
+      <c r="E333" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G333" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H333" s="18">
+        <v>8.5343999999999998</v>
+      </c>
+      <c r="I333" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="J333" s="5">
+        <v>935.96981244021526</v>
+      </c>
+      <c r="K333" s="5">
+        <v>6832.5796308135714</v>
+      </c>
+      <c r="L333" s="5">
+        <v>0.68325796308135711</v>
+      </c>
+      <c r="M333" s="13">
+        <v>41.563968333333335</v>
+      </c>
+      <c r="N333" s="13">
+        <v>-82.749906666666661</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>112</v>
+      </c>
+      <c r="B334" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C334" s="4">
+        <v>19</v>
+      </c>
+      <c r="D334" s="4">
+        <v>6</v>
+      </c>
+      <c r="E334" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G334" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H334" s="18">
+        <v>6.4008000000000003</v>
+      </c>
+      <c r="I334" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="J334" s="5">
+        <v>904.72923870558043</v>
+      </c>
+      <c r="K334" s="5">
+        <v>6785.4692902918532</v>
+      </c>
+      <c r="L334" s="5">
+        <v>0.67854692902918534</v>
+      </c>
+      <c r="M334" s="13">
+        <v>41.56386333333333</v>
+      </c>
+      <c r="N334" s="13">
+        <v>-82.949744999999993</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>113</v>
+      </c>
+      <c r="B335" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C335" s="4">
+        <v>19</v>
+      </c>
+      <c r="D335" s="4">
+        <v>6</v>
+      </c>
+      <c r="E335" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G335" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H335" s="17">
+        <v>9.7536000000000005</v>
+      </c>
+      <c r="I335" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="J335" s="5">
+        <v>894.03149771914536</v>
+      </c>
+      <c r="K335" s="5">
+        <v>6794.6393826655049</v>
+      </c>
+      <c r="L335" s="5">
+        <v>0.67946393826655049</v>
+      </c>
+      <c r="M335" s="13">
+        <v>41.680346666666665</v>
+      </c>
+      <c r="N335" s="13">
+        <v>-82.949936666666673</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>108</v>
+      </c>
+      <c r="B336" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C336" s="4">
+        <v>19</v>
+      </c>
+      <c r="D336" s="4">
+        <v>6</v>
+      </c>
+      <c r="E336" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G336" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H336" s="17">
+        <v>8.9916</v>
+      </c>
+      <c r="I336" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J336" s="5">
+        <v>925.95687332103455</v>
+      </c>
+      <c r="K336" s="5">
+        <v>7685.4420485645878</v>
+      </c>
+      <c r="L336" s="5">
+        <v>0.7685442048564588</v>
+      </c>
+      <c r="M336" s="13">
+        <v>41.681375000000003</v>
+      </c>
+      <c r="N336" s="13">
+        <v>-83.049588333333332</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>104</v>
+      </c>
+      <c r="B337" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C337" s="4">
+        <v>19</v>
+      </c>
+      <c r="D337" s="4">
+        <v>6</v>
+      </c>
+      <c r="E337" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G337" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H337" s="17">
+        <v>8.0771999999999995</v>
+      </c>
+      <c r="I337" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="J337" s="5">
+        <v>917.249375926075</v>
+      </c>
+      <c r="K337" s="5">
+        <v>6971.0952570381696</v>
+      </c>
+      <c r="L337" s="5">
+        <v>0.69710952570381701</v>
+      </c>
+      <c r="M337" s="13">
+        <v>41.681293333333336</v>
+      </c>
+      <c r="N337" s="13">
+        <v>-83.151501666666661</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>105</v>
+      </c>
+      <c r="B338" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C338" s="4">
+        <v>19</v>
+      </c>
+      <c r="D338" s="4">
+        <v>6</v>
+      </c>
+      <c r="E338" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G338" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H338" s="18">
+        <v>8.5343999999999998</v>
+      </c>
+      <c r="I338" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="J338" s="5">
+        <v>926.00002891644999</v>
+      </c>
+      <c r="K338" s="5">
+        <v>7222.8002255483098</v>
+      </c>
+      <c r="L338" s="5">
+        <v>0.72228002255483092</v>
+      </c>
+      <c r="M338" s="13">
+        <v>41.780941666666664</v>
+      </c>
+      <c r="N338" s="13">
+        <v>-83.150553333333335</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>109</v>
+      </c>
+      <c r="B339" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C339" s="4">
+        <v>19</v>
+      </c>
+      <c r="D339" s="4">
+        <v>6</v>
+      </c>
+      <c r="E339" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G339" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H339" s="17">
+        <v>10.08888</v>
+      </c>
+      <c r="I339" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="J339" s="5">
+        <v>957.92222288483208</v>
+      </c>
+      <c r="K339" s="5">
+        <v>7567.585560790174</v>
+      </c>
+      <c r="L339" s="5">
+        <v>0.75675855607901743</v>
+      </c>
+      <c r="M339" s="13">
+        <v>41.780825</v>
+      </c>
+      <c r="N339" s="13">
+        <v>-83.049596666666673</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>114</v>
+      </c>
+      <c r="B340" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C340" s="4">
+        <v>19</v>
+      </c>
+      <c r="D340" s="4">
+        <v>6</v>
+      </c>
+      <c r="E340" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G340" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H340" s="17">
+        <v>10.667999999999999</v>
+      </c>
+      <c r="I340" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="J340" s="5">
+        <v>903.04217311934087</v>
+      </c>
+      <c r="K340" s="5">
+        <v>7675.858471514397</v>
+      </c>
+      <c r="L340" s="5">
+        <v>0.76758584715143974</v>
+      </c>
+      <c r="M340" s="13">
+        <v>41.763444999999997</v>
+      </c>
+      <c r="N340" s="13">
+        <v>-82.950403333333327</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>116</v>
+      </c>
+      <c r="B341" s="3">
+        <v>42906</v>
+      </c>
+      <c r="C341" s="4">
+        <v>20</v>
+      </c>
+      <c r="D341" s="4">
+        <v>6</v>
+      </c>
+      <c r="E341" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G341" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H341" s="17">
+        <v>10.058400000000001</v>
+      </c>
+      <c r="I341" s="7">
+        <v>8</v>
+      </c>
+      <c r="J341" s="5">
+        <v>914.74439958784478</v>
+      </c>
+      <c r="K341" s="5">
+        <v>7317.9551967027583</v>
+      </c>
+      <c r="L341" s="5">
+        <v>0.73179551967027578</v>
+      </c>
+      <c r="M341" s="13">
+        <v>41.667369999999998</v>
+      </c>
+      <c r="N341" s="13">
+        <v>-82.850456666666673</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>117</v>
+      </c>
+      <c r="B342" s="3">
+        <v>42906</v>
+      </c>
+      <c r="C342" s="4">
+        <v>20</v>
+      </c>
+      <c r="D342" s="4">
+        <v>6</v>
+      </c>
+      <c r="E342" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G342" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H342" s="17">
+        <v>10.667999999999999</v>
+      </c>
+      <c r="I342" s="7">
+        <v>8</v>
+      </c>
+      <c r="J342" s="5">
+        <v>924.97759615966697</v>
+      </c>
+      <c r="K342" s="5">
+        <v>7399.8207692773358</v>
+      </c>
+      <c r="L342" s="5">
+        <v>0.73998207692773355</v>
+      </c>
+      <c r="M342" s="13">
+        <v>41.767276666666667</v>
+      </c>
+      <c r="N342" s="13">
+        <v>-82.875455000000002</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>118</v>
+      </c>
+      <c r="B343" s="3">
+        <v>42906</v>
+      </c>
+      <c r="C343" s="4">
+        <v>20</v>
+      </c>
+      <c r="D343" s="4">
+        <v>6</v>
+      </c>
+      <c r="E343" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G343" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H343" s="17">
+        <v>11.5824</v>
+      </c>
+      <c r="I343" s="7">
+        <v>8</v>
+      </c>
+      <c r="J343" s="5">
+        <v>923.5511918087326</v>
+      </c>
+      <c r="K343" s="5">
+        <v>7388.4095344698608</v>
+      </c>
+      <c r="L343" s="5">
+        <v>0.73884095344698608</v>
+      </c>
+      <c r="M343" s="13">
+        <v>41.867699999999999</v>
+      </c>
+      <c r="N343" s="13">
+        <v>-82.867194999999995</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>115</v>
+      </c>
+      <c r="B344" s="3">
+        <v>42906</v>
+      </c>
+      <c r="C344" s="4">
+        <v>20</v>
+      </c>
+      <c r="D344" s="4">
+        <v>6</v>
+      </c>
+      <c r="E344" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G344" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H344" s="17">
+        <v>10.667999999999999</v>
+      </c>
+      <c r="I344" s="7">
+        <v>8</v>
+      </c>
+      <c r="J344" s="5">
+        <v>943.87608633748494</v>
+      </c>
+      <c r="K344" s="5">
+        <v>7551.0086906998795</v>
+      </c>
+      <c r="L344" s="5">
+        <v>0.75510086906998797</v>
+      </c>
+      <c r="M344" s="13">
+        <v>41.87968166666667</v>
+      </c>
+      <c r="N344" s="13">
+        <v>-82.950220000000002</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>110</v>
+      </c>
+      <c r="B345" s="3">
+        <v>42906</v>
+      </c>
+      <c r="C345" s="4">
+        <v>20</v>
+      </c>
+      <c r="D345" s="4">
+        <v>6</v>
+      </c>
+      <c r="E345" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G345" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H345" s="17">
+        <v>9.7536000000000005</v>
+      </c>
+      <c r="I345" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="J345" s="5">
+        <v>943.23419119424807</v>
+      </c>
+      <c r="K345" s="5">
+        <v>7262.9032721957101</v>
+      </c>
+      <c r="L345" s="5">
+        <v>0.72629032721957099</v>
+      </c>
+      <c r="M345" s="13">
+        <v>41.879481666666663</v>
+      </c>
+      <c r="N345" s="13">
+        <v>-83.050101666666663</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>111</v>
+      </c>
+      <c r="B346" s="3">
+        <v>42906</v>
+      </c>
+      <c r="C346" s="4">
+        <v>20</v>
+      </c>
+      <c r="D346" s="4">
+        <v>6</v>
+      </c>
+      <c r="E346" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G346" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H346" s="17">
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="I346" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="J346" s="5">
+        <v>942.47469050797031</v>
+      </c>
+      <c r="K346" s="5">
+        <v>7257.0551169113714</v>
+      </c>
+      <c r="L346" s="5">
+        <v>0.72570551169113717</v>
+      </c>
+      <c r="M346" s="13">
+        <v>41.979848333333337</v>
+      </c>
+      <c r="N346" s="13">
+        <v>-83.049788333333339</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>107</v>
+      </c>
+      <c r="B347" s="3">
+        <v>42906</v>
+      </c>
+      <c r="C347" s="4">
+        <v>20</v>
+      </c>
+      <c r="D347" s="4">
+        <v>6</v>
+      </c>
+      <c r="E347" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G347" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H347" s="17">
+        <v>7.3151999999999999</v>
+      </c>
+      <c r="I347" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="J347" s="5">
+        <v>961.74539586241599</v>
+      </c>
+      <c r="K347" s="5">
+        <v>7309.265008554361</v>
+      </c>
+      <c r="L347" s="5">
+        <v>0.73092650085543609</v>
+      </c>
+      <c r="M347" s="13">
+        <v>41.98001</v>
+      </c>
+      <c r="N347" s="13">
+        <v>-83.117026666666661</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>106</v>
+      </c>
+      <c r="B348" s="3">
+        <v>42906</v>
+      </c>
+      <c r="C348" s="4">
+        <v>20</v>
+      </c>
+      <c r="D348" s="4">
+        <v>6</v>
+      </c>
+      <c r="E348" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G348" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H348" s="17">
+        <v>9.4488000000000003</v>
+      </c>
+      <c r="I348" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="J348" s="5">
+        <v>883.06594744474546</v>
+      </c>
+      <c r="K348" s="5">
+        <v>6446.3814163466413</v>
+      </c>
+      <c r="L348" s="5">
+        <v>0.64463814163466415</v>
+      </c>
+      <c r="M348" s="13">
+        <v>41.879980000000003</v>
+      </c>
+      <c r="N348" s="13">
+        <v>-83.150251666666662</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>103</v>
+      </c>
+      <c r="B349" s="3">
+        <v>42906</v>
+      </c>
+      <c r="C349" s="4">
+        <v>20</v>
+      </c>
+      <c r="D349" s="4">
+        <v>6</v>
+      </c>
+      <c r="E349" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G349" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H349" s="17">
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="I349" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="J349" s="5">
+        <v>936.85674964987265</v>
+      </c>
+      <c r="K349" s="5">
+        <v>6651.6829225140955</v>
+      </c>
+      <c r="L349" s="5">
+        <v>0.6651682922514095</v>
+      </c>
+      <c r="M349" s="13">
+        <v>41.881568333333334</v>
+      </c>
+      <c r="N349" s="13">
+        <v>-83.249684999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>101</v>
+      </c>
+      <c r="B350" s="3">
+        <v>42906</v>
+      </c>
+      <c r="C350" s="4">
+        <v>20</v>
+      </c>
+      <c r="D350" s="4">
+        <v>6</v>
+      </c>
+      <c r="E350" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G350" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H350" s="17">
+        <v>5.4863999999999997</v>
+      </c>
+      <c r="I350" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="J350" s="5">
+        <v>935.42748104801819</v>
+      </c>
+      <c r="K350" s="5">
+        <v>6828.6206116505327</v>
+      </c>
+      <c r="L350" s="5">
+        <v>0.68286206116505332</v>
+      </c>
+      <c r="M350" s="13">
+        <v>41.780288333333331</v>
+      </c>
+      <c r="N350" s="13">
+        <v>-83.34992166666666</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>102</v>
+      </c>
+      <c r="B351" s="3">
+        <v>42906</v>
+      </c>
+      <c r="C351" s="4">
+        <v>20</v>
+      </c>
+      <c r="D351" s="4">
+        <v>6</v>
+      </c>
+      <c r="E351" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G351" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H351" s="17">
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="I351" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="J351" s="5">
+        <v>870.0555527046813</v>
+      </c>
+      <c r="K351" s="5">
+        <v>6264.3999794737056</v>
+      </c>
+      <c r="L351" s="5">
+        <v>0.6264399979473706</v>
+      </c>
+      <c r="M351" s="13">
+        <v>41.780313333333332</v>
+      </c>
+      <c r="N351" s="13">
+        <v>-83.250138333333339</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>121</v>
+      </c>
+      <c r="B352" s="3">
+        <v>42907</v>
+      </c>
+      <c r="C352" s="4">
+        <v>21</v>
+      </c>
+      <c r="D352" s="4">
+        <v>6</v>
+      </c>
+      <c r="E352" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G352" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H352" s="17">
+        <v>10.667999999999999</v>
+      </c>
+      <c r="I352" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="J352" s="5">
+        <v>900.82570269656208</v>
+      </c>
+      <c r="K352" s="5">
+        <v>7296.6881918421523</v>
+      </c>
+      <c r="L352" s="5">
+        <v>0.72966881918421522</v>
+      </c>
+      <c r="M352" s="13">
+        <v>41.680566666666664</v>
+      </c>
+      <c r="N352" s="13">
+        <v>-82.751548333333332</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>122</v>
+      </c>
+      <c r="B353" s="3">
+        <v>42907</v>
+      </c>
+      <c r="C353" s="4">
+        <v>21</v>
+      </c>
+      <c r="D353" s="4">
+        <v>6</v>
+      </c>
+      <c r="E353" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G353" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H353" s="17">
+        <v>10.667999999999999</v>
+      </c>
+      <c r="I353" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="J353" s="5">
+        <v>909.17375832589448</v>
+      </c>
+      <c r="K353" s="5">
+        <v>7182.4726907745671</v>
+      </c>
+      <c r="L353" s="5">
+        <v>0.71824726907745673</v>
+      </c>
+      <c r="M353" s="13">
+        <v>41.779649999999997</v>
+      </c>
+      <c r="N353" s="13">
+        <v>-82.749224999999996</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>123</v>
+      </c>
+      <c r="B354" s="3">
+        <v>42907</v>
+      </c>
+      <c r="C354" s="4">
+        <v>21</v>
+      </c>
+      <c r="D354" s="4">
+        <v>6</v>
+      </c>
+      <c r="E354" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G354" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H354" s="17">
+        <v>12.192</v>
+      </c>
+      <c r="I354" s="7">
+        <v>8</v>
+      </c>
+      <c r="J354" s="5">
+        <v>919.38656305409961</v>
+      </c>
+      <c r="K354" s="5">
+        <v>7355.0925044327969</v>
+      </c>
+      <c r="L354" s="5">
+        <v>0.73550925044327964</v>
+      </c>
+      <c r="M354" s="13">
+        <v>41.866565000000001</v>
+      </c>
+      <c r="N354" s="13">
+        <v>-82.750586666666663</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>119</v>
+      </c>
+      <c r="B355" s="3">
+        <v>42907</v>
+      </c>
+      <c r="C355" s="4">
+        <v>21</v>
+      </c>
+      <c r="D355" s="4">
+        <v>6</v>
+      </c>
+      <c r="E355" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G355" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H355" s="17">
+        <v>10.667999999999999</v>
+      </c>
+      <c r="I355" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="J355" s="5">
+        <v>874.12838698135397</v>
+      </c>
+      <c r="K355" s="5">
+        <v>6730.7885797564259</v>
+      </c>
+      <c r="L355" s="5">
+        <v>0.6730788579756426</v>
+      </c>
+      <c r="M355" s="13">
+        <v>41.963636666666666</v>
+      </c>
+      <c r="N355" s="13">
+        <v>-82.850018333333338</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>124</v>
+      </c>
+      <c r="B356" s="3">
+        <v>42907</v>
+      </c>
+      <c r="C356" s="4">
+        <v>21</v>
+      </c>
+      <c r="D356" s="4">
+        <v>6</v>
+      </c>
+      <c r="E356" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G356" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H356" s="17">
+        <v>11.5824</v>
+      </c>
+      <c r="I356" s="7">
+        <v>8</v>
+      </c>
+      <c r="J356" s="5">
+        <v>906.77135617637953</v>
+      </c>
+      <c r="K356" s="5">
+        <v>7254.1708494110362</v>
+      </c>
+      <c r="L356" s="5">
+        <v>0.72541708494110357</v>
+      </c>
+      <c r="M356" s="13">
+        <v>41.963673333333332</v>
+      </c>
+      <c r="N356" s="13">
+        <v>-82.749913333333339</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>128</v>
+      </c>
+      <c r="B357" s="3">
+        <v>42907</v>
+      </c>
+      <c r="C357" s="4">
+        <v>21</v>
+      </c>
+      <c r="D357" s="4">
+        <v>6</v>
+      </c>
+      <c r="E357" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G357" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H357" s="17">
+        <v>11.2776</v>
+      </c>
+      <c r="I357" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="J357" s="5">
+        <v>907.23279527347756</v>
+      </c>
+      <c r="K357" s="5">
+        <v>7076.4158031331244</v>
+      </c>
+      <c r="L357" s="5">
+        <v>0.70764158031331248</v>
+      </c>
+      <c r="M357" s="13">
+        <v>41.980226666666667</v>
+      </c>
+      <c r="N357" s="13">
+        <v>-82.649953333333329</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>127</v>
+      </c>
+      <c r="B358" s="3">
+        <v>42907</v>
+      </c>
+      <c r="C358" s="4">
+        <v>21</v>
+      </c>
+      <c r="D358" s="4">
+        <v>6</v>
+      </c>
+      <c r="E358" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G358" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H358" s="17">
+        <v>11.5824</v>
+      </c>
+      <c r="I358" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="J358" s="5">
+        <v>960.00197066016835</v>
+      </c>
+      <c r="K358" s="5">
+        <v>7776.0159623473637</v>
+      </c>
+      <c r="L358" s="5">
+        <v>0.77760159623473635</v>
+      </c>
+      <c r="M358" s="13">
+        <v>41.863646666666668</v>
+      </c>
+      <c r="N358" s="13">
+        <v>-82.650498333333331</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>133</v>
+      </c>
+      <c r="B359" s="3">
+        <v>42907</v>
+      </c>
+      <c r="C359" s="4">
+        <v>21</v>
+      </c>
+      <c r="D359" s="4">
+        <v>6</v>
+      </c>
+      <c r="E359" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G359" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H359" s="19">
+        <v>12.192</v>
+      </c>
+      <c r="I359" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="J359" s="5">
+        <v>952.51962483964826</v>
+      </c>
+      <c r="K359" s="5">
+        <v>7715.4089612011503</v>
+      </c>
+      <c r="L359" s="5">
+        <v>0.77154089612011501</v>
+      </c>
+      <c r="M359" s="13">
+        <v>41.86740833333333</v>
+      </c>
+      <c r="N359" s="13">
+        <v>-82.532561666666666</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>132</v>
+      </c>
+      <c r="B360" s="3">
+        <v>42907</v>
+      </c>
+      <c r="C360" s="4">
+        <v>21</v>
+      </c>
+      <c r="D360" s="4">
+        <v>6</v>
+      </c>
+      <c r="E360" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G360" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H360" s="17">
+        <v>11.5824</v>
+      </c>
+      <c r="I360" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J360" s="5">
+        <v>867.21819986280991</v>
+      </c>
+      <c r="K360" s="5">
+        <v>7111.1892388750402</v>
+      </c>
+      <c r="L360" s="5">
+        <v>0.71111892388750397</v>
+      </c>
+      <c r="M360" s="13">
+        <v>41.779211666666669</v>
+      </c>
+      <c r="N360" s="13">
+        <v>-82.551429999999996</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>137</v>
+      </c>
+      <c r="B361" s="3">
+        <v>42907</v>
+      </c>
+      <c r="C361" s="4">
+        <v>21</v>
+      </c>
+      <c r="D361" s="4">
+        <v>6</v>
+      </c>
+      <c r="E361" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G361" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H361" s="17">
+        <v>13.411199999999999</v>
+      </c>
+      <c r="I361" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="J361" s="5">
+        <v>855.67141092899055</v>
+      </c>
+      <c r="K361" s="5">
+        <v>7358.7741339893182</v>
+      </c>
+      <c r="L361" s="5">
+        <v>0.73587741339893187</v>
+      </c>
+      <c r="M361" s="13">
+        <v>41.780883333333335</v>
+      </c>
+      <c r="N361" s="13">
+        <v>-82.448693333333338</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>131</v>
+      </c>
+      <c r="B362" s="3">
+        <v>42907</v>
+      </c>
+      <c r="C362" s="4">
+        <v>21</v>
+      </c>
+      <c r="D362" s="4">
+        <v>6</v>
+      </c>
+      <c r="E362" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G362" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H362" s="17">
+        <v>13.715999999999999</v>
+      </c>
+      <c r="I362" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J362" s="5">
+        <v>935.31867185816134</v>
+      </c>
+      <c r="K362" s="5">
+        <v>7669.6131092369224</v>
+      </c>
+      <c r="L362" s="5">
+        <v>0.76696131092369224</v>
+      </c>
+      <c r="M362" s="13">
+        <v>41.662471666666669</v>
+      </c>
+      <c r="N362" s="13">
+        <v>-82.551696666666672</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>126</v>
+      </c>
+      <c r="B363" s="3">
+        <v>42907</v>
+      </c>
+      <c r="C363" s="4">
+        <v>21</v>
+      </c>
+      <c r="D363" s="4">
+        <v>6</v>
+      </c>
+      <c r="E363" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G363" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H363" s="17">
+        <v>11.2776</v>
+      </c>
+      <c r="I363" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="J363" s="5">
+        <v>891.40021110721739</v>
+      </c>
+      <c r="K363" s="5">
+        <v>6774.6416044148518</v>
+      </c>
+      <c r="L363" s="5">
+        <v>0.67746416044148516</v>
+      </c>
+      <c r="M363" s="13">
+        <v>41.680328333333335</v>
+      </c>
+      <c r="N363" s="13">
+        <v>-82.650471666666661</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>136</v>
+      </c>
+      <c r="B364" s="3">
+        <v>42908</v>
+      </c>
+      <c r="C364" s="4">
+        <v>22</v>
+      </c>
+      <c r="D364" s="4">
+        <v>6</v>
+      </c>
+      <c r="E364" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G364" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H364" s="17">
+        <v>14.6304</v>
+      </c>
+      <c r="I364" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J364" s="5">
+        <v>910.5369119095426</v>
+      </c>
+      <c r="K364" s="5">
+        <v>7921.6711336130202</v>
+      </c>
+      <c r="L364" s="5">
+        <v>0.79216711336130197</v>
+      </c>
+      <c r="M364" s="13">
+        <v>41.664076666666666</v>
+      </c>
+      <c r="N364" s="13">
+        <v>-82.449348333333333</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>140</v>
+      </c>
+      <c r="B365" s="3">
+        <v>42908</v>
+      </c>
+      <c r="C365" s="4">
+        <v>22</v>
+      </c>
+      <c r="D365" s="4">
+        <v>6</v>
+      </c>
+      <c r="E365" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G365" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H365" s="17">
+        <v>14.6304</v>
+      </c>
+      <c r="I365" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="J365" s="5">
+        <v>910.65985099257364</v>
+      </c>
+      <c r="K365" s="5">
+        <v>7831.6747185361328</v>
+      </c>
+      <c r="L365" s="5">
+        <v>0.78316747185361324</v>
+      </c>
+      <c r="M365" s="13">
+        <v>41.663373333333332</v>
+      </c>
+      <c r="N365" s="13">
+        <v>-82.36231166666667</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>135</v>
+      </c>
+      <c r="B366" s="3">
+        <v>42908</v>
+      </c>
+      <c r="C366" s="4">
+        <v>22</v>
+      </c>
+      <c r="D366" s="4">
+        <v>6</v>
+      </c>
+      <c r="E366" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G366" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H366" s="17">
+        <v>14.9352</v>
+      </c>
+      <c r="I366" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="J366" s="5">
+        <v>889.05744373314826</v>
+      </c>
+      <c r="K366" s="5">
+        <v>7645.894016105075</v>
+      </c>
+      <c r="L366" s="5">
+        <v>0.76458940161050748</v>
+      </c>
+      <c r="M366" s="13">
+        <v>41.579054999999997</v>
+      </c>
+      <c r="N366" s="13">
+        <v>-82.45006166666667</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>529</v>
+      </c>
+      <c r="B367" s="3">
+        <v>42996</v>
+      </c>
+      <c r="C367" s="4">
+        <v>18</v>
+      </c>
+      <c r="D367" s="4">
+        <v>9</v>
+      </c>
+      <c r="E367" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G367" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H367" s="5">
+        <v>13</v>
+      </c>
+      <c r="I367" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="J367" s="5">
+        <v>850.09802811765451</v>
+      </c>
+      <c r="K367" s="5">
+        <v>7225.8332390000633</v>
+      </c>
+      <c r="L367" s="5">
+        <v>0.72258332390000635</v>
+      </c>
+      <c r="M367" s="13">
+        <v>41.464588333333303</v>
+      </c>
+      <c r="N367" s="13">
+        <v>-82.550264999999996</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>530</v>
+      </c>
+      <c r="B368" s="3">
+        <v>42996</v>
+      </c>
+      <c r="C368" s="4">
+        <v>18</v>
+      </c>
+      <c r="D368" s="4">
+        <v>9</v>
+      </c>
+      <c r="E368" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G368" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H368" s="5">
+        <v>13.7</v>
+      </c>
+      <c r="I368" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="J368" s="5">
+        <v>828.38546867996865</v>
+      </c>
+      <c r="K368" s="5">
+        <v>6958.4379369117369</v>
+      </c>
+      <c r="L368" s="5">
+        <v>0.69584379369117366</v>
+      </c>
+      <c r="M368" s="13">
+        <v>41.568666666666701</v>
+      </c>
+      <c r="N368" s="13">
+        <v>-82.547870000000003</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>525</v>
+      </c>
+      <c r="B369" s="3">
+        <v>42996</v>
+      </c>
+      <c r="C369" s="4">
+        <v>18</v>
+      </c>
+      <c r="D369" s="4">
+        <v>9</v>
+      </c>
+      <c r="E369" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G369" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H369" s="5">
+        <v>13</v>
+      </c>
+      <c r="I369" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J369" s="5">
+        <v>848.78363347116544</v>
+      </c>
+      <c r="K369" s="5">
+        <v>7384.4176111991392</v>
+      </c>
+      <c r="L369" s="5">
+        <v>0.73844176111991389</v>
+      </c>
+      <c r="M369" s="13">
+        <v>41.564056666666701</v>
+      </c>
+      <c r="N369" s="13">
+        <v>-82.646486666666704</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>520</v>
+      </c>
+      <c r="B370" s="3">
+        <v>42996</v>
+      </c>
+      <c r="C370" s="4">
+        <v>18</v>
+      </c>
+      <c r="D370" s="4">
+        <v>9</v>
+      </c>
+      <c r="E370" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G370" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H370" s="5">
+        <v>9</v>
+      </c>
+      <c r="I370" s="7">
+        <v>7.9249999999999998</v>
+      </c>
+      <c r="J370" s="5">
+        <v>600.56655999999998</v>
+      </c>
+      <c r="K370" s="5">
+        <v>4759.4899879999994</v>
+      </c>
+      <c r="L370" s="5">
+        <v>0.47594899879999991</v>
+      </c>
+      <c r="M370" s="13">
+        <v>41.563783333333298</v>
+      </c>
+      <c r="N370" s="13">
+        <v>-82.743520000000004</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>512</v>
+      </c>
+      <c r="B371" s="3">
+        <v>42996</v>
+      </c>
+      <c r="C371" s="4">
+        <v>18</v>
+      </c>
+      <c r="D371" s="4">
+        <v>9</v>
+      </c>
+      <c r="E371" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G371" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H371" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="I371" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="J371" s="5">
+        <v>927.8683843881787</v>
+      </c>
+      <c r="K371" s="5">
+        <v>6680.6523675948865</v>
+      </c>
+      <c r="L371" s="5">
+        <v>0.6680652367594887</v>
+      </c>
+      <c r="M371" s="13">
+        <v>41.567264999999999</v>
+      </c>
+      <c r="N371" s="13">
+        <v>-82.9412466666667</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>513</v>
+      </c>
+      <c r="B372" s="3">
+        <v>42996</v>
+      </c>
+      <c r="C372" s="4">
+        <v>18</v>
+      </c>
+      <c r="D372" s="4">
+        <v>9</v>
+      </c>
+      <c r="E372" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G372" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H372" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="I372" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="J372" s="5">
+        <v>1075.1904342584521</v>
+      </c>
+      <c r="K372" s="5">
+        <v>8709.0425174934626</v>
+      </c>
+      <c r="L372" s="5">
+        <v>0.87090425174934627</v>
+      </c>
+      <c r="M372" s="13">
+        <v>41.678658333333303</v>
+      </c>
+      <c r="N372" s="13">
+        <v>-82.949376666666694</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>508</v>
+      </c>
+      <c r="B373" s="3">
+        <v>42996</v>
+      </c>
+      <c r="C373" s="4">
+        <v>18</v>
+      </c>
+      <c r="D373" s="4">
+        <v>9</v>
+      </c>
+      <c r="E373" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G373" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H373" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I373" s="7">
+        <v>8</v>
+      </c>
+      <c r="J373" s="5">
+        <v>790.2221487964996</v>
+      </c>
+      <c r="K373" s="5">
+        <v>6321.7771903719968</v>
+      </c>
+      <c r="L373" s="5">
+        <v>0.63217771903719966</v>
+      </c>
+      <c r="M373" s="13">
+        <v>41.681808333333301</v>
+      </c>
+      <c r="N373" s="13">
+        <v>-83.047626666666702</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>504</v>
+      </c>
+      <c r="B374" s="3">
+        <v>42996</v>
+      </c>
+      <c r="C374" s="4">
+        <v>18</v>
+      </c>
+      <c r="D374" s="4">
+        <v>9</v>
+      </c>
+      <c r="E374" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G374" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H374" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="I374" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="J374" s="5">
+        <v>850.00485766463146</v>
+      </c>
+      <c r="K374" s="5">
+        <v>6460.0369182511986</v>
+      </c>
+      <c r="L374" s="5">
+        <v>0.64600369182511985</v>
+      </c>
+      <c r="M374" s="13">
+        <v>41.6800766666667</v>
+      </c>
+      <c r="N374" s="13">
+        <v>-83.147675000000007</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>505</v>
+      </c>
+      <c r="B375" s="3">
+        <v>42996</v>
+      </c>
+      <c r="C375" s="4">
+        <v>18</v>
+      </c>
+      <c r="D375" s="4">
+        <v>9</v>
+      </c>
+      <c r="E375" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G375" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H375" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I375" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J375" s="5">
+        <v>825.03173824923363</v>
+      </c>
+      <c r="K375" s="5">
+        <v>7177.7761227683322</v>
+      </c>
+      <c r="L375" s="5">
+        <v>0.71777761227683323</v>
+      </c>
+      <c r="M375" s="13">
+        <v>41.778438333333298</v>
+      </c>
+      <c r="N375" s="13">
+        <v>-83.149748333333307</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>509</v>
+      </c>
+      <c r="B376" s="3">
+        <v>42996</v>
+      </c>
+      <c r="C376" s="4">
+        <v>18</v>
+      </c>
+      <c r="D376" s="4">
+        <v>9</v>
+      </c>
+      <c r="E376" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G376" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H376" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I376" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J376" s="5">
+        <v>850.94296048931255</v>
+      </c>
+      <c r="K376" s="5">
+        <v>6977.7322760123625</v>
+      </c>
+      <c r="L376" s="5">
+        <v>0.69777322760123628</v>
+      </c>
+      <c r="M376" s="13">
+        <v>41.779118333333301</v>
+      </c>
+      <c r="N376" s="13">
+        <v>-83.052046666666698</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>516</v>
+      </c>
+      <c r="B377" s="3">
+        <v>42997</v>
+      </c>
+      <c r="C377" s="4">
+        <v>19</v>
+      </c>
+      <c r="D377" s="4">
+        <v>9</v>
+      </c>
+      <c r="E377" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G377" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H377" s="5">
+        <v>10</v>
+      </c>
+      <c r="I377" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J377" s="5">
+        <v>1036.541203186217</v>
+      </c>
+      <c r="K377" s="5">
+        <v>8499.6378661269791</v>
+      </c>
+      <c r="L377" s="5">
+        <v>0.84996378661269789</v>
+      </c>
+      <c r="M377" s="13">
+        <v>41.671473333333303</v>
+      </c>
+      <c r="N377" s="13">
+        <v>-82.851434999999995</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>517</v>
+      </c>
+      <c r="B378" s="3">
+        <v>42997</v>
+      </c>
+      <c r="C378" s="4">
+        <v>19</v>
+      </c>
+      <c r="D378" s="4">
+        <v>9</v>
+      </c>
+      <c r="E378" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G378" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H378" s="5">
+        <v>10.6</v>
+      </c>
+      <c r="I378" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="J378" s="5">
+        <v>861.63903602476614</v>
+      </c>
+      <c r="K378" s="5">
+        <v>6634.6205773906995</v>
+      </c>
+      <c r="L378" s="5">
+        <v>0.66346205773906997</v>
+      </c>
+      <c r="M378" s="13">
+        <v>41.754638333333297</v>
+      </c>
+      <c r="N378" s="13">
+        <v>-82.854403333333295</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>514</v>
+      </c>
+      <c r="B379" s="3">
+        <v>42997</v>
+      </c>
+      <c r="C379" s="4">
+        <v>19</v>
+      </c>
+      <c r="D379" s="4">
+        <v>9</v>
+      </c>
+      <c r="E379" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G379" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H379" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="I379" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="J379" s="5">
+        <v>857.83424912292037</v>
+      </c>
+      <c r="K379" s="5">
+        <v>7291.5911175448227</v>
+      </c>
+      <c r="L379" s="5">
+        <v>0.72915911175448223</v>
+      </c>
+      <c r="M379" s="13">
+        <v>41.760015000000003</v>
+      </c>
+      <c r="N379" s="13">
+        <v>-82.936655000000002</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>515</v>
+      </c>
+      <c r="B380" s="3">
+        <v>42997</v>
+      </c>
+      <c r="C380" s="4">
+        <v>19</v>
+      </c>
+      <c r="D380" s="4">
+        <v>9</v>
+      </c>
+      <c r="E380" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G380" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H380" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="I380" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="J380" s="5">
+        <v>883.15632554847457</v>
+      </c>
+      <c r="K380" s="5">
+        <v>7506.8287671620337</v>
+      </c>
+      <c r="L380" s="5">
+        <v>0.75068287671620337</v>
+      </c>
+      <c r="M380" s="13">
+        <v>41.877733333333303</v>
+      </c>
+      <c r="N380" s="13">
+        <v>-82.950993333333301</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>510</v>
+      </c>
+      <c r="B381" s="3">
+        <v>42997</v>
+      </c>
+      <c r="C381" s="4">
+        <v>19</v>
+      </c>
+      <c r="D381" s="4">
+        <v>9</v>
+      </c>
+      <c r="E381" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G381" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H381" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I381" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J381" s="5">
+        <v>866.9028757525025</v>
+      </c>
+      <c r="K381" s="5">
+        <v>7195.2938687457718</v>
+      </c>
+      <c r="L381" s="5">
+        <v>0.71952938687457713</v>
+      </c>
+      <c r="M381" s="13">
+        <v>41.8791333333333</v>
+      </c>
+      <c r="N381" s="13">
+        <v>-83.048793333333293</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>511</v>
+      </c>
+      <c r="B382" s="3">
+        <v>42997</v>
+      </c>
+      <c r="C382" s="4">
+        <v>19</v>
+      </c>
+      <c r="D382" s="4">
+        <v>9</v>
+      </c>
+      <c r="E382" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G382" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H382" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I382" s="7">
+        <v>8</v>
+      </c>
+      <c r="J382" s="5">
+        <v>857.96516875999998</v>
+      </c>
+      <c r="K382" s="5">
+        <v>6863.7213500799999</v>
+      </c>
+      <c r="L382" s="5">
+        <v>0.68637213500799998</v>
+      </c>
+      <c r="M382" s="13">
+        <v>41.9743383333333</v>
+      </c>
+      <c r="N382" s="13">
+        <v>-83.028630000000007</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>507</v>
+      </c>
+      <c r="B383" s="3">
+        <v>42997</v>
+      </c>
+      <c r="C383" s="4">
+        <v>19</v>
+      </c>
+      <c r="D383" s="4">
+        <v>9</v>
+      </c>
+      <c r="E383" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G383" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H383" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="I383" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="J383" s="5">
+        <v>867.79994839214055</v>
+      </c>
+      <c r="K383" s="5">
+        <v>6768.8395974586965</v>
+      </c>
+      <c r="L383" s="5">
+        <v>0.67688395974586968</v>
+      </c>
+      <c r="M383" s="13">
+        <v>41.979891666666703</v>
+      </c>
+      <c r="N383" s="13">
+        <v>-83.115476666666694</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>506</v>
+      </c>
+      <c r="B384" s="3">
+        <v>42997</v>
+      </c>
+      <c r="C384" s="4">
+        <v>19</v>
+      </c>
+      <c r="D384" s="4">
+        <v>9</v>
+      </c>
+      <c r="E384" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G384" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H384" s="5">
+        <v>9.4</v>
+      </c>
+      <c r="I384" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="J384" s="5">
+        <v>873.23458301768642</v>
+      </c>
+      <c r="K384" s="5">
+        <v>7073.2001224432597</v>
+      </c>
+      <c r="L384" s="5">
+        <v>0.70732001224432595</v>
+      </c>
+      <c r="M384" s="13">
+        <v>41.879958333333299</v>
+      </c>
+      <c r="N384" s="13">
+        <v>-83.149836666666701</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>503</v>
+      </c>
+      <c r="B385" s="3">
+        <v>42997</v>
+      </c>
+      <c r="C385" s="4">
+        <v>19</v>
+      </c>
+      <c r="D385" s="4">
+        <v>9</v>
+      </c>
+      <c r="E385" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G385" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H385" s="5">
+        <v>8</v>
+      </c>
+      <c r="I385" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="J385" s="5">
+        <v>807.89262280481614</v>
+      </c>
+      <c r="K385" s="5">
+        <v>6301.562457877566</v>
+      </c>
+      <c r="L385" s="5">
+        <v>0.63015624578775664</v>
+      </c>
+      <c r="M385" s="13">
+        <v>41.880625000000002</v>
+      </c>
+      <c r="N385" s="13">
+        <v>-83.239526666666706</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>501</v>
+      </c>
+      <c r="B386" s="3">
+        <v>42997</v>
+      </c>
+      <c r="C386" s="4">
+        <v>19</v>
+      </c>
+      <c r="D386" s="4">
+        <v>9</v>
+      </c>
+      <c r="E386" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G386" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H386" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="I386" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="J386" s="5">
+        <v>926.42642373306876</v>
+      </c>
+      <c r="K386" s="5">
+        <v>6855.5555356247096</v>
+      </c>
+      <c r="L386" s="5">
+        <v>0.685555553562471</v>
+      </c>
+      <c r="M386" s="13">
+        <v>41.784680000000002</v>
+      </c>
+      <c r="N386" s="13">
+        <v>-83.366325000000003</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>502</v>
+      </c>
+      <c r="B387" s="3">
+        <v>42997</v>
+      </c>
+      <c r="C387" s="4">
+        <v>19</v>
+      </c>
+      <c r="D387" s="4">
+        <v>9</v>
+      </c>
+      <c r="E387" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G387" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H387" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="I387" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="J387" s="5">
+        <v>835.24761812232919</v>
+      </c>
+      <c r="K387" s="5">
+        <v>6180.8323741052363</v>
+      </c>
+      <c r="L387" s="5">
+        <v>0.61808323741052362</v>
+      </c>
+      <c r="M387" s="13">
+        <v>41.779580000000003</v>
+      </c>
+      <c r="N387" s="13">
+        <v>-83.253249999999994</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>521</v>
+      </c>
+      <c r="B388" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C388" s="4">
+        <v>20</v>
+      </c>
+      <c r="D388" s="4">
+        <v>9</v>
+      </c>
+      <c r="E388" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G388" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H388" s="5">
+        <v>10.6</v>
+      </c>
+      <c r="I388" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J388" s="5">
+        <v>761.75646805433882</v>
+      </c>
+      <c r="K388" s="5">
+        <v>6246.4030380455779</v>
+      </c>
+      <c r="L388" s="5">
+        <v>0.62464030380455782</v>
+      </c>
+      <c r="M388" s="13">
+        <v>41.6808433333333</v>
+      </c>
+      <c r="N388" s="13">
+        <v>-82.749958333333296</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>522</v>
+      </c>
+      <c r="B389" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C389" s="4">
+        <v>20</v>
+      </c>
+      <c r="D389" s="4">
+        <v>9</v>
+      </c>
+      <c r="E389" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G389" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H389" s="5">
+        <v>9.9</v>
+      </c>
+      <c r="I389" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="J389" s="5">
+        <v>794.86027548424306</v>
+      </c>
+      <c r="K389" s="5">
+        <v>6279.3961763255202</v>
+      </c>
+      <c r="L389" s="5">
+        <v>0.62793961763255202</v>
+      </c>
+      <c r="M389" s="13">
+        <v>41.778643333333299</v>
+      </c>
+      <c r="N389" s="13">
+        <v>-82.749228333333306</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>523</v>
+      </c>
+      <c r="B390" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C390" s="4">
+        <v>20</v>
+      </c>
+      <c r="D390" s="4">
+        <v>9</v>
+      </c>
+      <c r="E390" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G390" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H390" s="5">
+        <v>12</v>
+      </c>
+      <c r="I390" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J390" s="5">
+        <v>941.73645129685588</v>
+      </c>
+      <c r="K390" s="5">
+        <v>8193.1071262826463</v>
+      </c>
+      <c r="L390" s="5">
+        <v>0.8193107126282646</v>
+      </c>
+      <c r="M390" s="13">
+        <v>41.866196666666703</v>
+      </c>
+      <c r="N390" s="13">
+        <v>-82.749684999999999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>518</v>
+      </c>
+      <c r="B391" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C391" s="4">
+        <v>20</v>
+      </c>
+      <c r="D391" s="4">
+        <v>9</v>
+      </c>
+      <c r="E391" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G391" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H391" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="I391" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="J391" s="5">
+        <v>1019.3776729009339</v>
+      </c>
+      <c r="K391" s="5">
+        <v>9429.243474333638</v>
+      </c>
+      <c r="L391" s="5">
+        <v>0.94292434743336384</v>
+      </c>
+      <c r="M391" s="13">
+        <v>41.863261666666702</v>
+      </c>
+      <c r="N391" s="13">
+        <v>-82.849338333333293</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>519</v>
+      </c>
+      <c r="B392" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C392" s="4">
+        <v>20</v>
+      </c>
+      <c r="D392" s="4">
+        <v>9</v>
+      </c>
+      <c r="E392" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G392" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H392" s="5">
+        <v>10.3</v>
+      </c>
+      <c r="I392" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J392" s="5">
+        <v>822.82796704438101</v>
+      </c>
+      <c r="K392" s="5">
+        <v>7158.6033132861139</v>
+      </c>
+      <c r="L392" s="5">
+        <v>0.71586033132861138</v>
+      </c>
+      <c r="M392" s="13">
+        <v>41.96114</v>
+      </c>
+      <c r="N392" s="13">
+        <v>-82.850041666666698</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>524</v>
+      </c>
+      <c r="B393" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C393" s="4">
+        <v>20</v>
+      </c>
+      <c r="D393" s="4">
+        <v>9</v>
+      </c>
+      <c r="E393" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G393" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H393" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="I393" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="J393" s="5">
+        <v>900.19615206553101</v>
+      </c>
+      <c r="K393" s="5">
+        <v>8011.7457533832267</v>
+      </c>
+      <c r="L393" s="5">
+        <v>0.8011745753383227</v>
+      </c>
+      <c r="M393" s="13">
+        <v>41.963214999999998</v>
+      </c>
+      <c r="N393" s="13">
+        <v>-82.750571666666701</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>528</v>
+      </c>
+      <c r="B394" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C394" s="4">
+        <v>20</v>
+      </c>
+      <c r="D394" s="4">
+        <v>9</v>
+      </c>
+      <c r="E394" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G394" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H394" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="I394" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="J394" s="5">
+        <v>825.62610105570172</v>
+      </c>
+      <c r="K394" s="5">
+        <v>7348.0722993957461</v>
+      </c>
+      <c r="L394" s="5">
+        <v>0.73480722993957459</v>
+      </c>
+      <c r="M394" s="13">
+        <v>41.979804999999999</v>
+      </c>
+      <c r="N394" s="13">
+        <v>-82.651521666666696</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>527</v>
+      </c>
+      <c r="B395" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C395" s="4">
+        <v>20</v>
+      </c>
+      <c r="D395" s="4">
+        <v>9</v>
+      </c>
+      <c r="E395" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G395" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H395" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="I395" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="J395" s="5">
+        <v>958.99374865721052</v>
+      </c>
+      <c r="K395" s="5">
+        <v>8726.8431127806161</v>
+      </c>
+      <c r="L395" s="5">
+        <v>0.87268431127806156</v>
+      </c>
+      <c r="M395" s="13">
+        <v>41.863399999999999</v>
+      </c>
+      <c r="N395" s="13">
+        <v>-82.649844999999999</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>533</v>
+      </c>
+      <c r="B396" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C396" s="4">
+        <v>20</v>
+      </c>
+      <c r="D396" s="4">
+        <v>9</v>
+      </c>
+      <c r="E396" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G396" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H396" s="5">
+        <v>12.4</v>
+      </c>
+      <c r="I396" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J396" s="5">
+        <v>878.58459007635258</v>
+      </c>
+      <c r="K396" s="5">
+        <v>8082.9782287024427</v>
+      </c>
+      <c r="L396" s="5">
+        <v>0.80829782287024432</v>
+      </c>
+      <c r="M396" s="13">
+        <v>41.865718333333298</v>
+      </c>
+      <c r="N396" s="13">
+        <v>-82.536191666666696</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>537</v>
+      </c>
+      <c r="B397" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C397" s="4">
+        <v>20</v>
+      </c>
+      <c r="D397" s="4">
+        <v>9</v>
+      </c>
+      <c r="E397" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G397" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H397" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="I397" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="J397" s="5">
+        <v>828.94253614547517</v>
+      </c>
+      <c r="K397" s="5">
+        <v>7957.8483469965613</v>
+      </c>
+      <c r="L397" s="5">
+        <v>0.79578483469965611</v>
+      </c>
+      <c r="M397" s="13">
+        <v>41.781878333333303</v>
+      </c>
+      <c r="N397" s="13">
+        <v>-82.451288333333295</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>532</v>
+      </c>
+      <c r="B398" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C398" s="4">
+        <v>20</v>
+      </c>
+      <c r="D398" s="4">
+        <v>9</v>
+      </c>
+      <c r="E398" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G398" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H398" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="I398" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="J398" s="5">
+        <v>820.06704941960663</v>
+      </c>
+      <c r="K398" s="5">
+        <v>8774.7174287897906</v>
+      </c>
+      <c r="L398" s="5">
+        <v>0.87747174287897911</v>
+      </c>
+      <c r="M398" s="13">
+        <v>41.780198333333303</v>
+      </c>
+      <c r="N398" s="13">
+        <v>-82.548043333333297</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>531</v>
+      </c>
+      <c r="B399" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C399" s="4">
+        <v>20</v>
+      </c>
+      <c r="D399" s="4">
+        <v>9</v>
+      </c>
+      <c r="E399" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G399" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H399" s="5">
+        <v>13.4</v>
+      </c>
+      <c r="I399" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J399" s="5">
+        <v>846.37543521075486</v>
+      </c>
+      <c r="K399" s="5">
+        <v>8294.4792650653981</v>
+      </c>
+      <c r="L399" s="5">
+        <v>0.82944792650653976</v>
+      </c>
+      <c r="M399" s="13">
+        <v>41.664900000000003</v>
+      </c>
+      <c r="N399" s="13">
+        <v>-82.551523333333293</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>526</v>
+      </c>
+      <c r="B400" s="3">
+        <v>42999</v>
+      </c>
+      <c r="C400" s="4">
+        <v>21</v>
+      </c>
+      <c r="D400" s="4">
+        <v>9</v>
+      </c>
+      <c r="E400" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G400" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H400" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="I400" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="J400" s="5">
+        <v>813.09613142023454</v>
+      </c>
+      <c r="K400" s="5">
+        <v>7399.1747959241338</v>
+      </c>
+      <c r="L400" s="5">
+        <v>0.73991747959241339</v>
+      </c>
+      <c r="M400" s="13">
+        <v>41.6801866666667</v>
+      </c>
+      <c r="N400" s="13">
+        <v>-82.649019999999993</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>536</v>
+      </c>
+      <c r="B401" s="3">
+        <v>42999</v>
+      </c>
+      <c r="C401" s="4">
+        <v>21</v>
+      </c>
+      <c r="D401" s="4">
+        <v>9</v>
+      </c>
+      <c r="E401" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G401" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H401" s="5">
+        <v>14.6</v>
+      </c>
+      <c r="I401" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J401" s="5">
+        <v>820.29877192432241</v>
+      </c>
+      <c r="K401" s="5">
+        <v>7956.8980876659271</v>
+      </c>
+      <c r="L401" s="5">
+        <v>0.79568980876659268</v>
+      </c>
+      <c r="M401" s="13">
+        <v>41.6636016666667</v>
+      </c>
+      <c r="N401" s="13">
+        <v>-82.450441666666705</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>540</v>
+      </c>
+      <c r="B402" s="3">
+        <v>42999</v>
+      </c>
+      <c r="C402" s="4">
+        <v>21</v>
+      </c>
+      <c r="D402" s="4">
+        <v>9</v>
+      </c>
+      <c r="E402" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G402" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H402" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="I402" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="J402" s="5">
+        <v>768.2931060306064</v>
+      </c>
+      <c r="K402" s="5">
+        <v>7375.6138178938209</v>
+      </c>
+      <c r="L402" s="5">
+        <v>0.73756138178938213</v>
+      </c>
+      <c r="M402" s="13">
+        <v>41.663066666666701</v>
+      </c>
+      <c r="N402" s="13">
+        <v>-82.349751666666705</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>535</v>
+      </c>
+      <c r="B403" s="3">
+        <v>42999</v>
+      </c>
+      <c r="C403" s="4">
+        <v>21</v>
+      </c>
+      <c r="D403" s="4">
+        <v>9</v>
+      </c>
+      <c r="E403" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G403" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H403" s="5">
+        <v>14.7</v>
+      </c>
+      <c r="I403" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J403" s="5">
+        <v>887.96988370126155</v>
+      </c>
+      <c r="K403" s="5">
+        <v>8613.307871902236</v>
+      </c>
+      <c r="L403" s="5">
+        <v>0.8613307871902236</v>
+      </c>
+      <c r="M403" s="13">
+        <v>41.583435000000001</v>
+      </c>
+      <c r="N403" s="13">
+        <v>-82.446430000000007</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>539</v>
+      </c>
+      <c r="B404" s="3">
+        <v>42999</v>
+      </c>
+      <c r="C404" s="4">
+        <v>21</v>
+      </c>
+      <c r="D404" s="4">
+        <v>9</v>
+      </c>
+      <c r="E404" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G404" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H404" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="I404" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J404" s="5">
+        <v>738.6901183029662</v>
+      </c>
+      <c r="K404" s="5">
+        <v>7165.2941475387715</v>
+      </c>
+      <c r="L404" s="5">
+        <v>0.7165294147538771</v>
+      </c>
+      <c r="M404" s="13">
+        <v>41.581046666666701</v>
+      </c>
+      <c r="N404" s="13">
+        <v>-82.349496666666695</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>541</v>
+      </c>
+      <c r="B405" s="3">
+        <v>42999</v>
+      </c>
+      <c r="C405" s="4">
+        <v>21</v>
+      </c>
+      <c r="D405" s="4">
+        <v>9</v>
+      </c>
+      <c r="E405" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G405" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H405" s="5">
+        <v>14</v>
+      </c>
+      <c r="I405" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="J405" s="5">
+        <v>968.34476745100915</v>
+      </c>
+      <c r="K405" s="5">
+        <v>9102.4408140394862</v>
+      </c>
+      <c r="L405" s="5">
+        <v>0.91024408140394863</v>
+      </c>
+      <c r="M405" s="13">
+        <v>41.481446666666699</v>
+      </c>
+      <c r="N405" s="13">
+        <v>-82.265389999999996</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>538</v>
+      </c>
+      <c r="B406" s="3">
+        <v>42999</v>
+      </c>
+      <c r="C406" s="4">
+        <v>21</v>
+      </c>
+      <c r="D406" s="4">
+        <v>9</v>
+      </c>
+      <c r="E406" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G406" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H406" s="5">
+        <v>14.2</v>
+      </c>
+      <c r="I406" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="J406" s="5">
+        <v>861.15159299713252</v>
+      </c>
+      <c r="K406" s="5">
+        <v>8267.0552927724711</v>
+      </c>
+      <c r="L406" s="5">
+        <v>0.82670552927724716</v>
+      </c>
+      <c r="M406" s="13">
+        <v>41.480781666666701</v>
+      </c>
+      <c r="N406" s="13">
+        <v>-82.350621666666697</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>534</v>
+      </c>
+      <c r="B407" s="3">
+        <v>42999</v>
+      </c>
+      <c r="C407" s="4">
+        <v>21</v>
+      </c>
+      <c r="D407" s="4">
+        <v>9</v>
+      </c>
+      <c r="E407" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G407" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H407" s="5">
+        <v>14</v>
+      </c>
+      <c r="I407" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="J407" s="5">
+        <v>701.54189798932543</v>
+      </c>
+      <c r="K407" s="5">
+        <v>6594.4938410996592</v>
+      </c>
+      <c r="L407" s="5">
+        <v>0.6594493841099659</v>
+      </c>
+      <c r="M407" s="13">
+        <v>41.480085000000003</v>
+      </c>
+      <c r="N407" s="13">
+        <v>-82.450154999999995</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A85:E124">
     <sortCondition ref="A84"/>
